--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{764D3E88-4ABB-40E5-94DC-6936EE24DE55}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{682DF7DD-067B-4B85-A12A-B7014033219D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="622">
   <si>
     <t>#</t>
   </si>
@@ -1814,9 +1814,6 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/gp/product/B00XHR7RGS/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1</t>
   </si>
   <si>
@@ -1826,12 +1823,6 @@
     <t>Glue corundum to omniwheel roll</t>
   </si>
   <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>Corundum, 5kg</t>
-  </si>
-  <si>
     <t>https://www.ebay.de/itm/Strahlmittel-Glasperlen-Korund-Schlacke-Granatsand-Strahlgut-Sandstrahlen/172177067505?ssPageName=STRK%3AMEBIDX%3AIT&amp;var=471011289734&amp;_trksid=p2060353.m2749.l2649</t>
   </si>
   <si>
@@ -1844,7 +1835,61 @@
     <t>https://www.kugellager-express.de/miniatur-kugellager-682-zz-2x5x2-3-mm</t>
   </si>
   <si>
-    <t>!1</t>
+    <t>https://www.pololu.com/product/1997</t>
+  </si>
+  <si>
+    <t>Mounting hub for drive chain</t>
+  </si>
+  <si>
+    <t>Mounting Hub for 4mm axis</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Screw for Omniwheels</t>
+  </si>
+  <si>
+    <t>Allen Screws M2, 10mm length</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/100-Edelstahl-Schrauben-DIN-912-Innensechskant-M2-x-10-mm-V2A-/312168616002?hash=item48aeb31042</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Packs</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/silberstahl-welle-reely-o-x-l-2-mm-x-500-mm-237213.html</t>
+  </si>
+  <si>
+    <t>Axis 2mm, 500mm</t>
+  </si>
+  <si>
+    <t>Axis for Omniwheel rolls</t>
+  </si>
+  <si>
+    <t>Axis 4mm, 500mm</t>
+  </si>
+  <si>
+    <t>Axis for Omniwheel hub</t>
+  </si>
+  <si>
+    <t>Corundum (sharp-edged), 5kg, 0.2-0.5mm grain size</t>
+  </si>
+  <si>
+    <t>Friction surface of Omniwheels</t>
+  </si>
+  <si>
+    <t>Omniwheel Encoder</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Broadcom-Avago/HEDM-5500J12?qs=RuhU64sK2%252bvlCf%252bZbiBtGg%3D%3D</t>
+  </si>
+  <si>
+    <t>Optical Encoder 1024 CPR</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="594">
+  <cellXfs count="593">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4251,581 +4296,13 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4844,6 +4321,573 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5364,10 +5408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5378,13 +5422,13 @@
     <col min="5" max="5" width="4.453125" style="391" customWidth="1"/>
     <col min="6" max="6" width="8.90625" style="391" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="51.08984375" style="391" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" style="391" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="391" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="391" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="391"/>
+    <col min="8" max="9" width="15.7265625" style="391" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" style="391" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="391" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="391"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="390" t="s">
         <v>0</v>
       </c>
@@ -5402,129 +5446,309 @@
       <c r="H2" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="390" t="s">
+      <c r="I2" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J2" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="390" t="s">
+      <c r="K2" s="390" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="391">
         <v>1</v>
       </c>
       <c r="C3" s="394" t="s">
+        <v>597</v>
+      </c>
+      <c r="D3" s="394" t="s">
         <v>598</v>
       </c>
-      <c r="D3" s="394" t="s">
-        <v>599</v>
-      </c>
       <c r="G3" s="391" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H3" s="391">
         <v>1</v>
       </c>
-      <c r="I3" s="392">
+      <c r="I3" s="394">
+        <f>INT((B3-1)/H3+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="392">
         <v>19.899999999999999</v>
       </c>
-      <c r="J3" s="392">
-        <f t="shared" ref="J3" si="0">I3*B3</f>
+      <c r="K3" s="392">
+        <f>I3*J3</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="K3" s="394" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="391">
+        <f>H3*I3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="391">
         <v>1</v>
       </c>
       <c r="C4" s="394" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="D4" s="394" t="s">
+        <v>618</v>
+      </c>
+      <c r="G4" s="391" t="s">
         <v>599</v>
-      </c>
-      <c r="G4" s="391" t="s">
-        <v>602</v>
       </c>
       <c r="H4" s="391">
         <v>1</v>
       </c>
-      <c r="I4" s="392">
+      <c r="I4" s="394">
+        <f>INT((B4-1)/H4+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="392">
         <v>12.5</v>
       </c>
-      <c r="J4" s="392">
-        <f t="shared" ref="J4:J5" si="1">I4*B4</f>
+      <c r="K4" s="392">
+        <f>I4*J4</f>
         <v>12.5</v>
       </c>
-      <c r="K4" s="394" t="s">
+      <c r="L4" s="391">
+        <f>H4*I4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="391">
+        <f>3*12*2</f>
+        <v>72</v>
+      </c>
+      <c r="C5" s="394" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="391">
+      <c r="D5" s="394" t="s">
+        <v>601</v>
+      </c>
+      <c r="G5" s="391" t="s">
+        <v>602</v>
+      </c>
+      <c r="H5" s="394">
+        <v>1</v>
+      </c>
+      <c r="I5" s="394">
+        <f>INT((B5-1)/H5+1)</f>
+        <v>72</v>
+      </c>
+      <c r="J5" s="392">
+        <v>0.87</v>
+      </c>
+      <c r="K5" s="392">
+        <f>I5*J5</f>
+        <v>62.64</v>
+      </c>
+      <c r="L5" s="391">
+        <f>H5*I5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="394">
         <v>50</v>
       </c>
-      <c r="C5" s="394" t="s">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="394">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="C6" s="394" t="s">
+        <v>605</v>
+      </c>
+      <c r="D6" s="394" t="s">
+        <v>604</v>
+      </c>
+      <c r="G6" s="391" t="s">
         <v>603</v>
       </c>
-      <c r="D5" s="394" t="s">
-        <v>604</v>
-      </c>
-      <c r="G5" s="391" t="s">
-        <v>605</v>
-      </c>
-      <c r="H5" s="394" t="s">
-        <v>606</v>
-      </c>
-      <c r="I5" s="392">
-        <v>0.87</v>
-      </c>
-      <c r="J5" s="392">
-        <f t="shared" si="1"/>
-        <v>43.5</v>
-      </c>
-      <c r="K5" s="394" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C6" s="394"/>
-      <c r="D6" s="394"/>
-      <c r="I6" s="392"/>
-      <c r="J6" s="392"/>
-      <c r="K6" s="394"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="394"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="394"/>
-      <c r="H7" s="394"/>
-      <c r="I7" s="395"/>
-      <c r="J7" s="392"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="394"/>
-      <c r="C8" s="394"/>
-      <c r="D8" s="394"/>
-      <c r="H8" s="394"/>
-      <c r="I8" s="395"/>
-      <c r="J8" s="392"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="394"/>
-      <c r="C9" s="394"/>
-      <c r="D9" s="394"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J10" s="393">
-        <f>SUM(J3:J9)</f>
-        <v>75.900000000000006</v>
+      <c r="H6" s="394">
+        <v>2</v>
+      </c>
+      <c r="I6" s="394">
+        <f>INT((B6-1)/H6+1)</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="392">
+        <v>7.5</v>
+      </c>
+      <c r="K6" s="392">
+        <f>I6*J6</f>
+        <v>22.5</v>
+      </c>
+      <c r="L6" s="391">
+        <f>H6*I6-B6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="394">
+        <f>2*3*6</f>
+        <v>36</v>
+      </c>
+      <c r="C7" s="394" t="s">
+        <v>608</v>
+      </c>
+      <c r="D7" s="394" t="s">
+        <v>607</v>
+      </c>
+      <c r="G7" s="391" t="s">
+        <v>609</v>
+      </c>
+      <c r="H7" s="394">
+        <v>100</v>
+      </c>
+      <c r="I7" s="394">
+        <f>INT((B7-1)/H7+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="392">
+        <v>11.34</v>
+      </c>
+      <c r="K7" s="392">
+        <f>I7*J7</f>
+        <v>11.34</v>
+      </c>
+      <c r="L7" s="391">
+        <f>H7*I7-B7</f>
+        <v>64</v>
+      </c>
+      <c r="M7" s="394">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="394">
+        <v>2</v>
+      </c>
+      <c r="C8" s="394" t="s">
+        <v>613</v>
+      </c>
+      <c r="D8" s="394" t="s">
+        <v>614</v>
+      </c>
+      <c r="G8" s="391" t="s">
+        <v>612</v>
+      </c>
+      <c r="H8" s="394">
+        <v>1</v>
+      </c>
+      <c r="I8" s="394">
+        <f>INT((B8-1)/H8+1)</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="392">
+        <v>2.34</v>
+      </c>
+      <c r="K8" s="392">
+        <f>I8*J8</f>
+        <v>4.68</v>
+      </c>
+      <c r="L8" s="391">
+        <f>H8*I8-B8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="394">
+        <v>1</v>
+      </c>
+      <c r="C9" s="394" t="s">
+        <v>615</v>
+      </c>
+      <c r="D9" s="394" t="s">
+        <v>616</v>
+      </c>
+      <c r="G9" s="391" t="s">
+        <v>612</v>
+      </c>
+      <c r="H9" s="394">
+        <v>1</v>
+      </c>
+      <c r="I9" s="394">
+        <f>INT((B9-1)/H9+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="392">
+        <v>2.59</v>
+      </c>
+      <c r="K9" s="392">
+        <f>I9*J9</f>
+        <v>2.59</v>
+      </c>
+      <c r="L9" s="391">
+        <f>H9*I9-B9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="394">
+        <v>3</v>
+      </c>
+      <c r="C10" s="394" t="s">
+        <v>621</v>
+      </c>
+      <c r="D10" s="394" t="s">
+        <v>619</v>
+      </c>
+      <c r="G10" s="391" t="s">
+        <v>620</v>
+      </c>
+      <c r="H10" s="394">
+        <v>1</v>
+      </c>
+      <c r="I10" s="394">
+        <f>INT((B10-1)/H10+1)</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="392">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K10" s="392">
+        <f>I10*J10</f>
+        <v>59.699999999999996</v>
+      </c>
+      <c r="L10" s="394">
+        <f>H10*I10-B10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K11" s="393">
+        <f>SUM(K3:K10)</f>
+        <v>195.85</v>
       </c>
     </row>
   </sheetData>
@@ -5710,4267 +5934,4837 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="396">
+      <c r="A1" s="395">
         <v>1000</v>
       </c>
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="590" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="398" t="s">
+      <c r="D1" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="396"/>
-      <c r="B2" s="397"/>
+      <c r="A2" s="395"/>
+      <c r="B2" s="590"/>
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="398"/>
+      <c r="D2" s="397"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="396">
+      <c r="A4" s="395">
         <v>1001</v>
       </c>
-      <c r="B4" s="399" t="s">
+      <c r="B4" s="591" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="398" t="s">
+      <c r="D4" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="396"/>
-      <c r="B5" s="399"/>
+      <c r="A5" s="395"/>
+      <c r="B5" s="591"/>
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="398"/>
+      <c r="D5" s="397"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="396">
+      <c r="A7" s="395">
         <v>1002</v>
       </c>
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="588" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="398" t="s">
+      <c r="D7" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="396"/>
-      <c r="B8" s="402"/>
+      <c r="A8" s="395"/>
+      <c r="B8" s="588"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="398"/>
+      <c r="D8" s="397"/>
     </row>
     <row r="10" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="396">
+      <c r="A10" s="395">
         <v>1003</v>
       </c>
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="589" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="398" t="s">
+      <c r="D10" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="396"/>
-      <c r="B11" s="403"/>
+      <c r="A11" s="395"/>
+      <c r="B11" s="589"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="398"/>
+      <c r="D11" s="397"/>
     </row>
     <row r="13" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="396">
+      <c r="A13" s="395">
         <v>1004</v>
       </c>
-      <c r="B13" s="400" t="s">
+      <c r="B13" s="592" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="398" t="s">
+      <c r="D13" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="396"/>
-      <c r="B14" s="400"/>
+      <c r="A14" s="395"/>
+      <c r="B14" s="592"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="398"/>
+      <c r="D14" s="397"/>
     </row>
     <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="396">
+      <c r="A16" s="395">
         <v>1005</v>
       </c>
-      <c r="B16" s="401" t="s">
+      <c r="B16" s="587" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="398" t="s">
+      <c r="D16" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="396"/>
-      <c r="B17" s="401"/>
+      <c r="A17" s="395"/>
+      <c r="B17" s="587"/>
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="398"/>
+      <c r="D17" s="397"/>
     </row>
     <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="396">
+      <c r="A19" s="395">
         <v>1006</v>
       </c>
-      <c r="B19" s="406" t="s">
+      <c r="B19" s="585" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="398" t="s">
+      <c r="D19" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="396"/>
-      <c r="B20" s="406"/>
+      <c r="A20" s="395"/>
+      <c r="B20" s="585"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="398"/>
+      <c r="D20" s="397"/>
     </row>
     <row r="22" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="396">
+      <c r="A22" s="395">
         <v>1007</v>
       </c>
-      <c r="B22" s="407" t="s">
+      <c r="B22" s="586" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="398" t="s">
+      <c r="D22" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="396"/>
-      <c r="B23" s="407"/>
+      <c r="A23" s="395"/>
+      <c r="B23" s="586"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="398"/>
+      <c r="D23" s="397"/>
     </row>
     <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="396">
+      <c r="A25" s="395">
         <v>1011</v>
       </c>
-      <c r="B25" s="404" t="s">
+      <c r="B25" s="583" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="398" t="s">
+      <c r="D25" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="396"/>
-      <c r="B26" s="404"/>
+      <c r="A26" s="395"/>
+      <c r="B26" s="583"/>
       <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="398"/>
+      <c r="D26" s="397"/>
     </row>
     <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="396">
+      <c r="A28" s="395">
         <v>1012</v>
       </c>
-      <c r="B28" s="405" t="s">
+      <c r="B28" s="584" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="398" t="s">
+      <c r="D28" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="396"/>
-      <c r="B29" s="405"/>
+      <c r="A29" s="395"/>
+      <c r="B29" s="584"/>
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="398"/>
+      <c r="D29" s="397"/>
     </row>
     <row r="31" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="396">
+      <c r="A31" s="395">
         <v>1013</v>
       </c>
-      <c r="B31" s="410" t="s">
+      <c r="B31" s="581" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="398" t="s">
+      <c r="D31" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="396"/>
-      <c r="B32" s="410"/>
+      <c r="A32" s="395"/>
+      <c r="B32" s="581"/>
       <c r="C32" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="398"/>
+      <c r="D32" s="397"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="396">
+      <c r="A34" s="395">
         <v>1014</v>
       </c>
-      <c r="B34" s="411" t="s">
+      <c r="B34" s="582" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="398" t="s">
+      <c r="D34" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="396"/>
-      <c r="B35" s="411"/>
+      <c r="A35" s="395"/>
+      <c r="B35" s="582"/>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="398"/>
+      <c r="D35" s="397"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="396">
+      <c r="A37" s="395">
         <v>1015</v>
       </c>
-      <c r="B37" s="408" t="s">
+      <c r="B37" s="579" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="398" t="s">
+      <c r="D37" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="396"/>
-      <c r="B38" s="408"/>
+      <c r="A38" s="395"/>
+      <c r="B38" s="579"/>
       <c r="C38" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="398"/>
+      <c r="D38" s="397"/>
     </row>
     <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="396">
+      <c r="A40" s="395">
         <v>1016</v>
       </c>
-      <c r="B40" s="409" t="s">
+      <c r="B40" s="580" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="398" t="s">
+      <c r="D40" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="396"/>
-      <c r="B41" s="409"/>
+      <c r="A41" s="395"/>
+      <c r="B41" s="580"/>
       <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="398"/>
+      <c r="D41" s="397"/>
     </row>
     <row r="43" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="396">
+      <c r="A43" s="395">
         <v>1017</v>
       </c>
-      <c r="B43" s="414" t="s">
+      <c r="B43" s="577" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="398" t="s">
+      <c r="D43" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="396"/>
-      <c r="B44" s="414"/>
+      <c r="A44" s="395"/>
+      <c r="B44" s="577"/>
       <c r="C44" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="398"/>
+      <c r="D44" s="397"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="396">
+      <c r="A46" s="395">
         <v>1018</v>
       </c>
-      <c r="B46" s="415" t="s">
+      <c r="B46" s="578" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="398" t="s">
+      <c r="D46" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="396"/>
-      <c r="B47" s="415"/>
+      <c r="A47" s="395"/>
+      <c r="B47" s="578"/>
       <c r="C47" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="398"/>
+      <c r="D47" s="397"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="396">
+      <c r="A49" s="395">
         <v>1019</v>
       </c>
-      <c r="B49" s="412" t="s">
+      <c r="B49" s="575" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="398" t="s">
+      <c r="D49" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="396"/>
-      <c r="B50" s="412"/>
+      <c r="A50" s="395"/>
+      <c r="B50" s="575"/>
       <c r="C50" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="398"/>
+      <c r="D50" s="397"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="396">
+      <c r="A52" s="395">
         <v>1020</v>
       </c>
-      <c r="B52" s="413" t="s">
+      <c r="B52" s="576" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="398" t="s">
+      <c r="D52" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="396"/>
-      <c r="B53" s="413"/>
+      <c r="A53" s="395"/>
+      <c r="B53" s="576"/>
       <c r="C53" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="398"/>
+      <c r="D53" s="397"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="396">
+      <c r="A55" s="395">
         <v>1021</v>
       </c>
-      <c r="B55" s="418" t="s">
+      <c r="B55" s="574" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="398" t="s">
+      <c r="D55" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="396"/>
-      <c r="B56" s="418"/>
+      <c r="A56" s="395"/>
+      <c r="B56" s="574"/>
       <c r="C56" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="398"/>
+      <c r="D56" s="397"/>
     </row>
     <row r="58" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="396">
+      <c r="A58" s="395">
         <v>1023</v>
       </c>
-      <c r="B58" s="418" t="s">
+      <c r="B58" s="574" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="398" t="s">
+      <c r="D58" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="396"/>
-      <c r="B59" s="418"/>
+      <c r="A59" s="395"/>
+      <c r="B59" s="574"/>
       <c r="C59" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="398"/>
+      <c r="D59" s="397"/>
     </row>
     <row r="61" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="396">
+      <c r="A61" s="395">
         <v>1024</v>
       </c>
-      <c r="B61" s="416" t="s">
+      <c r="B61" s="572" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="398" t="s">
+      <c r="D61" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="396"/>
-      <c r="B62" s="416"/>
+      <c r="A62" s="395"/>
+      <c r="B62" s="572"/>
       <c r="C62" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="398"/>
+      <c r="D62" s="397"/>
     </row>
     <row r="64" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="396">
+      <c r="A64" s="395">
         <v>1026</v>
       </c>
-      <c r="B64" s="417" t="s">
+      <c r="B64" s="573" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="398" t="s">
+      <c r="D64" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="396"/>
-      <c r="B65" s="417"/>
+      <c r="A65" s="395"/>
+      <c r="B65" s="573"/>
       <c r="C65" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="398"/>
+      <c r="D65" s="397"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="396">
+      <c r="A67" s="395">
         <v>1027</v>
       </c>
-      <c r="B67" s="421" t="s">
+      <c r="B67" s="570" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="398" t="s">
+      <c r="D67" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="396"/>
-      <c r="B68" s="421"/>
+      <c r="A68" s="395"/>
+      <c r="B68" s="570"/>
       <c r="C68" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="398"/>
+      <c r="D68" s="397"/>
     </row>
     <row r="70" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="396">
+      <c r="A70" s="395">
         <v>1028</v>
       </c>
-      <c r="B70" s="422" t="s">
+      <c r="B70" s="571" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="398" t="s">
+      <c r="D70" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="396"/>
-      <c r="B71" s="422"/>
+      <c r="A71" s="395"/>
+      <c r="B71" s="571"/>
       <c r="C71" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="398"/>
+      <c r="D71" s="397"/>
     </row>
     <row r="73" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="396">
+      <c r="A73" s="395">
         <v>1032</v>
       </c>
-      <c r="B73" s="419" t="s">
+      <c r="B73" s="568" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="398" t="s">
+      <c r="D73" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="396"/>
-      <c r="B74" s="419"/>
+      <c r="A74" s="395"/>
+      <c r="B74" s="568"/>
       <c r="C74" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D74" s="398"/>
+      <c r="D74" s="397"/>
     </row>
     <row r="76" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="396">
+      <c r="A76" s="395">
         <v>1033</v>
       </c>
-      <c r="B76" s="420" t="s">
+      <c r="B76" s="569" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="398" t="s">
+      <c r="D76" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="396"/>
-      <c r="B77" s="420"/>
+      <c r="A77" s="395"/>
+      <c r="B77" s="569"/>
       <c r="C77" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="398"/>
+      <c r="D77" s="397"/>
     </row>
     <row r="79" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="396">
+      <c r="A79" s="395">
         <v>1034</v>
       </c>
-      <c r="B79" s="425" t="s">
+      <c r="B79" s="566" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="398" t="s">
+      <c r="D79" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="396"/>
-      <c r="B80" s="425"/>
+      <c r="A80" s="395"/>
+      <c r="B80" s="566"/>
       <c r="C80" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="398"/>
+      <c r="D80" s="397"/>
     </row>
     <row r="82" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="396">
+      <c r="A82" s="395">
         <v>2000</v>
       </c>
-      <c r="B82" s="426" t="s">
+      <c r="B82" s="567" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="398" t="s">
+      <c r="D82" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="396"/>
-      <c r="B83" s="426"/>
+      <c r="A83" s="395"/>
+      <c r="B83" s="567"/>
       <c r="C83" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="398"/>
+      <c r="D83" s="397"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="396">
+      <c r="A85" s="395">
         <v>2001</v>
       </c>
-      <c r="B85" s="423" t="s">
+      <c r="B85" s="564" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="398" t="s">
+      <c r="D85" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="396"/>
-      <c r="B86" s="423"/>
+      <c r="A86" s="395"/>
+      <c r="B86" s="564"/>
       <c r="C86" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="398"/>
+      <c r="D86" s="397"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="396">
+      <c r="A88" s="395">
         <v>2002</v>
       </c>
-      <c r="B88" s="424" t="s">
+      <c r="B88" s="565" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="398" t="s">
+      <c r="D88" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="396"/>
-      <c r="B89" s="424"/>
+      <c r="A89" s="395"/>
+      <c r="B89" s="565"/>
       <c r="C89" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="398"/>
+      <c r="D89" s="397"/>
     </row>
     <row r="91" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="396">
+      <c r="A91" s="395">
         <v>2003</v>
       </c>
-      <c r="B91" s="429" t="s">
+      <c r="B91" s="562" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="398" t="s">
+      <c r="D91" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="396"/>
-      <c r="B92" s="429"/>
+      <c r="A92" s="395"/>
+      <c r="B92" s="562"/>
       <c r="C92" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D92" s="398"/>
+      <c r="D92" s="397"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="396">
+      <c r="A94" s="395">
         <v>2004</v>
       </c>
-      <c r="B94" s="430" t="s">
+      <c r="B94" s="563" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="398" t="s">
+      <c r="D94" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="396"/>
-      <c r="B95" s="430"/>
+      <c r="A95" s="395"/>
+      <c r="B95" s="563"/>
       <c r="C95" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="398"/>
+      <c r="D95" s="397"/>
     </row>
     <row r="97" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="396">
+      <c r="A97" s="395">
         <v>2005</v>
       </c>
-      <c r="B97" s="427" t="s">
+      <c r="B97" s="560" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="398" t="s">
+      <c r="D97" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="396"/>
-      <c r="B98" s="427"/>
+      <c r="A98" s="395"/>
+      <c r="B98" s="560"/>
       <c r="C98" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="D98" s="398"/>
+      <c r="D98" s="397"/>
     </row>
     <row r="100" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="396">
+      <c r="A100" s="395">
         <v>2007</v>
       </c>
-      <c r="B100" s="428" t="s">
+      <c r="B100" s="561" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="398" t="s">
+      <c r="D100" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="396"/>
-      <c r="B101" s="428"/>
+      <c r="A101" s="395"/>
+      <c r="B101" s="561"/>
       <c r="C101" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="398"/>
+      <c r="D101" s="397"/>
     </row>
     <row r="103" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="396">
+      <c r="A103" s="395">
         <v>2008</v>
       </c>
-      <c r="B103" s="433" t="s">
+      <c r="B103" s="558" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D103" s="398" t="s">
+      <c r="D103" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="396"/>
-      <c r="B104" s="433"/>
+      <c r="A104" s="395"/>
+      <c r="B104" s="558"/>
       <c r="C104" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="398"/>
+      <c r="D104" s="397"/>
     </row>
     <row r="106" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="396">
+      <c r="A106" s="395">
         <v>2009</v>
       </c>
-      <c r="B106" s="434" t="s">
+      <c r="B106" s="559" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="398" t="s">
+      <c r="D106" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="396"/>
-      <c r="B107" s="434"/>
+      <c r="A107" s="395"/>
+      <c r="B107" s="559"/>
       <c r="C107" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="D107" s="398"/>
+      <c r="D107" s="397"/>
     </row>
     <row r="109" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="396">
+      <c r="A109" s="395">
         <v>2010</v>
       </c>
-      <c r="B109" s="431" t="s">
+      <c r="B109" s="556" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D109" s="398" t="s">
+      <c r="D109" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="396"/>
-      <c r="B110" s="431"/>
+      <c r="A110" s="395"/>
+      <c r="B110" s="556"/>
       <c r="C110" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="D110" s="398"/>
+      <c r="D110" s="397"/>
     </row>
     <row r="112" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="396">
+      <c r="A112" s="395">
         <v>2011</v>
       </c>
-      <c r="B112" s="432" t="s">
+      <c r="B112" s="557" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D112" s="398" t="s">
+      <c r="D112" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="396"/>
-      <c r="B113" s="432"/>
+      <c r="A113" s="395"/>
+      <c r="B113" s="557"/>
       <c r="C113" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="398"/>
+      <c r="D113" s="397"/>
     </row>
     <row r="115" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="396">
+      <c r="A115" s="395">
         <v>2012</v>
       </c>
-      <c r="B115" s="437" t="s">
+      <c r="B115" s="554" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="D115" s="398" t="s">
+      <c r="D115" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="396"/>
-      <c r="B116" s="437"/>
+      <c r="A116" s="395"/>
+      <c r="B116" s="554"/>
       <c r="C116" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="D116" s="398"/>
+      <c r="D116" s="397"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="396">
+      <c r="A118" s="395">
         <v>3000</v>
       </c>
-      <c r="B118" s="438" t="s">
+      <c r="B118" s="555" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="D118" s="398" t="s">
+      <c r="D118" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="396"/>
-      <c r="B119" s="438"/>
+      <c r="A119" s="395"/>
+      <c r="B119" s="555"/>
       <c r="C119" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D119" s="398"/>
+      <c r="D119" s="397"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="396">
+      <c r="A121" s="395">
         <v>3001</v>
       </c>
-      <c r="B121" s="435" t="s">
+      <c r="B121" s="552" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D121" s="398" t="s">
+      <c r="D121" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="396"/>
-      <c r="B122" s="435"/>
+      <c r="A122" s="395"/>
+      <c r="B122" s="552"/>
       <c r="C122" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="D122" s="398"/>
+      <c r="D122" s="397"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="396">
+      <c r="A124" s="395">
         <v>3002</v>
       </c>
-      <c r="B124" s="436" t="s">
+      <c r="B124" s="553" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="D124" s="398" t="s">
+      <c r="D124" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="396"/>
-      <c r="B125" s="436"/>
+      <c r="A125" s="395"/>
+      <c r="B125" s="553"/>
       <c r="C125" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="D125" s="398"/>
+      <c r="D125" s="397"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="396">
+      <c r="A127" s="395">
         <v>3003</v>
       </c>
-      <c r="B127" s="441" t="s">
+      <c r="B127" s="550" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="D127" s="398" t="s">
+      <c r="D127" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="396"/>
-      <c r="B128" s="441"/>
+      <c r="A128" s="395"/>
+      <c r="B128" s="550"/>
       <c r="C128" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="398"/>
+      <c r="D128" s="397"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="396">
+      <c r="A130" s="395">
         <v>3004</v>
       </c>
-      <c r="B130" s="442" t="s">
+      <c r="B130" s="551" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="D130" s="398" t="s">
+      <c r="D130" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="396"/>
-      <c r="B131" s="442"/>
+      <c r="A131" s="395"/>
+      <c r="B131" s="551"/>
       <c r="C131" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="D131" s="398"/>
+      <c r="D131" s="397"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="396">
+      <c r="A133" s="395">
         <v>3005</v>
       </c>
-      <c r="B133" s="439" t="s">
+      <c r="B133" s="548" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="D133" s="398" t="s">
+      <c r="D133" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="396"/>
-      <c r="B134" s="439"/>
+      <c r="A134" s="395"/>
+      <c r="B134" s="548"/>
       <c r="C134" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="D134" s="398"/>
+      <c r="D134" s="397"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="396">
+      <c r="A136" s="395">
         <v>3007</v>
       </c>
-      <c r="B136" s="440" t="s">
+      <c r="B136" s="549" t="s">
         <v>149</v>
       </c>
       <c r="C136" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="D136" s="398" t="s">
+      <c r="D136" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="396"/>
-      <c r="B137" s="440"/>
+      <c r="A137" s="395"/>
+      <c r="B137" s="549"/>
       <c r="C137" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D137" s="398"/>
+      <c r="D137" s="397"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="396">
+      <c r="A139" s="395">
         <v>3009</v>
       </c>
-      <c r="B139" s="445" t="s">
+      <c r="B139" s="546" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="D139" s="398" t="s">
+      <c r="D139" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="396"/>
-      <c r="B140" s="445"/>
+      <c r="A140" s="395"/>
+      <c r="B140" s="546"/>
       <c r="C140" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D140" s="398"/>
+      <c r="D140" s="397"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="396">
+      <c r="A142" s="395">
         <v>3011</v>
       </c>
-      <c r="B142" s="446" t="s">
+      <c r="B142" s="547" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D142" s="398" t="s">
+      <c r="D142" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="396"/>
-      <c r="B143" s="446"/>
+      <c r="A143" s="395"/>
+      <c r="B143" s="547"/>
       <c r="C143" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="D143" s="398"/>
+      <c r="D143" s="397"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="396">
+      <c r="A145" s="395">
         <v>3012</v>
       </c>
-      <c r="B145" s="443" t="s">
+      <c r="B145" s="544" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D145" s="398" t="s">
+      <c r="D145" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="396"/>
-      <c r="B146" s="443"/>
+      <c r="A146" s="395"/>
+      <c r="B146" s="544"/>
       <c r="C146" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="D146" s="398"/>
+      <c r="D146" s="397"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="396">
+      <c r="A148" s="395">
         <v>3013</v>
       </c>
-      <c r="B148" s="444" t="s">
+      <c r="B148" s="545" t="s">
         <v>161</v>
       </c>
       <c r="C148" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="D148" s="398" t="s">
+      <c r="D148" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="396"/>
-      <c r="B149" s="444"/>
+      <c r="A149" s="395"/>
+      <c r="B149" s="545"/>
       <c r="C149" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D149" s="398"/>
+      <c r="D149" s="397"/>
     </row>
     <row r="151" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="396">
+      <c r="A151" s="395">
         <v>3014</v>
       </c>
-      <c r="B151" s="449" t="s">
+      <c r="B151" s="542" t="s">
         <v>164</v>
       </c>
       <c r="C151" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="D151" s="398" t="s">
+      <c r="D151" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="396"/>
-      <c r="B152" s="449"/>
+      <c r="A152" s="395"/>
+      <c r="B152" s="542"/>
       <c r="C152" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="D152" s="398"/>
+      <c r="D152" s="397"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="396">
+      <c r="A154" s="395">
         <v>3015</v>
       </c>
-      <c r="B154" s="450" t="s">
+      <c r="B154" s="543" t="s">
         <v>167</v>
       </c>
       <c r="C154" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="D154" s="398" t="s">
+      <c r="D154" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="396"/>
-      <c r="B155" s="450"/>
+      <c r="A155" s="395"/>
+      <c r="B155" s="543"/>
       <c r="C155" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="D155" s="398"/>
+      <c r="D155" s="397"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="396">
+      <c r="A157" s="395">
         <v>3016</v>
       </c>
-      <c r="B157" s="447" t="s">
+      <c r="B157" s="540" t="s">
         <v>170</v>
       </c>
       <c r="C157" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="D157" s="398" t="s">
+      <c r="D157" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="396"/>
-      <c r="B158" s="447"/>
+      <c r="A158" s="395"/>
+      <c r="B158" s="540"/>
       <c r="C158" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="D158" s="398"/>
+      <c r="D158" s="397"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="396">
+      <c r="A160" s="395">
         <v>3017</v>
       </c>
-      <c r="B160" s="448" t="s">
+      <c r="B160" s="541" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="D160" s="398" t="s">
+      <c r="D160" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="396"/>
-      <c r="B161" s="448"/>
+      <c r="A161" s="395"/>
+      <c r="B161" s="541"/>
       <c r="C161" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="D161" s="398"/>
+      <c r="D161" s="397"/>
     </row>
     <row r="163" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="396">
+      <c r="A163" s="395">
         <v>3018</v>
       </c>
-      <c r="B163" s="453" t="s">
+      <c r="B163" s="538" t="s">
         <v>176</v>
       </c>
       <c r="C163" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="D163" s="398" t="s">
+      <c r="D163" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="396"/>
-      <c r="B164" s="453"/>
+      <c r="A164" s="395"/>
+      <c r="B164" s="538"/>
       <c r="C164" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="D164" s="398"/>
+      <c r="D164" s="397"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="396">
+      <c r="A166" s="395">
         <v>3020</v>
       </c>
-      <c r="B166" s="454" t="s">
+      <c r="B166" s="539" t="s">
         <v>179</v>
       </c>
       <c r="C166" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="D166" s="398" t="s">
+      <c r="D166" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="396"/>
-      <c r="B167" s="454"/>
+      <c r="A167" s="395"/>
+      <c r="B167" s="539"/>
       <c r="C167" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D167" s="398"/>
+      <c r="D167" s="397"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="396">
+      <c r="A169" s="395">
         <v>3022</v>
       </c>
-      <c r="B169" s="451" t="s">
+      <c r="B169" s="536" t="s">
         <v>182</v>
       </c>
       <c r="C169" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="D169" s="398" t="s">
+      <c r="D169" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="396"/>
-      <c r="B170" s="451"/>
+      <c r="A170" s="395"/>
+      <c r="B170" s="536"/>
       <c r="C170" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="D170" s="398"/>
+      <c r="D170" s="397"/>
     </row>
     <row r="172" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="396">
+      <c r="A172" s="395">
         <v>3024</v>
       </c>
-      <c r="B172" s="452" t="s">
+      <c r="B172" s="537" t="s">
         <v>185</v>
       </c>
       <c r="C172" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="D172" s="398" t="s">
+      <c r="D172" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="396"/>
-      <c r="B173" s="452"/>
+      <c r="A173" s="395"/>
+      <c r="B173" s="537"/>
       <c r="C173" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="D173" s="398"/>
+      <c r="D173" s="397"/>
     </row>
     <row r="175" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="396">
+      <c r="A175" s="395">
         <v>3026</v>
       </c>
-      <c r="B175" s="457" t="s">
+      <c r="B175" s="534" t="s">
         <v>188</v>
       </c>
       <c r="C175" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="D175" s="398" t="s">
+      <c r="D175" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="396"/>
-      <c r="B176" s="457"/>
+      <c r="A176" s="395"/>
+      <c r="B176" s="534"/>
       <c r="C176" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="D176" s="398"/>
+      <c r="D176" s="397"/>
     </row>
     <row r="178" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="396">
+      <c r="A178" s="395">
         <v>3027</v>
       </c>
-      <c r="B178" s="458" t="s">
+      <c r="B178" s="535" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="D178" s="398" t="s">
+      <c r="D178" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="396"/>
-      <c r="B179" s="458"/>
+      <c r="A179" s="395"/>
+      <c r="B179" s="535"/>
       <c r="C179" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="D179" s="398"/>
+      <c r="D179" s="397"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="396">
+      <c r="A181" s="395">
         <v>3031</v>
       </c>
-      <c r="B181" s="455" t="s">
+      <c r="B181" s="532" t="s">
         <v>194</v>
       </c>
       <c r="C181" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="D181" s="398" t="s">
+      <c r="D181" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="396"/>
-      <c r="B182" s="455"/>
+      <c r="A182" s="395"/>
+      <c r="B182" s="532"/>
       <c r="C182" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="D182" s="398"/>
+      <c r="D182" s="397"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="396">
+      <c r="A184" s="395">
         <v>4001</v>
       </c>
-      <c r="B184" s="456" t="s">
+      <c r="B184" s="533" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="398" t="s">
+      <c r="D184" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="396"/>
-      <c r="B185" s="456"/>
+      <c r="A185" s="395"/>
+      <c r="B185" s="533"/>
       <c r="C185" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="D185" s="398"/>
+      <c r="D185" s="397"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="396">
+      <c r="A187" s="395">
         <v>4002</v>
       </c>
-      <c r="B187" s="461" t="s">
+      <c r="B187" s="530" t="s">
         <v>200</v>
       </c>
       <c r="C187" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="D187" s="398" t="s">
+      <c r="D187" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="396"/>
-      <c r="B188" s="461"/>
+      <c r="A188" s="395"/>
+      <c r="B188" s="530"/>
       <c r="C188" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="D188" s="398"/>
+      <c r="D188" s="397"/>
     </row>
     <row r="190" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="396">
+      <c r="A190" s="395">
         <v>4003</v>
       </c>
-      <c r="B190" s="462" t="s">
+      <c r="B190" s="531" t="s">
         <v>203</v>
       </c>
       <c r="C190" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="D190" s="398" t="s">
+      <c r="D190" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="396"/>
-      <c r="B191" s="462"/>
+      <c r="A191" s="395"/>
+      <c r="B191" s="531"/>
       <c r="C191" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="D191" s="398"/>
+      <c r="D191" s="397"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="396">
+      <c r="A193" s="395">
         <v>4004</v>
       </c>
-      <c r="B193" s="459" t="s">
+      <c r="B193" s="528" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="D193" s="398" t="s">
+      <c r="D193" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="396"/>
-      <c r="B194" s="459"/>
+      <c r="A194" s="395"/>
+      <c r="B194" s="528"/>
       <c r="C194" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="D194" s="398"/>
+      <c r="D194" s="397"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="396">
+      <c r="A196" s="395">
         <v>4005</v>
       </c>
-      <c r="B196" s="460" t="s">
+      <c r="B196" s="529" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="D196" s="398" t="s">
+      <c r="D196" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="396"/>
-      <c r="B197" s="460"/>
+      <c r="A197" s="395"/>
+      <c r="B197" s="529"/>
       <c r="C197" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="D197" s="398"/>
+      <c r="D197" s="397"/>
     </row>
     <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="396">
+      <c r="A199" s="395">
         <v>4006</v>
       </c>
-      <c r="B199" s="465" t="s">
+      <c r="B199" s="526" t="s">
         <v>212</v>
       </c>
       <c r="C199" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="D199" s="398" t="s">
+      <c r="D199" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="396"/>
-      <c r="B200" s="465"/>
+      <c r="A200" s="395"/>
+      <c r="B200" s="526"/>
       <c r="C200" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="D200" s="398"/>
+      <c r="D200" s="397"/>
     </row>
     <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="396">
+      <c r="A202" s="395">
         <v>4007</v>
       </c>
-      <c r="B202" s="466" t="s">
+      <c r="B202" s="527" t="s">
         <v>215</v>
       </c>
       <c r="C202" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="D202" s="398" t="s">
+      <c r="D202" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="396"/>
-      <c r="B203" s="466"/>
+      <c r="A203" s="395"/>
+      <c r="B203" s="527"/>
       <c r="C203" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="D203" s="398"/>
+      <c r="D203" s="397"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="396">
+      <c r="A205" s="395">
         <v>4008</v>
       </c>
-      <c r="B205" s="463" t="s">
+      <c r="B205" s="524" t="s">
         <v>218</v>
       </c>
       <c r="C205" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="D205" s="398" t="s">
+      <c r="D205" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="396"/>
-      <c r="B206" s="463"/>
+      <c r="A206" s="395"/>
+      <c r="B206" s="524"/>
       <c r="C206" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="D206" s="398"/>
+      <c r="D206" s="397"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="396">
+      <c r="A208" s="395">
         <v>4009</v>
       </c>
-      <c r="B208" s="464" t="s">
+      <c r="B208" s="525" t="s">
         <v>221</v>
       </c>
       <c r="C208" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="D208" s="398" t="s">
+      <c r="D208" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="396"/>
-      <c r="B209" s="464"/>
+      <c r="A209" s="395"/>
+      <c r="B209" s="525"/>
       <c r="C209" s="142" t="s">
         <v>223</v>
       </c>
-      <c r="D209" s="398"/>
+      <c r="D209" s="397"/>
     </row>
     <row r="211" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="396">
+      <c r="A211" s="395">
         <v>4010</v>
       </c>
-      <c r="B211" s="469" t="s">
+      <c r="B211" s="522" t="s">
         <v>224</v>
       </c>
       <c r="C211" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="D211" s="398" t="s">
+      <c r="D211" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="396"/>
-      <c r="B212" s="469"/>
+      <c r="A212" s="395"/>
+      <c r="B212" s="522"/>
       <c r="C212" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="D212" s="398"/>
+      <c r="D212" s="397"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="396">
+      <c r="A214" s="395">
         <v>5000</v>
       </c>
-      <c r="B214" s="470" t="s">
+      <c r="B214" s="523" t="s">
         <v>227</v>
       </c>
       <c r="C214" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="D214" s="398" t="s">
+      <c r="D214" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="396"/>
-      <c r="B215" s="470"/>
+      <c r="A215" s="395"/>
+      <c r="B215" s="523"/>
       <c r="C215" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="D215" s="398"/>
+      <c r="D215" s="397"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="396">
+      <c r="A217" s="395">
         <v>5001</v>
       </c>
-      <c r="B217" s="467" t="s">
+      <c r="B217" s="520" t="s">
         <v>230</v>
       </c>
       <c r="C217" s="147" t="s">
         <v>231</v>
       </c>
-      <c r="D217" s="398" t="s">
+      <c r="D217" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="396"/>
-      <c r="B218" s="467"/>
+      <c r="A218" s="395"/>
+      <c r="B218" s="520"/>
       <c r="C218" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="D218" s="398"/>
+      <c r="D218" s="397"/>
     </row>
     <row r="220" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="396">
+      <c r="A220" s="395">
         <v>5002</v>
       </c>
-      <c r="B220" s="468" t="s">
+      <c r="B220" s="521" t="s">
         <v>233</v>
       </c>
       <c r="C220" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="D220" s="398" t="s">
+      <c r="D220" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="396"/>
-      <c r="B221" s="468"/>
+      <c r="A221" s="395"/>
+      <c r="B221" s="521"/>
       <c r="C221" s="150" t="s">
         <v>235</v>
       </c>
-      <c r="D221" s="398"/>
+      <c r="D221" s="397"/>
     </row>
     <row r="223" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="396">
+      <c r="A223" s="395">
         <v>5003</v>
       </c>
-      <c r="B223" s="473" t="s">
+      <c r="B223" s="518" t="s">
         <v>236</v>
       </c>
       <c r="C223" s="151" t="s">
         <v>237</v>
       </c>
-      <c r="D223" s="398" t="s">
+      <c r="D223" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="396"/>
-      <c r="B224" s="473"/>
+      <c r="A224" s="395"/>
+      <c r="B224" s="518"/>
       <c r="C224" s="152" t="s">
         <v>238</v>
       </c>
-      <c r="D224" s="398"/>
+      <c r="D224" s="397"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="396">
+      <c r="A226" s="395">
         <v>5004</v>
       </c>
-      <c r="B226" s="474" t="s">
+      <c r="B226" s="519" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="D226" s="398" t="s">
+      <c r="D226" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="396"/>
-      <c r="B227" s="474"/>
+      <c r="A227" s="395"/>
+      <c r="B227" s="519"/>
       <c r="C227" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="D227" s="398"/>
+      <c r="D227" s="397"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="396">
+      <c r="A229" s="395">
         <v>5005</v>
       </c>
-      <c r="B229" s="471" t="s">
+      <c r="B229" s="516" t="s">
         <v>242</v>
       </c>
       <c r="C229" s="155" t="s">
         <v>243</v>
       </c>
-      <c r="D229" s="398" t="s">
+      <c r="D229" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="396"/>
-      <c r="B230" s="471"/>
+      <c r="A230" s="395"/>
+      <c r="B230" s="516"/>
       <c r="C230" s="156" t="s">
         <v>244</v>
       </c>
-      <c r="D230" s="398"/>
+      <c r="D230" s="397"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="396">
+      <c r="A232" s="395">
         <v>5007</v>
       </c>
-      <c r="B232" s="472" t="s">
+      <c r="B232" s="517" t="s">
         <v>245</v>
       </c>
       <c r="C232" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="D232" s="398" t="s">
+      <c r="D232" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="396"/>
-      <c r="B233" s="472"/>
+      <c r="A233" s="395"/>
+      <c r="B233" s="517"/>
       <c r="C233" s="158" t="s">
         <v>247</v>
       </c>
-      <c r="D233" s="398"/>
+      <c r="D233" s="397"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="396">
+      <c r="A235" s="395">
         <v>5008</v>
       </c>
-      <c r="B235" s="477" t="s">
+      <c r="B235" s="514" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="159" t="s">
         <v>249</v>
       </c>
-      <c r="D235" s="398" t="s">
+      <c r="D235" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="396"/>
-      <c r="B236" s="477"/>
+      <c r="A236" s="395"/>
+      <c r="B236" s="514"/>
       <c r="C236" s="160" t="s">
         <v>250</v>
       </c>
-      <c r="D236" s="398"/>
+      <c r="D236" s="397"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="396">
+      <c r="A238" s="395">
         <v>5009</v>
       </c>
-      <c r="B238" s="478" t="s">
+      <c r="B238" s="515" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="161" t="s">
         <v>252</v>
       </c>
-      <c r="D238" s="398" t="s">
+      <c r="D238" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="396"/>
-      <c r="B239" s="478"/>
+      <c r="A239" s="395"/>
+      <c r="B239" s="515"/>
       <c r="C239" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="D239" s="398"/>
+      <c r="D239" s="397"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="396">
+      <c r="A241" s="395">
         <v>5011</v>
       </c>
-      <c r="B241" s="475" t="s">
+      <c r="B241" s="512" t="s">
         <v>254</v>
       </c>
       <c r="C241" s="163" t="s">
         <v>255</v>
       </c>
-      <c r="D241" s="398" t="s">
+      <c r="D241" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="396"/>
-      <c r="B242" s="475"/>
+      <c r="A242" s="395"/>
+      <c r="B242" s="512"/>
       <c r="C242" s="164" t="s">
         <v>256</v>
       </c>
-      <c r="D242" s="398"/>
+      <c r="D242" s="397"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="396">
+      <c r="A244" s="395">
         <v>5012</v>
       </c>
-      <c r="B244" s="476" t="s">
+      <c r="B244" s="513" t="s">
         <v>257</v>
       </c>
       <c r="C244" s="165" t="s">
         <v>258</v>
       </c>
-      <c r="D244" s="398" t="s">
+      <c r="D244" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="396"/>
-      <c r="B245" s="476"/>
+      <c r="A245" s="395"/>
+      <c r="B245" s="513"/>
       <c r="C245" s="166" t="s">
         <v>259</v>
       </c>
-      <c r="D245" s="398"/>
+      <c r="D245" s="397"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="396">
+      <c r="A247" s="395">
         <v>5013</v>
       </c>
-      <c r="B247" s="481" t="s">
+      <c r="B247" s="510" t="s">
         <v>260</v>
       </c>
       <c r="C247" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="D247" s="398" t="s">
+      <c r="D247" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="396"/>
-      <c r="B248" s="481"/>
+      <c r="A248" s="395"/>
+      <c r="B248" s="510"/>
       <c r="C248" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="D248" s="398"/>
+      <c r="D248" s="397"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="396">
+      <c r="A250" s="395">
         <v>5014</v>
       </c>
-      <c r="B250" s="482" t="s">
+      <c r="B250" s="511" t="s">
         <v>263</v>
       </c>
       <c r="C250" s="169" t="s">
         <v>264</v>
       </c>
-      <c r="D250" s="398" t="s">
+      <c r="D250" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="396"/>
-      <c r="B251" s="482"/>
+      <c r="A251" s="395"/>
+      <c r="B251" s="511"/>
       <c r="C251" s="170" t="s">
         <v>265</v>
       </c>
-      <c r="D251" s="398"/>
+      <c r="D251" s="397"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="396">
+      <c r="A253" s="395">
         <v>5015</v>
       </c>
-      <c r="B253" s="479" t="s">
+      <c r="B253" s="508" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="171" t="s">
         <v>267</v>
       </c>
-      <c r="D253" s="398" t="s">
+      <c r="D253" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="396"/>
-      <c r="B254" s="479"/>
+      <c r="A254" s="395"/>
+      <c r="B254" s="508"/>
       <c r="C254" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="D254" s="398"/>
+      <c r="D254" s="397"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="396">
+      <c r="A256" s="395">
         <v>5017</v>
       </c>
-      <c r="B256" s="480" t="s">
+      <c r="B256" s="509" t="s">
         <v>269</v>
       </c>
       <c r="C256" s="173" t="s">
         <v>270</v>
       </c>
-      <c r="D256" s="398" t="s">
+      <c r="D256" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="396"/>
-      <c r="B257" s="480"/>
+      <c r="A257" s="395"/>
+      <c r="B257" s="509"/>
       <c r="C257" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="D257" s="398"/>
+      <c r="D257" s="397"/>
     </row>
     <row r="259" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="396">
+      <c r="A259" s="395">
         <v>5018</v>
       </c>
-      <c r="B259" s="485" t="s">
+      <c r="B259" s="506" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="175" t="s">
         <v>273</v>
       </c>
-      <c r="D259" s="398" t="s">
+      <c r="D259" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="396"/>
-      <c r="B260" s="485"/>
+      <c r="A260" s="395"/>
+      <c r="B260" s="506"/>
       <c r="C260" s="176" t="s">
         <v>274</v>
       </c>
-      <c r="D260" s="398"/>
+      <c r="D260" s="397"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="396">
+      <c r="A262" s="395">
         <v>5019</v>
       </c>
-      <c r="B262" s="486" t="s">
+      <c r="B262" s="507" t="s">
         <v>275</v>
       </c>
       <c r="C262" s="177" t="s">
         <v>276</v>
       </c>
-      <c r="D262" s="398" t="s">
+      <c r="D262" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="396"/>
-      <c r="B263" s="486"/>
+      <c r="A263" s="395"/>
+      <c r="B263" s="507"/>
       <c r="C263" s="178" t="s">
         <v>277</v>
       </c>
-      <c r="D263" s="398"/>
+      <c r="D263" s="397"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="396">
+      <c r="A265" s="395">
         <v>5020</v>
       </c>
-      <c r="B265" s="483" t="s">
+      <c r="B265" s="504" t="s">
         <v>254</v>
       </c>
       <c r="C265" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="D265" s="398" t="s">
+      <c r="D265" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="396"/>
-      <c r="B266" s="483"/>
+      <c r="A266" s="395"/>
+      <c r="B266" s="504"/>
       <c r="C266" s="180" t="s">
         <v>279</v>
       </c>
-      <c r="D266" s="398"/>
+      <c r="D266" s="397"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="396">
+      <c r="A268" s="395">
         <v>5021</v>
       </c>
-      <c r="B268" s="484" t="s">
+      <c r="B268" s="505" t="s">
         <v>280</v>
       </c>
       <c r="C268" s="181" t="s">
         <v>281</v>
       </c>
-      <c r="D268" s="398" t="s">
+      <c r="D268" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="396"/>
-      <c r="B269" s="484"/>
+      <c r="A269" s="395"/>
+      <c r="B269" s="505"/>
       <c r="C269" s="182" t="s">
         <v>282</v>
       </c>
-      <c r="D269" s="398"/>
+      <c r="D269" s="397"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="396">
+      <c r="A271" s="395">
         <v>5022</v>
       </c>
-      <c r="B271" s="489" t="s">
+      <c r="B271" s="502" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="D271" s="398" t="s">
+      <c r="D271" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="396"/>
-      <c r="B272" s="489"/>
+      <c r="A272" s="395"/>
+      <c r="B272" s="502"/>
       <c r="C272" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="D272" s="398"/>
+      <c r="D272" s="397"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="396">
+      <c r="A274" s="395">
         <v>5023</v>
       </c>
-      <c r="B274" s="490" t="s">
+      <c r="B274" s="503" t="s">
         <v>286</v>
       </c>
       <c r="C274" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="D274" s="398" t="s">
+      <c r="D274" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="396"/>
-      <c r="B275" s="490"/>
+      <c r="A275" s="395"/>
+      <c r="B275" s="503"/>
       <c r="C275" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="D275" s="398"/>
+      <c r="D275" s="397"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="396">
+      <c r="A277" s="395">
         <v>5024</v>
       </c>
-      <c r="B277" s="487" t="s">
+      <c r="B277" s="500" t="s">
         <v>289</v>
       </c>
       <c r="C277" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="D277" s="398" t="s">
+      <c r="D277" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="396"/>
-      <c r="B278" s="487"/>
+      <c r="A278" s="395"/>
+      <c r="B278" s="500"/>
       <c r="C278" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="D278" s="398"/>
+      <c r="D278" s="397"/>
     </row>
     <row r="280" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="396">
+      <c r="A280" s="395">
         <v>6000</v>
       </c>
-      <c r="B280" s="488" t="s">
+      <c r="B280" s="501" t="s">
         <v>292</v>
       </c>
       <c r="C280" s="189" t="s">
         <v>293</v>
       </c>
-      <c r="D280" s="398" t="s">
+      <c r="D280" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="396"/>
-      <c r="B281" s="488"/>
+      <c r="A281" s="395"/>
+      <c r="B281" s="501"/>
       <c r="C281" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="D281" s="398"/>
+      <c r="D281" s="397"/>
     </row>
     <row r="283" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="396">
+      <c r="A283" s="395">
         <v>6001</v>
       </c>
-      <c r="B283" s="493" t="s">
+      <c r="B283" s="498" t="s">
         <v>295</v>
       </c>
       <c r="C283" s="191" t="s">
         <v>296</v>
       </c>
-      <c r="D283" s="398" t="s">
+      <c r="D283" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="396"/>
-      <c r="B284" s="493"/>
+      <c r="A284" s="395"/>
+      <c r="B284" s="498"/>
       <c r="C284" s="192" t="s">
         <v>297</v>
       </c>
-      <c r="D284" s="398"/>
+      <c r="D284" s="397"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="396">
+      <c r="A286" s="395">
         <v>6002</v>
       </c>
-      <c r="B286" s="494" t="s">
+      <c r="B286" s="499" t="s">
         <v>298</v>
       </c>
       <c r="C286" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="D286" s="398" t="s">
+      <c r="D286" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="396"/>
-      <c r="B287" s="494"/>
+      <c r="A287" s="395"/>
+      <c r="B287" s="499"/>
       <c r="C287" s="194" t="s">
         <v>300</v>
       </c>
-      <c r="D287" s="398"/>
+      <c r="D287" s="397"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="396">
+      <c r="A289" s="395">
         <v>6003</v>
       </c>
-      <c r="B289" s="491" t="s">
+      <c r="B289" s="496" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="195" t="s">
         <v>302</v>
       </c>
-      <c r="D289" s="398" t="s">
+      <c r="D289" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="396"/>
-      <c r="B290" s="491"/>
+      <c r="A290" s="395"/>
+      <c r="B290" s="496"/>
       <c r="C290" s="196" t="s">
         <v>303</v>
       </c>
-      <c r="D290" s="398"/>
+      <c r="D290" s="397"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="396">
+      <c r="A292" s="395">
         <v>6004</v>
       </c>
-      <c r="B292" s="492" t="s">
+      <c r="B292" s="497" t="s">
         <v>304</v>
       </c>
       <c r="C292" s="197" t="s">
         <v>305</v>
       </c>
-      <c r="D292" s="398" t="s">
+      <c r="D292" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="396"/>
-      <c r="B293" s="492"/>
+      <c r="A293" s="395"/>
+      <c r="B293" s="497"/>
       <c r="C293" s="198" t="s">
         <v>306</v>
       </c>
-      <c r="D293" s="398"/>
+      <c r="D293" s="397"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="396">
+      <c r="A295" s="395">
         <v>6005</v>
       </c>
-      <c r="B295" s="497" t="s">
+      <c r="B295" s="494" t="s">
         <v>307</v>
       </c>
       <c r="C295" s="199" t="s">
         <v>308</v>
       </c>
-      <c r="D295" s="398" t="s">
+      <c r="D295" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="396"/>
-      <c r="B296" s="497"/>
+      <c r="A296" s="395"/>
+      <c r="B296" s="494"/>
       <c r="C296" s="200" t="s">
         <v>309</v>
       </c>
-      <c r="D296" s="398"/>
+      <c r="D296" s="397"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="396">
+      <c r="A298" s="395">
         <v>6006</v>
       </c>
-      <c r="B298" s="498" t="s">
+      <c r="B298" s="495" t="s">
         <v>310</v>
       </c>
       <c r="C298" s="201" t="s">
         <v>311</v>
       </c>
-      <c r="D298" s="398" t="s">
+      <c r="D298" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="396"/>
-      <c r="B299" s="498"/>
+      <c r="A299" s="395"/>
+      <c r="B299" s="495"/>
       <c r="C299" s="202" t="s">
         <v>312</v>
       </c>
-      <c r="D299" s="398"/>
+      <c r="D299" s="397"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="396">
+      <c r="A301" s="395">
         <v>6007</v>
       </c>
-      <c r="B301" s="495" t="s">
+      <c r="B301" s="492" t="s">
         <v>313</v>
       </c>
       <c r="C301" s="203" t="s">
         <v>314</v>
       </c>
-      <c r="D301" s="398" t="s">
+      <c r="D301" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="396"/>
-      <c r="B302" s="495"/>
+      <c r="A302" s="395"/>
+      <c r="B302" s="492"/>
       <c r="C302" s="204" t="s">
         <v>315</v>
       </c>
-      <c r="D302" s="398"/>
+      <c r="D302" s="397"/>
     </row>
     <row r="304" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="396">
+      <c r="A304" s="395">
         <v>6008</v>
       </c>
-      <c r="B304" s="496" t="s">
+      <c r="B304" s="493" t="s">
         <v>316</v>
       </c>
       <c r="C304" s="205" t="s">
         <v>317</v>
       </c>
-      <c r="D304" s="398" t="s">
+      <c r="D304" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="396"/>
-      <c r="B305" s="496"/>
+      <c r="A305" s="395"/>
+      <c r="B305" s="493"/>
       <c r="C305" s="206" t="s">
         <v>318</v>
       </c>
-      <c r="D305" s="398"/>
+      <c r="D305" s="397"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="396">
+      <c r="A307" s="395">
         <v>6009</v>
       </c>
-      <c r="B307" s="501" t="s">
+      <c r="B307" s="490" t="s">
         <v>319</v>
       </c>
       <c r="C307" s="207" t="s">
         <v>320</v>
       </c>
-      <c r="D307" s="398" t="s">
+      <c r="D307" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="396"/>
-      <c r="B308" s="501"/>
+      <c r="A308" s="395"/>
+      <c r="B308" s="490"/>
       <c r="C308" s="208" t="s">
         <v>321</v>
       </c>
-      <c r="D308" s="398"/>
+      <c r="D308" s="397"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="396">
+      <c r="A310" s="395">
         <v>6010</v>
       </c>
-      <c r="B310" s="502" t="s">
+      <c r="B310" s="491" t="s">
         <v>322</v>
       </c>
       <c r="C310" s="209" t="s">
         <v>323</v>
       </c>
-      <c r="D310" s="398" t="s">
+      <c r="D310" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="396"/>
-      <c r="B311" s="502"/>
+      <c r="A311" s="395"/>
+      <c r="B311" s="491"/>
       <c r="C311" s="210" t="s">
         <v>324</v>
       </c>
-      <c r="D311" s="398"/>
+      <c r="D311" s="397"/>
     </row>
     <row r="313" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="396">
+      <c r="A313" s="395">
         <v>6011</v>
       </c>
-      <c r="B313" s="499" t="s">
+      <c r="B313" s="488" t="s">
         <v>325</v>
       </c>
       <c r="C313" s="211" t="s">
         <v>326</v>
       </c>
-      <c r="D313" s="398" t="s">
+      <c r="D313" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="396"/>
-      <c r="B314" s="499"/>
+      <c r="A314" s="395"/>
+      <c r="B314" s="488"/>
       <c r="C314" s="212" t="s">
         <v>327</v>
       </c>
-      <c r="D314" s="398"/>
+      <c r="D314" s="397"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="396">
+      <c r="A316" s="395">
         <v>6012</v>
       </c>
-      <c r="B316" s="500" t="s">
+      <c r="B316" s="489" t="s">
         <v>328</v>
       </c>
       <c r="C316" s="213" t="s">
         <v>329</v>
       </c>
-      <c r="D316" s="398" t="s">
+      <c r="D316" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="396"/>
-      <c r="B317" s="500"/>
+      <c r="A317" s="395"/>
+      <c r="B317" s="489"/>
       <c r="C317" s="214" t="s">
         <v>330</v>
       </c>
-      <c r="D317" s="398"/>
+      <c r="D317" s="397"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" s="396">
+      <c r="A319" s="395">
         <v>6013</v>
       </c>
-      <c r="B319" s="505" t="s">
+      <c r="B319" s="486" t="s">
         <v>331</v>
       </c>
       <c r="C319" s="215" t="s">
         <v>332</v>
       </c>
-      <c r="D319" s="398" t="s">
+      <c r="D319" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="396"/>
-      <c r="B320" s="505"/>
+      <c r="A320" s="395"/>
+      <c r="B320" s="486"/>
       <c r="C320" s="216" t="s">
         <v>333</v>
       </c>
-      <c r="D320" s="398"/>
+      <c r="D320" s="397"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="396">
+      <c r="A322" s="395">
         <v>6014</v>
       </c>
-      <c r="B322" s="506" t="s">
+      <c r="B322" s="487" t="s">
         <v>334</v>
       </c>
       <c r="C322" s="217" t="s">
         <v>335</v>
       </c>
-      <c r="D322" s="398" t="s">
+      <c r="D322" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="396"/>
-      <c r="B323" s="506"/>
+      <c r="A323" s="395"/>
+      <c r="B323" s="487"/>
       <c r="C323" s="218" t="s">
         <v>336</v>
       </c>
-      <c r="D323" s="398"/>
+      <c r="D323" s="397"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="396">
+      <c r="A325" s="395">
         <v>6015</v>
       </c>
-      <c r="B325" s="503" t="s">
+      <c r="B325" s="484" t="s">
         <v>337</v>
       </c>
       <c r="C325" s="219" t="s">
         <v>338</v>
       </c>
-      <c r="D325" s="398" t="s">
+      <c r="D325" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" s="396"/>
-      <c r="B326" s="503"/>
+      <c r="A326" s="395"/>
+      <c r="B326" s="484"/>
       <c r="C326" s="220" t="s">
         <v>339</v>
       </c>
-      <c r="D326" s="398"/>
+      <c r="D326" s="397"/>
     </row>
     <row r="328" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="396">
+      <c r="A328" s="395">
         <v>6016</v>
       </c>
-      <c r="B328" s="504" t="s">
+      <c r="B328" s="485" t="s">
         <v>340</v>
       </c>
       <c r="C328" s="221" t="s">
         <v>341</v>
       </c>
-      <c r="D328" s="398" t="s">
+      <c r="D328" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="396"/>
-      <c r="B329" s="504"/>
+      <c r="A329" s="395"/>
+      <c r="B329" s="485"/>
       <c r="C329" s="222" t="s">
         <v>342</v>
       </c>
-      <c r="D329" s="398"/>
+      <c r="D329" s="397"/>
     </row>
     <row r="331" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="396">
+      <c r="A331" s="395">
         <v>6017</v>
       </c>
-      <c r="B331" s="509" t="s">
+      <c r="B331" s="482" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="223" t="s">
         <v>344</v>
       </c>
-      <c r="D331" s="398" t="s">
+      <c r="D331" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332" s="396"/>
-      <c r="B332" s="509"/>
+      <c r="A332" s="395"/>
+      <c r="B332" s="482"/>
       <c r="C332" s="224" t="s">
         <v>345</v>
       </c>
-      <c r="D332" s="398"/>
+      <c r="D332" s="397"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="396">
+      <c r="A334" s="395">
         <v>6018</v>
       </c>
-      <c r="B334" s="510" t="s">
+      <c r="B334" s="483" t="s">
         <v>346</v>
       </c>
       <c r="C334" s="225" t="s">
         <v>347</v>
       </c>
-      <c r="D334" s="398" t="s">
+      <c r="D334" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" s="396"/>
-      <c r="B335" s="510"/>
+      <c r="A335" s="395"/>
+      <c r="B335" s="483"/>
       <c r="C335" s="226" t="s">
         <v>348</v>
       </c>
-      <c r="D335" s="398"/>
+      <c r="D335" s="397"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" s="396">
+      <c r="A337" s="395">
         <v>6019</v>
       </c>
-      <c r="B337" s="507" t="s">
+      <c r="B337" s="480" t="s">
         <v>349</v>
       </c>
       <c r="C337" s="227" t="s">
         <v>350</v>
       </c>
-      <c r="D337" s="398" t="s">
+      <c r="D337" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="396"/>
-      <c r="B338" s="507"/>
+      <c r="A338" s="395"/>
+      <c r="B338" s="480"/>
       <c r="C338" s="228" t="s">
         <v>351</v>
       </c>
-      <c r="D338" s="398"/>
+      <c r="D338" s="397"/>
     </row>
     <row r="340" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="396">
+      <c r="A340" s="395">
         <v>6020</v>
       </c>
-      <c r="B340" s="508" t="s">
+      <c r="B340" s="481" t="s">
         <v>352</v>
       </c>
       <c r="C340" s="229" t="s">
         <v>353</v>
       </c>
-      <c r="D340" s="398" t="s">
+      <c r="D340" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" s="396"/>
-      <c r="B341" s="508"/>
+      <c r="A341" s="395"/>
+      <c r="B341" s="481"/>
       <c r="C341" s="230" t="s">
         <v>354</v>
       </c>
-      <c r="D341" s="398"/>
+      <c r="D341" s="397"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" s="396">
+      <c r="A343" s="395">
         <v>6021</v>
       </c>
-      <c r="B343" s="513" t="s">
+      <c r="B343" s="478" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="231" t="s">
         <v>356</v>
       </c>
-      <c r="D343" s="398" t="s">
+      <c r="D343" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" s="396"/>
-      <c r="B344" s="513"/>
+      <c r="A344" s="395"/>
+      <c r="B344" s="478"/>
       <c r="C344" s="232" t="s">
         <v>357</v>
       </c>
-      <c r="D344" s="398"/>
+      <c r="D344" s="397"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="396">
+      <c r="A346" s="395">
         <v>6022</v>
       </c>
-      <c r="B346" s="514" t="s">
+      <c r="B346" s="479" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D346" s="398" t="s">
+      <c r="D346" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" s="396"/>
-      <c r="B347" s="514"/>
+      <c r="A347" s="395"/>
+      <c r="B347" s="479"/>
       <c r="C347" s="234" t="s">
         <v>360</v>
       </c>
-      <c r="D347" s="398"/>
+      <c r="D347" s="397"/>
     </row>
     <row r="349" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="396">
+      <c r="A349" s="395">
         <v>6024</v>
       </c>
-      <c r="B349" s="511" t="s">
+      <c r="B349" s="476" t="s">
         <v>361</v>
       </c>
       <c r="C349" s="235" t="s">
         <v>362</v>
       </c>
-      <c r="D349" s="398" t="s">
+      <c r="D349" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" s="396"/>
-      <c r="B350" s="511"/>
+      <c r="A350" s="395"/>
+      <c r="B350" s="476"/>
       <c r="C350" s="236" t="s">
         <v>363</v>
       </c>
-      <c r="D350" s="398"/>
+      <c r="D350" s="397"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="396">
+      <c r="A352" s="395">
         <v>6025</v>
       </c>
-      <c r="B352" s="512" t="s">
+      <c r="B352" s="477" t="s">
         <v>364</v>
       </c>
       <c r="C352" s="237" t="s">
         <v>365</v>
       </c>
-      <c r="D352" s="398" t="s">
+      <c r="D352" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" s="396"/>
-      <c r="B353" s="512"/>
+      <c r="A353" s="395"/>
+      <c r="B353" s="477"/>
       <c r="C353" s="238" t="s">
         <v>366</v>
       </c>
-      <c r="D353" s="398"/>
+      <c r="D353" s="397"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="396">
+      <c r="A355" s="395">
         <v>6026</v>
       </c>
-      <c r="B355" s="517" t="s">
+      <c r="B355" s="474" t="s">
         <v>367</v>
       </c>
       <c r="C355" s="239" t="s">
         <v>368</v>
       </c>
-      <c r="D355" s="398" t="s">
+      <c r="D355" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="396"/>
-      <c r="B356" s="517"/>
+      <c r="A356" s="395"/>
+      <c r="B356" s="474"/>
       <c r="C356" s="240" t="s">
         <v>369</v>
       </c>
-      <c r="D356" s="398"/>
+      <c r="D356" s="397"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="396">
+      <c r="A358" s="395">
         <v>6027</v>
       </c>
-      <c r="B358" s="518" t="s">
+      <c r="B358" s="475" t="s">
         <v>370</v>
       </c>
       <c r="C358" s="241" t="s">
         <v>371</v>
       </c>
-      <c r="D358" s="398" t="s">
+      <c r="D358" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" s="396"/>
-      <c r="B359" s="518"/>
+      <c r="A359" s="395"/>
+      <c r="B359" s="475"/>
       <c r="C359" s="242" t="s">
         <v>372</v>
       </c>
-      <c r="D359" s="398"/>
+      <c r="D359" s="397"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" s="396">
+      <c r="A361" s="395">
         <v>6028</v>
       </c>
-      <c r="B361" s="515" t="s">
+      <c r="B361" s="472" t="s">
         <v>373</v>
       </c>
       <c r="C361" s="243" t="s">
         <v>374</v>
       </c>
-      <c r="D361" s="398" t="s">
+      <c r="D361" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" s="396"/>
-      <c r="B362" s="515"/>
+      <c r="A362" s="395"/>
+      <c r="B362" s="472"/>
       <c r="C362" s="244" t="s">
         <v>375</v>
       </c>
-      <c r="D362" s="398"/>
+      <c r="D362" s="397"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" s="396">
+      <c r="A364" s="395">
         <v>6029</v>
       </c>
-      <c r="B364" s="516" t="s">
+      <c r="B364" s="473" t="s">
         <v>376</v>
       </c>
       <c r="C364" s="245" t="s">
         <v>377</v>
       </c>
-      <c r="D364" s="398" t="s">
+      <c r="D364" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" s="396"/>
-      <c r="B365" s="516"/>
+      <c r="A365" s="395"/>
+      <c r="B365" s="473"/>
       <c r="C365" s="246" t="s">
         <v>378</v>
       </c>
-      <c r="D365" s="398"/>
+      <c r="D365" s="397"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367" s="396">
+      <c r="A367" s="395">
         <v>6032</v>
       </c>
-      <c r="B367" s="521" t="s">
+      <c r="B367" s="470" t="s">
         <v>379</v>
       </c>
       <c r="C367" s="247" t="s">
         <v>380</v>
       </c>
-      <c r="D367" s="398" t="s">
+      <c r="D367" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" s="396"/>
-      <c r="B368" s="521"/>
+      <c r="A368" s="395"/>
+      <c r="B368" s="470"/>
       <c r="C368" s="248" t="s">
         <v>381</v>
       </c>
-      <c r="D368" s="398"/>
+      <c r="D368" s="397"/>
     </row>
     <row r="370" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A370" s="396">
+      <c r="A370" s="395">
         <v>6033</v>
       </c>
-      <c r="B370" s="522" t="s">
+      <c r="B370" s="471" t="s">
         <v>382</v>
       </c>
       <c r="C370" s="249" t="s">
         <v>383</v>
       </c>
-      <c r="D370" s="398" t="s">
+      <c r="D370" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="396"/>
-      <c r="B371" s="522"/>
+      <c r="A371" s="395"/>
+      <c r="B371" s="471"/>
       <c r="C371" s="250" t="s">
         <v>384</v>
       </c>
-      <c r="D371" s="398"/>
+      <c r="D371" s="397"/>
     </row>
     <row r="373" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="396">
+      <c r="A373" s="395">
         <v>6034</v>
       </c>
-      <c r="B373" s="519" t="s">
+      <c r="B373" s="468" t="s">
         <v>385</v>
       </c>
       <c r="C373" s="251" t="s">
         <v>386</v>
       </c>
-      <c r="D373" s="398" t="s">
+      <c r="D373" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" s="396"/>
-      <c r="B374" s="519"/>
+      <c r="A374" s="395"/>
+      <c r="B374" s="468"/>
       <c r="C374" s="252" t="s">
         <v>387</v>
       </c>
-      <c r="D374" s="398"/>
+      <c r="D374" s="397"/>
     </row>
     <row r="376" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="396">
+      <c r="A376" s="395">
         <v>7000</v>
       </c>
-      <c r="B376" s="520" t="s">
+      <c r="B376" s="469" t="s">
         <v>388</v>
       </c>
       <c r="C376" s="253" t="s">
         <v>389</v>
       </c>
-      <c r="D376" s="398" t="s">
+      <c r="D376" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" s="396"/>
-      <c r="B377" s="520"/>
+      <c r="A377" s="395"/>
+      <c r="B377" s="469"/>
       <c r="C377" s="254" t="s">
         <v>390</v>
       </c>
-      <c r="D377" s="398"/>
+      <c r="D377" s="397"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379" s="396">
+      <c r="A379" s="395">
         <v>7001</v>
       </c>
-      <c r="B379" s="525" t="s">
+      <c r="B379" s="466" t="s">
         <v>391</v>
       </c>
       <c r="C379" s="255" t="s">
         <v>392</v>
       </c>
-      <c r="D379" s="398" t="s">
+      <c r="D379" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="396"/>
-      <c r="B380" s="525"/>
+      <c r="A380" s="395"/>
+      <c r="B380" s="466"/>
       <c r="C380" s="256" t="s">
         <v>393</v>
       </c>
-      <c r="D380" s="398"/>
+      <c r="D380" s="397"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382" s="396">
+      <c r="A382" s="395">
         <v>7002</v>
       </c>
-      <c r="B382" s="526" t="s">
+      <c r="B382" s="467" t="s">
         <v>394</v>
       </c>
       <c r="C382" s="257" t="s">
         <v>395</v>
       </c>
-      <c r="D382" s="398" t="s">
+      <c r="D382" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" s="396"/>
-      <c r="B383" s="526"/>
+      <c r="A383" s="395"/>
+      <c r="B383" s="467"/>
       <c r="C383" s="258" t="s">
         <v>396</v>
       </c>
-      <c r="D383" s="398"/>
+      <c r="D383" s="397"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385" s="396">
+      <c r="A385" s="395">
         <v>7003</v>
       </c>
-      <c r="B385" s="523" t="s">
+      <c r="B385" s="464" t="s">
         <v>397</v>
       </c>
       <c r="C385" s="259" t="s">
         <v>398</v>
       </c>
-      <c r="D385" s="398" t="s">
+      <c r="D385" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386" s="396"/>
-      <c r="B386" s="523"/>
+      <c r="A386" s="395"/>
+      <c r="B386" s="464"/>
       <c r="C386" s="260" t="s">
         <v>399</v>
       </c>
-      <c r="D386" s="398"/>
+      <c r="D386" s="397"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388" s="396">
+      <c r="A388" s="395">
         <v>7004</v>
       </c>
-      <c r="B388" s="524" t="s">
+      <c r="B388" s="465" t="s">
         <v>400</v>
       </c>
       <c r="C388" s="261" t="s">
         <v>401</v>
       </c>
-      <c r="D388" s="398" t="s">
+      <c r="D388" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389" s="396"/>
-      <c r="B389" s="524"/>
+      <c r="A389" s="395"/>
+      <c r="B389" s="465"/>
       <c r="C389" s="262" t="s">
         <v>402</v>
       </c>
-      <c r="D389" s="398"/>
+      <c r="D389" s="397"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391" s="396">
+      <c r="A391" s="395">
         <v>7005</v>
       </c>
-      <c r="B391" s="529" t="s">
+      <c r="B391" s="462" t="s">
         <v>403</v>
       </c>
       <c r="C391" s="263" t="s">
         <v>404</v>
       </c>
-      <c r="D391" s="398" t="s">
+      <c r="D391" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392" s="396"/>
-      <c r="B392" s="529"/>
+      <c r="A392" s="395"/>
+      <c r="B392" s="462"/>
       <c r="C392" s="264" t="s">
         <v>405</v>
       </c>
-      <c r="D392" s="398"/>
+      <c r="D392" s="397"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394" s="396">
+      <c r="A394" s="395">
         <v>7006</v>
       </c>
-      <c r="B394" s="530" t="s">
+      <c r="B394" s="463" t="s">
         <v>406</v>
       </c>
       <c r="C394" s="265" t="s">
         <v>407</v>
       </c>
-      <c r="D394" s="398" t="s">
+      <c r="D394" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A395" s="396"/>
-      <c r="B395" s="530"/>
+      <c r="A395" s="395"/>
+      <c r="B395" s="463"/>
       <c r="C395" s="266" t="s">
         <v>408</v>
       </c>
-      <c r="D395" s="398"/>
+      <c r="D395" s="397"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A397" s="396">
+      <c r="A397" s="395">
         <v>7008</v>
       </c>
-      <c r="B397" s="527" t="s">
+      <c r="B397" s="460" t="s">
         <v>409</v>
       </c>
       <c r="C397" s="267" t="s">
         <v>410</v>
       </c>
-      <c r="D397" s="398" t="s">
+      <c r="D397" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A398" s="396"/>
-      <c r="B398" s="527"/>
+      <c r="A398" s="395"/>
+      <c r="B398" s="460"/>
       <c r="C398" s="268" t="s">
         <v>411</v>
       </c>
-      <c r="D398" s="398"/>
+      <c r="D398" s="397"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A400" s="396">
+      <c r="A400" s="395">
         <v>7009</v>
       </c>
-      <c r="B400" s="528" t="s">
+      <c r="B400" s="461" t="s">
         <v>412</v>
       </c>
       <c r="C400" s="269" t="s">
         <v>413</v>
       </c>
-      <c r="D400" s="398" t="s">
+      <c r="D400" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A401" s="396"/>
-      <c r="B401" s="528"/>
+      <c r="A401" s="395"/>
+      <c r="B401" s="461"/>
       <c r="C401" s="270" t="s">
         <v>414</v>
       </c>
-      <c r="D401" s="398"/>
+      <c r="D401" s="397"/>
     </row>
     <row r="403" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="396">
+      <c r="A403" s="395">
         <v>7010</v>
       </c>
-      <c r="B403" s="533" t="s">
+      <c r="B403" s="458" t="s">
         <v>415</v>
       </c>
       <c r="C403" s="271" t="s">
         <v>416</v>
       </c>
-      <c r="D403" s="398" t="s">
+      <c r="D403" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A404" s="396"/>
-      <c r="B404" s="533"/>
+      <c r="A404" s="395"/>
+      <c r="B404" s="458"/>
       <c r="C404" s="272" t="s">
         <v>417</v>
       </c>
-      <c r="D404" s="398"/>
+      <c r="D404" s="397"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A406" s="396">
+      <c r="A406" s="395">
         <v>7011</v>
       </c>
-      <c r="B406" s="534" t="s">
+      <c r="B406" s="459" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="273" t="s">
         <v>419</v>
       </c>
-      <c r="D406" s="398" t="s">
+      <c r="D406" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A407" s="396"/>
-      <c r="B407" s="534"/>
+      <c r="A407" s="395"/>
+      <c r="B407" s="459"/>
       <c r="C407" s="274" t="s">
         <v>420</v>
       </c>
-      <c r="D407" s="398"/>
+      <c r="D407" s="397"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A409" s="396">
+      <c r="A409" s="395">
         <v>7012</v>
       </c>
-      <c r="B409" s="531" t="s">
+      <c r="B409" s="456" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="275" t="s">
         <v>422</v>
       </c>
-      <c r="D409" s="398" t="s">
+      <c r="D409" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A410" s="396"/>
-      <c r="B410" s="531"/>
+      <c r="A410" s="395"/>
+      <c r="B410" s="456"/>
       <c r="C410" s="276" t="s">
         <v>423</v>
       </c>
-      <c r="D410" s="398"/>
+      <c r="D410" s="397"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A412" s="396">
+      <c r="A412" s="395">
         <v>7013</v>
       </c>
-      <c r="B412" s="532" t="s">
+      <c r="B412" s="457" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="277" t="s">
         <v>425</v>
       </c>
-      <c r="D412" s="398" t="s">
+      <c r="D412" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A413" s="396"/>
-      <c r="B413" s="532"/>
+      <c r="A413" s="395"/>
+      <c r="B413" s="457"/>
       <c r="C413" s="278" t="s">
         <v>426</v>
       </c>
-      <c r="D413" s="398"/>
+      <c r="D413" s="397"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415" s="396">
+      <c r="A415" s="395">
         <v>7015</v>
       </c>
-      <c r="B415" s="537" t="s">
+      <c r="B415" s="454" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="279" t="s">
         <v>428</v>
       </c>
-      <c r="D415" s="398" t="s">
+      <c r="D415" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A416" s="396"/>
-      <c r="B416" s="537"/>
+      <c r="A416" s="395"/>
+      <c r="B416" s="454"/>
       <c r="C416" s="280" t="s">
         <v>429</v>
       </c>
-      <c r="D416" s="398"/>
+      <c r="D416" s="397"/>
     </row>
     <row r="418" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="396">
+      <c r="A418" s="395">
         <v>7016</v>
       </c>
-      <c r="B418" s="538" t="s">
+      <c r="B418" s="455" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="281" t="s">
         <v>431</v>
       </c>
-      <c r="D418" s="398" t="s">
+      <c r="D418" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A419" s="396"/>
-      <c r="B419" s="538"/>
+      <c r="A419" s="395"/>
+      <c r="B419" s="455"/>
       <c r="C419" s="282" t="s">
         <v>432</v>
       </c>
-      <c r="D419" s="398"/>
+      <c r="D419" s="397"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421" s="396">
+      <c r="A421" s="395">
         <v>7021</v>
       </c>
-      <c r="B421" s="535" t="s">
+      <c r="B421" s="452" t="s">
         <v>433</v>
       </c>
       <c r="C421" s="283" t="s">
         <v>434</v>
       </c>
-      <c r="D421" s="398" t="s">
+      <c r="D421" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A422" s="396"/>
-      <c r="B422" s="535"/>
+      <c r="A422" s="395"/>
+      <c r="B422" s="452"/>
       <c r="C422" s="284" t="s">
         <v>435</v>
       </c>
-      <c r="D422" s="398"/>
+      <c r="D422" s="397"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424" s="396">
+      <c r="A424" s="395">
         <v>7022</v>
       </c>
-      <c r="B424" s="536" t="s">
+      <c r="B424" s="453" t="s">
         <v>436</v>
       </c>
       <c r="C424" s="285" t="s">
         <v>437</v>
       </c>
-      <c r="D424" s="398" t="s">
+      <c r="D424" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425" s="396"/>
-      <c r="B425" s="536"/>
+      <c r="A425" s="395"/>
+      <c r="B425" s="453"/>
       <c r="C425" s="286" t="s">
         <v>438</v>
       </c>
-      <c r="D425" s="398"/>
+      <c r="D425" s="397"/>
     </row>
     <row r="427" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A427" s="396">
+      <c r="A427" s="395">
         <v>7023</v>
       </c>
-      <c r="B427" s="541" t="s">
+      <c r="B427" s="450" t="s">
         <v>439</v>
       </c>
       <c r="C427" s="287" t="s">
         <v>440</v>
       </c>
-      <c r="D427" s="398" t="s">
+      <c r="D427" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428" s="396"/>
-      <c r="B428" s="541"/>
+      <c r="A428" s="395"/>
+      <c r="B428" s="450"/>
       <c r="C428" s="288" t="s">
         <v>441</v>
       </c>
-      <c r="D428" s="398"/>
+      <c r="D428" s="397"/>
     </row>
     <row r="430" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="396">
+      <c r="A430" s="395">
         <v>7024</v>
       </c>
-      <c r="B430" s="542" t="s">
+      <c r="B430" s="451" t="s">
         <v>442</v>
       </c>
       <c r="C430" s="289" t="s">
         <v>443</v>
       </c>
-      <c r="D430" s="398" t="s">
+      <c r="D430" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431" s="396"/>
-      <c r="B431" s="542"/>
+      <c r="A431" s="395"/>
+      <c r="B431" s="451"/>
       <c r="C431" s="290" t="s">
         <v>444</v>
       </c>
-      <c r="D431" s="398"/>
+      <c r="D431" s="397"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433" s="396">
+      <c r="A433" s="395">
         <v>7026</v>
       </c>
-      <c r="B433" s="539" t="s">
+      <c r="B433" s="448" t="s">
         <v>445</v>
       </c>
       <c r="C433" s="291" t="s">
         <v>446</v>
       </c>
-      <c r="D433" s="398" t="s">
+      <c r="D433" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434" s="396"/>
-      <c r="B434" s="539"/>
+      <c r="A434" s="395"/>
+      <c r="B434" s="448"/>
       <c r="C434" s="292" t="s">
         <v>447</v>
       </c>
-      <c r="D434" s="398"/>
+      <c r="D434" s="397"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436" s="396">
+      <c r="A436" s="395">
         <v>7030</v>
       </c>
-      <c r="B436" s="540" t="s">
+      <c r="B436" s="449" t="s">
         <v>448</v>
       </c>
       <c r="C436" s="293" t="s">
         <v>449</v>
       </c>
-      <c r="D436" s="398" t="s">
+      <c r="D436" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437" s="396"/>
-      <c r="B437" s="540"/>
+      <c r="A437" s="395"/>
+      <c r="B437" s="449"/>
       <c r="C437" s="294" t="s">
         <v>450</v>
       </c>
-      <c r="D437" s="398"/>
+      <c r="D437" s="397"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439" s="396">
+      <c r="A439" s="395">
         <v>7031</v>
       </c>
-      <c r="B439" s="545" t="s">
+      <c r="B439" s="446" t="s">
         <v>451</v>
       </c>
       <c r="C439" s="295" t="s">
         <v>452</v>
       </c>
-      <c r="D439" s="398" t="s">
+      <c r="D439" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440" s="396"/>
-      <c r="B440" s="545"/>
+      <c r="A440" s="395"/>
+      <c r="B440" s="446"/>
       <c r="C440" s="296" t="s">
         <v>453</v>
       </c>
-      <c r="D440" s="398"/>
+      <c r="D440" s="397"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442" s="396">
+      <c r="A442" s="395">
         <v>7032</v>
       </c>
-      <c r="B442" s="546" t="s">
+      <c r="B442" s="447" t="s">
         <v>454</v>
       </c>
       <c r="C442" s="297" t="s">
         <v>455</v>
       </c>
-      <c r="D442" s="398" t="s">
+      <c r="D442" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443" s="396"/>
-      <c r="B443" s="546"/>
+      <c r="A443" s="395"/>
+      <c r="B443" s="447"/>
       <c r="C443" s="298" t="s">
         <v>456</v>
       </c>
-      <c r="D443" s="398"/>
+      <c r="D443" s="397"/>
     </row>
     <row r="445" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="396">
+      <c r="A445" s="395">
         <v>7033</v>
       </c>
-      <c r="B445" s="543" t="s">
+      <c r="B445" s="444" t="s">
         <v>457</v>
       </c>
       <c r="C445" s="299" t="s">
         <v>458</v>
       </c>
-      <c r="D445" s="398" t="s">
+      <c r="D445" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A446" s="396"/>
-      <c r="B446" s="543"/>
+      <c r="A446" s="395"/>
+      <c r="B446" s="444"/>
       <c r="C446" s="300" t="s">
         <v>459</v>
       </c>
-      <c r="D446" s="398"/>
+      <c r="D446" s="397"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448" s="396">
+      <c r="A448" s="395">
         <v>7034</v>
       </c>
-      <c r="B448" s="544" t="s">
+      <c r="B448" s="445" t="s">
         <v>460</v>
       </c>
       <c r="C448" s="301" t="s">
         <v>461</v>
       </c>
-      <c r="D448" s="398" t="s">
+      <c r="D448" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449" s="396"/>
-      <c r="B449" s="544"/>
+      <c r="A449" s="395"/>
+      <c r="B449" s="445"/>
       <c r="C449" s="302" t="s">
         <v>462</v>
       </c>
-      <c r="D449" s="398"/>
+      <c r="D449" s="397"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451" s="396">
+      <c r="A451" s="395">
         <v>7035</v>
       </c>
-      <c r="B451" s="549" t="s">
+      <c r="B451" s="442" t="s">
         <v>463</v>
       </c>
       <c r="C451" s="303" t="s">
         <v>464</v>
       </c>
-      <c r="D451" s="398" t="s">
+      <c r="D451" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452" s="396"/>
-      <c r="B452" s="549"/>
+      <c r="A452" s="395"/>
+      <c r="B452" s="442"/>
       <c r="C452" s="304" t="s">
         <v>465</v>
       </c>
-      <c r="D452" s="398"/>
+      <c r="D452" s="397"/>
     </row>
     <row r="454" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A454" s="396">
+      <c r="A454" s="395">
         <v>7036</v>
       </c>
-      <c r="B454" s="550" t="s">
+      <c r="B454" s="443" t="s">
         <v>466</v>
       </c>
       <c r="C454" s="305" t="s">
         <v>467</v>
       </c>
-      <c r="D454" s="398" t="s">
+      <c r="D454" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A455" s="396"/>
-      <c r="B455" s="550"/>
+      <c r="A455" s="395"/>
+      <c r="B455" s="443"/>
       <c r="C455" s="306" t="s">
         <v>468</v>
       </c>
-      <c r="D455" s="398"/>
+      <c r="D455" s="397"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A457" s="396">
+      <c r="A457" s="395">
         <v>7037</v>
       </c>
-      <c r="B457" s="547" t="s">
+      <c r="B457" s="440" t="s">
         <v>469</v>
       </c>
       <c r="C457" s="307" t="s">
         <v>470</v>
       </c>
-      <c r="D457" s="398" t="s">
+      <c r="D457" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A458" s="396"/>
-      <c r="B458" s="547"/>
+      <c r="A458" s="395"/>
+      <c r="B458" s="440"/>
       <c r="C458" s="308" t="s">
         <v>471</v>
       </c>
-      <c r="D458" s="398"/>
+      <c r="D458" s="397"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A460" s="396">
+      <c r="A460" s="395">
         <v>7038</v>
       </c>
-      <c r="B460" s="548" t="s">
+      <c r="B460" s="441" t="s">
         <v>472</v>
       </c>
       <c r="C460" s="309" t="s">
         <v>473</v>
       </c>
-      <c r="D460" s="398" t="s">
+      <c r="D460" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A461" s="396"/>
-      <c r="B461" s="548"/>
+      <c r="A461" s="395"/>
+      <c r="B461" s="441"/>
       <c r="C461" s="310" t="s">
         <v>474</v>
       </c>
-      <c r="D461" s="398"/>
+      <c r="D461" s="397"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A463" s="396">
+      <c r="A463" s="395">
         <v>7039</v>
       </c>
-      <c r="B463" s="553" t="s">
+      <c r="B463" s="438" t="s">
         <v>475</v>
       </c>
       <c r="C463" s="311" t="s">
         <v>476</v>
       </c>
-      <c r="D463" s="398" t="s">
+      <c r="D463" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A464" s="396"/>
-      <c r="B464" s="553"/>
+      <c r="A464" s="395"/>
+      <c r="B464" s="438"/>
       <c r="C464" s="312" t="s">
         <v>477</v>
       </c>
-      <c r="D464" s="398"/>
+      <c r="D464" s="397"/>
     </row>
     <row r="466" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A466" s="396">
+      <c r="A466" s="395">
         <v>7040</v>
       </c>
-      <c r="B466" s="554" t="s">
+      <c r="B466" s="439" t="s">
         <v>478</v>
       </c>
       <c r="C466" s="313" t="s">
         <v>479</v>
       </c>
-      <c r="D466" s="398" t="s">
+      <c r="D466" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A467" s="396"/>
-      <c r="B467" s="554"/>
+      <c r="A467" s="395"/>
+      <c r="B467" s="439"/>
       <c r="C467" s="314" t="s">
         <v>480</v>
       </c>
-      <c r="D467" s="398"/>
+      <c r="D467" s="397"/>
     </row>
     <row r="469" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="396">
+      <c r="A469" s="395">
         <v>7042</v>
       </c>
-      <c r="B469" s="551" t="s">
+      <c r="B469" s="436" t="s">
         <v>481</v>
       </c>
       <c r="C469" s="315" t="s">
         <v>482</v>
       </c>
-      <c r="D469" s="398" t="s">
+      <c r="D469" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A470" s="396"/>
-      <c r="B470" s="551"/>
+      <c r="A470" s="395"/>
+      <c r="B470" s="436"/>
       <c r="C470" s="316" t="s">
         <v>483</v>
       </c>
-      <c r="D470" s="398"/>
+      <c r="D470" s="397"/>
     </row>
     <row r="472" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A472" s="396">
+      <c r="A472" s="395">
         <v>7043</v>
       </c>
-      <c r="B472" s="552" t="s">
+      <c r="B472" s="437" t="s">
         <v>484</v>
       </c>
       <c r="C472" s="317" t="s">
         <v>485</v>
       </c>
-      <c r="D472" s="398" t="s">
+      <c r="D472" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A473" s="396"/>
-      <c r="B473" s="552"/>
+      <c r="A473" s="395"/>
+      <c r="B473" s="437"/>
       <c r="C473" s="318" t="s">
         <v>486</v>
       </c>
-      <c r="D473" s="398"/>
+      <c r="D473" s="397"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A475" s="396">
+      <c r="A475" s="395">
         <v>7044</v>
       </c>
-      <c r="B475" s="557" t="s">
+      <c r="B475" s="434" t="s">
         <v>487</v>
       </c>
       <c r="C475" s="319" t="s">
         <v>488</v>
       </c>
-      <c r="D475" s="398" t="s">
+      <c r="D475" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A476" s="396"/>
-      <c r="B476" s="557"/>
+      <c r="A476" s="395"/>
+      <c r="B476" s="434"/>
       <c r="C476" s="320" t="s">
         <v>489</v>
       </c>
-      <c r="D476" s="398"/>
+      <c r="D476" s="397"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A478" s="396">
+      <c r="A478" s="395">
         <v>7045</v>
       </c>
-      <c r="B478" s="558" t="s">
+      <c r="B478" s="435" t="s">
         <v>490</v>
       </c>
       <c r="C478" s="321" t="s">
         <v>491</v>
       </c>
-      <c r="D478" s="398" t="s">
+      <c r="D478" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A479" s="396"/>
-      <c r="B479" s="558"/>
+      <c r="A479" s="395"/>
+      <c r="B479" s="435"/>
       <c r="C479" s="322" t="s">
         <v>492</v>
       </c>
-      <c r="D479" s="398"/>
+      <c r="D479" s="397"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A481" s="396">
+      <c r="A481" s="395">
         <v>7046</v>
       </c>
-      <c r="B481" s="555" t="s">
+      <c r="B481" s="432" t="s">
         <v>493</v>
       </c>
       <c r="C481" s="323" t="s">
         <v>494</v>
       </c>
-      <c r="D481" s="398" t="s">
+      <c r="D481" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A482" s="396"/>
-      <c r="B482" s="555"/>
+      <c r="A482" s="395"/>
+      <c r="B482" s="432"/>
       <c r="C482" s="324" t="s">
         <v>495</v>
       </c>
-      <c r="D482" s="398"/>
+      <c r="D482" s="397"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A484" s="396">
+      <c r="A484" s="395">
         <v>7047</v>
       </c>
-      <c r="B484" s="556" t="s">
+      <c r="B484" s="433" t="s">
         <v>496</v>
       </c>
       <c r="C484" s="325" t="s">
         <v>497</v>
       </c>
-      <c r="D484" s="398" t="s">
+      <c r="D484" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A485" s="396"/>
-      <c r="B485" s="556"/>
+      <c r="A485" s="395"/>
+      <c r="B485" s="433"/>
       <c r="C485" s="326" t="s">
         <v>498</v>
       </c>
-      <c r="D485" s="398"/>
+      <c r="D485" s="397"/>
     </row>
     <row r="487" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="396">
+      <c r="A487" s="395">
         <v>8000</v>
       </c>
-      <c r="B487" s="561" t="s">
+      <c r="B487" s="430" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="327" t="s">
         <v>500</v>
       </c>
-      <c r="D487" s="398" t="s">
+      <c r="D487" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A488" s="396"/>
-      <c r="B488" s="561"/>
+      <c r="A488" s="395"/>
+      <c r="B488" s="430"/>
       <c r="C488" s="328" t="s">
         <v>501</v>
       </c>
-      <c r="D488" s="398"/>
+      <c r="D488" s="397"/>
     </row>
     <row r="490" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A490" s="396">
+      <c r="A490" s="395">
         <v>8001</v>
       </c>
-      <c r="B490" s="562" t="s">
+      <c r="B490" s="431" t="s">
         <v>502</v>
       </c>
       <c r="C490" s="329" t="s">
         <v>503</v>
       </c>
-      <c r="D490" s="398" t="s">
+      <c r="D490" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A491" s="396"/>
-      <c r="B491" s="562"/>
+      <c r="A491" s="395"/>
+      <c r="B491" s="431"/>
       <c r="C491" s="330" t="s">
         <v>504</v>
       </c>
-      <c r="D491" s="398"/>
+      <c r="D491" s="397"/>
     </row>
     <row r="493" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="396">
+      <c r="A493" s="395">
         <v>8002</v>
       </c>
-      <c r="B493" s="559" t="s">
+      <c r="B493" s="428" t="s">
         <v>505</v>
       </c>
       <c r="C493" s="331" t="s">
         <v>506</v>
       </c>
-      <c r="D493" s="398" t="s">
+      <c r="D493" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A494" s="396"/>
-      <c r="B494" s="559"/>
+      <c r="A494" s="395"/>
+      <c r="B494" s="428"/>
       <c r="C494" s="332" t="s">
         <v>507</v>
       </c>
-      <c r="D494" s="398"/>
+      <c r="D494" s="397"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A496" s="396">
+      <c r="A496" s="395">
         <v>8003</v>
       </c>
-      <c r="B496" s="560" t="s">
+      <c r="B496" s="429" t="s">
         <v>508</v>
       </c>
       <c r="C496" s="333" t="s">
         <v>509</v>
       </c>
-      <c r="D496" s="398" t="s">
+      <c r="D496" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A497" s="396"/>
-      <c r="B497" s="560"/>
+      <c r="A497" s="395"/>
+      <c r="B497" s="429"/>
       <c r="C497" s="334" t="s">
         <v>510</v>
       </c>
-      <c r="D497" s="398"/>
+      <c r="D497" s="397"/>
     </row>
     <row r="499" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="396">
+      <c r="A499" s="395">
         <v>8004</v>
       </c>
-      <c r="B499" s="565" t="s">
+      <c r="B499" s="426" t="s">
         <v>511</v>
       </c>
       <c r="C499" s="335" t="s">
         <v>512</v>
       </c>
-      <c r="D499" s="398" t="s">
+      <c r="D499" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A500" s="396"/>
-      <c r="B500" s="565"/>
+      <c r="A500" s="395"/>
+      <c r="B500" s="426"/>
       <c r="C500" s="336" t="s">
         <v>513</v>
       </c>
-      <c r="D500" s="398"/>
+      <c r="D500" s="397"/>
     </row>
     <row r="502" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="396">
+      <c r="A502" s="395">
         <v>8007</v>
       </c>
-      <c r="B502" s="566" t="s">
+      <c r="B502" s="427" t="s">
         <v>514</v>
       </c>
       <c r="C502" s="337" t="s">
         <v>515</v>
       </c>
-      <c r="D502" s="398" t="s">
+      <c r="D502" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A503" s="396"/>
-      <c r="B503" s="566"/>
+      <c r="A503" s="395"/>
+      <c r="B503" s="427"/>
       <c r="C503" s="338" t="s">
         <v>516</v>
       </c>
-      <c r="D503" s="398"/>
+      <c r="D503" s="397"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A505" s="396">
+      <c r="A505" s="395">
         <v>8008</v>
       </c>
-      <c r="B505" s="563" t="s">
+      <c r="B505" s="424" t="s">
         <v>517</v>
       </c>
       <c r="C505" s="339" t="s">
         <v>518</v>
       </c>
-      <c r="D505" s="398" t="s">
+      <c r="D505" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A506" s="396"/>
-      <c r="B506" s="563"/>
+      <c r="A506" s="395"/>
+      <c r="B506" s="424"/>
       <c r="C506" s="340" t="s">
         <v>519</v>
       </c>
-      <c r="D506" s="398"/>
+      <c r="D506" s="397"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A508" s="396">
+      <c r="A508" s="395">
         <v>8011</v>
       </c>
-      <c r="B508" s="564" t="s">
+      <c r="B508" s="425" t="s">
         <v>520</v>
       </c>
       <c r="C508" s="341" t="s">
         <v>521</v>
       </c>
-      <c r="D508" s="398" t="s">
+      <c r="D508" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A509" s="396"/>
-      <c r="B509" s="564"/>
+      <c r="A509" s="395"/>
+      <c r="B509" s="425"/>
       <c r="C509" s="342" t="s">
         <v>522</v>
       </c>
-      <c r="D509" s="398"/>
+      <c r="D509" s="397"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A511" s="396">
+      <c r="A511" s="395">
         <v>8012</v>
       </c>
-      <c r="B511" s="569" t="s">
+      <c r="B511" s="422" t="s">
         <v>523</v>
       </c>
       <c r="C511" s="343" t="s">
         <v>524</v>
       </c>
-      <c r="D511" s="398" t="s">
+      <c r="D511" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A512" s="396"/>
-      <c r="B512" s="569"/>
+      <c r="A512" s="395"/>
+      <c r="B512" s="422"/>
       <c r="C512" s="344" t="s">
         <v>525</v>
       </c>
-      <c r="D512" s="398"/>
+      <c r="D512" s="397"/>
     </row>
     <row r="514" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A514" s="396">
+      <c r="A514" s="395">
         <v>8014</v>
       </c>
-      <c r="B514" s="570" t="s">
+      <c r="B514" s="423" t="s">
         <v>526</v>
       </c>
       <c r="C514" s="345" t="s">
         <v>527</v>
       </c>
-      <c r="D514" s="398" t="s">
+      <c r="D514" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A515" s="396"/>
-      <c r="B515" s="570"/>
+      <c r="A515" s="395"/>
+      <c r="B515" s="423"/>
       <c r="C515" s="346" t="s">
         <v>528</v>
       </c>
-      <c r="D515" s="398"/>
+      <c r="D515" s="397"/>
     </row>
     <row r="517" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="396">
+      <c r="A517" s="395">
         <v>8015</v>
       </c>
-      <c r="B517" s="567" t="s">
+      <c r="B517" s="420" t="s">
         <v>529</v>
       </c>
       <c r="C517" s="347" t="s">
         <v>530</v>
       </c>
-      <c r="D517" s="398" t="s">
+      <c r="D517" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A518" s="396"/>
-      <c r="B518" s="567"/>
+      <c r="A518" s="395"/>
+      <c r="B518" s="420"/>
       <c r="C518" s="348" t="s">
         <v>531</v>
       </c>
-      <c r="D518" s="398"/>
+      <c r="D518" s="397"/>
     </row>
     <row r="520" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A520" s="396">
+      <c r="A520" s="395">
         <v>8016</v>
       </c>
-      <c r="B520" s="568" t="s">
+      <c r="B520" s="421" t="s">
         <v>532</v>
       </c>
       <c r="C520" s="349" t="s">
         <v>533</v>
       </c>
-      <c r="D520" s="398" t="s">
+      <c r="D520" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A521" s="396"/>
-      <c r="B521" s="568"/>
+      <c r="A521" s="395"/>
+      <c r="B521" s="421"/>
       <c r="C521" s="350" t="s">
         <v>534</v>
       </c>
-      <c r="D521" s="398"/>
+      <c r="D521" s="397"/>
     </row>
     <row r="523" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A523" s="396">
+      <c r="A523" s="395">
         <v>8017</v>
       </c>
-      <c r="B523" s="573" t="s">
+      <c r="B523" s="418" t="s">
         <v>535</v>
       </c>
       <c r="C523" s="351" t="s">
         <v>536</v>
       </c>
-      <c r="D523" s="398" t="s">
+      <c r="D523" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A524" s="396"/>
-      <c r="B524" s="573"/>
+      <c r="A524" s="395"/>
+      <c r="B524" s="418"/>
       <c r="C524" s="352" t="s">
         <v>537</v>
       </c>
-      <c r="D524" s="398"/>
+      <c r="D524" s="397"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A526" s="396">
+      <c r="A526" s="395">
         <v>8019</v>
       </c>
-      <c r="B526" s="574" t="s">
+      <c r="B526" s="419" t="s">
         <v>538</v>
       </c>
       <c r="C526" s="353" t="s">
         <v>539</v>
       </c>
-      <c r="D526" s="398" t="s">
+      <c r="D526" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A527" s="396"/>
-      <c r="B527" s="574"/>
+      <c r="A527" s="395"/>
+      <c r="B527" s="419"/>
       <c r="C527" s="354" t="s">
         <v>540</v>
       </c>
-      <c r="D527" s="398"/>
+      <c r="D527" s="397"/>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A529" s="396">
+      <c r="A529" s="395">
         <v>8022</v>
       </c>
-      <c r="B529" s="571" t="s">
+      <c r="B529" s="416" t="s">
         <v>541</v>
       </c>
       <c r="C529" s="355" t="s">
         <v>542</v>
       </c>
-      <c r="D529" s="398" t="s">
+      <c r="D529" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A530" s="396"/>
-      <c r="B530" s="571"/>
+      <c r="A530" s="395"/>
+      <c r="B530" s="416"/>
       <c r="C530" s="356" t="s">
         <v>543</v>
       </c>
-      <c r="D530" s="398"/>
+      <c r="D530" s="397"/>
     </row>
     <row r="532" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="396">
+      <c r="A532" s="395">
         <v>8023</v>
       </c>
-      <c r="B532" s="572" t="s">
+      <c r="B532" s="417" t="s">
         <v>544</v>
       </c>
       <c r="C532" s="357" t="s">
         <v>545</v>
       </c>
-      <c r="D532" s="398" t="s">
+      <c r="D532" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A533" s="396"/>
-      <c r="B533" s="572"/>
+      <c r="A533" s="395"/>
+      <c r="B533" s="417"/>
       <c r="C533" s="358" t="s">
         <v>546</v>
       </c>
-      <c r="D533" s="398"/>
+      <c r="D533" s="397"/>
     </row>
     <row r="535" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A535" s="396">
+      <c r="A535" s="395">
         <v>8024</v>
       </c>
-      <c r="B535" s="577" t="s">
+      <c r="B535" s="414" t="s">
         <v>547</v>
       </c>
       <c r="C535" s="359" t="s">
         <v>548</v>
       </c>
-      <c r="D535" s="398" t="s">
+      <c r="D535" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A536" s="396"/>
-      <c r="B536" s="577"/>
+      <c r="A536" s="395"/>
+      <c r="B536" s="414"/>
       <c r="C536" s="360" t="s">
         <v>549</v>
       </c>
-      <c r="D536" s="398"/>
+      <c r="D536" s="397"/>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A538" s="396">
+      <c r="A538" s="395">
         <v>8025</v>
       </c>
-      <c r="B538" s="578" t="s">
+      <c r="B538" s="415" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="361" t="s">
         <v>551</v>
       </c>
-      <c r="D538" s="398" t="s">
+      <c r="D538" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A539" s="396"/>
-      <c r="B539" s="578"/>
+      <c r="A539" s="395"/>
+      <c r="B539" s="415"/>
       <c r="C539" s="362" t="s">
         <v>552</v>
       </c>
-      <c r="D539" s="398"/>
+      <c r="D539" s="397"/>
     </row>
     <row r="541" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A541" s="396">
+      <c r="A541" s="395">
         <v>8028</v>
       </c>
-      <c r="B541" s="575" t="s">
+      <c r="B541" s="412" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="363" t="s">
         <v>554</v>
       </c>
-      <c r="D541" s="398" t="s">
+      <c r="D541" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A542" s="396"/>
-      <c r="B542" s="575"/>
+      <c r="A542" s="395"/>
+      <c r="B542" s="412"/>
       <c r="C542" s="364" t="s">
         <v>555</v>
       </c>
-      <c r="D542" s="398"/>
+      <c r="D542" s="397"/>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A544" s="396">
+      <c r="A544" s="395">
         <v>9001</v>
       </c>
-      <c r="B544" s="576" t="s">
+      <c r="B544" s="413" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="365" t="s">
         <v>557</v>
       </c>
-      <c r="D544" s="398" t="s">
+      <c r="D544" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A545" s="396"/>
-      <c r="B545" s="576"/>
+      <c r="A545" s="395"/>
+      <c r="B545" s="413"/>
       <c r="C545" s="366" t="s">
         <v>558</v>
       </c>
-      <c r="D545" s="398"/>
+      <c r="D545" s="397"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A547" s="396">
+      <c r="A547" s="395">
         <v>9002</v>
       </c>
-      <c r="B547" s="581" t="s">
+      <c r="B547" s="410" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="367" t="s">
         <v>560</v>
       </c>
-      <c r="D547" s="398" t="s">
+      <c r="D547" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A548" s="396"/>
-      <c r="B548" s="581"/>
+      <c r="A548" s="395"/>
+      <c r="B548" s="410"/>
       <c r="C548" s="368" t="s">
         <v>561</v>
       </c>
-      <c r="D548" s="398"/>
+      <c r="D548" s="397"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A550" s="396">
+      <c r="A550" s="395">
         <v>9003</v>
       </c>
-      <c r="B550" s="582" t="s">
+      <c r="B550" s="411" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="369" t="s">
         <v>563</v>
       </c>
-      <c r="D550" s="398" t="s">
+      <c r="D550" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A551" s="396"/>
-      <c r="B551" s="582"/>
+      <c r="A551" s="395"/>
+      <c r="B551" s="411"/>
       <c r="C551" s="370" t="s">
         <v>564</v>
       </c>
-      <c r="D551" s="398"/>
+      <c r="D551" s="397"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A553" s="396">
+      <c r="A553" s="395">
         <v>9004</v>
       </c>
-      <c r="B553" s="579" t="s">
+      <c r="B553" s="408" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="371" t="s">
         <v>566</v>
       </c>
-      <c r="D553" s="398" t="s">
+      <c r="D553" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A554" s="396"/>
-      <c r="B554" s="579"/>
+      <c r="A554" s="395"/>
+      <c r="B554" s="408"/>
       <c r="C554" s="372" t="s">
         <v>567</v>
       </c>
-      <c r="D554" s="398"/>
+      <c r="D554" s="397"/>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A556" s="396">
+      <c r="A556" s="395">
         <v>9005</v>
       </c>
-      <c r="B556" s="580" t="s">
+      <c r="B556" s="409" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="373" t="s">
         <v>569</v>
       </c>
-      <c r="D556" s="398" t="s">
+      <c r="D556" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A557" s="396"/>
-      <c r="B557" s="580"/>
+      <c r="A557" s="395"/>
+      <c r="B557" s="409"/>
       <c r="C557" s="374" t="s">
         <v>570</v>
       </c>
-      <c r="D557" s="398"/>
+      <c r="D557" s="397"/>
     </row>
     <row r="559" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A559" s="396">
+      <c r="A559" s="395">
         <v>9006</v>
       </c>
-      <c r="B559" s="585" t="s">
+      <c r="B559" s="406" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="375" t="s">
         <v>572</v>
       </c>
-      <c r="D559" s="398" t="s">
+      <c r="D559" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A560" s="396"/>
-      <c r="B560" s="585"/>
+      <c r="A560" s="395"/>
+      <c r="B560" s="406"/>
       <c r="C560" s="376" t="s">
         <v>573</v>
       </c>
-      <c r="D560" s="398"/>
+      <c r="D560" s="397"/>
     </row>
     <row r="562" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A562" s="396">
+      <c r="A562" s="395">
         <v>9007</v>
       </c>
-      <c r="B562" s="586" t="s">
+      <c r="B562" s="407" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="377" t="s">
         <v>575</v>
       </c>
-      <c r="D562" s="398" t="s">
+      <c r="D562" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A563" s="396"/>
-      <c r="B563" s="586"/>
+      <c r="A563" s="395"/>
+      <c r="B563" s="407"/>
       <c r="C563" s="378" t="s">
         <v>576</v>
       </c>
-      <c r="D563" s="398"/>
+      <c r="D563" s="397"/>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A565" s="396">
+      <c r="A565" s="395">
         <v>9010</v>
       </c>
-      <c r="B565" s="583" t="s">
+      <c r="B565" s="404" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="379" t="s">
         <v>578</v>
       </c>
-      <c r="D565" s="398" t="s">
+      <c r="D565" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A566" s="396"/>
-      <c r="B566" s="583"/>
+      <c r="A566" s="395"/>
+      <c r="B566" s="404"/>
       <c r="C566" s="380" t="s">
         <v>579</v>
       </c>
-      <c r="D566" s="398"/>
+      <c r="D566" s="397"/>
     </row>
     <row r="568" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A568" s="396">
+      <c r="A568" s="395">
         <v>9011</v>
       </c>
-      <c r="B568" s="584" t="s">
+      <c r="B568" s="405" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="381" t="s">
         <v>581</v>
       </c>
-      <c r="D568" s="398" t="s">
+      <c r="D568" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A569" s="396"/>
-      <c r="B569" s="584"/>
+      <c r="A569" s="395"/>
+      <c r="B569" s="405"/>
       <c r="C569" s="382" t="s">
         <v>582</v>
       </c>
-      <c r="D569" s="398"/>
+      <c r="D569" s="397"/>
     </row>
     <row r="571" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A571" s="396">
+      <c r="A571" s="395">
         <v>9016</v>
       </c>
-      <c r="B571" s="592" t="s">
+      <c r="B571" s="402" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="383" t="s">
         <v>584</v>
       </c>
-      <c r="D571" s="398" t="s">
+      <c r="D571" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A572" s="396"/>
-      <c r="B572" s="592"/>
+      <c r="A572" s="395"/>
+      <c r="B572" s="402"/>
       <c r="C572" s="384" t="s">
         <v>585</v>
       </c>
-      <c r="D572" s="398"/>
+      <c r="D572" s="397"/>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A574" s="396">
+      <c r="A574" s="395">
         <v>9017</v>
       </c>
-      <c r="B574" s="593" t="s">
+      <c r="B574" s="403" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="385" t="s">
         <v>587</v>
       </c>
-      <c r="D574" s="398" t="s">
+      <c r="D574" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A575" s="396"/>
-      <c r="B575" s="593"/>
+      <c r="A575" s="395"/>
+      <c r="B575" s="403"/>
       <c r="C575" s="386" t="s">
         <v>588</v>
       </c>
-      <c r="D575" s="398"/>
+      <c r="D575" s="397"/>
     </row>
     <row r="577" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A577" s="396">
+      <c r="A577" s="395">
         <v>9018</v>
       </c>
-      <c r="B577" s="587" t="s">
+      <c r="B577" s="396" t="s">
         <v>589</v>
       </c>
       <c r="C577" s="387" t="s">
         <v>590</v>
       </c>
-      <c r="D577" s="398" t="s">
+      <c r="D577" s="397" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A578" s="396"/>
-      <c r="B578" s="587"/>
+      <c r="A578" s="395"/>
+      <c r="B578" s="396"/>
       <c r="C578" s="388" t="s">
         <v>591</v>
       </c>
-      <c r="D578" s="398"/>
+      <c r="D578" s="397"/>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A580" s="398"/>
-      <c r="B580" s="398"/>
-      <c r="C580" s="398"/>
-      <c r="D580" s="398"/>
+      <c r="A580" s="397"/>
+      <c r="B580" s="397"/>
+      <c r="C580" s="397"/>
+      <c r="D580" s="397"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="588"/>
-      <c r="B581" s="590"/>
+      <c r="A581" s="398"/>
+      <c r="B581" s="400"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="589"/>
-      <c r="B582" s="591"/>
+      <c r="A582" s="399"/>
+      <c r="B582" s="401"/>
     </row>
   </sheetData>
   <mergeCells count="582">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
     <mergeCell ref="A577:A578"/>
     <mergeCell ref="B577:B578"/>
     <mergeCell ref="D577:D578"/>
@@ -9983,576 +10777,6 @@
     <mergeCell ref="A574:A575"/>
     <mergeCell ref="B574:B575"/>
     <mergeCell ref="D574:D575"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{682DF7DD-067B-4B85-A12A-B7014033219D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7938F9A0-DBC3-41E9-A779-F120D4B13C02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="625">
   <si>
     <t>#</t>
   </si>
@@ -1890,6 +1890,15 @@
   </si>
   <si>
     <t>Optical Encoder 1024 CPR</t>
+  </si>
+  <si>
+    <t>https://www.maxonmotor.com/maxon/view/product/272768</t>
+  </si>
+  <si>
+    <t>BLDC Maxxon Motor with Hall sensors, 40W</t>
+  </si>
+  <si>
+    <t>Omniwheel motors</t>
   </si>
 </sst>
 </file>
@@ -3128,7 +3137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="593">
+  <cellXfs count="594">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4299,10 +4308,577 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4323,573 +4899,7 @@
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5408,10 +5418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M11"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5479,18 +5489,18 @@
         <v>1</v>
       </c>
       <c r="I3" s="394">
-        <f>INT((B3-1)/H3+1)</f>
+        <f t="shared" ref="I3:I11" si="0">INT((B3-1)/H3+1)</f>
         <v>1</v>
       </c>
       <c r="J3" s="392">
         <v>19.899999999999999</v>
       </c>
       <c r="K3" s="392">
-        <f>I3*J3</f>
+        <f t="shared" ref="K3:K11" si="1">I3*J3</f>
         <v>19.899999999999999</v>
       </c>
       <c r="L3" s="391">
-        <f>H3*I3-B3</f>
+        <f t="shared" ref="L3:L11" si="2">H3*I3-B3</f>
         <v>0</v>
       </c>
       <c r="M3" s="394">
@@ -5514,18 +5524,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="394">
-        <f>INT((B4-1)/H4+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4" s="392">
         <v>12.5</v>
       </c>
       <c r="K4" s="392">
-        <f>I4*J4</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="L4" s="391">
-        <f>H4*I4-B4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M4" s="394">
@@ -5550,18 +5560,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="394">
-        <f>INT((B5-1)/H5+1)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="J5" s="392">
         <v>0.87</v>
       </c>
       <c r="K5" s="392">
-        <f>I5*J5</f>
+        <f t="shared" si="1"/>
         <v>62.64</v>
       </c>
       <c r="L5" s="391">
-        <f>H5*I5-B5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M5" s="394">
@@ -5586,18 +5596,18 @@
         <v>2</v>
       </c>
       <c r="I6" s="394">
-        <f>INT((B6-1)/H6+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J6" s="392">
         <v>7.5</v>
       </c>
       <c r="K6" s="392">
-        <f>I6*J6</f>
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="L6" s="391">
-        <f>H6*I6-B6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="394">
@@ -5622,18 +5632,18 @@
         <v>100</v>
       </c>
       <c r="I7" s="394">
-        <f>INT((B7-1)/H7+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7" s="392">
         <v>11.34</v>
       </c>
       <c r="K7" s="392">
-        <f>I7*J7</f>
+        <f t="shared" si="1"/>
         <v>11.34</v>
       </c>
       <c r="L7" s="391">
-        <f>H7*I7-B7</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="M7" s="394">
@@ -5657,18 +5667,18 @@
         <v>1</v>
       </c>
       <c r="I8" s="394">
-        <f>INT((B8-1)/H8+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J8" s="392">
         <v>2.34</v>
       </c>
       <c r="K8" s="392">
-        <f>I8*J8</f>
+        <f t="shared" si="1"/>
         <v>4.68</v>
       </c>
       <c r="L8" s="391">
-        <f>H8*I8-B8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="394">
@@ -5692,18 +5702,18 @@
         <v>1</v>
       </c>
       <c r="I9" s="394">
-        <f>INT((B9-1)/H9+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9" s="392">
         <v>2.59</v>
       </c>
       <c r="K9" s="392">
-        <f>I9*J9</f>
+        <f t="shared" si="1"/>
         <v>2.59</v>
       </c>
       <c r="L9" s="391">
-        <f>H9*I9-B9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="394">
@@ -5727,18 +5737,18 @@
         <v>1</v>
       </c>
       <c r="I10" s="394">
-        <f>INT((B10-1)/H10+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J10" s="392">
         <v>19.899999999999999</v>
       </c>
       <c r="K10" s="392">
-        <f>I10*J10</f>
+        <f t="shared" si="1"/>
         <v>59.699999999999996</v>
       </c>
       <c r="L10" s="394">
-        <f>H10*I10-B10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="394">
@@ -5746,9 +5756,44 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K11" s="393">
-        <f>SUM(K3:K10)</f>
-        <v>195.85</v>
+      <c r="B11" s="394">
+        <v>3</v>
+      </c>
+      <c r="C11" s="394" t="s">
+        <v>623</v>
+      </c>
+      <c r="D11" s="394" t="s">
+        <v>624</v>
+      </c>
+      <c r="G11" s="391" t="s">
+        <v>622</v>
+      </c>
+      <c r="H11" s="394">
+        <v>5</v>
+      </c>
+      <c r="I11" s="394">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="593">
+        <v>23</v>
+      </c>
+      <c r="K11" s="392">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="L11" s="394">
+        <f t="shared" ref="L11" si="3">H11*I11-B11</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K12" s="393">
+        <f>SUM(K3:K11)</f>
+        <v>218.85</v>
       </c>
     </row>
   </sheetData>
@@ -5937,7 +5982,7 @@
       <c r="A1" s="395">
         <v>1000</v>
       </c>
-      <c r="B1" s="590" t="s">
+      <c r="B1" s="396" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -5949,7 +5994,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="395"/>
-      <c r="B2" s="590"/>
+      <c r="B2" s="396"/>
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
@@ -5959,7 +6004,7 @@
       <c r="A4" s="395">
         <v>1001</v>
       </c>
-      <c r="B4" s="591" t="s">
+      <c r="B4" s="398" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -5971,7 +6016,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="395"/>
-      <c r="B5" s="591"/>
+      <c r="B5" s="398"/>
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
@@ -5981,7 +6026,7 @@
       <c r="A7" s="395">
         <v>1002</v>
       </c>
-      <c r="B7" s="588" t="s">
+      <c r="B7" s="401" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -5993,7 +6038,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="395"/>
-      <c r="B8" s="588"/>
+      <c r="B8" s="401"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
@@ -6003,7 +6048,7 @@
       <c r="A10" s="395">
         <v>1003</v>
       </c>
-      <c r="B10" s="589" t="s">
+      <c r="B10" s="402" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -6015,7 +6060,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="395"/>
-      <c r="B11" s="589"/>
+      <c r="B11" s="402"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
@@ -6025,7 +6070,7 @@
       <c r="A13" s="395">
         <v>1004</v>
       </c>
-      <c r="B13" s="592" t="s">
+      <c r="B13" s="399" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6037,7 +6082,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="395"/>
-      <c r="B14" s="592"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
@@ -6047,7 +6092,7 @@
       <c r="A16" s="395">
         <v>1005</v>
       </c>
-      <c r="B16" s="587" t="s">
+      <c r="B16" s="400" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -6059,7 +6104,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="395"/>
-      <c r="B17" s="587"/>
+      <c r="B17" s="400"/>
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
@@ -6069,7 +6114,7 @@
       <c r="A19" s="395">
         <v>1006</v>
       </c>
-      <c r="B19" s="585" t="s">
+      <c r="B19" s="405" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -6081,7 +6126,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="395"/>
-      <c r="B20" s="585"/>
+      <c r="B20" s="405"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
@@ -6091,7 +6136,7 @@
       <c r="A22" s="395">
         <v>1007</v>
       </c>
-      <c r="B22" s="586" t="s">
+      <c r="B22" s="406" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6103,7 +6148,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="395"/>
-      <c r="B23" s="586"/>
+      <c r="B23" s="406"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
@@ -6113,7 +6158,7 @@
       <c r="A25" s="395">
         <v>1011</v>
       </c>
-      <c r="B25" s="583" t="s">
+      <c r="B25" s="403" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6125,7 +6170,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="395"/>
-      <c r="B26" s="583"/>
+      <c r="B26" s="403"/>
       <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
@@ -6135,7 +6180,7 @@
       <c r="A28" s="395">
         <v>1012</v>
       </c>
-      <c r="B28" s="584" t="s">
+      <c r="B28" s="404" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6147,7 +6192,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="395"/>
-      <c r="B29" s="584"/>
+      <c r="B29" s="404"/>
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
@@ -6157,7 +6202,7 @@
       <c r="A31" s="395">
         <v>1013</v>
       </c>
-      <c r="B31" s="581" t="s">
+      <c r="B31" s="409" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6169,7 +6214,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="395"/>
-      <c r="B32" s="581"/>
+      <c r="B32" s="409"/>
       <c r="C32" s="26" t="s">
         <v>48</v>
       </c>
@@ -6179,7 +6224,7 @@
       <c r="A34" s="395">
         <v>1014</v>
       </c>
-      <c r="B34" s="582" t="s">
+      <c r="B34" s="410" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6191,7 +6236,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="395"/>
-      <c r="B35" s="582"/>
+      <c r="B35" s="410"/>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
@@ -6201,7 +6246,7 @@
       <c r="A37" s="395">
         <v>1015</v>
       </c>
-      <c r="B37" s="579" t="s">
+      <c r="B37" s="407" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6213,7 +6258,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="395"/>
-      <c r="B38" s="579"/>
+      <c r="B38" s="407"/>
       <c r="C38" s="30" t="s">
         <v>54</v>
       </c>
@@ -6223,7 +6268,7 @@
       <c r="A40" s="395">
         <v>1016</v>
       </c>
-      <c r="B40" s="580" t="s">
+      <c r="B40" s="408" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6235,7 +6280,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="395"/>
-      <c r="B41" s="580"/>
+      <c r="B41" s="408"/>
       <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
@@ -6245,7 +6290,7 @@
       <c r="A43" s="395">
         <v>1017</v>
       </c>
-      <c r="B43" s="577" t="s">
+      <c r="B43" s="413" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6257,7 +6302,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="395"/>
-      <c r="B44" s="577"/>
+      <c r="B44" s="413"/>
       <c r="C44" s="34" t="s">
         <v>60</v>
       </c>
@@ -6267,7 +6312,7 @@
       <c r="A46" s="395">
         <v>1018</v>
       </c>
-      <c r="B46" s="578" t="s">
+      <c r="B46" s="414" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6279,7 +6324,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="395"/>
-      <c r="B47" s="578"/>
+      <c r="B47" s="414"/>
       <c r="C47" s="36" t="s">
         <v>63</v>
       </c>
@@ -6289,7 +6334,7 @@
       <c r="A49" s="395">
         <v>1019</v>
       </c>
-      <c r="B49" s="575" t="s">
+      <c r="B49" s="411" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6301,7 +6346,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="395"/>
-      <c r="B50" s="575"/>
+      <c r="B50" s="411"/>
       <c r="C50" s="38" t="s">
         <v>66</v>
       </c>
@@ -6311,7 +6356,7 @@
       <c r="A52" s="395">
         <v>1020</v>
       </c>
-      <c r="B52" s="576" t="s">
+      <c r="B52" s="412" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6323,7 +6368,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="395"/>
-      <c r="B53" s="576"/>
+      <c r="B53" s="412"/>
       <c r="C53" s="40" t="s">
         <v>69</v>
       </c>
@@ -6333,7 +6378,7 @@
       <c r="A55" s="395">
         <v>1021</v>
       </c>
-      <c r="B55" s="574" t="s">
+      <c r="B55" s="417" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6345,7 +6390,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="395"/>
-      <c r="B56" s="574"/>
+      <c r="B56" s="417"/>
       <c r="C56" s="42" t="s">
         <v>72</v>
       </c>
@@ -6355,7 +6400,7 @@
       <c r="A58" s="395">
         <v>1023</v>
       </c>
-      <c r="B58" s="574" t="s">
+      <c r="B58" s="417" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6367,7 +6412,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="395"/>
-      <c r="B59" s="574"/>
+      <c r="B59" s="417"/>
       <c r="C59" s="42" t="s">
         <v>72</v>
       </c>
@@ -6377,7 +6422,7 @@
       <c r="A61" s="395">
         <v>1024</v>
       </c>
-      <c r="B61" s="572" t="s">
+      <c r="B61" s="415" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6389,7 +6434,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="395"/>
-      <c r="B62" s="572"/>
+      <c r="B62" s="415"/>
       <c r="C62" s="44" t="s">
         <v>76</v>
       </c>
@@ -6399,7 +6444,7 @@
       <c r="A64" s="395">
         <v>1026</v>
       </c>
-      <c r="B64" s="573" t="s">
+      <c r="B64" s="416" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6411,7 +6456,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="395"/>
-      <c r="B65" s="573"/>
+      <c r="B65" s="416"/>
       <c r="C65" s="46" t="s">
         <v>79</v>
       </c>
@@ -6421,7 +6466,7 @@
       <c r="A67" s="395">
         <v>1027</v>
       </c>
-      <c r="B67" s="570" t="s">
+      <c r="B67" s="420" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6433,7 +6478,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="395"/>
-      <c r="B68" s="570"/>
+      <c r="B68" s="420"/>
       <c r="C68" s="48" t="s">
         <v>82</v>
       </c>
@@ -6443,7 +6488,7 @@
       <c r="A70" s="395">
         <v>1028</v>
       </c>
-      <c r="B70" s="571" t="s">
+      <c r="B70" s="421" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6455,7 +6500,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="395"/>
-      <c r="B71" s="571"/>
+      <c r="B71" s="421"/>
       <c r="C71" s="50" t="s">
         <v>85</v>
       </c>
@@ -6465,7 +6510,7 @@
       <c r="A73" s="395">
         <v>1032</v>
       </c>
-      <c r="B73" s="568" t="s">
+      <c r="B73" s="418" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6477,7 +6522,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="395"/>
-      <c r="B74" s="568"/>
+      <c r="B74" s="418"/>
       <c r="C74" s="52" t="s">
         <v>88</v>
       </c>
@@ -6487,7 +6532,7 @@
       <c r="A76" s="395">
         <v>1033</v>
       </c>
-      <c r="B76" s="569" t="s">
+      <c r="B76" s="419" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6499,7 +6544,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="395"/>
-      <c r="B77" s="569"/>
+      <c r="B77" s="419"/>
       <c r="C77" s="54" t="s">
         <v>91</v>
       </c>
@@ -6509,7 +6554,7 @@
       <c r="A79" s="395">
         <v>1034</v>
       </c>
-      <c r="B79" s="566" t="s">
+      <c r="B79" s="424" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6521,7 +6566,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="395"/>
-      <c r="B80" s="566"/>
+      <c r="B80" s="424"/>
       <c r="C80" s="56" t="s">
         <v>94</v>
       </c>
@@ -6531,7 +6576,7 @@
       <c r="A82" s="395">
         <v>2000</v>
       </c>
-      <c r="B82" s="567" t="s">
+      <c r="B82" s="425" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6543,7 +6588,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="395"/>
-      <c r="B83" s="567"/>
+      <c r="B83" s="425"/>
       <c r="C83" s="58" t="s">
         <v>97</v>
       </c>
@@ -6553,7 +6598,7 @@
       <c r="A85" s="395">
         <v>2001</v>
       </c>
-      <c r="B85" s="564" t="s">
+      <c r="B85" s="422" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6565,7 +6610,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="395"/>
-      <c r="B86" s="564"/>
+      <c r="B86" s="422"/>
       <c r="C86" s="60" t="s">
         <v>100</v>
       </c>
@@ -6575,7 +6620,7 @@
       <c r="A88" s="395">
         <v>2002</v>
       </c>
-      <c r="B88" s="565" t="s">
+      <c r="B88" s="423" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6587,7 +6632,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="395"/>
-      <c r="B89" s="565"/>
+      <c r="B89" s="423"/>
       <c r="C89" s="62" t="s">
         <v>103</v>
       </c>
@@ -6597,7 +6642,7 @@
       <c r="A91" s="395">
         <v>2003</v>
       </c>
-      <c r="B91" s="562" t="s">
+      <c r="B91" s="428" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6609,7 +6654,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="395"/>
-      <c r="B92" s="562"/>
+      <c r="B92" s="428"/>
       <c r="C92" s="64" t="s">
         <v>106</v>
       </c>
@@ -6619,7 +6664,7 @@
       <c r="A94" s="395">
         <v>2004</v>
       </c>
-      <c r="B94" s="563" t="s">
+      <c r="B94" s="429" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6631,7 +6676,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="395"/>
-      <c r="B95" s="563"/>
+      <c r="B95" s="429"/>
       <c r="C95" s="66" t="s">
         <v>109</v>
       </c>
@@ -6641,7 +6686,7 @@
       <c r="A97" s="395">
         <v>2005</v>
       </c>
-      <c r="B97" s="560" t="s">
+      <c r="B97" s="426" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -6653,7 +6698,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="395"/>
-      <c r="B98" s="560"/>
+      <c r="B98" s="426"/>
       <c r="C98" s="68" t="s">
         <v>112</v>
       </c>
@@ -6663,7 +6708,7 @@
       <c r="A100" s="395">
         <v>2007</v>
       </c>
-      <c r="B100" s="561" t="s">
+      <c r="B100" s="427" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -6675,7 +6720,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="395"/>
-      <c r="B101" s="561"/>
+      <c r="B101" s="427"/>
       <c r="C101" s="70" t="s">
         <v>115</v>
       </c>
@@ -6685,7 +6730,7 @@
       <c r="A103" s="395">
         <v>2008</v>
       </c>
-      <c r="B103" s="558" t="s">
+      <c r="B103" s="432" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -6697,7 +6742,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="395"/>
-      <c r="B104" s="558"/>
+      <c r="B104" s="432"/>
       <c r="C104" s="72" t="s">
         <v>118</v>
       </c>
@@ -6707,7 +6752,7 @@
       <c r="A106" s="395">
         <v>2009</v>
       </c>
-      <c r="B106" s="559" t="s">
+      <c r="B106" s="433" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -6719,7 +6764,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="395"/>
-      <c r="B107" s="559"/>
+      <c r="B107" s="433"/>
       <c r="C107" s="74" t="s">
         <v>121</v>
       </c>
@@ -6729,7 +6774,7 @@
       <c r="A109" s="395">
         <v>2010</v>
       </c>
-      <c r="B109" s="556" t="s">
+      <c r="B109" s="430" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -6741,7 +6786,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="395"/>
-      <c r="B110" s="556"/>
+      <c r="B110" s="430"/>
       <c r="C110" s="76" t="s">
         <v>124</v>
       </c>
@@ -6751,7 +6796,7 @@
       <c r="A112" s="395">
         <v>2011</v>
       </c>
-      <c r="B112" s="557" t="s">
+      <c r="B112" s="431" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -6763,7 +6808,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="395"/>
-      <c r="B113" s="557"/>
+      <c r="B113" s="431"/>
       <c r="C113" s="78" t="s">
         <v>127</v>
       </c>
@@ -6773,7 +6818,7 @@
       <c r="A115" s="395">
         <v>2012</v>
       </c>
-      <c r="B115" s="554" t="s">
+      <c r="B115" s="436" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -6785,7 +6830,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="395"/>
-      <c r="B116" s="554"/>
+      <c r="B116" s="436"/>
       <c r="C116" s="80" t="s">
         <v>130</v>
       </c>
@@ -6795,7 +6840,7 @@
       <c r="A118" s="395">
         <v>3000</v>
       </c>
-      <c r="B118" s="555" t="s">
+      <c r="B118" s="437" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -6807,7 +6852,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="395"/>
-      <c r="B119" s="555"/>
+      <c r="B119" s="437"/>
       <c r="C119" s="82" t="s">
         <v>133</v>
       </c>
@@ -6817,7 +6862,7 @@
       <c r="A121" s="395">
         <v>3001</v>
       </c>
-      <c r="B121" s="552" t="s">
+      <c r="B121" s="434" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -6829,7 +6874,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="395"/>
-      <c r="B122" s="552"/>
+      <c r="B122" s="434"/>
       <c r="C122" s="84" t="s">
         <v>136</v>
       </c>
@@ -6839,7 +6884,7 @@
       <c r="A124" s="395">
         <v>3002</v>
       </c>
-      <c r="B124" s="553" t="s">
+      <c r="B124" s="435" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -6851,7 +6896,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="395"/>
-      <c r="B125" s="553"/>
+      <c r="B125" s="435"/>
       <c r="C125" s="86" t="s">
         <v>139</v>
       </c>
@@ -6861,7 +6906,7 @@
       <c r="A127" s="395">
         <v>3003</v>
       </c>
-      <c r="B127" s="550" t="s">
+      <c r="B127" s="440" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -6873,7 +6918,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="395"/>
-      <c r="B128" s="550"/>
+      <c r="B128" s="440"/>
       <c r="C128" s="88" t="s">
         <v>142</v>
       </c>
@@ -6883,7 +6928,7 @@
       <c r="A130" s="395">
         <v>3004</v>
       </c>
-      <c r="B130" s="551" t="s">
+      <c r="B130" s="441" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -6895,7 +6940,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="395"/>
-      <c r="B131" s="551"/>
+      <c r="B131" s="441"/>
       <c r="C131" s="90" t="s">
         <v>145</v>
       </c>
@@ -6905,7 +6950,7 @@
       <c r="A133" s="395">
         <v>3005</v>
       </c>
-      <c r="B133" s="548" t="s">
+      <c r="B133" s="438" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -6917,7 +6962,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="395"/>
-      <c r="B134" s="548"/>
+      <c r="B134" s="438"/>
       <c r="C134" s="92" t="s">
         <v>148</v>
       </c>
@@ -6927,7 +6972,7 @@
       <c r="A136" s="395">
         <v>3007</v>
       </c>
-      <c r="B136" s="549" t="s">
+      <c r="B136" s="439" t="s">
         <v>149</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -6939,7 +6984,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="395"/>
-      <c r="B137" s="549"/>
+      <c r="B137" s="439"/>
       <c r="C137" s="94" t="s">
         <v>151</v>
       </c>
@@ -6949,7 +6994,7 @@
       <c r="A139" s="395">
         <v>3009</v>
       </c>
-      <c r="B139" s="546" t="s">
+      <c r="B139" s="444" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -6961,7 +7006,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="395"/>
-      <c r="B140" s="546"/>
+      <c r="B140" s="444"/>
       <c r="C140" s="96" t="s">
         <v>154</v>
       </c>
@@ -6971,7 +7016,7 @@
       <c r="A142" s="395">
         <v>3011</v>
       </c>
-      <c r="B142" s="547" t="s">
+      <c r="B142" s="445" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -6983,7 +7028,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="395"/>
-      <c r="B143" s="547"/>
+      <c r="B143" s="445"/>
       <c r="C143" s="98" t="s">
         <v>157</v>
       </c>
@@ -6993,7 +7038,7 @@
       <c r="A145" s="395">
         <v>3012</v>
       </c>
-      <c r="B145" s="544" t="s">
+      <c r="B145" s="442" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -7005,7 +7050,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="395"/>
-      <c r="B146" s="544"/>
+      <c r="B146" s="442"/>
       <c r="C146" s="100" t="s">
         <v>160</v>
       </c>
@@ -7015,7 +7060,7 @@
       <c r="A148" s="395">
         <v>3013</v>
       </c>
-      <c r="B148" s="545" t="s">
+      <c r="B148" s="443" t="s">
         <v>161</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -7027,7 +7072,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="395"/>
-      <c r="B149" s="545"/>
+      <c r="B149" s="443"/>
       <c r="C149" s="102" t="s">
         <v>163</v>
       </c>
@@ -7037,7 +7082,7 @@
       <c r="A151" s="395">
         <v>3014</v>
       </c>
-      <c r="B151" s="542" t="s">
+      <c r="B151" s="448" t="s">
         <v>164</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -7049,7 +7094,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="395"/>
-      <c r="B152" s="542"/>
+      <c r="B152" s="448"/>
       <c r="C152" s="104" t="s">
         <v>166</v>
       </c>
@@ -7059,7 +7104,7 @@
       <c r="A154" s="395">
         <v>3015</v>
       </c>
-      <c r="B154" s="543" t="s">
+      <c r="B154" s="449" t="s">
         <v>167</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -7071,7 +7116,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="395"/>
-      <c r="B155" s="543"/>
+      <c r="B155" s="449"/>
       <c r="C155" s="106" t="s">
         <v>169</v>
       </c>
@@ -7081,7 +7126,7 @@
       <c r="A157" s="395">
         <v>3016</v>
       </c>
-      <c r="B157" s="540" t="s">
+      <c r="B157" s="446" t="s">
         <v>170</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -7093,7 +7138,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="395"/>
-      <c r="B158" s="540"/>
+      <c r="B158" s="446"/>
       <c r="C158" s="108" t="s">
         <v>172</v>
       </c>
@@ -7103,7 +7148,7 @@
       <c r="A160" s="395">
         <v>3017</v>
       </c>
-      <c r="B160" s="541" t="s">
+      <c r="B160" s="447" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -7115,7 +7160,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="395"/>
-      <c r="B161" s="541"/>
+      <c r="B161" s="447"/>
       <c r="C161" s="110" t="s">
         <v>175</v>
       </c>
@@ -7125,7 +7170,7 @@
       <c r="A163" s="395">
         <v>3018</v>
       </c>
-      <c r="B163" s="538" t="s">
+      <c r="B163" s="452" t="s">
         <v>176</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7137,7 +7182,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="395"/>
-      <c r="B164" s="538"/>
+      <c r="B164" s="452"/>
       <c r="C164" s="112" t="s">
         <v>178</v>
       </c>
@@ -7147,7 +7192,7 @@
       <c r="A166" s="395">
         <v>3020</v>
       </c>
-      <c r="B166" s="539" t="s">
+      <c r="B166" s="453" t="s">
         <v>179</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7159,7 +7204,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="395"/>
-      <c r="B167" s="539"/>
+      <c r="B167" s="453"/>
       <c r="C167" s="114" t="s">
         <v>181</v>
       </c>
@@ -7169,7 +7214,7 @@
       <c r="A169" s="395">
         <v>3022</v>
       </c>
-      <c r="B169" s="536" t="s">
+      <c r="B169" s="450" t="s">
         <v>182</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7181,7 +7226,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="395"/>
-      <c r="B170" s="536"/>
+      <c r="B170" s="450"/>
       <c r="C170" s="116" t="s">
         <v>184</v>
       </c>
@@ -7191,7 +7236,7 @@
       <c r="A172" s="395">
         <v>3024</v>
       </c>
-      <c r="B172" s="537" t="s">
+      <c r="B172" s="451" t="s">
         <v>185</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7203,7 +7248,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="395"/>
-      <c r="B173" s="537"/>
+      <c r="B173" s="451"/>
       <c r="C173" s="118" t="s">
         <v>187</v>
       </c>
@@ -7213,7 +7258,7 @@
       <c r="A175" s="395">
         <v>3026</v>
       </c>
-      <c r="B175" s="534" t="s">
+      <c r="B175" s="456" t="s">
         <v>188</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7225,7 +7270,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="395"/>
-      <c r="B176" s="534"/>
+      <c r="B176" s="456"/>
       <c r="C176" s="120" t="s">
         <v>190</v>
       </c>
@@ -7235,7 +7280,7 @@
       <c r="A178" s="395">
         <v>3027</v>
       </c>
-      <c r="B178" s="535" t="s">
+      <c r="B178" s="457" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7247,7 +7292,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="395"/>
-      <c r="B179" s="535"/>
+      <c r="B179" s="457"/>
       <c r="C179" s="122" t="s">
         <v>193</v>
       </c>
@@ -7257,7 +7302,7 @@
       <c r="A181" s="395">
         <v>3031</v>
       </c>
-      <c r="B181" s="532" t="s">
+      <c r="B181" s="454" t="s">
         <v>194</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7269,7 +7314,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="395"/>
-      <c r="B182" s="532"/>
+      <c r="B182" s="454"/>
       <c r="C182" s="124" t="s">
         <v>196</v>
       </c>
@@ -7279,7 +7324,7 @@
       <c r="A184" s="395">
         <v>4001</v>
       </c>
-      <c r="B184" s="533" t="s">
+      <c r="B184" s="455" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7291,7 +7336,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="395"/>
-      <c r="B185" s="533"/>
+      <c r="B185" s="455"/>
       <c r="C185" s="126" t="s">
         <v>199</v>
       </c>
@@ -7301,7 +7346,7 @@
       <c r="A187" s="395">
         <v>4002</v>
       </c>
-      <c r="B187" s="530" t="s">
+      <c r="B187" s="460" t="s">
         <v>200</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7313,7 +7358,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="395"/>
-      <c r="B188" s="530"/>
+      <c r="B188" s="460"/>
       <c r="C188" s="128" t="s">
         <v>202</v>
       </c>
@@ -7323,7 +7368,7 @@
       <c r="A190" s="395">
         <v>4003</v>
       </c>
-      <c r="B190" s="531" t="s">
+      <c r="B190" s="461" t="s">
         <v>203</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7335,7 +7380,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="395"/>
-      <c r="B191" s="531"/>
+      <c r="B191" s="461"/>
       <c r="C191" s="130" t="s">
         <v>205</v>
       </c>
@@ -7345,7 +7390,7 @@
       <c r="A193" s="395">
         <v>4004</v>
       </c>
-      <c r="B193" s="528" t="s">
+      <c r="B193" s="458" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7357,7 +7402,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="395"/>
-      <c r="B194" s="528"/>
+      <c r="B194" s="458"/>
       <c r="C194" s="132" t="s">
         <v>208</v>
       </c>
@@ -7367,7 +7412,7 @@
       <c r="A196" s="395">
         <v>4005</v>
       </c>
-      <c r="B196" s="529" t="s">
+      <c r="B196" s="459" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7379,7 +7424,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="395"/>
-      <c r="B197" s="529"/>
+      <c r="B197" s="459"/>
       <c r="C197" s="134" t="s">
         <v>211</v>
       </c>
@@ -7389,7 +7434,7 @@
       <c r="A199" s="395">
         <v>4006</v>
       </c>
-      <c r="B199" s="526" t="s">
+      <c r="B199" s="464" t="s">
         <v>212</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7401,7 +7446,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="395"/>
-      <c r="B200" s="526"/>
+      <c r="B200" s="464"/>
       <c r="C200" s="136" t="s">
         <v>214</v>
       </c>
@@ -7411,7 +7456,7 @@
       <c r="A202" s="395">
         <v>4007</v>
       </c>
-      <c r="B202" s="527" t="s">
+      <c r="B202" s="465" t="s">
         <v>215</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7423,7 +7468,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="395"/>
-      <c r="B203" s="527"/>
+      <c r="B203" s="465"/>
       <c r="C203" s="138" t="s">
         <v>217</v>
       </c>
@@ -7433,7 +7478,7 @@
       <c r="A205" s="395">
         <v>4008</v>
       </c>
-      <c r="B205" s="524" t="s">
+      <c r="B205" s="462" t="s">
         <v>218</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7445,7 +7490,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="395"/>
-      <c r="B206" s="524"/>
+      <c r="B206" s="462"/>
       <c r="C206" s="140" t="s">
         <v>220</v>
       </c>
@@ -7455,7 +7500,7 @@
       <c r="A208" s="395">
         <v>4009</v>
       </c>
-      <c r="B208" s="525" t="s">
+      <c r="B208" s="463" t="s">
         <v>221</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7467,7 +7512,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="395"/>
-      <c r="B209" s="525"/>
+      <c r="B209" s="463"/>
       <c r="C209" s="142" t="s">
         <v>223</v>
       </c>
@@ -7477,7 +7522,7 @@
       <c r="A211" s="395">
         <v>4010</v>
       </c>
-      <c r="B211" s="522" t="s">
+      <c r="B211" s="468" t="s">
         <v>224</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7489,7 +7534,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="395"/>
-      <c r="B212" s="522"/>
+      <c r="B212" s="468"/>
       <c r="C212" s="144" t="s">
         <v>226</v>
       </c>
@@ -7499,7 +7544,7 @@
       <c r="A214" s="395">
         <v>5000</v>
       </c>
-      <c r="B214" s="523" t="s">
+      <c r="B214" s="469" t="s">
         <v>227</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7511,7 +7556,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="395"/>
-      <c r="B215" s="523"/>
+      <c r="B215" s="469"/>
       <c r="C215" s="146" t="s">
         <v>229</v>
       </c>
@@ -7521,7 +7566,7 @@
       <c r="A217" s="395">
         <v>5001</v>
       </c>
-      <c r="B217" s="520" t="s">
+      <c r="B217" s="466" t="s">
         <v>230</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7533,7 +7578,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="395"/>
-      <c r="B218" s="520"/>
+      <c r="B218" s="466"/>
       <c r="C218" s="148" t="s">
         <v>232</v>
       </c>
@@ -7543,7 +7588,7 @@
       <c r="A220" s="395">
         <v>5002</v>
       </c>
-      <c r="B220" s="521" t="s">
+      <c r="B220" s="467" t="s">
         <v>233</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7555,7 +7600,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="395"/>
-      <c r="B221" s="521"/>
+      <c r="B221" s="467"/>
       <c r="C221" s="150" t="s">
         <v>235</v>
       </c>
@@ -7565,7 +7610,7 @@
       <c r="A223" s="395">
         <v>5003</v>
       </c>
-      <c r="B223" s="518" t="s">
+      <c r="B223" s="472" t="s">
         <v>236</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7577,7 +7622,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="395"/>
-      <c r="B224" s="518"/>
+      <c r="B224" s="472"/>
       <c r="C224" s="152" t="s">
         <v>238</v>
       </c>
@@ -7587,7 +7632,7 @@
       <c r="A226" s="395">
         <v>5004</v>
       </c>
-      <c r="B226" s="519" t="s">
+      <c r="B226" s="473" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7599,7 +7644,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="395"/>
-      <c r="B227" s="519"/>
+      <c r="B227" s="473"/>
       <c r="C227" s="154" t="s">
         <v>241</v>
       </c>
@@ -7609,7 +7654,7 @@
       <c r="A229" s="395">
         <v>5005</v>
       </c>
-      <c r="B229" s="516" t="s">
+      <c r="B229" s="470" t="s">
         <v>242</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7621,7 +7666,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="395"/>
-      <c r="B230" s="516"/>
+      <c r="B230" s="470"/>
       <c r="C230" s="156" t="s">
         <v>244</v>
       </c>
@@ -7631,7 +7676,7 @@
       <c r="A232" s="395">
         <v>5007</v>
       </c>
-      <c r="B232" s="517" t="s">
+      <c r="B232" s="471" t="s">
         <v>245</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7643,7 +7688,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="395"/>
-      <c r="B233" s="517"/>
+      <c r="B233" s="471"/>
       <c r="C233" s="158" t="s">
         <v>247</v>
       </c>
@@ -7653,7 +7698,7 @@
       <c r="A235" s="395">
         <v>5008</v>
       </c>
-      <c r="B235" s="514" t="s">
+      <c r="B235" s="476" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -7665,7 +7710,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="395"/>
-      <c r="B236" s="514"/>
+      <c r="B236" s="476"/>
       <c r="C236" s="160" t="s">
         <v>250</v>
       </c>
@@ -7675,7 +7720,7 @@
       <c r="A238" s="395">
         <v>5009</v>
       </c>
-      <c r="B238" s="515" t="s">
+      <c r="B238" s="477" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -7687,7 +7732,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="395"/>
-      <c r="B239" s="515"/>
+      <c r="B239" s="477"/>
       <c r="C239" s="162" t="s">
         <v>253</v>
       </c>
@@ -7697,7 +7742,7 @@
       <c r="A241" s="395">
         <v>5011</v>
       </c>
-      <c r="B241" s="512" t="s">
+      <c r="B241" s="474" t="s">
         <v>254</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -7709,7 +7754,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="395"/>
-      <c r="B242" s="512"/>
+      <c r="B242" s="474"/>
       <c r="C242" s="164" t="s">
         <v>256</v>
       </c>
@@ -7719,7 +7764,7 @@
       <c r="A244" s="395">
         <v>5012</v>
       </c>
-      <c r="B244" s="513" t="s">
+      <c r="B244" s="475" t="s">
         <v>257</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -7731,7 +7776,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="395"/>
-      <c r="B245" s="513"/>
+      <c r="B245" s="475"/>
       <c r="C245" s="166" t="s">
         <v>259</v>
       </c>
@@ -7741,7 +7786,7 @@
       <c r="A247" s="395">
         <v>5013</v>
       </c>
-      <c r="B247" s="510" t="s">
+      <c r="B247" s="480" t="s">
         <v>260</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -7753,7 +7798,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="395"/>
-      <c r="B248" s="510"/>
+      <c r="B248" s="480"/>
       <c r="C248" s="168" t="s">
         <v>262</v>
       </c>
@@ -7763,7 +7808,7 @@
       <c r="A250" s="395">
         <v>5014</v>
       </c>
-      <c r="B250" s="511" t="s">
+      <c r="B250" s="481" t="s">
         <v>263</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -7775,7 +7820,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="395"/>
-      <c r="B251" s="511"/>
+      <c r="B251" s="481"/>
       <c r="C251" s="170" t="s">
         <v>265</v>
       </c>
@@ -7785,7 +7830,7 @@
       <c r="A253" s="395">
         <v>5015</v>
       </c>
-      <c r="B253" s="508" t="s">
+      <c r="B253" s="478" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -7797,7 +7842,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="395"/>
-      <c r="B254" s="508"/>
+      <c r="B254" s="478"/>
       <c r="C254" s="172" t="s">
         <v>268</v>
       </c>
@@ -7807,7 +7852,7 @@
       <c r="A256" s="395">
         <v>5017</v>
       </c>
-      <c r="B256" s="509" t="s">
+      <c r="B256" s="479" t="s">
         <v>269</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -7819,7 +7864,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="395"/>
-      <c r="B257" s="509"/>
+      <c r="B257" s="479"/>
       <c r="C257" s="174" t="s">
         <v>271</v>
       </c>
@@ -7829,7 +7874,7 @@
       <c r="A259" s="395">
         <v>5018</v>
       </c>
-      <c r="B259" s="506" t="s">
+      <c r="B259" s="484" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -7841,7 +7886,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="395"/>
-      <c r="B260" s="506"/>
+      <c r="B260" s="484"/>
       <c r="C260" s="176" t="s">
         <v>274</v>
       </c>
@@ -7851,7 +7896,7 @@
       <c r="A262" s="395">
         <v>5019</v>
       </c>
-      <c r="B262" s="507" t="s">
+      <c r="B262" s="485" t="s">
         <v>275</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -7863,7 +7908,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="395"/>
-      <c r="B263" s="507"/>
+      <c r="B263" s="485"/>
       <c r="C263" s="178" t="s">
         <v>277</v>
       </c>
@@ -7873,7 +7918,7 @@
       <c r="A265" s="395">
         <v>5020</v>
       </c>
-      <c r="B265" s="504" t="s">
+      <c r="B265" s="482" t="s">
         <v>254</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -7885,7 +7930,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="395"/>
-      <c r="B266" s="504"/>
+      <c r="B266" s="482"/>
       <c r="C266" s="180" t="s">
         <v>279</v>
       </c>
@@ -7895,7 +7940,7 @@
       <c r="A268" s="395">
         <v>5021</v>
       </c>
-      <c r="B268" s="505" t="s">
+      <c r="B268" s="483" t="s">
         <v>280</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -7907,7 +7952,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="395"/>
-      <c r="B269" s="505"/>
+      <c r="B269" s="483"/>
       <c r="C269" s="182" t="s">
         <v>282</v>
       </c>
@@ -7917,7 +7962,7 @@
       <c r="A271" s="395">
         <v>5022</v>
       </c>
-      <c r="B271" s="502" t="s">
+      <c r="B271" s="488" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -7929,7 +7974,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="395"/>
-      <c r="B272" s="502"/>
+      <c r="B272" s="488"/>
       <c r="C272" s="184" t="s">
         <v>285</v>
       </c>
@@ -7939,7 +7984,7 @@
       <c r="A274" s="395">
         <v>5023</v>
       </c>
-      <c r="B274" s="503" t="s">
+      <c r="B274" s="489" t="s">
         <v>286</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -7951,7 +7996,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="395"/>
-      <c r="B275" s="503"/>
+      <c r="B275" s="489"/>
       <c r="C275" s="186" t="s">
         <v>288</v>
       </c>
@@ -7961,7 +8006,7 @@
       <c r="A277" s="395">
         <v>5024</v>
       </c>
-      <c r="B277" s="500" t="s">
+      <c r="B277" s="486" t="s">
         <v>289</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -7973,7 +8018,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="395"/>
-      <c r="B278" s="500"/>
+      <c r="B278" s="486"/>
       <c r="C278" s="188" t="s">
         <v>291</v>
       </c>
@@ -7983,7 +8028,7 @@
       <c r="A280" s="395">
         <v>6000</v>
       </c>
-      <c r="B280" s="501" t="s">
+      <c r="B280" s="487" t="s">
         <v>292</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -7995,7 +8040,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="395"/>
-      <c r="B281" s="501"/>
+      <c r="B281" s="487"/>
       <c r="C281" s="190" t="s">
         <v>294</v>
       </c>
@@ -8005,7 +8050,7 @@
       <c r="A283" s="395">
         <v>6001</v>
       </c>
-      <c r="B283" s="498" t="s">
+      <c r="B283" s="492" t="s">
         <v>295</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -8017,7 +8062,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="395"/>
-      <c r="B284" s="498"/>
+      <c r="B284" s="492"/>
       <c r="C284" s="192" t="s">
         <v>297</v>
       </c>
@@ -8027,7 +8072,7 @@
       <c r="A286" s="395">
         <v>6002</v>
       </c>
-      <c r="B286" s="499" t="s">
+      <c r="B286" s="493" t="s">
         <v>298</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -8039,7 +8084,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="395"/>
-      <c r="B287" s="499"/>
+      <c r="B287" s="493"/>
       <c r="C287" s="194" t="s">
         <v>300</v>
       </c>
@@ -8049,7 +8094,7 @@
       <c r="A289" s="395">
         <v>6003</v>
       </c>
-      <c r="B289" s="496" t="s">
+      <c r="B289" s="490" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -8061,7 +8106,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="395"/>
-      <c r="B290" s="496"/>
+      <c r="B290" s="490"/>
       <c r="C290" s="196" t="s">
         <v>303</v>
       </c>
@@ -8071,7 +8116,7 @@
       <c r="A292" s="395">
         <v>6004</v>
       </c>
-      <c r="B292" s="497" t="s">
+      <c r="B292" s="491" t="s">
         <v>304</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -8083,7 +8128,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="395"/>
-      <c r="B293" s="497"/>
+      <c r="B293" s="491"/>
       <c r="C293" s="198" t="s">
         <v>306</v>
       </c>
@@ -8093,7 +8138,7 @@
       <c r="A295" s="395">
         <v>6005</v>
       </c>
-      <c r="B295" s="494" t="s">
+      <c r="B295" s="496" t="s">
         <v>307</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -8105,7 +8150,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="395"/>
-      <c r="B296" s="494"/>
+      <c r="B296" s="496"/>
       <c r="C296" s="200" t="s">
         <v>309</v>
       </c>
@@ -8115,7 +8160,7 @@
       <c r="A298" s="395">
         <v>6006</v>
       </c>
-      <c r="B298" s="495" t="s">
+      <c r="B298" s="497" t="s">
         <v>310</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8127,7 +8172,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="395"/>
-      <c r="B299" s="495"/>
+      <c r="B299" s="497"/>
       <c r="C299" s="202" t="s">
         <v>312</v>
       </c>
@@ -8137,7 +8182,7 @@
       <c r="A301" s="395">
         <v>6007</v>
       </c>
-      <c r="B301" s="492" t="s">
+      <c r="B301" s="494" t="s">
         <v>313</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8149,7 +8194,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="395"/>
-      <c r="B302" s="492"/>
+      <c r="B302" s="494"/>
       <c r="C302" s="204" t="s">
         <v>315</v>
       </c>
@@ -8159,7 +8204,7 @@
       <c r="A304" s="395">
         <v>6008</v>
       </c>
-      <c r="B304" s="493" t="s">
+      <c r="B304" s="495" t="s">
         <v>316</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8171,7 +8216,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="395"/>
-      <c r="B305" s="493"/>
+      <c r="B305" s="495"/>
       <c r="C305" s="206" t="s">
         <v>318</v>
       </c>
@@ -8181,7 +8226,7 @@
       <c r="A307" s="395">
         <v>6009</v>
       </c>
-      <c r="B307" s="490" t="s">
+      <c r="B307" s="500" t="s">
         <v>319</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8193,7 +8238,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="395"/>
-      <c r="B308" s="490"/>
+      <c r="B308" s="500"/>
       <c r="C308" s="208" t="s">
         <v>321</v>
       </c>
@@ -8203,7 +8248,7 @@
       <c r="A310" s="395">
         <v>6010</v>
       </c>
-      <c r="B310" s="491" t="s">
+      <c r="B310" s="501" t="s">
         <v>322</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8215,7 +8260,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="395"/>
-      <c r="B311" s="491"/>
+      <c r="B311" s="501"/>
       <c r="C311" s="210" t="s">
         <v>324</v>
       </c>
@@ -8225,7 +8270,7 @@
       <c r="A313" s="395">
         <v>6011</v>
       </c>
-      <c r="B313" s="488" t="s">
+      <c r="B313" s="498" t="s">
         <v>325</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8237,7 +8282,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="395"/>
-      <c r="B314" s="488"/>
+      <c r="B314" s="498"/>
       <c r="C314" s="212" t="s">
         <v>327</v>
       </c>
@@ -8247,7 +8292,7 @@
       <c r="A316" s="395">
         <v>6012</v>
       </c>
-      <c r="B316" s="489" t="s">
+      <c r="B316" s="499" t="s">
         <v>328</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8259,7 +8304,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="395"/>
-      <c r="B317" s="489"/>
+      <c r="B317" s="499"/>
       <c r="C317" s="214" t="s">
         <v>330</v>
       </c>
@@ -8269,7 +8314,7 @@
       <c r="A319" s="395">
         <v>6013</v>
       </c>
-      <c r="B319" s="486" t="s">
+      <c r="B319" s="504" t="s">
         <v>331</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8281,7 +8326,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="395"/>
-      <c r="B320" s="486"/>
+      <c r="B320" s="504"/>
       <c r="C320" s="216" t="s">
         <v>333</v>
       </c>
@@ -8291,7 +8336,7 @@
       <c r="A322" s="395">
         <v>6014</v>
       </c>
-      <c r="B322" s="487" t="s">
+      <c r="B322" s="505" t="s">
         <v>334</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8303,7 +8348,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="395"/>
-      <c r="B323" s="487"/>
+      <c r="B323" s="505"/>
       <c r="C323" s="218" t="s">
         <v>336</v>
       </c>
@@ -8313,7 +8358,7 @@
       <c r="A325" s="395">
         <v>6015</v>
       </c>
-      <c r="B325" s="484" t="s">
+      <c r="B325" s="502" t="s">
         <v>337</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8325,7 +8370,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="395"/>
-      <c r="B326" s="484"/>
+      <c r="B326" s="502"/>
       <c r="C326" s="220" t="s">
         <v>339</v>
       </c>
@@ -8335,7 +8380,7 @@
       <c r="A328" s="395">
         <v>6016</v>
       </c>
-      <c r="B328" s="485" t="s">
+      <c r="B328" s="503" t="s">
         <v>340</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8347,7 +8392,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="395"/>
-      <c r="B329" s="485"/>
+      <c r="B329" s="503"/>
       <c r="C329" s="222" t="s">
         <v>342</v>
       </c>
@@ -8357,7 +8402,7 @@
       <c r="A331" s="395">
         <v>6017</v>
       </c>
-      <c r="B331" s="482" t="s">
+      <c r="B331" s="508" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8369,7 +8414,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="395"/>
-      <c r="B332" s="482"/>
+      <c r="B332" s="508"/>
       <c r="C332" s="224" t="s">
         <v>345</v>
       </c>
@@ -8379,7 +8424,7 @@
       <c r="A334" s="395">
         <v>6018</v>
       </c>
-      <c r="B334" s="483" t="s">
+      <c r="B334" s="509" t="s">
         <v>346</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8391,7 +8436,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="395"/>
-      <c r="B335" s="483"/>
+      <c r="B335" s="509"/>
       <c r="C335" s="226" t="s">
         <v>348</v>
       </c>
@@ -8401,7 +8446,7 @@
       <c r="A337" s="395">
         <v>6019</v>
       </c>
-      <c r="B337" s="480" t="s">
+      <c r="B337" s="506" t="s">
         <v>349</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8413,7 +8458,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="395"/>
-      <c r="B338" s="480"/>
+      <c r="B338" s="506"/>
       <c r="C338" s="228" t="s">
         <v>351</v>
       </c>
@@ -8423,7 +8468,7 @@
       <c r="A340" s="395">
         <v>6020</v>
       </c>
-      <c r="B340" s="481" t="s">
+      <c r="B340" s="507" t="s">
         <v>352</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8435,7 +8480,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="395"/>
-      <c r="B341" s="481"/>
+      <c r="B341" s="507"/>
       <c r="C341" s="230" t="s">
         <v>354</v>
       </c>
@@ -8445,7 +8490,7 @@
       <c r="A343" s="395">
         <v>6021</v>
       </c>
-      <c r="B343" s="478" t="s">
+      <c r="B343" s="512" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8457,7 +8502,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="395"/>
-      <c r="B344" s="478"/>
+      <c r="B344" s="512"/>
       <c r="C344" s="232" t="s">
         <v>357</v>
       </c>
@@ -8467,7 +8512,7 @@
       <c r="A346" s="395">
         <v>6022</v>
       </c>
-      <c r="B346" s="479" t="s">
+      <c r="B346" s="513" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8479,7 +8524,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="395"/>
-      <c r="B347" s="479"/>
+      <c r="B347" s="513"/>
       <c r="C347" s="234" t="s">
         <v>360</v>
       </c>
@@ -8489,7 +8534,7 @@
       <c r="A349" s="395">
         <v>6024</v>
       </c>
-      <c r="B349" s="476" t="s">
+      <c r="B349" s="510" t="s">
         <v>361</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8501,7 +8546,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="395"/>
-      <c r="B350" s="476"/>
+      <c r="B350" s="510"/>
       <c r="C350" s="236" t="s">
         <v>363</v>
       </c>
@@ -8511,7 +8556,7 @@
       <c r="A352" s="395">
         <v>6025</v>
       </c>
-      <c r="B352" s="477" t="s">
+      <c r="B352" s="511" t="s">
         <v>364</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8523,7 +8568,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="395"/>
-      <c r="B353" s="477"/>
+      <c r="B353" s="511"/>
       <c r="C353" s="238" t="s">
         <v>366</v>
       </c>
@@ -8533,7 +8578,7 @@
       <c r="A355" s="395">
         <v>6026</v>
       </c>
-      <c r="B355" s="474" t="s">
+      <c r="B355" s="516" t="s">
         <v>367</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8545,7 +8590,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="395"/>
-      <c r="B356" s="474"/>
+      <c r="B356" s="516"/>
       <c r="C356" s="240" t="s">
         <v>369</v>
       </c>
@@ -8555,7 +8600,7 @@
       <c r="A358" s="395">
         <v>6027</v>
       </c>
-      <c r="B358" s="475" t="s">
+      <c r="B358" s="517" t="s">
         <v>370</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8567,7 +8612,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="395"/>
-      <c r="B359" s="475"/>
+      <c r="B359" s="517"/>
       <c r="C359" s="242" t="s">
         <v>372</v>
       </c>
@@ -8577,7 +8622,7 @@
       <c r="A361" s="395">
         <v>6028</v>
       </c>
-      <c r="B361" s="472" t="s">
+      <c r="B361" s="514" t="s">
         <v>373</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8589,7 +8634,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="395"/>
-      <c r="B362" s="472"/>
+      <c r="B362" s="514"/>
       <c r="C362" s="244" t="s">
         <v>375</v>
       </c>
@@ -8599,7 +8644,7 @@
       <c r="A364" s="395">
         <v>6029</v>
       </c>
-      <c r="B364" s="473" t="s">
+      <c r="B364" s="515" t="s">
         <v>376</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8611,7 +8656,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="395"/>
-      <c r="B365" s="473"/>
+      <c r="B365" s="515"/>
       <c r="C365" s="246" t="s">
         <v>378</v>
       </c>
@@ -8621,7 +8666,7 @@
       <c r="A367" s="395">
         <v>6032</v>
       </c>
-      <c r="B367" s="470" t="s">
+      <c r="B367" s="520" t="s">
         <v>379</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8633,7 +8678,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="395"/>
-      <c r="B368" s="470"/>
+      <c r="B368" s="520"/>
       <c r="C368" s="248" t="s">
         <v>381</v>
       </c>
@@ -8643,7 +8688,7 @@
       <c r="A370" s="395">
         <v>6033</v>
       </c>
-      <c r="B370" s="471" t="s">
+      <c r="B370" s="521" t="s">
         <v>382</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -8655,7 +8700,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="395"/>
-      <c r="B371" s="471"/>
+      <c r="B371" s="521"/>
       <c r="C371" s="250" t="s">
         <v>384</v>
       </c>
@@ -8665,7 +8710,7 @@
       <c r="A373" s="395">
         <v>6034</v>
       </c>
-      <c r="B373" s="468" t="s">
+      <c r="B373" s="518" t="s">
         <v>385</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -8677,7 +8722,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="395"/>
-      <c r="B374" s="468"/>
+      <c r="B374" s="518"/>
       <c r="C374" s="252" t="s">
         <v>387</v>
       </c>
@@ -8687,7 +8732,7 @@
       <c r="A376" s="395">
         <v>7000</v>
       </c>
-      <c r="B376" s="469" t="s">
+      <c r="B376" s="519" t="s">
         <v>388</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -8699,7 +8744,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="395"/>
-      <c r="B377" s="469"/>
+      <c r="B377" s="519"/>
       <c r="C377" s="254" t="s">
         <v>390</v>
       </c>
@@ -8709,7 +8754,7 @@
       <c r="A379" s="395">
         <v>7001</v>
       </c>
-      <c r="B379" s="466" t="s">
+      <c r="B379" s="524" t="s">
         <v>391</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -8721,7 +8766,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="395"/>
-      <c r="B380" s="466"/>
+      <c r="B380" s="524"/>
       <c r="C380" s="256" t="s">
         <v>393</v>
       </c>
@@ -8731,7 +8776,7 @@
       <c r="A382" s="395">
         <v>7002</v>
       </c>
-      <c r="B382" s="467" t="s">
+      <c r="B382" s="525" t="s">
         <v>394</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -8743,7 +8788,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="395"/>
-      <c r="B383" s="467"/>
+      <c r="B383" s="525"/>
       <c r="C383" s="258" t="s">
         <v>396</v>
       </c>
@@ -8753,7 +8798,7 @@
       <c r="A385" s="395">
         <v>7003</v>
       </c>
-      <c r="B385" s="464" t="s">
+      <c r="B385" s="522" t="s">
         <v>397</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -8765,7 +8810,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="395"/>
-      <c r="B386" s="464"/>
+      <c r="B386" s="522"/>
       <c r="C386" s="260" t="s">
         <v>399</v>
       </c>
@@ -8775,7 +8820,7 @@
       <c r="A388" s="395">
         <v>7004</v>
       </c>
-      <c r="B388" s="465" t="s">
+      <c r="B388" s="523" t="s">
         <v>400</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -8787,7 +8832,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="395"/>
-      <c r="B389" s="465"/>
+      <c r="B389" s="523"/>
       <c r="C389" s="262" t="s">
         <v>402</v>
       </c>
@@ -8797,7 +8842,7 @@
       <c r="A391" s="395">
         <v>7005</v>
       </c>
-      <c r="B391" s="462" t="s">
+      <c r="B391" s="528" t="s">
         <v>403</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -8809,7 +8854,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="395"/>
-      <c r="B392" s="462"/>
+      <c r="B392" s="528"/>
       <c r="C392" s="264" t="s">
         <v>405</v>
       </c>
@@ -8819,7 +8864,7 @@
       <c r="A394" s="395">
         <v>7006</v>
       </c>
-      <c r="B394" s="463" t="s">
+      <c r="B394" s="529" t="s">
         <v>406</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -8831,7 +8876,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="395"/>
-      <c r="B395" s="463"/>
+      <c r="B395" s="529"/>
       <c r="C395" s="266" t="s">
         <v>408</v>
       </c>
@@ -8841,7 +8886,7 @@
       <c r="A397" s="395">
         <v>7008</v>
       </c>
-      <c r="B397" s="460" t="s">
+      <c r="B397" s="526" t="s">
         <v>409</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -8853,7 +8898,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="395"/>
-      <c r="B398" s="460"/>
+      <c r="B398" s="526"/>
       <c r="C398" s="268" t="s">
         <v>411</v>
       </c>
@@ -8863,7 +8908,7 @@
       <c r="A400" s="395">
         <v>7009</v>
       </c>
-      <c r="B400" s="461" t="s">
+      <c r="B400" s="527" t="s">
         <v>412</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -8875,7 +8920,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="395"/>
-      <c r="B401" s="461"/>
+      <c r="B401" s="527"/>
       <c r="C401" s="270" t="s">
         <v>414</v>
       </c>
@@ -8885,7 +8930,7 @@
       <c r="A403" s="395">
         <v>7010</v>
       </c>
-      <c r="B403" s="458" t="s">
+      <c r="B403" s="532" t="s">
         <v>415</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -8897,7 +8942,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="395"/>
-      <c r="B404" s="458"/>
+      <c r="B404" s="532"/>
       <c r="C404" s="272" t="s">
         <v>417</v>
       </c>
@@ -8907,7 +8952,7 @@
       <c r="A406" s="395">
         <v>7011</v>
       </c>
-      <c r="B406" s="459" t="s">
+      <c r="B406" s="533" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -8919,7 +8964,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="395"/>
-      <c r="B407" s="459"/>
+      <c r="B407" s="533"/>
       <c r="C407" s="274" t="s">
         <v>420</v>
       </c>
@@ -8929,7 +8974,7 @@
       <c r="A409" s="395">
         <v>7012</v>
       </c>
-      <c r="B409" s="456" t="s">
+      <c r="B409" s="530" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -8941,7 +8986,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="395"/>
-      <c r="B410" s="456"/>
+      <c r="B410" s="530"/>
       <c r="C410" s="276" t="s">
         <v>423</v>
       </c>
@@ -8951,7 +8996,7 @@
       <c r="A412" s="395">
         <v>7013</v>
       </c>
-      <c r="B412" s="457" t="s">
+      <c r="B412" s="531" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -8963,7 +9008,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="395"/>
-      <c r="B413" s="457"/>
+      <c r="B413" s="531"/>
       <c r="C413" s="278" t="s">
         <v>426</v>
       </c>
@@ -8973,7 +9018,7 @@
       <c r="A415" s="395">
         <v>7015</v>
       </c>
-      <c r="B415" s="454" t="s">
+      <c r="B415" s="536" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -8985,7 +9030,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="395"/>
-      <c r="B416" s="454"/>
+      <c r="B416" s="536"/>
       <c r="C416" s="280" t="s">
         <v>429</v>
       </c>
@@ -8995,7 +9040,7 @@
       <c r="A418" s="395">
         <v>7016</v>
       </c>
-      <c r="B418" s="455" t="s">
+      <c r="B418" s="537" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -9007,7 +9052,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="395"/>
-      <c r="B419" s="455"/>
+      <c r="B419" s="537"/>
       <c r="C419" s="282" t="s">
         <v>432</v>
       </c>
@@ -9017,7 +9062,7 @@
       <c r="A421" s="395">
         <v>7021</v>
       </c>
-      <c r="B421" s="452" t="s">
+      <c r="B421" s="534" t="s">
         <v>433</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -9029,7 +9074,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="395"/>
-      <c r="B422" s="452"/>
+      <c r="B422" s="534"/>
       <c r="C422" s="284" t="s">
         <v>435</v>
       </c>
@@ -9039,7 +9084,7 @@
       <c r="A424" s="395">
         <v>7022</v>
       </c>
-      <c r="B424" s="453" t="s">
+      <c r="B424" s="535" t="s">
         <v>436</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -9051,7 +9096,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="395"/>
-      <c r="B425" s="453"/>
+      <c r="B425" s="535"/>
       <c r="C425" s="286" t="s">
         <v>438</v>
       </c>
@@ -9061,7 +9106,7 @@
       <c r="A427" s="395">
         <v>7023</v>
       </c>
-      <c r="B427" s="450" t="s">
+      <c r="B427" s="540" t="s">
         <v>439</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -9073,7 +9118,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="395"/>
-      <c r="B428" s="450"/>
+      <c r="B428" s="540"/>
       <c r="C428" s="288" t="s">
         <v>441</v>
       </c>
@@ -9083,7 +9128,7 @@
       <c r="A430" s="395">
         <v>7024</v>
       </c>
-      <c r="B430" s="451" t="s">
+      <c r="B430" s="541" t="s">
         <v>442</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -9095,7 +9140,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="395"/>
-      <c r="B431" s="451"/>
+      <c r="B431" s="541"/>
       <c r="C431" s="290" t="s">
         <v>444</v>
       </c>
@@ -9105,7 +9150,7 @@
       <c r="A433" s="395">
         <v>7026</v>
       </c>
-      <c r="B433" s="448" t="s">
+      <c r="B433" s="538" t="s">
         <v>445</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -9117,7 +9162,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="395"/>
-      <c r="B434" s="448"/>
+      <c r="B434" s="538"/>
       <c r="C434" s="292" t="s">
         <v>447</v>
       </c>
@@ -9127,7 +9172,7 @@
       <c r="A436" s="395">
         <v>7030</v>
       </c>
-      <c r="B436" s="449" t="s">
+      <c r="B436" s="539" t="s">
         <v>448</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9139,7 +9184,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="395"/>
-      <c r="B437" s="449"/>
+      <c r="B437" s="539"/>
       <c r="C437" s="294" t="s">
         <v>450</v>
       </c>
@@ -9149,7 +9194,7 @@
       <c r="A439" s="395">
         <v>7031</v>
       </c>
-      <c r="B439" s="446" t="s">
+      <c r="B439" s="544" t="s">
         <v>451</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9161,7 +9206,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="395"/>
-      <c r="B440" s="446"/>
+      <c r="B440" s="544"/>
       <c r="C440" s="296" t="s">
         <v>453</v>
       </c>
@@ -9171,7 +9216,7 @@
       <c r="A442" s="395">
         <v>7032</v>
       </c>
-      <c r="B442" s="447" t="s">
+      <c r="B442" s="545" t="s">
         <v>454</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9183,7 +9228,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="395"/>
-      <c r="B443" s="447"/>
+      <c r="B443" s="545"/>
       <c r="C443" s="298" t="s">
         <v>456</v>
       </c>
@@ -9193,7 +9238,7 @@
       <c r="A445" s="395">
         <v>7033</v>
       </c>
-      <c r="B445" s="444" t="s">
+      <c r="B445" s="542" t="s">
         <v>457</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9205,7 +9250,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="395"/>
-      <c r="B446" s="444"/>
+      <c r="B446" s="542"/>
       <c r="C446" s="300" t="s">
         <v>459</v>
       </c>
@@ -9215,7 +9260,7 @@
       <c r="A448" s="395">
         <v>7034</v>
       </c>
-      <c r="B448" s="445" t="s">
+      <c r="B448" s="543" t="s">
         <v>460</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9227,7 +9272,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="395"/>
-      <c r="B449" s="445"/>
+      <c r="B449" s="543"/>
       <c r="C449" s="302" t="s">
         <v>462</v>
       </c>
@@ -9237,7 +9282,7 @@
       <c r="A451" s="395">
         <v>7035</v>
       </c>
-      <c r="B451" s="442" t="s">
+      <c r="B451" s="548" t="s">
         <v>463</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9249,7 +9294,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="395"/>
-      <c r="B452" s="442"/>
+      <c r="B452" s="548"/>
       <c r="C452" s="304" t="s">
         <v>465</v>
       </c>
@@ -9259,7 +9304,7 @@
       <c r="A454" s="395">
         <v>7036</v>
       </c>
-      <c r="B454" s="443" t="s">
+      <c r="B454" s="549" t="s">
         <v>466</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9271,7 +9316,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="395"/>
-      <c r="B455" s="443"/>
+      <c r="B455" s="549"/>
       <c r="C455" s="306" t="s">
         <v>468</v>
       </c>
@@ -9281,7 +9326,7 @@
       <c r="A457" s="395">
         <v>7037</v>
       </c>
-      <c r="B457" s="440" t="s">
+      <c r="B457" s="546" t="s">
         <v>469</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9293,7 +9338,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="395"/>
-      <c r="B458" s="440"/>
+      <c r="B458" s="546"/>
       <c r="C458" s="308" t="s">
         <v>471</v>
       </c>
@@ -9303,7 +9348,7 @@
       <c r="A460" s="395">
         <v>7038</v>
       </c>
-      <c r="B460" s="441" t="s">
+      <c r="B460" s="547" t="s">
         <v>472</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9315,7 +9360,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="395"/>
-      <c r="B461" s="441"/>
+      <c r="B461" s="547"/>
       <c r="C461" s="310" t="s">
         <v>474</v>
       </c>
@@ -9325,7 +9370,7 @@
       <c r="A463" s="395">
         <v>7039</v>
       </c>
-      <c r="B463" s="438" t="s">
+      <c r="B463" s="552" t="s">
         <v>475</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9337,7 +9382,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="395"/>
-      <c r="B464" s="438"/>
+      <c r="B464" s="552"/>
       <c r="C464" s="312" t="s">
         <v>477</v>
       </c>
@@ -9347,7 +9392,7 @@
       <c r="A466" s="395">
         <v>7040</v>
       </c>
-      <c r="B466" s="439" t="s">
+      <c r="B466" s="553" t="s">
         <v>478</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9359,7 +9404,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="395"/>
-      <c r="B467" s="439"/>
+      <c r="B467" s="553"/>
       <c r="C467" s="314" t="s">
         <v>480</v>
       </c>
@@ -9369,7 +9414,7 @@
       <c r="A469" s="395">
         <v>7042</v>
       </c>
-      <c r="B469" s="436" t="s">
+      <c r="B469" s="550" t="s">
         <v>481</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9381,7 +9426,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="395"/>
-      <c r="B470" s="436"/>
+      <c r="B470" s="550"/>
       <c r="C470" s="316" t="s">
         <v>483</v>
       </c>
@@ -9391,7 +9436,7 @@
       <c r="A472" s="395">
         <v>7043</v>
       </c>
-      <c r="B472" s="437" t="s">
+      <c r="B472" s="551" t="s">
         <v>484</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9403,7 +9448,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="395"/>
-      <c r="B473" s="437"/>
+      <c r="B473" s="551"/>
       <c r="C473" s="318" t="s">
         <v>486</v>
       </c>
@@ -9413,7 +9458,7 @@
       <c r="A475" s="395">
         <v>7044</v>
       </c>
-      <c r="B475" s="434" t="s">
+      <c r="B475" s="556" t="s">
         <v>487</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9425,7 +9470,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="395"/>
-      <c r="B476" s="434"/>
+      <c r="B476" s="556"/>
       <c r="C476" s="320" t="s">
         <v>489</v>
       </c>
@@ -9435,7 +9480,7 @@
       <c r="A478" s="395">
         <v>7045</v>
       </c>
-      <c r="B478" s="435" t="s">
+      <c r="B478" s="557" t="s">
         <v>490</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9447,7 +9492,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="395"/>
-      <c r="B479" s="435"/>
+      <c r="B479" s="557"/>
       <c r="C479" s="322" t="s">
         <v>492</v>
       </c>
@@ -9457,7 +9502,7 @@
       <c r="A481" s="395">
         <v>7046</v>
       </c>
-      <c r="B481" s="432" t="s">
+      <c r="B481" s="554" t="s">
         <v>493</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9469,7 +9514,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="395"/>
-      <c r="B482" s="432"/>
+      <c r="B482" s="554"/>
       <c r="C482" s="324" t="s">
         <v>495</v>
       </c>
@@ -9479,7 +9524,7 @@
       <c r="A484" s="395">
         <v>7047</v>
       </c>
-      <c r="B484" s="433" t="s">
+      <c r="B484" s="555" t="s">
         <v>496</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9491,7 +9536,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="395"/>
-      <c r="B485" s="433"/>
+      <c r="B485" s="555"/>
       <c r="C485" s="326" t="s">
         <v>498</v>
       </c>
@@ -9501,7 +9546,7 @@
       <c r="A487" s="395">
         <v>8000</v>
       </c>
-      <c r="B487" s="430" t="s">
+      <c r="B487" s="560" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9513,7 +9558,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="395"/>
-      <c r="B488" s="430"/>
+      <c r="B488" s="560"/>
       <c r="C488" s="328" t="s">
         <v>501</v>
       </c>
@@ -9523,7 +9568,7 @@
       <c r="A490" s="395">
         <v>8001</v>
       </c>
-      <c r="B490" s="431" t="s">
+      <c r="B490" s="561" t="s">
         <v>502</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9535,7 +9580,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="395"/>
-      <c r="B491" s="431"/>
+      <c r="B491" s="561"/>
       <c r="C491" s="330" t="s">
         <v>504</v>
       </c>
@@ -9545,7 +9590,7 @@
       <c r="A493" s="395">
         <v>8002</v>
       </c>
-      <c r="B493" s="428" t="s">
+      <c r="B493" s="558" t="s">
         <v>505</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9557,7 +9602,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="395"/>
-      <c r="B494" s="428"/>
+      <c r="B494" s="558"/>
       <c r="C494" s="332" t="s">
         <v>507</v>
       </c>
@@ -9567,7 +9612,7 @@
       <c r="A496" s="395">
         <v>8003</v>
       </c>
-      <c r="B496" s="429" t="s">
+      <c r="B496" s="559" t="s">
         <v>508</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9579,7 +9624,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="395"/>
-      <c r="B497" s="429"/>
+      <c r="B497" s="559"/>
       <c r="C497" s="334" t="s">
         <v>510</v>
       </c>
@@ -9589,7 +9634,7 @@
       <c r="A499" s="395">
         <v>8004</v>
       </c>
-      <c r="B499" s="426" t="s">
+      <c r="B499" s="564" t="s">
         <v>511</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9601,7 +9646,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="395"/>
-      <c r="B500" s="426"/>
+      <c r="B500" s="564"/>
       <c r="C500" s="336" t="s">
         <v>513</v>
       </c>
@@ -9611,7 +9656,7 @@
       <c r="A502" s="395">
         <v>8007</v>
       </c>
-      <c r="B502" s="427" t="s">
+      <c r="B502" s="565" t="s">
         <v>514</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9623,7 +9668,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="395"/>
-      <c r="B503" s="427"/>
+      <c r="B503" s="565"/>
       <c r="C503" s="338" t="s">
         <v>516</v>
       </c>
@@ -9633,7 +9678,7 @@
       <c r="A505" s="395">
         <v>8008</v>
       </c>
-      <c r="B505" s="424" t="s">
+      <c r="B505" s="562" t="s">
         <v>517</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -9645,7 +9690,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="395"/>
-      <c r="B506" s="424"/>
+      <c r="B506" s="562"/>
       <c r="C506" s="340" t="s">
         <v>519</v>
       </c>
@@ -9655,7 +9700,7 @@
       <c r="A508" s="395">
         <v>8011</v>
       </c>
-      <c r="B508" s="425" t="s">
+      <c r="B508" s="563" t="s">
         <v>520</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -9667,7 +9712,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="395"/>
-      <c r="B509" s="425"/>
+      <c r="B509" s="563"/>
       <c r="C509" s="342" t="s">
         <v>522</v>
       </c>
@@ -9677,7 +9722,7 @@
       <c r="A511" s="395">
         <v>8012</v>
       </c>
-      <c r="B511" s="422" t="s">
+      <c r="B511" s="568" t="s">
         <v>523</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -9689,7 +9734,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="395"/>
-      <c r="B512" s="422"/>
+      <c r="B512" s="568"/>
       <c r="C512" s="344" t="s">
         <v>525</v>
       </c>
@@ -9699,7 +9744,7 @@
       <c r="A514" s="395">
         <v>8014</v>
       </c>
-      <c r="B514" s="423" t="s">
+      <c r="B514" s="569" t="s">
         <v>526</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -9711,7 +9756,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="395"/>
-      <c r="B515" s="423"/>
+      <c r="B515" s="569"/>
       <c r="C515" s="346" t="s">
         <v>528</v>
       </c>
@@ -9721,7 +9766,7 @@
       <c r="A517" s="395">
         <v>8015</v>
       </c>
-      <c r="B517" s="420" t="s">
+      <c r="B517" s="566" t="s">
         <v>529</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -9733,7 +9778,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="395"/>
-      <c r="B518" s="420"/>
+      <c r="B518" s="566"/>
       <c r="C518" s="348" t="s">
         <v>531</v>
       </c>
@@ -9743,7 +9788,7 @@
       <c r="A520" s="395">
         <v>8016</v>
       </c>
-      <c r="B520" s="421" t="s">
+      <c r="B520" s="567" t="s">
         <v>532</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -9755,7 +9800,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="395"/>
-      <c r="B521" s="421"/>
+      <c r="B521" s="567"/>
       <c r="C521" s="350" t="s">
         <v>534</v>
       </c>
@@ -9765,7 +9810,7 @@
       <c r="A523" s="395">
         <v>8017</v>
       </c>
-      <c r="B523" s="418" t="s">
+      <c r="B523" s="572" t="s">
         <v>535</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -9777,7 +9822,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="395"/>
-      <c r="B524" s="418"/>
+      <c r="B524" s="572"/>
       <c r="C524" s="352" t="s">
         <v>537</v>
       </c>
@@ -9787,7 +9832,7 @@
       <c r="A526" s="395">
         <v>8019</v>
       </c>
-      <c r="B526" s="419" t="s">
+      <c r="B526" s="573" t="s">
         <v>538</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -9799,7 +9844,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="395"/>
-      <c r="B527" s="419"/>
+      <c r="B527" s="573"/>
       <c r="C527" s="354" t="s">
         <v>540</v>
       </c>
@@ -9809,7 +9854,7 @@
       <c r="A529" s="395">
         <v>8022</v>
       </c>
-      <c r="B529" s="416" t="s">
+      <c r="B529" s="570" t="s">
         <v>541</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -9821,7 +9866,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="395"/>
-      <c r="B530" s="416"/>
+      <c r="B530" s="570"/>
       <c r="C530" s="356" t="s">
         <v>543</v>
       </c>
@@ -9831,7 +9876,7 @@
       <c r="A532" s="395">
         <v>8023</v>
       </c>
-      <c r="B532" s="417" t="s">
+      <c r="B532" s="571" t="s">
         <v>544</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -9843,7 +9888,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="395"/>
-      <c r="B533" s="417"/>
+      <c r="B533" s="571"/>
       <c r="C533" s="358" t="s">
         <v>546</v>
       </c>
@@ -9853,7 +9898,7 @@
       <c r="A535" s="395">
         <v>8024</v>
       </c>
-      <c r="B535" s="414" t="s">
+      <c r="B535" s="576" t="s">
         <v>547</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -9865,7 +9910,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="395"/>
-      <c r="B536" s="414"/>
+      <c r="B536" s="576"/>
       <c r="C536" s="360" t="s">
         <v>549</v>
       </c>
@@ -9875,7 +9920,7 @@
       <c r="A538" s="395">
         <v>8025</v>
       </c>
-      <c r="B538" s="415" t="s">
+      <c r="B538" s="577" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -9887,7 +9932,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="395"/>
-      <c r="B539" s="415"/>
+      <c r="B539" s="577"/>
       <c r="C539" s="362" t="s">
         <v>552</v>
       </c>
@@ -9897,7 +9942,7 @@
       <c r="A541" s="395">
         <v>8028</v>
       </c>
-      <c r="B541" s="412" t="s">
+      <c r="B541" s="574" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -9909,7 +9954,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="395"/>
-      <c r="B542" s="412"/>
+      <c r="B542" s="574"/>
       <c r="C542" s="364" t="s">
         <v>555</v>
       </c>
@@ -9919,7 +9964,7 @@
       <c r="A544" s="395">
         <v>9001</v>
       </c>
-      <c r="B544" s="413" t="s">
+      <c r="B544" s="575" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -9931,7 +9976,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="395"/>
-      <c r="B545" s="413"/>
+      <c r="B545" s="575"/>
       <c r="C545" s="366" t="s">
         <v>558</v>
       </c>
@@ -9941,7 +9986,7 @@
       <c r="A547" s="395">
         <v>9002</v>
       </c>
-      <c r="B547" s="410" t="s">
+      <c r="B547" s="580" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -9953,7 +9998,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="395"/>
-      <c r="B548" s="410"/>
+      <c r="B548" s="580"/>
       <c r="C548" s="368" t="s">
         <v>561</v>
       </c>
@@ -9963,7 +10008,7 @@
       <c r="A550" s="395">
         <v>9003</v>
       </c>
-      <c r="B550" s="411" t="s">
+      <c r="B550" s="581" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -9975,7 +10020,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="395"/>
-      <c r="B551" s="411"/>
+      <c r="B551" s="581"/>
       <c r="C551" s="370" t="s">
         <v>564</v>
       </c>
@@ -9985,7 +10030,7 @@
       <c r="A553" s="395">
         <v>9004</v>
       </c>
-      <c r="B553" s="408" t="s">
+      <c r="B553" s="578" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -9997,7 +10042,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="395"/>
-      <c r="B554" s="408"/>
+      <c r="B554" s="578"/>
       <c r="C554" s="372" t="s">
         <v>567</v>
       </c>
@@ -10007,7 +10052,7 @@
       <c r="A556" s="395">
         <v>9005</v>
       </c>
-      <c r="B556" s="409" t="s">
+      <c r="B556" s="579" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -10019,7 +10064,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="395"/>
-      <c r="B557" s="409"/>
+      <c r="B557" s="579"/>
       <c r="C557" s="374" t="s">
         <v>570</v>
       </c>
@@ -10029,7 +10074,7 @@
       <c r="A559" s="395">
         <v>9006</v>
       </c>
-      <c r="B559" s="406" t="s">
+      <c r="B559" s="584" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -10041,7 +10086,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="395"/>
-      <c r="B560" s="406"/>
+      <c r="B560" s="584"/>
       <c r="C560" s="376" t="s">
         <v>573</v>
       </c>
@@ -10051,7 +10096,7 @@
       <c r="A562" s="395">
         <v>9007</v>
       </c>
-      <c r="B562" s="407" t="s">
+      <c r="B562" s="585" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -10063,7 +10108,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="395"/>
-      <c r="B563" s="407"/>
+      <c r="B563" s="585"/>
       <c r="C563" s="378" t="s">
         <v>576</v>
       </c>
@@ -10073,7 +10118,7 @@
       <c r="A565" s="395">
         <v>9010</v>
       </c>
-      <c r="B565" s="404" t="s">
+      <c r="B565" s="582" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -10085,7 +10130,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="395"/>
-      <c r="B566" s="404"/>
+      <c r="B566" s="582"/>
       <c r="C566" s="380" t="s">
         <v>579</v>
       </c>
@@ -10095,7 +10140,7 @@
       <c r="A568" s="395">
         <v>9011</v>
       </c>
-      <c r="B568" s="405" t="s">
+      <c r="B568" s="583" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -10107,7 +10152,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="395"/>
-      <c r="B569" s="405"/>
+      <c r="B569" s="583"/>
       <c r="C569" s="382" t="s">
         <v>582</v>
       </c>
@@ -10117,7 +10162,7 @@
       <c r="A571" s="395">
         <v>9016</v>
       </c>
-      <c r="B571" s="402" t="s">
+      <c r="B571" s="591" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10129,7 +10174,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="395"/>
-      <c r="B572" s="402"/>
+      <c r="B572" s="591"/>
       <c r="C572" s="384" t="s">
         <v>585</v>
       </c>
@@ -10139,7 +10184,7 @@
       <c r="A574" s="395">
         <v>9017</v>
       </c>
-      <c r="B574" s="403" t="s">
+      <c r="B574" s="592" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10151,7 +10196,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="395"/>
-      <c r="B575" s="403"/>
+      <c r="B575" s="592"/>
       <c r="C575" s="386" t="s">
         <v>588</v>
       </c>
@@ -10161,7 +10206,7 @@
       <c r="A577" s="395">
         <v>9018</v>
       </c>
-      <c r="B577" s="396" t="s">
+      <c r="B577" s="586" t="s">
         <v>589</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10173,7 +10218,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="395"/>
-      <c r="B578" s="396"/>
+      <c r="B578" s="586"/>
       <c r="C578" s="388" t="s">
         <v>591</v>
       </c>
@@ -10186,33 +10231,567 @@
       <c r="D580" s="397"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="398"/>
-      <c r="B581" s="400"/>
+      <c r="A581" s="587"/>
+      <c r="B581" s="589"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="399"/>
-      <c r="B582" s="401"/>
+      <c r="A582" s="588"/>
+      <c r="B582" s="590"/>
     </row>
   </sheetData>
   <mergeCells count="582">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="A580:D580"/>
+    <mergeCell ref="A581:A582"/>
+    <mergeCell ref="B581:B582"/>
+    <mergeCell ref="A571:A572"/>
+    <mergeCell ref="B571:B572"/>
+    <mergeCell ref="D571:D572"/>
+    <mergeCell ref="A574:A575"/>
+    <mergeCell ref="B574:B575"/>
+    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
@@ -10225,558 +10804,24 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="A580:D580"/>
-    <mergeCell ref="A581:A582"/>
-    <mergeCell ref="B581:B582"/>
-    <mergeCell ref="A571:A572"/>
-    <mergeCell ref="B571:B572"/>
-    <mergeCell ref="D571:D572"/>
-    <mergeCell ref="A574:A575"/>
-    <mergeCell ref="B574:B575"/>
-    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7938F9A0-DBC3-41E9-A779-F120D4B13C02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31862A58-809B-4887-BD1C-8C9F782E652B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="630">
   <si>
     <t>#</t>
   </si>
@@ -1844,9 +1844,6 @@
     <t>Mounting Hub for 4mm axis</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>Screw for Omniwheels</t>
   </si>
   <si>
@@ -1856,12 +1853,6 @@
     <t>https://www.ebay.de/itm/100-Edelstahl-Schrauben-DIN-912-Innensechskant-M2-x-10-mm-V2A-/312168616002?hash=item48aeb31042</t>
   </si>
   <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Packs</t>
-  </si>
-  <si>
     <t>https://www.conrad.de/de/silberstahl-welle-reely-o-x-l-2-mm-x-500-mm-237213.html</t>
   </si>
   <si>
@@ -1899,6 +1890,30 @@
   </si>
   <si>
     <t>Omniwheel motors</t>
+  </si>
+  <si>
+    <t>PlanetaryGear Bearing</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/miniatur-kugellager-624-2rs-4x13x5-mm</t>
+  </si>
+  <si>
+    <t>Bearing 4x13x5</t>
+  </si>
+  <si>
+    <t>Allen screw DIN912 M2</t>
+  </si>
+  <si>
+    <t>Planetary Bearing screw</t>
+  </si>
+  <si>
+    <t>https://www.schraubenkasten.de/schrauben/zylinderschrauben/din-912-mit-innensechskant/m2-din-912-12-9-stahl-zylinderschrauben-mit-innensechskant-blank/a-200192/</t>
+  </si>
+  <si>
+    <t>Packs to order</t>
+  </si>
+  <si>
+    <t>Pieces in Stock</t>
   </si>
 </sst>
 </file>
@@ -4305,580 +4320,14 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4899,7 +4348,573 @@
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5418,10 +5433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:M11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5457,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="J2" s="390" t="s">
         <v>5</v>
@@ -5466,11 +5481,9 @@
         <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>606</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="391">
@@ -5489,21 +5502,17 @@
         <v>1</v>
       </c>
       <c r="I3" s="394">
-        <f t="shared" ref="I3:I11" si="0">INT((B3-1)/H3+1)</f>
-        <v>1</v>
+        <f>INT((B3-1-L3)/H3+1)</f>
+        <v>0</v>
       </c>
       <c r="J3" s="392">
         <v>19.899999999999999</v>
       </c>
       <c r="K3" s="392">
-        <f t="shared" ref="K3:K11" si="1">I3*J3</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="L3" s="391">
-        <f t="shared" ref="L3:L11" si="2">H3*I3-B3</f>
+        <f t="shared" ref="K3:K13" si="0">I3*J3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="394">
+      <c r="L3" s="394">
         <v>1</v>
       </c>
     </row>
@@ -5512,10 +5521,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="394" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D4" s="394" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G4" s="391" t="s">
         <v>599</v>
@@ -5524,21 +5533,17 @@
         <v>1</v>
       </c>
       <c r="I4" s="394">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>INT((B4-1-L4)/H4+1)</f>
+        <v>0</v>
       </c>
       <c r="J4" s="392">
         <v>12.5</v>
       </c>
       <c r="K4" s="392">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="L4" s="391">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="394">
+      <c r="L4" s="394">
         <v>1</v>
       </c>
     </row>
@@ -5560,21 +5565,17 @@
         <v>1</v>
       </c>
       <c r="I5" s="394">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f>INT((B5-1-L5)/H5+1)</f>
+        <v>22</v>
       </c>
       <c r="J5" s="392">
         <v>0.87</v>
       </c>
       <c r="K5" s="392">
-        <f t="shared" si="1"/>
-        <v>62.64</v>
-      </c>
-      <c r="L5" s="391">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="394">
+        <f t="shared" si="0"/>
+        <v>19.14</v>
+      </c>
+      <c r="L5" s="394">
         <v>50</v>
       </c>
     </row>
@@ -5596,21 +5597,17 @@
         <v>2</v>
       </c>
       <c r="I6" s="394">
-        <f t="shared" si="0"/>
+        <f>INT((B6-1-L6)/H6+1)</f>
         <v>3</v>
       </c>
       <c r="J6" s="392">
         <v>7.5</v>
       </c>
       <c r="K6" s="392">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="L6" s="391">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="394">
+      <c r="L6" s="394">
         <v>0</v>
       </c>
     </row>
@@ -5620,33 +5617,29 @@
         <v>36</v>
       </c>
       <c r="C7" s="394" t="s">
+        <v>607</v>
+      </c>
+      <c r="D7" s="394" t="s">
+        <v>606</v>
+      </c>
+      <c r="G7" s="391" t="s">
         <v>608</v>
-      </c>
-      <c r="D7" s="394" t="s">
-        <v>607</v>
-      </c>
-      <c r="G7" s="391" t="s">
-        <v>609</v>
       </c>
       <c r="H7" s="394">
         <v>100</v>
       </c>
       <c r="I7" s="394">
-        <f t="shared" si="0"/>
+        <f>INT((B7-1-L7)/H7+1)</f>
         <v>1</v>
       </c>
       <c r="J7" s="392">
         <v>11.34</v>
       </c>
       <c r="K7" s="392">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.34</v>
       </c>
-      <c r="L7" s="391">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="M7" s="394">
+      <c r="L7" s="394">
         <v>20</v>
       </c>
     </row>
@@ -5655,33 +5648,29 @@
         <v>2</v>
       </c>
       <c r="C8" s="394" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D8" s="394" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G8" s="391" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H8" s="394">
         <v>1</v>
       </c>
       <c r="I8" s="394">
-        <f t="shared" si="0"/>
+        <f>INT((B8-1-L8)/H8+1)</f>
         <v>2</v>
       </c>
       <c r="J8" s="392">
         <v>2.34</v>
       </c>
       <c r="K8" s="392">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.68</v>
       </c>
-      <c r="L8" s="391">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="394">
+      <c r="L8" s="394">
         <v>0</v>
       </c>
     </row>
@@ -5690,33 +5679,29 @@
         <v>1</v>
       </c>
       <c r="C9" s="394" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D9" s="394" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G9" s="391" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H9" s="394">
         <v>1</v>
       </c>
       <c r="I9" s="394">
-        <f t="shared" si="0"/>
+        <f>INT((B9-1-L9)/H9+1)</f>
         <v>1</v>
       </c>
       <c r="J9" s="392">
         <v>2.59</v>
       </c>
       <c r="K9" s="392">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.59</v>
       </c>
-      <c r="L9" s="391">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="394">
+      <c r="L9" s="394">
         <v>0</v>
       </c>
     </row>
@@ -5725,33 +5710,29 @@
         <v>3</v>
       </c>
       <c r="C10" s="394" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D10" s="394" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G10" s="391" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H10" s="394">
         <v>1</v>
       </c>
       <c r="I10" s="394">
-        <f t="shared" si="0"/>
+        <f>INT((B10-1-L10)/H10+1)</f>
         <v>3</v>
       </c>
       <c r="J10" s="392">
         <v>19.899999999999999</v>
       </c>
       <c r="K10" s="392">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59.699999999999996</v>
       </c>
       <c r="L10" s="394">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="394">
         <v>0</v>
       </c>
     </row>
@@ -5760,40 +5741,96 @@
         <v>3</v>
       </c>
       <c r="C11" s="394" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D11" s="394" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G11" s="391" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H11" s="394">
         <v>5</v>
       </c>
       <c r="I11" s="394">
+        <f>INT((B11-1-L11)/H11+1)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="395">
+        <v>23</v>
+      </c>
+      <c r="K11" s="392">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="394">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="394">
+        <v>9</v>
+      </c>
+      <c r="C12" s="394" t="s">
+        <v>624</v>
+      </c>
+      <c r="D12" s="394" t="s">
+        <v>622</v>
+      </c>
+      <c r="G12" s="391" t="s">
+        <v>623</v>
+      </c>
+      <c r="H12" s="394">
         <v>1</v>
       </c>
-      <c r="J11" s="593">
-        <v>23</v>
-      </c>
-      <c r="K11" s="392">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="L11" s="394">
-        <f t="shared" ref="L11" si="3">H11*I11-B11</f>
-        <v>2</v>
-      </c>
-      <c r="M11" s="394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K12" s="393">
+      <c r="I12" s="394">
+        <f>INT((B12-1-L12)/H12+1)</f>
+        <v>5</v>
+      </c>
+      <c r="J12" s="395">
+        <v>1</v>
+      </c>
+      <c r="K12" s="392">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="394">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="394">
+        <v>9</v>
+      </c>
+      <c r="C13" s="394" t="s">
+        <v>625</v>
+      </c>
+      <c r="D13" s="394" t="s">
+        <v>626</v>
+      </c>
+      <c r="G13" s="391" t="s">
+        <v>627</v>
+      </c>
+      <c r="H13" s="394">
+        <v>100</v>
+      </c>
+      <c r="I13" s="394">
+        <f>INT((B13-1-L13)/H13+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="395">
+        <v>3</v>
+      </c>
+      <c r="K13" s="392">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L13" s="394"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K14" s="393">
         <f>SUM(K3:K11)</f>
-        <v>218.85</v>
+        <v>119.94999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5979,4267 +6016,4837 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="395">
+      <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="396" t="s">
+      <c r="B1" s="591" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="397" t="s">
+      <c r="D1" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="395"/>
-      <c r="B2" s="396"/>
+      <c r="A2" s="396"/>
+      <c r="B2" s="591"/>
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="397"/>
+      <c r="D2" s="398"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="395">
+      <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="398" t="s">
+      <c r="B4" s="592" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="397" t="s">
+      <c r="D4" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="395"/>
-      <c r="B5" s="398"/>
+      <c r="A5" s="396"/>
+      <c r="B5" s="592"/>
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="397"/>
+      <c r="D5" s="398"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="395">
+      <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="401" t="s">
+      <c r="B7" s="589" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="397" t="s">
+      <c r="D7" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="395"/>
-      <c r="B8" s="401"/>
+      <c r="A8" s="396"/>
+      <c r="B8" s="589"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="397"/>
+      <c r="D8" s="398"/>
     </row>
     <row r="10" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="395">
+      <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="402" t="s">
+      <c r="B10" s="590" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="397" t="s">
+      <c r="D10" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="395"/>
-      <c r="B11" s="402"/>
+      <c r="A11" s="396"/>
+      <c r="B11" s="590"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="397"/>
+      <c r="D11" s="398"/>
     </row>
     <row r="13" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="395">
+      <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="399" t="s">
+      <c r="B13" s="593" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="397" t="s">
+      <c r="D13" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="395"/>
-      <c r="B14" s="399"/>
+      <c r="A14" s="396"/>
+      <c r="B14" s="593"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="397"/>
+      <c r="D14" s="398"/>
     </row>
     <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="395">
+      <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="400" t="s">
+      <c r="B16" s="588" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="397" t="s">
+      <c r="D16" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="395"/>
-      <c r="B17" s="400"/>
+      <c r="A17" s="396"/>
+      <c r="B17" s="588"/>
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="397"/>
+      <c r="D17" s="398"/>
     </row>
     <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="395">
+      <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="405" t="s">
+      <c r="B19" s="586" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="397" t="s">
+      <c r="D19" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="395"/>
-      <c r="B20" s="405"/>
+      <c r="A20" s="396"/>
+      <c r="B20" s="586"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="397"/>
+      <c r="D20" s="398"/>
     </row>
     <row r="22" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="395">
+      <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="406" t="s">
+      <c r="B22" s="587" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="397" t="s">
+      <c r="D22" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="395"/>
-      <c r="B23" s="406"/>
+      <c r="A23" s="396"/>
+      <c r="B23" s="587"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="397"/>
+      <c r="D23" s="398"/>
     </row>
     <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="395">
+      <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="403" t="s">
+      <c r="B25" s="584" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="397" t="s">
+      <c r="D25" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="395"/>
-      <c r="B26" s="403"/>
+      <c r="A26" s="396"/>
+      <c r="B26" s="584"/>
       <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="397"/>
+      <c r="D26" s="398"/>
     </row>
     <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="395">
+      <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="404" t="s">
+      <c r="B28" s="585" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="397" t="s">
+      <c r="D28" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="395"/>
-      <c r="B29" s="404"/>
+      <c r="A29" s="396"/>
+      <c r="B29" s="585"/>
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="397"/>
+      <c r="D29" s="398"/>
     </row>
     <row r="31" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="395">
+      <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="409" t="s">
+      <c r="B31" s="582" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="397" t="s">
+      <c r="D31" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="395"/>
-      <c r="B32" s="409"/>
+      <c r="A32" s="396"/>
+      <c r="B32" s="582"/>
       <c r="C32" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="397"/>
+      <c r="D32" s="398"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="395">
+      <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="410" t="s">
+      <c r="B34" s="583" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="397" t="s">
+      <c r="D34" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="395"/>
-      <c r="B35" s="410"/>
+      <c r="A35" s="396"/>
+      <c r="B35" s="583"/>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="397"/>
+      <c r="D35" s="398"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="395">
+      <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="407" t="s">
+      <c r="B37" s="580" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="397" t="s">
+      <c r="D37" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="395"/>
-      <c r="B38" s="407"/>
+      <c r="A38" s="396"/>
+      <c r="B38" s="580"/>
       <c r="C38" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="397"/>
+      <c r="D38" s="398"/>
     </row>
     <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="395">
+      <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="408" t="s">
+      <c r="B40" s="581" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="397" t="s">
+      <c r="D40" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="395"/>
-      <c r="B41" s="408"/>
+      <c r="A41" s="396"/>
+      <c r="B41" s="581"/>
       <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="397"/>
+      <c r="D41" s="398"/>
     </row>
     <row r="43" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="395">
+      <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="413" t="s">
+      <c r="B43" s="578" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="397" t="s">
+      <c r="D43" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="395"/>
-      <c r="B44" s="413"/>
+      <c r="A44" s="396"/>
+      <c r="B44" s="578"/>
       <c r="C44" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="397"/>
+      <c r="D44" s="398"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="395">
+      <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="414" t="s">
+      <c r="B46" s="579" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="397" t="s">
+      <c r="D46" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="395"/>
-      <c r="B47" s="414"/>
+      <c r="A47" s="396"/>
+      <c r="B47" s="579"/>
       <c r="C47" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="397"/>
+      <c r="D47" s="398"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="395">
+      <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="411" t="s">
+      <c r="B49" s="576" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="397" t="s">
+      <c r="D49" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="395"/>
-      <c r="B50" s="411"/>
+      <c r="A50" s="396"/>
+      <c r="B50" s="576"/>
       <c r="C50" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="397"/>
+      <c r="D50" s="398"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="395">
+      <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="412" t="s">
+      <c r="B52" s="577" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="397" t="s">
+      <c r="D52" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="395"/>
-      <c r="B53" s="412"/>
+      <c r="A53" s="396"/>
+      <c r="B53" s="577"/>
       <c r="C53" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="397"/>
+      <c r="D53" s="398"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="395">
+      <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="417" t="s">
+      <c r="B55" s="575" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="397" t="s">
+      <c r="D55" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="395"/>
-      <c r="B56" s="417"/>
+      <c r="A56" s="396"/>
+      <c r="B56" s="575"/>
       <c r="C56" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="397"/>
+      <c r="D56" s="398"/>
     </row>
     <row r="58" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="395">
+      <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="417" t="s">
+      <c r="B58" s="575" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="397" t="s">
+      <c r="D58" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="395"/>
-      <c r="B59" s="417"/>
+      <c r="A59" s="396"/>
+      <c r="B59" s="575"/>
       <c r="C59" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="397"/>
+      <c r="D59" s="398"/>
     </row>
     <row r="61" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="395">
+      <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="415" t="s">
+      <c r="B61" s="573" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="397" t="s">
+      <c r="D61" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="395"/>
-      <c r="B62" s="415"/>
+      <c r="A62" s="396"/>
+      <c r="B62" s="573"/>
       <c r="C62" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="397"/>
+      <c r="D62" s="398"/>
     </row>
     <row r="64" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="395">
+      <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="416" t="s">
+      <c r="B64" s="574" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="397" t="s">
+      <c r="D64" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="395"/>
-      <c r="B65" s="416"/>
+      <c r="A65" s="396"/>
+      <c r="B65" s="574"/>
       <c r="C65" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="397"/>
+      <c r="D65" s="398"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="395">
+      <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="420" t="s">
+      <c r="B67" s="571" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="397" t="s">
+      <c r="D67" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="395"/>
-      <c r="B68" s="420"/>
+      <c r="A68" s="396"/>
+      <c r="B68" s="571"/>
       <c r="C68" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="397"/>
+      <c r="D68" s="398"/>
     </row>
     <row r="70" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="395">
+      <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="421" t="s">
+      <c r="B70" s="572" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="397" t="s">
+      <c r="D70" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="395"/>
-      <c r="B71" s="421"/>
+      <c r="A71" s="396"/>
+      <c r="B71" s="572"/>
       <c r="C71" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="397"/>
+      <c r="D71" s="398"/>
     </row>
     <row r="73" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="395">
+      <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="418" t="s">
+      <c r="B73" s="569" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="397" t="s">
+      <c r="D73" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="395"/>
-      <c r="B74" s="418"/>
+      <c r="A74" s="396"/>
+      <c r="B74" s="569"/>
       <c r="C74" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D74" s="397"/>
+      <c r="D74" s="398"/>
     </row>
     <row r="76" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="395">
+      <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="419" t="s">
+      <c r="B76" s="570" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="397" t="s">
+      <c r="D76" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="395"/>
-      <c r="B77" s="419"/>
+      <c r="A77" s="396"/>
+      <c r="B77" s="570"/>
       <c r="C77" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="397"/>
+      <c r="D77" s="398"/>
     </row>
     <row r="79" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="395">
+      <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="424" t="s">
+      <c r="B79" s="567" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="397" t="s">
+      <c r="D79" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="395"/>
-      <c r="B80" s="424"/>
+      <c r="A80" s="396"/>
+      <c r="B80" s="567"/>
       <c r="C80" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="397"/>
+      <c r="D80" s="398"/>
     </row>
     <row r="82" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="395">
+      <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="425" t="s">
+      <c r="B82" s="568" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="397" t="s">
+      <c r="D82" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="395"/>
-      <c r="B83" s="425"/>
+      <c r="A83" s="396"/>
+      <c r="B83" s="568"/>
       <c r="C83" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="397"/>
+      <c r="D83" s="398"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="395">
+      <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="422" t="s">
+      <c r="B85" s="565" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="397" t="s">
+      <c r="D85" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="395"/>
-      <c r="B86" s="422"/>
+      <c r="A86" s="396"/>
+      <c r="B86" s="565"/>
       <c r="C86" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="397"/>
+      <c r="D86" s="398"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="395">
+      <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="423" t="s">
+      <c r="B88" s="566" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="397" t="s">
+      <c r="D88" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="395"/>
-      <c r="B89" s="423"/>
+      <c r="A89" s="396"/>
+      <c r="B89" s="566"/>
       <c r="C89" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="397"/>
+      <c r="D89" s="398"/>
     </row>
     <row r="91" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="395">
+      <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="428" t="s">
+      <c r="B91" s="563" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="397" t="s">
+      <c r="D91" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="395"/>
-      <c r="B92" s="428"/>
+      <c r="A92" s="396"/>
+      <c r="B92" s="563"/>
       <c r="C92" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D92" s="397"/>
+      <c r="D92" s="398"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="395">
+      <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="429" t="s">
+      <c r="B94" s="564" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="397" t="s">
+      <c r="D94" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="395"/>
-      <c r="B95" s="429"/>
+      <c r="A95" s="396"/>
+      <c r="B95" s="564"/>
       <c r="C95" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="397"/>
+      <c r="D95" s="398"/>
     </row>
     <row r="97" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="395">
+      <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="426" t="s">
+      <c r="B97" s="561" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="397" t="s">
+      <c r="D97" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="395"/>
-      <c r="B98" s="426"/>
+      <c r="A98" s="396"/>
+      <c r="B98" s="561"/>
       <c r="C98" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="D98" s="397"/>
+      <c r="D98" s="398"/>
     </row>
     <row r="100" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="395">
+      <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="427" t="s">
+      <c r="B100" s="562" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="397" t="s">
+      <c r="D100" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="395"/>
-      <c r="B101" s="427"/>
+      <c r="A101" s="396"/>
+      <c r="B101" s="562"/>
       <c r="C101" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="397"/>
+      <c r="D101" s="398"/>
     </row>
     <row r="103" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="395">
+      <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="432" t="s">
+      <c r="B103" s="559" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D103" s="397" t="s">
+      <c r="D103" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="395"/>
-      <c r="B104" s="432"/>
+      <c r="A104" s="396"/>
+      <c r="B104" s="559"/>
       <c r="C104" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="397"/>
+      <c r="D104" s="398"/>
     </row>
     <row r="106" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="395">
+      <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="433" t="s">
+      <c r="B106" s="560" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="397" t="s">
+      <c r="D106" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="395"/>
-      <c r="B107" s="433"/>
+      <c r="A107" s="396"/>
+      <c r="B107" s="560"/>
       <c r="C107" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="D107" s="397"/>
+      <c r="D107" s="398"/>
     </row>
     <row r="109" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="395">
+      <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="430" t="s">
+      <c r="B109" s="557" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D109" s="397" t="s">
+      <c r="D109" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="395"/>
-      <c r="B110" s="430"/>
+      <c r="A110" s="396"/>
+      <c r="B110" s="557"/>
       <c r="C110" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="D110" s="397"/>
+      <c r="D110" s="398"/>
     </row>
     <row r="112" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="395">
+      <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="431" t="s">
+      <c r="B112" s="558" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D112" s="397" t="s">
+      <c r="D112" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="395"/>
-      <c r="B113" s="431"/>
+      <c r="A113" s="396"/>
+      <c r="B113" s="558"/>
       <c r="C113" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="397"/>
+      <c r="D113" s="398"/>
     </row>
     <row r="115" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="395">
+      <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="436" t="s">
+      <c r="B115" s="555" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="D115" s="397" t="s">
+      <c r="D115" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="395"/>
-      <c r="B116" s="436"/>
+      <c r="A116" s="396"/>
+      <c r="B116" s="555"/>
       <c r="C116" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="D116" s="397"/>
+      <c r="D116" s="398"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="395">
+      <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="437" t="s">
+      <c r="B118" s="556" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="D118" s="397" t="s">
+      <c r="D118" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="395"/>
-      <c r="B119" s="437"/>
+      <c r="A119" s="396"/>
+      <c r="B119" s="556"/>
       <c r="C119" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D119" s="397"/>
+      <c r="D119" s="398"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="395">
+      <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="434" t="s">
+      <c r="B121" s="553" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D121" s="397" t="s">
+      <c r="D121" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="395"/>
-      <c r="B122" s="434"/>
+      <c r="A122" s="396"/>
+      <c r="B122" s="553"/>
       <c r="C122" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="D122" s="397"/>
+      <c r="D122" s="398"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="395">
+      <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="435" t="s">
+      <c r="B124" s="554" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="D124" s="397" t="s">
+      <c r="D124" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="395"/>
-      <c r="B125" s="435"/>
+      <c r="A125" s="396"/>
+      <c r="B125" s="554"/>
       <c r="C125" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="D125" s="397"/>
+      <c r="D125" s="398"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="395">
+      <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="440" t="s">
+      <c r="B127" s="551" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="D127" s="397" t="s">
+      <c r="D127" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="395"/>
-      <c r="B128" s="440"/>
+      <c r="A128" s="396"/>
+      <c r="B128" s="551"/>
       <c r="C128" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="397"/>
+      <c r="D128" s="398"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="395">
+      <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="441" t="s">
+      <c r="B130" s="552" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="D130" s="397" t="s">
+      <c r="D130" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="395"/>
-      <c r="B131" s="441"/>
+      <c r="A131" s="396"/>
+      <c r="B131" s="552"/>
       <c r="C131" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="D131" s="397"/>
+      <c r="D131" s="398"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="395">
+      <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="438" t="s">
+      <c r="B133" s="549" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="D133" s="397" t="s">
+      <c r="D133" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="395"/>
-      <c r="B134" s="438"/>
+      <c r="A134" s="396"/>
+      <c r="B134" s="549"/>
       <c r="C134" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="D134" s="397"/>
+      <c r="D134" s="398"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="395">
+      <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="439" t="s">
+      <c r="B136" s="550" t="s">
         <v>149</v>
       </c>
       <c r="C136" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="D136" s="397" t="s">
+      <c r="D136" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="395"/>
-      <c r="B137" s="439"/>
+      <c r="A137" s="396"/>
+      <c r="B137" s="550"/>
       <c r="C137" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D137" s="397"/>
+      <c r="D137" s="398"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="395">
+      <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="444" t="s">
+      <c r="B139" s="547" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="D139" s="397" t="s">
+      <c r="D139" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="395"/>
-      <c r="B140" s="444"/>
+      <c r="A140" s="396"/>
+      <c r="B140" s="547"/>
       <c r="C140" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D140" s="397"/>
+      <c r="D140" s="398"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="395">
+      <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="445" t="s">
+      <c r="B142" s="548" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D142" s="397" t="s">
+      <c r="D142" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="395"/>
-      <c r="B143" s="445"/>
+      <c r="A143" s="396"/>
+      <c r="B143" s="548"/>
       <c r="C143" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="D143" s="397"/>
+      <c r="D143" s="398"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="395">
+      <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="442" t="s">
+      <c r="B145" s="545" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D145" s="397" t="s">
+      <c r="D145" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="395"/>
-      <c r="B146" s="442"/>
+      <c r="A146" s="396"/>
+      <c r="B146" s="545"/>
       <c r="C146" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="D146" s="397"/>
+      <c r="D146" s="398"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="395">
+      <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="443" t="s">
+      <c r="B148" s="546" t="s">
         <v>161</v>
       </c>
       <c r="C148" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="D148" s="397" t="s">
+      <c r="D148" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="395"/>
-      <c r="B149" s="443"/>
+      <c r="A149" s="396"/>
+      <c r="B149" s="546"/>
       <c r="C149" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D149" s="397"/>
+      <c r="D149" s="398"/>
     </row>
     <row r="151" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="395">
+      <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="448" t="s">
+      <c r="B151" s="543" t="s">
         <v>164</v>
       </c>
       <c r="C151" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="D151" s="397" t="s">
+      <c r="D151" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="395"/>
-      <c r="B152" s="448"/>
+      <c r="A152" s="396"/>
+      <c r="B152" s="543"/>
       <c r="C152" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="D152" s="397"/>
+      <c r="D152" s="398"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="395">
+      <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="449" t="s">
+      <c r="B154" s="544" t="s">
         <v>167</v>
       </c>
       <c r="C154" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="D154" s="397" t="s">
+      <c r="D154" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="395"/>
-      <c r="B155" s="449"/>
+      <c r="A155" s="396"/>
+      <c r="B155" s="544"/>
       <c r="C155" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="D155" s="397"/>
+      <c r="D155" s="398"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="395">
+      <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="446" t="s">
+      <c r="B157" s="541" t="s">
         <v>170</v>
       </c>
       <c r="C157" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="D157" s="397" t="s">
+      <c r="D157" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="395"/>
-      <c r="B158" s="446"/>
+      <c r="A158" s="396"/>
+      <c r="B158" s="541"/>
       <c r="C158" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="D158" s="397"/>
+      <c r="D158" s="398"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="395">
+      <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="447" t="s">
+      <c r="B160" s="542" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="D160" s="397" t="s">
+      <c r="D160" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="395"/>
-      <c r="B161" s="447"/>
+      <c r="A161" s="396"/>
+      <c r="B161" s="542"/>
       <c r="C161" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="D161" s="397"/>
+      <c r="D161" s="398"/>
     </row>
     <row r="163" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="395">
+      <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="452" t="s">
+      <c r="B163" s="539" t="s">
         <v>176</v>
       </c>
       <c r="C163" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="D163" s="397" t="s">
+      <c r="D163" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="395"/>
-      <c r="B164" s="452"/>
+      <c r="A164" s="396"/>
+      <c r="B164" s="539"/>
       <c r="C164" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="D164" s="397"/>
+      <c r="D164" s="398"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="395">
+      <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="453" t="s">
+      <c r="B166" s="540" t="s">
         <v>179</v>
       </c>
       <c r="C166" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="D166" s="397" t="s">
+      <c r="D166" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="395"/>
-      <c r="B167" s="453"/>
+      <c r="A167" s="396"/>
+      <c r="B167" s="540"/>
       <c r="C167" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D167" s="397"/>
+      <c r="D167" s="398"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="395">
+      <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="450" t="s">
+      <c r="B169" s="537" t="s">
         <v>182</v>
       </c>
       <c r="C169" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="D169" s="397" t="s">
+      <c r="D169" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="395"/>
-      <c r="B170" s="450"/>
+      <c r="A170" s="396"/>
+      <c r="B170" s="537"/>
       <c r="C170" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="D170" s="397"/>
+      <c r="D170" s="398"/>
     </row>
     <row r="172" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="395">
+      <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="451" t="s">
+      <c r="B172" s="538" t="s">
         <v>185</v>
       </c>
       <c r="C172" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="D172" s="397" t="s">
+      <c r="D172" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="395"/>
-      <c r="B173" s="451"/>
+      <c r="A173" s="396"/>
+      <c r="B173" s="538"/>
       <c r="C173" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="D173" s="397"/>
+      <c r="D173" s="398"/>
     </row>
     <row r="175" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="395">
+      <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="456" t="s">
+      <c r="B175" s="535" t="s">
         <v>188</v>
       </c>
       <c r="C175" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="D175" s="397" t="s">
+      <c r="D175" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="395"/>
-      <c r="B176" s="456"/>
+      <c r="A176" s="396"/>
+      <c r="B176" s="535"/>
       <c r="C176" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="D176" s="397"/>
+      <c r="D176" s="398"/>
     </row>
     <row r="178" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="395">
+      <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="457" t="s">
+      <c r="B178" s="536" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="D178" s="397" t="s">
+      <c r="D178" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="395"/>
-      <c r="B179" s="457"/>
+      <c r="A179" s="396"/>
+      <c r="B179" s="536"/>
       <c r="C179" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="D179" s="397"/>
+      <c r="D179" s="398"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="395">
+      <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="454" t="s">
+      <c r="B181" s="533" t="s">
         <v>194</v>
       </c>
       <c r="C181" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="D181" s="397" t="s">
+      <c r="D181" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="395"/>
-      <c r="B182" s="454"/>
+      <c r="A182" s="396"/>
+      <c r="B182" s="533"/>
       <c r="C182" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="D182" s="397"/>
+      <c r="D182" s="398"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="395">
+      <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="455" t="s">
+      <c r="B184" s="534" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="397" t="s">
+      <c r="D184" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="395"/>
-      <c r="B185" s="455"/>
+      <c r="A185" s="396"/>
+      <c r="B185" s="534"/>
       <c r="C185" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="D185" s="397"/>
+      <c r="D185" s="398"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="395">
+      <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="460" t="s">
+      <c r="B187" s="531" t="s">
         <v>200</v>
       </c>
       <c r="C187" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="D187" s="397" t="s">
+      <c r="D187" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="395"/>
-      <c r="B188" s="460"/>
+      <c r="A188" s="396"/>
+      <c r="B188" s="531"/>
       <c r="C188" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="D188" s="397"/>
+      <c r="D188" s="398"/>
     </row>
     <row r="190" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="395">
+      <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="461" t="s">
+      <c r="B190" s="532" t="s">
         <v>203</v>
       </c>
       <c r="C190" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="D190" s="397" t="s">
+      <c r="D190" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="395"/>
-      <c r="B191" s="461"/>
+      <c r="A191" s="396"/>
+      <c r="B191" s="532"/>
       <c r="C191" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="D191" s="397"/>
+      <c r="D191" s="398"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="395">
+      <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="458" t="s">
+      <c r="B193" s="529" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="D193" s="397" t="s">
+      <c r="D193" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="395"/>
-      <c r="B194" s="458"/>
+      <c r="A194" s="396"/>
+      <c r="B194" s="529"/>
       <c r="C194" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="D194" s="397"/>
+      <c r="D194" s="398"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="395">
+      <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="459" t="s">
+      <c r="B196" s="530" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="D196" s="397" t="s">
+      <c r="D196" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="395"/>
-      <c r="B197" s="459"/>
+      <c r="A197" s="396"/>
+      <c r="B197" s="530"/>
       <c r="C197" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="D197" s="397"/>
+      <c r="D197" s="398"/>
     </row>
     <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="395">
+      <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="464" t="s">
+      <c r="B199" s="527" t="s">
         <v>212</v>
       </c>
       <c r="C199" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="D199" s="397" t="s">
+      <c r="D199" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="395"/>
-      <c r="B200" s="464"/>
+      <c r="A200" s="396"/>
+      <c r="B200" s="527"/>
       <c r="C200" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="D200" s="397"/>
+      <c r="D200" s="398"/>
     </row>
     <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="395">
+      <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="465" t="s">
+      <c r="B202" s="528" t="s">
         <v>215</v>
       </c>
       <c r="C202" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="D202" s="397" t="s">
+      <c r="D202" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="395"/>
-      <c r="B203" s="465"/>
+      <c r="A203" s="396"/>
+      <c r="B203" s="528"/>
       <c r="C203" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="D203" s="397"/>
+      <c r="D203" s="398"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="395">
+      <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="462" t="s">
+      <c r="B205" s="525" t="s">
         <v>218</v>
       </c>
       <c r="C205" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="D205" s="397" t="s">
+      <c r="D205" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="395"/>
-      <c r="B206" s="462"/>
+      <c r="A206" s="396"/>
+      <c r="B206" s="525"/>
       <c r="C206" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="D206" s="397"/>
+      <c r="D206" s="398"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="395">
+      <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="463" t="s">
+      <c r="B208" s="526" t="s">
         <v>221</v>
       </c>
       <c r="C208" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="D208" s="397" t="s">
+      <c r="D208" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="395"/>
-      <c r="B209" s="463"/>
+      <c r="A209" s="396"/>
+      <c r="B209" s="526"/>
       <c r="C209" s="142" t="s">
         <v>223</v>
       </c>
-      <c r="D209" s="397"/>
+      <c r="D209" s="398"/>
     </row>
     <row r="211" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="395">
+      <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="468" t="s">
+      <c r="B211" s="523" t="s">
         <v>224</v>
       </c>
       <c r="C211" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="D211" s="397" t="s">
+      <c r="D211" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="395"/>
-      <c r="B212" s="468"/>
+      <c r="A212" s="396"/>
+      <c r="B212" s="523"/>
       <c r="C212" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="D212" s="397"/>
+      <c r="D212" s="398"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="395">
+      <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="469" t="s">
+      <c r="B214" s="524" t="s">
         <v>227</v>
       </c>
       <c r="C214" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="D214" s="397" t="s">
+      <c r="D214" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="395"/>
-      <c r="B215" s="469"/>
+      <c r="A215" s="396"/>
+      <c r="B215" s="524"/>
       <c r="C215" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="D215" s="397"/>
+      <c r="D215" s="398"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="395">
+      <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="466" t="s">
+      <c r="B217" s="521" t="s">
         <v>230</v>
       </c>
       <c r="C217" s="147" t="s">
         <v>231</v>
       </c>
-      <c r="D217" s="397" t="s">
+      <c r="D217" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="395"/>
-      <c r="B218" s="466"/>
+      <c r="A218" s="396"/>
+      <c r="B218" s="521"/>
       <c r="C218" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="D218" s="397"/>
+      <c r="D218" s="398"/>
     </row>
     <row r="220" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="395">
+      <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="467" t="s">
+      <c r="B220" s="522" t="s">
         <v>233</v>
       </c>
       <c r="C220" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="D220" s="397" t="s">
+      <c r="D220" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="395"/>
-      <c r="B221" s="467"/>
+      <c r="A221" s="396"/>
+      <c r="B221" s="522"/>
       <c r="C221" s="150" t="s">
         <v>235</v>
       </c>
-      <c r="D221" s="397"/>
+      <c r="D221" s="398"/>
     </row>
     <row r="223" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="395">
+      <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="472" t="s">
+      <c r="B223" s="519" t="s">
         <v>236</v>
       </c>
       <c r="C223" s="151" t="s">
         <v>237</v>
       </c>
-      <c r="D223" s="397" t="s">
+      <c r="D223" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="395"/>
-      <c r="B224" s="472"/>
+      <c r="A224" s="396"/>
+      <c r="B224" s="519"/>
       <c r="C224" s="152" t="s">
         <v>238</v>
       </c>
-      <c r="D224" s="397"/>
+      <c r="D224" s="398"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="395">
+      <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="473" t="s">
+      <c r="B226" s="520" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="D226" s="397" t="s">
+      <c r="D226" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="395"/>
-      <c r="B227" s="473"/>
+      <c r="A227" s="396"/>
+      <c r="B227" s="520"/>
       <c r="C227" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="D227" s="397"/>
+      <c r="D227" s="398"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="395">
+      <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="470" t="s">
+      <c r="B229" s="517" t="s">
         <v>242</v>
       </c>
       <c r="C229" s="155" t="s">
         <v>243</v>
       </c>
-      <c r="D229" s="397" t="s">
+      <c r="D229" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="395"/>
-      <c r="B230" s="470"/>
+      <c r="A230" s="396"/>
+      <c r="B230" s="517"/>
       <c r="C230" s="156" t="s">
         <v>244</v>
       </c>
-      <c r="D230" s="397"/>
+      <c r="D230" s="398"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="395">
+      <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="471" t="s">
+      <c r="B232" s="518" t="s">
         <v>245</v>
       </c>
       <c r="C232" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="D232" s="397" t="s">
+      <c r="D232" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="395"/>
-      <c r="B233" s="471"/>
+      <c r="A233" s="396"/>
+      <c r="B233" s="518"/>
       <c r="C233" s="158" t="s">
         <v>247</v>
       </c>
-      <c r="D233" s="397"/>
+      <c r="D233" s="398"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="395">
+      <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="476" t="s">
+      <c r="B235" s="515" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="159" t="s">
         <v>249</v>
       </c>
-      <c r="D235" s="397" t="s">
+      <c r="D235" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="395"/>
-      <c r="B236" s="476"/>
+      <c r="A236" s="396"/>
+      <c r="B236" s="515"/>
       <c r="C236" s="160" t="s">
         <v>250</v>
       </c>
-      <c r="D236" s="397"/>
+      <c r="D236" s="398"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="395">
+      <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="477" t="s">
+      <c r="B238" s="516" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="161" t="s">
         <v>252</v>
       </c>
-      <c r="D238" s="397" t="s">
+      <c r="D238" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="395"/>
-      <c r="B239" s="477"/>
+      <c r="A239" s="396"/>
+      <c r="B239" s="516"/>
       <c r="C239" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="D239" s="397"/>
+      <c r="D239" s="398"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="395">
+      <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="474" t="s">
+      <c r="B241" s="513" t="s">
         <v>254</v>
       </c>
       <c r="C241" s="163" t="s">
         <v>255</v>
       </c>
-      <c r="D241" s="397" t="s">
+      <c r="D241" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="395"/>
-      <c r="B242" s="474"/>
+      <c r="A242" s="396"/>
+      <c r="B242" s="513"/>
       <c r="C242" s="164" t="s">
         <v>256</v>
       </c>
-      <c r="D242" s="397"/>
+      <c r="D242" s="398"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="395">
+      <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="475" t="s">
+      <c r="B244" s="514" t="s">
         <v>257</v>
       </c>
       <c r="C244" s="165" t="s">
         <v>258</v>
       </c>
-      <c r="D244" s="397" t="s">
+      <c r="D244" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="395"/>
-      <c r="B245" s="475"/>
+      <c r="A245" s="396"/>
+      <c r="B245" s="514"/>
       <c r="C245" s="166" t="s">
         <v>259</v>
       </c>
-      <c r="D245" s="397"/>
+      <c r="D245" s="398"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="395">
+      <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="480" t="s">
+      <c r="B247" s="511" t="s">
         <v>260</v>
       </c>
       <c r="C247" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="D247" s="397" t="s">
+      <c r="D247" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="395"/>
-      <c r="B248" s="480"/>
+      <c r="A248" s="396"/>
+      <c r="B248" s="511"/>
       <c r="C248" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="D248" s="397"/>
+      <c r="D248" s="398"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="395">
+      <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="481" t="s">
+      <c r="B250" s="512" t="s">
         <v>263</v>
       </c>
       <c r="C250" s="169" t="s">
         <v>264</v>
       </c>
-      <c r="D250" s="397" t="s">
+      <c r="D250" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="395"/>
-      <c r="B251" s="481"/>
+      <c r="A251" s="396"/>
+      <c r="B251" s="512"/>
       <c r="C251" s="170" t="s">
         <v>265</v>
       </c>
-      <c r="D251" s="397"/>
+      <c r="D251" s="398"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="395">
+      <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="478" t="s">
+      <c r="B253" s="509" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="171" t="s">
         <v>267</v>
       </c>
-      <c r="D253" s="397" t="s">
+      <c r="D253" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="395"/>
-      <c r="B254" s="478"/>
+      <c r="A254" s="396"/>
+      <c r="B254" s="509"/>
       <c r="C254" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="D254" s="397"/>
+      <c r="D254" s="398"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="395">
+      <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="479" t="s">
+      <c r="B256" s="510" t="s">
         <v>269</v>
       </c>
       <c r="C256" s="173" t="s">
         <v>270</v>
       </c>
-      <c r="D256" s="397" t="s">
+      <c r="D256" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="395"/>
-      <c r="B257" s="479"/>
+      <c r="A257" s="396"/>
+      <c r="B257" s="510"/>
       <c r="C257" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="D257" s="397"/>
+      <c r="D257" s="398"/>
     </row>
     <row r="259" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="395">
+      <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="484" t="s">
+      <c r="B259" s="507" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="175" t="s">
         <v>273</v>
       </c>
-      <c r="D259" s="397" t="s">
+      <c r="D259" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="395"/>
-      <c r="B260" s="484"/>
+      <c r="A260" s="396"/>
+      <c r="B260" s="507"/>
       <c r="C260" s="176" t="s">
         <v>274</v>
       </c>
-      <c r="D260" s="397"/>
+      <c r="D260" s="398"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="395">
+      <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="485" t="s">
+      <c r="B262" s="508" t="s">
         <v>275</v>
       </c>
       <c r="C262" s="177" t="s">
         <v>276</v>
       </c>
-      <c r="D262" s="397" t="s">
+      <c r="D262" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="395"/>
-      <c r="B263" s="485"/>
+      <c r="A263" s="396"/>
+      <c r="B263" s="508"/>
       <c r="C263" s="178" t="s">
         <v>277</v>
       </c>
-      <c r="D263" s="397"/>
+      <c r="D263" s="398"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="395">
+      <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="482" t="s">
+      <c r="B265" s="505" t="s">
         <v>254</v>
       </c>
       <c r="C265" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="D265" s="397" t="s">
+      <c r="D265" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="395"/>
-      <c r="B266" s="482"/>
+      <c r="A266" s="396"/>
+      <c r="B266" s="505"/>
       <c r="C266" s="180" t="s">
         <v>279</v>
       </c>
-      <c r="D266" s="397"/>
+      <c r="D266" s="398"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="395">
+      <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="483" t="s">
+      <c r="B268" s="506" t="s">
         <v>280</v>
       </c>
       <c r="C268" s="181" t="s">
         <v>281</v>
       </c>
-      <c r="D268" s="397" t="s">
+      <c r="D268" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="395"/>
-      <c r="B269" s="483"/>
+      <c r="A269" s="396"/>
+      <c r="B269" s="506"/>
       <c r="C269" s="182" t="s">
         <v>282</v>
       </c>
-      <c r="D269" s="397"/>
+      <c r="D269" s="398"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="395">
+      <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="488" t="s">
+      <c r="B271" s="503" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="D271" s="397" t="s">
+      <c r="D271" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="395"/>
-      <c r="B272" s="488"/>
+      <c r="A272" s="396"/>
+      <c r="B272" s="503"/>
       <c r="C272" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="D272" s="397"/>
+      <c r="D272" s="398"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="395">
+      <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="489" t="s">
+      <c r="B274" s="504" t="s">
         <v>286</v>
       </c>
       <c r="C274" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="D274" s="397" t="s">
+      <c r="D274" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="395"/>
-      <c r="B275" s="489"/>
+      <c r="A275" s="396"/>
+      <c r="B275" s="504"/>
       <c r="C275" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="D275" s="397"/>
+      <c r="D275" s="398"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="395">
+      <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="486" t="s">
+      <c r="B277" s="501" t="s">
         <v>289</v>
       </c>
       <c r="C277" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="D277" s="397" t="s">
+      <c r="D277" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="395"/>
-      <c r="B278" s="486"/>
+      <c r="A278" s="396"/>
+      <c r="B278" s="501"/>
       <c r="C278" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="D278" s="397"/>
+      <c r="D278" s="398"/>
     </row>
     <row r="280" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="395">
+      <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="487" t="s">
+      <c r="B280" s="502" t="s">
         <v>292</v>
       </c>
       <c r="C280" s="189" t="s">
         <v>293</v>
       </c>
-      <c r="D280" s="397" t="s">
+      <c r="D280" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="395"/>
-      <c r="B281" s="487"/>
+      <c r="A281" s="396"/>
+      <c r="B281" s="502"/>
       <c r="C281" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="D281" s="397"/>
+      <c r="D281" s="398"/>
     </row>
     <row r="283" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="395">
+      <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="492" t="s">
+      <c r="B283" s="499" t="s">
         <v>295</v>
       </c>
       <c r="C283" s="191" t="s">
         <v>296</v>
       </c>
-      <c r="D283" s="397" t="s">
+      <c r="D283" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="395"/>
-      <c r="B284" s="492"/>
+      <c r="A284" s="396"/>
+      <c r="B284" s="499"/>
       <c r="C284" s="192" t="s">
         <v>297</v>
       </c>
-      <c r="D284" s="397"/>
+      <c r="D284" s="398"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="395">
+      <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="493" t="s">
+      <c r="B286" s="500" t="s">
         <v>298</v>
       </c>
       <c r="C286" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="D286" s="397" t="s">
+      <c r="D286" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="395"/>
-      <c r="B287" s="493"/>
+      <c r="A287" s="396"/>
+      <c r="B287" s="500"/>
       <c r="C287" s="194" t="s">
         <v>300</v>
       </c>
-      <c r="D287" s="397"/>
+      <c r="D287" s="398"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="395">
+      <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="490" t="s">
+      <c r="B289" s="497" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="195" t="s">
         <v>302</v>
       </c>
-      <c r="D289" s="397" t="s">
+      <c r="D289" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="395"/>
-      <c r="B290" s="490"/>
+      <c r="A290" s="396"/>
+      <c r="B290" s="497"/>
       <c r="C290" s="196" t="s">
         <v>303</v>
       </c>
-      <c r="D290" s="397"/>
+      <c r="D290" s="398"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="395">
+      <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="491" t="s">
+      <c r="B292" s="498" t="s">
         <v>304</v>
       </c>
       <c r="C292" s="197" t="s">
         <v>305</v>
       </c>
-      <c r="D292" s="397" t="s">
+      <c r="D292" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="395"/>
-      <c r="B293" s="491"/>
+      <c r="A293" s="396"/>
+      <c r="B293" s="498"/>
       <c r="C293" s="198" t="s">
         <v>306</v>
       </c>
-      <c r="D293" s="397"/>
+      <c r="D293" s="398"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="395">
+      <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="496" t="s">
+      <c r="B295" s="495" t="s">
         <v>307</v>
       </c>
       <c r="C295" s="199" t="s">
         <v>308</v>
       </c>
-      <c r="D295" s="397" t="s">
+      <c r="D295" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="395"/>
-      <c r="B296" s="496"/>
+      <c r="A296" s="396"/>
+      <c r="B296" s="495"/>
       <c r="C296" s="200" t="s">
         <v>309</v>
       </c>
-      <c r="D296" s="397"/>
+      <c r="D296" s="398"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="395">
+      <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="497" t="s">
+      <c r="B298" s="496" t="s">
         <v>310</v>
       </c>
       <c r="C298" s="201" t="s">
         <v>311</v>
       </c>
-      <c r="D298" s="397" t="s">
+      <c r="D298" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="395"/>
-      <c r="B299" s="497"/>
+      <c r="A299" s="396"/>
+      <c r="B299" s="496"/>
       <c r="C299" s="202" t="s">
         <v>312</v>
       </c>
-      <c r="D299" s="397"/>
+      <c r="D299" s="398"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="395">
+      <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="494" t="s">
+      <c r="B301" s="493" t="s">
         <v>313</v>
       </c>
       <c r="C301" s="203" t="s">
         <v>314</v>
       </c>
-      <c r="D301" s="397" t="s">
+      <c r="D301" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="395"/>
-      <c r="B302" s="494"/>
+      <c r="A302" s="396"/>
+      <c r="B302" s="493"/>
       <c r="C302" s="204" t="s">
         <v>315</v>
       </c>
-      <c r="D302" s="397"/>
+      <c r="D302" s="398"/>
     </row>
     <row r="304" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="395">
+      <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="495" t="s">
+      <c r="B304" s="494" t="s">
         <v>316</v>
       </c>
       <c r="C304" s="205" t="s">
         <v>317</v>
       </c>
-      <c r="D304" s="397" t="s">
+      <c r="D304" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="395"/>
-      <c r="B305" s="495"/>
+      <c r="A305" s="396"/>
+      <c r="B305" s="494"/>
       <c r="C305" s="206" t="s">
         <v>318</v>
       </c>
-      <c r="D305" s="397"/>
+      <c r="D305" s="398"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="395">
+      <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="500" t="s">
+      <c r="B307" s="491" t="s">
         <v>319</v>
       </c>
       <c r="C307" s="207" t="s">
         <v>320</v>
       </c>
-      <c r="D307" s="397" t="s">
+      <c r="D307" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="395"/>
-      <c r="B308" s="500"/>
+      <c r="A308" s="396"/>
+      <c r="B308" s="491"/>
       <c r="C308" s="208" t="s">
         <v>321</v>
       </c>
-      <c r="D308" s="397"/>
+      <c r="D308" s="398"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="395">
+      <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="501" t="s">
+      <c r="B310" s="492" t="s">
         <v>322</v>
       </c>
       <c r="C310" s="209" t="s">
         <v>323</v>
       </c>
-      <c r="D310" s="397" t="s">
+      <c r="D310" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="395"/>
-      <c r="B311" s="501"/>
+      <c r="A311" s="396"/>
+      <c r="B311" s="492"/>
       <c r="C311" s="210" t="s">
         <v>324</v>
       </c>
-      <c r="D311" s="397"/>
+      <c r="D311" s="398"/>
     </row>
     <row r="313" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="395">
+      <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="498" t="s">
+      <c r="B313" s="489" t="s">
         <v>325</v>
       </c>
       <c r="C313" s="211" t="s">
         <v>326</v>
       </c>
-      <c r="D313" s="397" t="s">
+      <c r="D313" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="395"/>
-      <c r="B314" s="498"/>
+      <c r="A314" s="396"/>
+      <c r="B314" s="489"/>
       <c r="C314" s="212" t="s">
         <v>327</v>
       </c>
-      <c r="D314" s="397"/>
+      <c r="D314" s="398"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="395">
+      <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="499" t="s">
+      <c r="B316" s="490" t="s">
         <v>328</v>
       </c>
       <c r="C316" s="213" t="s">
         <v>329</v>
       </c>
-      <c r="D316" s="397" t="s">
+      <c r="D316" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="395"/>
-      <c r="B317" s="499"/>
+      <c r="A317" s="396"/>
+      <c r="B317" s="490"/>
       <c r="C317" s="214" t="s">
         <v>330</v>
       </c>
-      <c r="D317" s="397"/>
+      <c r="D317" s="398"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" s="395">
+      <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="504" t="s">
+      <c r="B319" s="487" t="s">
         <v>331</v>
       </c>
       <c r="C319" s="215" t="s">
         <v>332</v>
       </c>
-      <c r="D319" s="397" t="s">
+      <c r="D319" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="395"/>
-      <c r="B320" s="504"/>
+      <c r="A320" s="396"/>
+      <c r="B320" s="487"/>
       <c r="C320" s="216" t="s">
         <v>333</v>
       </c>
-      <c r="D320" s="397"/>
+      <c r="D320" s="398"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="395">
+      <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="505" t="s">
+      <c r="B322" s="488" t="s">
         <v>334</v>
       </c>
       <c r="C322" s="217" t="s">
         <v>335</v>
       </c>
-      <c r="D322" s="397" t="s">
+      <c r="D322" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="395"/>
-      <c r="B323" s="505"/>
+      <c r="A323" s="396"/>
+      <c r="B323" s="488"/>
       <c r="C323" s="218" t="s">
         <v>336</v>
       </c>
-      <c r="D323" s="397"/>
+      <c r="D323" s="398"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="395">
+      <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="502" t="s">
+      <c r="B325" s="485" t="s">
         <v>337</v>
       </c>
       <c r="C325" s="219" t="s">
         <v>338</v>
       </c>
-      <c r="D325" s="397" t="s">
+      <c r="D325" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" s="395"/>
-      <c r="B326" s="502"/>
+      <c r="A326" s="396"/>
+      <c r="B326" s="485"/>
       <c r="C326" s="220" t="s">
         <v>339</v>
       </c>
-      <c r="D326" s="397"/>
+      <c r="D326" s="398"/>
     </row>
     <row r="328" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="395">
+      <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="503" t="s">
+      <c r="B328" s="486" t="s">
         <v>340</v>
       </c>
       <c r="C328" s="221" t="s">
         <v>341</v>
       </c>
-      <c r="D328" s="397" t="s">
+      <c r="D328" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="395"/>
-      <c r="B329" s="503"/>
+      <c r="A329" s="396"/>
+      <c r="B329" s="486"/>
       <c r="C329" s="222" t="s">
         <v>342</v>
       </c>
-      <c r="D329" s="397"/>
+      <c r="D329" s="398"/>
     </row>
     <row r="331" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="395">
+      <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="508" t="s">
+      <c r="B331" s="483" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="223" t="s">
         <v>344</v>
       </c>
-      <c r="D331" s="397" t="s">
+      <c r="D331" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332" s="395"/>
-      <c r="B332" s="508"/>
+      <c r="A332" s="396"/>
+      <c r="B332" s="483"/>
       <c r="C332" s="224" t="s">
         <v>345</v>
       </c>
-      <c r="D332" s="397"/>
+      <c r="D332" s="398"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="395">
+      <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="509" t="s">
+      <c r="B334" s="484" t="s">
         <v>346</v>
       </c>
       <c r="C334" s="225" t="s">
         <v>347</v>
       </c>
-      <c r="D334" s="397" t="s">
+      <c r="D334" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" s="395"/>
-      <c r="B335" s="509"/>
+      <c r="A335" s="396"/>
+      <c r="B335" s="484"/>
       <c r="C335" s="226" t="s">
         <v>348</v>
       </c>
-      <c r="D335" s="397"/>
+      <c r="D335" s="398"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" s="395">
+      <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="506" t="s">
+      <c r="B337" s="481" t="s">
         <v>349</v>
       </c>
       <c r="C337" s="227" t="s">
         <v>350</v>
       </c>
-      <c r="D337" s="397" t="s">
+      <c r="D337" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="395"/>
-      <c r="B338" s="506"/>
+      <c r="A338" s="396"/>
+      <c r="B338" s="481"/>
       <c r="C338" s="228" t="s">
         <v>351</v>
       </c>
-      <c r="D338" s="397"/>
+      <c r="D338" s="398"/>
     </row>
     <row r="340" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="395">
+      <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="507" t="s">
+      <c r="B340" s="482" t="s">
         <v>352</v>
       </c>
       <c r="C340" s="229" t="s">
         <v>353</v>
       </c>
-      <c r="D340" s="397" t="s">
+      <c r="D340" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" s="395"/>
-      <c r="B341" s="507"/>
+      <c r="A341" s="396"/>
+      <c r="B341" s="482"/>
       <c r="C341" s="230" t="s">
         <v>354</v>
       </c>
-      <c r="D341" s="397"/>
+      <c r="D341" s="398"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" s="395">
+      <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="512" t="s">
+      <c r="B343" s="479" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="231" t="s">
         <v>356</v>
       </c>
-      <c r="D343" s="397" t="s">
+      <c r="D343" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" s="395"/>
-      <c r="B344" s="512"/>
+      <c r="A344" s="396"/>
+      <c r="B344" s="479"/>
       <c r="C344" s="232" t="s">
         <v>357</v>
       </c>
-      <c r="D344" s="397"/>
+      <c r="D344" s="398"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="395">
+      <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="513" t="s">
+      <c r="B346" s="480" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D346" s="397" t="s">
+      <c r="D346" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" s="395"/>
-      <c r="B347" s="513"/>
+      <c r="A347" s="396"/>
+      <c r="B347" s="480"/>
       <c r="C347" s="234" t="s">
         <v>360</v>
       </c>
-      <c r="D347" s="397"/>
+      <c r="D347" s="398"/>
     </row>
     <row r="349" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="395">
+      <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="510" t="s">
+      <c r="B349" s="477" t="s">
         <v>361</v>
       </c>
       <c r="C349" s="235" t="s">
         <v>362</v>
       </c>
-      <c r="D349" s="397" t="s">
+      <c r="D349" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" s="395"/>
-      <c r="B350" s="510"/>
+      <c r="A350" s="396"/>
+      <c r="B350" s="477"/>
       <c r="C350" s="236" t="s">
         <v>363</v>
       </c>
-      <c r="D350" s="397"/>
+      <c r="D350" s="398"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="395">
+      <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="511" t="s">
+      <c r="B352" s="478" t="s">
         <v>364</v>
       </c>
       <c r="C352" s="237" t="s">
         <v>365</v>
       </c>
-      <c r="D352" s="397" t="s">
+      <c r="D352" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" s="395"/>
-      <c r="B353" s="511"/>
+      <c r="A353" s="396"/>
+      <c r="B353" s="478"/>
       <c r="C353" s="238" t="s">
         <v>366</v>
       </c>
-      <c r="D353" s="397"/>
+      <c r="D353" s="398"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="395">
+      <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="516" t="s">
+      <c r="B355" s="475" t="s">
         <v>367</v>
       </c>
       <c r="C355" s="239" t="s">
         <v>368</v>
       </c>
-      <c r="D355" s="397" t="s">
+      <c r="D355" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="395"/>
-      <c r="B356" s="516"/>
+      <c r="A356" s="396"/>
+      <c r="B356" s="475"/>
       <c r="C356" s="240" t="s">
         <v>369</v>
       </c>
-      <c r="D356" s="397"/>
+      <c r="D356" s="398"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="395">
+      <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="517" t="s">
+      <c r="B358" s="476" t="s">
         <v>370</v>
       </c>
       <c r="C358" s="241" t="s">
         <v>371</v>
       </c>
-      <c r="D358" s="397" t="s">
+      <c r="D358" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" s="395"/>
-      <c r="B359" s="517"/>
+      <c r="A359" s="396"/>
+      <c r="B359" s="476"/>
       <c r="C359" s="242" t="s">
         <v>372</v>
       </c>
-      <c r="D359" s="397"/>
+      <c r="D359" s="398"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" s="395">
+      <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="514" t="s">
+      <c r="B361" s="473" t="s">
         <v>373</v>
       </c>
       <c r="C361" s="243" t="s">
         <v>374</v>
       </c>
-      <c r="D361" s="397" t="s">
+      <c r="D361" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" s="395"/>
-      <c r="B362" s="514"/>
+      <c r="A362" s="396"/>
+      <c r="B362" s="473"/>
       <c r="C362" s="244" t="s">
         <v>375</v>
       </c>
-      <c r="D362" s="397"/>
+      <c r="D362" s="398"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" s="395">
+      <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="515" t="s">
+      <c r="B364" s="474" t="s">
         <v>376</v>
       </c>
       <c r="C364" s="245" t="s">
         <v>377</v>
       </c>
-      <c r="D364" s="397" t="s">
+      <c r="D364" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" s="395"/>
-      <c r="B365" s="515"/>
+      <c r="A365" s="396"/>
+      <c r="B365" s="474"/>
       <c r="C365" s="246" t="s">
         <v>378</v>
       </c>
-      <c r="D365" s="397"/>
+      <c r="D365" s="398"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367" s="395">
+      <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="520" t="s">
+      <c r="B367" s="471" t="s">
         <v>379</v>
       </c>
       <c r="C367" s="247" t="s">
         <v>380</v>
       </c>
-      <c r="D367" s="397" t="s">
+      <c r="D367" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" s="395"/>
-      <c r="B368" s="520"/>
+      <c r="A368" s="396"/>
+      <c r="B368" s="471"/>
       <c r="C368" s="248" t="s">
         <v>381</v>
       </c>
-      <c r="D368" s="397"/>
+      <c r="D368" s="398"/>
     </row>
     <row r="370" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A370" s="395">
+      <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="521" t="s">
+      <c r="B370" s="472" t="s">
         <v>382</v>
       </c>
       <c r="C370" s="249" t="s">
         <v>383</v>
       </c>
-      <c r="D370" s="397" t="s">
+      <c r="D370" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="395"/>
-      <c r="B371" s="521"/>
+      <c r="A371" s="396"/>
+      <c r="B371" s="472"/>
       <c r="C371" s="250" t="s">
         <v>384</v>
       </c>
-      <c r="D371" s="397"/>
+      <c r="D371" s="398"/>
     </row>
     <row r="373" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="395">
+      <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="518" t="s">
+      <c r="B373" s="469" t="s">
         <v>385</v>
       </c>
       <c r="C373" s="251" t="s">
         <v>386</v>
       </c>
-      <c r="D373" s="397" t="s">
+      <c r="D373" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" s="395"/>
-      <c r="B374" s="518"/>
+      <c r="A374" s="396"/>
+      <c r="B374" s="469"/>
       <c r="C374" s="252" t="s">
         <v>387</v>
       </c>
-      <c r="D374" s="397"/>
+      <c r="D374" s="398"/>
     </row>
     <row r="376" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="395">
+      <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="519" t="s">
+      <c r="B376" s="470" t="s">
         <v>388</v>
       </c>
       <c r="C376" s="253" t="s">
         <v>389</v>
       </c>
-      <c r="D376" s="397" t="s">
+      <c r="D376" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" s="395"/>
-      <c r="B377" s="519"/>
+      <c r="A377" s="396"/>
+      <c r="B377" s="470"/>
       <c r="C377" s="254" t="s">
         <v>390</v>
       </c>
-      <c r="D377" s="397"/>
+      <c r="D377" s="398"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379" s="395">
+      <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="524" t="s">
+      <c r="B379" s="467" t="s">
         <v>391</v>
       </c>
       <c r="C379" s="255" t="s">
         <v>392</v>
       </c>
-      <c r="D379" s="397" t="s">
+      <c r="D379" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="395"/>
-      <c r="B380" s="524"/>
+      <c r="A380" s="396"/>
+      <c r="B380" s="467"/>
       <c r="C380" s="256" t="s">
         <v>393</v>
       </c>
-      <c r="D380" s="397"/>
+      <c r="D380" s="398"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382" s="395">
+      <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="525" t="s">
+      <c r="B382" s="468" t="s">
         <v>394</v>
       </c>
       <c r="C382" s="257" t="s">
         <v>395</v>
       </c>
-      <c r="D382" s="397" t="s">
+      <c r="D382" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" s="395"/>
-      <c r="B383" s="525"/>
+      <c r="A383" s="396"/>
+      <c r="B383" s="468"/>
       <c r="C383" s="258" t="s">
         <v>396</v>
       </c>
-      <c r="D383" s="397"/>
+      <c r="D383" s="398"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385" s="395">
+      <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="522" t="s">
+      <c r="B385" s="465" t="s">
         <v>397</v>
       </c>
       <c r="C385" s="259" t="s">
         <v>398</v>
       </c>
-      <c r="D385" s="397" t="s">
+      <c r="D385" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386" s="395"/>
-      <c r="B386" s="522"/>
+      <c r="A386" s="396"/>
+      <c r="B386" s="465"/>
       <c r="C386" s="260" t="s">
         <v>399</v>
       </c>
-      <c r="D386" s="397"/>
+      <c r="D386" s="398"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388" s="395">
+      <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="523" t="s">
+      <c r="B388" s="466" t="s">
         <v>400</v>
       </c>
       <c r="C388" s="261" t="s">
         <v>401</v>
       </c>
-      <c r="D388" s="397" t="s">
+      <c r="D388" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389" s="395"/>
-      <c r="B389" s="523"/>
+      <c r="A389" s="396"/>
+      <c r="B389" s="466"/>
       <c r="C389" s="262" t="s">
         <v>402</v>
       </c>
-      <c r="D389" s="397"/>
+      <c r="D389" s="398"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391" s="395">
+      <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="528" t="s">
+      <c r="B391" s="463" t="s">
         <v>403</v>
       </c>
       <c r="C391" s="263" t="s">
         <v>404</v>
       </c>
-      <c r="D391" s="397" t="s">
+      <c r="D391" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392" s="395"/>
-      <c r="B392" s="528"/>
+      <c r="A392" s="396"/>
+      <c r="B392" s="463"/>
       <c r="C392" s="264" t="s">
         <v>405</v>
       </c>
-      <c r="D392" s="397"/>
+      <c r="D392" s="398"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394" s="395">
+      <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="529" t="s">
+      <c r="B394" s="464" t="s">
         <v>406</v>
       </c>
       <c r="C394" s="265" t="s">
         <v>407</v>
       </c>
-      <c r="D394" s="397" t="s">
+      <c r="D394" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A395" s="395"/>
-      <c r="B395" s="529"/>
+      <c r="A395" s="396"/>
+      <c r="B395" s="464"/>
       <c r="C395" s="266" t="s">
         <v>408</v>
       </c>
-      <c r="D395" s="397"/>
+      <c r="D395" s="398"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A397" s="395">
+      <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="526" t="s">
+      <c r="B397" s="461" t="s">
         <v>409</v>
       </c>
       <c r="C397" s="267" t="s">
         <v>410</v>
       </c>
-      <c r="D397" s="397" t="s">
+      <c r="D397" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A398" s="395"/>
-      <c r="B398" s="526"/>
+      <c r="A398" s="396"/>
+      <c r="B398" s="461"/>
       <c r="C398" s="268" t="s">
         <v>411</v>
       </c>
-      <c r="D398" s="397"/>
+      <c r="D398" s="398"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A400" s="395">
+      <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="527" t="s">
+      <c r="B400" s="462" t="s">
         <v>412</v>
       </c>
       <c r="C400" s="269" t="s">
         <v>413</v>
       </c>
-      <c r="D400" s="397" t="s">
+      <c r="D400" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A401" s="395"/>
-      <c r="B401" s="527"/>
+      <c r="A401" s="396"/>
+      <c r="B401" s="462"/>
       <c r="C401" s="270" t="s">
         <v>414</v>
       </c>
-      <c r="D401" s="397"/>
+      <c r="D401" s="398"/>
     </row>
     <row r="403" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="395">
+      <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="532" t="s">
+      <c r="B403" s="459" t="s">
         <v>415</v>
       </c>
       <c r="C403" s="271" t="s">
         <v>416</v>
       </c>
-      <c r="D403" s="397" t="s">
+      <c r="D403" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A404" s="395"/>
-      <c r="B404" s="532"/>
+      <c r="A404" s="396"/>
+      <c r="B404" s="459"/>
       <c r="C404" s="272" t="s">
         <v>417</v>
       </c>
-      <c r="D404" s="397"/>
+      <c r="D404" s="398"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A406" s="395">
+      <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="533" t="s">
+      <c r="B406" s="460" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="273" t="s">
         <v>419</v>
       </c>
-      <c r="D406" s="397" t="s">
+      <c r="D406" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A407" s="395"/>
-      <c r="B407" s="533"/>
+      <c r="A407" s="396"/>
+      <c r="B407" s="460"/>
       <c r="C407" s="274" t="s">
         <v>420</v>
       </c>
-      <c r="D407" s="397"/>
+      <c r="D407" s="398"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A409" s="395">
+      <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="530" t="s">
+      <c r="B409" s="457" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="275" t="s">
         <v>422</v>
       </c>
-      <c r="D409" s="397" t="s">
+      <c r="D409" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A410" s="395"/>
-      <c r="B410" s="530"/>
+      <c r="A410" s="396"/>
+      <c r="B410" s="457"/>
       <c r="C410" s="276" t="s">
         <v>423</v>
       </c>
-      <c r="D410" s="397"/>
+      <c r="D410" s="398"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A412" s="395">
+      <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="531" t="s">
+      <c r="B412" s="458" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="277" t="s">
         <v>425</v>
       </c>
-      <c r="D412" s="397" t="s">
+      <c r="D412" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A413" s="395"/>
-      <c r="B413" s="531"/>
+      <c r="A413" s="396"/>
+      <c r="B413" s="458"/>
       <c r="C413" s="278" t="s">
         <v>426</v>
       </c>
-      <c r="D413" s="397"/>
+      <c r="D413" s="398"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415" s="395">
+      <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="536" t="s">
+      <c r="B415" s="455" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="279" t="s">
         <v>428</v>
       </c>
-      <c r="D415" s="397" t="s">
+      <c r="D415" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A416" s="395"/>
-      <c r="B416" s="536"/>
+      <c r="A416" s="396"/>
+      <c r="B416" s="455"/>
       <c r="C416" s="280" t="s">
         <v>429</v>
       </c>
-      <c r="D416" s="397"/>
+      <c r="D416" s="398"/>
     </row>
     <row r="418" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="395">
+      <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="537" t="s">
+      <c r="B418" s="456" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="281" t="s">
         <v>431</v>
       </c>
-      <c r="D418" s="397" t="s">
+      <c r="D418" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A419" s="395"/>
-      <c r="B419" s="537"/>
+      <c r="A419" s="396"/>
+      <c r="B419" s="456"/>
       <c r="C419" s="282" t="s">
         <v>432</v>
       </c>
-      <c r="D419" s="397"/>
+      <c r="D419" s="398"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421" s="395">
+      <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="534" t="s">
+      <c r="B421" s="453" t="s">
         <v>433</v>
       </c>
       <c r="C421" s="283" t="s">
         <v>434</v>
       </c>
-      <c r="D421" s="397" t="s">
+      <c r="D421" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A422" s="395"/>
-      <c r="B422" s="534"/>
+      <c r="A422" s="396"/>
+      <c r="B422" s="453"/>
       <c r="C422" s="284" t="s">
         <v>435</v>
       </c>
-      <c r="D422" s="397"/>
+      <c r="D422" s="398"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424" s="395">
+      <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="535" t="s">
+      <c r="B424" s="454" t="s">
         <v>436</v>
       </c>
       <c r="C424" s="285" t="s">
         <v>437</v>
       </c>
-      <c r="D424" s="397" t="s">
+      <c r="D424" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425" s="395"/>
-      <c r="B425" s="535"/>
+      <c r="A425" s="396"/>
+      <c r="B425" s="454"/>
       <c r="C425" s="286" t="s">
         <v>438</v>
       </c>
-      <c r="D425" s="397"/>
+      <c r="D425" s="398"/>
     </row>
     <row r="427" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A427" s="395">
+      <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="540" t="s">
+      <c r="B427" s="451" t="s">
         <v>439</v>
       </c>
       <c r="C427" s="287" t="s">
         <v>440</v>
       </c>
-      <c r="D427" s="397" t="s">
+      <c r="D427" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428" s="395"/>
-      <c r="B428" s="540"/>
+      <c r="A428" s="396"/>
+      <c r="B428" s="451"/>
       <c r="C428" s="288" t="s">
         <v>441</v>
       </c>
-      <c r="D428" s="397"/>
+      <c r="D428" s="398"/>
     </row>
     <row r="430" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="395">
+      <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="541" t="s">
+      <c r="B430" s="452" t="s">
         <v>442</v>
       </c>
       <c r="C430" s="289" t="s">
         <v>443</v>
       </c>
-      <c r="D430" s="397" t="s">
+      <c r="D430" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431" s="395"/>
-      <c r="B431" s="541"/>
+      <c r="A431" s="396"/>
+      <c r="B431" s="452"/>
       <c r="C431" s="290" t="s">
         <v>444</v>
       </c>
-      <c r="D431" s="397"/>
+      <c r="D431" s="398"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433" s="395">
+      <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="538" t="s">
+      <c r="B433" s="449" t="s">
         <v>445</v>
       </c>
       <c r="C433" s="291" t="s">
         <v>446</v>
       </c>
-      <c r="D433" s="397" t="s">
+      <c r="D433" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434" s="395"/>
-      <c r="B434" s="538"/>
+      <c r="A434" s="396"/>
+      <c r="B434" s="449"/>
       <c r="C434" s="292" t="s">
         <v>447</v>
       </c>
-      <c r="D434" s="397"/>
+      <c r="D434" s="398"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436" s="395">
+      <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="539" t="s">
+      <c r="B436" s="450" t="s">
         <v>448</v>
       </c>
       <c r="C436" s="293" t="s">
         <v>449</v>
       </c>
-      <c r="D436" s="397" t="s">
+      <c r="D436" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437" s="395"/>
-      <c r="B437" s="539"/>
+      <c r="A437" s="396"/>
+      <c r="B437" s="450"/>
       <c r="C437" s="294" t="s">
         <v>450</v>
       </c>
-      <c r="D437" s="397"/>
+      <c r="D437" s="398"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439" s="395">
+      <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="544" t="s">
+      <c r="B439" s="447" t="s">
         <v>451</v>
       </c>
       <c r="C439" s="295" t="s">
         <v>452</v>
       </c>
-      <c r="D439" s="397" t="s">
+      <c r="D439" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440" s="395"/>
-      <c r="B440" s="544"/>
+      <c r="A440" s="396"/>
+      <c r="B440" s="447"/>
       <c r="C440" s="296" t="s">
         <v>453</v>
       </c>
-      <c r="D440" s="397"/>
+      <c r="D440" s="398"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442" s="395">
+      <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="545" t="s">
+      <c r="B442" s="448" t="s">
         <v>454</v>
       </c>
       <c r="C442" s="297" t="s">
         <v>455</v>
       </c>
-      <c r="D442" s="397" t="s">
+      <c r="D442" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443" s="395"/>
-      <c r="B443" s="545"/>
+      <c r="A443" s="396"/>
+      <c r="B443" s="448"/>
       <c r="C443" s="298" t="s">
         <v>456</v>
       </c>
-      <c r="D443" s="397"/>
+      <c r="D443" s="398"/>
     </row>
     <row r="445" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="395">
+      <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="542" t="s">
+      <c r="B445" s="445" t="s">
         <v>457</v>
       </c>
       <c r="C445" s="299" t="s">
         <v>458</v>
       </c>
-      <c r="D445" s="397" t="s">
+      <c r="D445" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A446" s="395"/>
-      <c r="B446" s="542"/>
+      <c r="A446" s="396"/>
+      <c r="B446" s="445"/>
       <c r="C446" s="300" t="s">
         <v>459</v>
       </c>
-      <c r="D446" s="397"/>
+      <c r="D446" s="398"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448" s="395">
+      <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="543" t="s">
+      <c r="B448" s="446" t="s">
         <v>460</v>
       </c>
       <c r="C448" s="301" t="s">
         <v>461</v>
       </c>
-      <c r="D448" s="397" t="s">
+      <c r="D448" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449" s="395"/>
-      <c r="B449" s="543"/>
+      <c r="A449" s="396"/>
+      <c r="B449" s="446"/>
       <c r="C449" s="302" t="s">
         <v>462</v>
       </c>
-      <c r="D449" s="397"/>
+      <c r="D449" s="398"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451" s="395">
+      <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="548" t="s">
+      <c r="B451" s="443" t="s">
         <v>463</v>
       </c>
       <c r="C451" s="303" t="s">
         <v>464</v>
       </c>
-      <c r="D451" s="397" t="s">
+      <c r="D451" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452" s="395"/>
-      <c r="B452" s="548"/>
+      <c r="A452" s="396"/>
+      <c r="B452" s="443"/>
       <c r="C452" s="304" t="s">
         <v>465</v>
       </c>
-      <c r="D452" s="397"/>
+      <c r="D452" s="398"/>
     </row>
     <row r="454" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A454" s="395">
+      <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="549" t="s">
+      <c r="B454" s="444" t="s">
         <v>466</v>
       </c>
       <c r="C454" s="305" t="s">
         <v>467</v>
       </c>
-      <c r="D454" s="397" t="s">
+      <c r="D454" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A455" s="395"/>
-      <c r="B455" s="549"/>
+      <c r="A455" s="396"/>
+      <c r="B455" s="444"/>
       <c r="C455" s="306" t="s">
         <v>468</v>
       </c>
-      <c r="D455" s="397"/>
+      <c r="D455" s="398"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A457" s="395">
+      <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="546" t="s">
+      <c r="B457" s="441" t="s">
         <v>469</v>
       </c>
       <c r="C457" s="307" t="s">
         <v>470</v>
       </c>
-      <c r="D457" s="397" t="s">
+      <c r="D457" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A458" s="395"/>
-      <c r="B458" s="546"/>
+      <c r="A458" s="396"/>
+      <c r="B458" s="441"/>
       <c r="C458" s="308" t="s">
         <v>471</v>
       </c>
-      <c r="D458" s="397"/>
+      <c r="D458" s="398"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A460" s="395">
+      <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="547" t="s">
+      <c r="B460" s="442" t="s">
         <v>472</v>
       </c>
       <c r="C460" s="309" t="s">
         <v>473</v>
       </c>
-      <c r="D460" s="397" t="s">
+      <c r="D460" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A461" s="395"/>
-      <c r="B461" s="547"/>
+      <c r="A461" s="396"/>
+      <c r="B461" s="442"/>
       <c r="C461" s="310" t="s">
         <v>474</v>
       </c>
-      <c r="D461" s="397"/>
+      <c r="D461" s="398"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A463" s="395">
+      <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="552" t="s">
+      <c r="B463" s="439" t="s">
         <v>475</v>
       </c>
       <c r="C463" s="311" t="s">
         <v>476</v>
       </c>
-      <c r="D463" s="397" t="s">
+      <c r="D463" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A464" s="395"/>
-      <c r="B464" s="552"/>
+      <c r="A464" s="396"/>
+      <c r="B464" s="439"/>
       <c r="C464" s="312" t="s">
         <v>477</v>
       </c>
-      <c r="D464" s="397"/>
+      <c r="D464" s="398"/>
     </row>
     <row r="466" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A466" s="395">
+      <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="553" t="s">
+      <c r="B466" s="440" t="s">
         <v>478</v>
       </c>
       <c r="C466" s="313" t="s">
         <v>479</v>
       </c>
-      <c r="D466" s="397" t="s">
+      <c r="D466" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A467" s="395"/>
-      <c r="B467" s="553"/>
+      <c r="A467" s="396"/>
+      <c r="B467" s="440"/>
       <c r="C467" s="314" t="s">
         <v>480</v>
       </c>
-      <c r="D467" s="397"/>
+      <c r="D467" s="398"/>
     </row>
     <row r="469" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="395">
+      <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="550" t="s">
+      <c r="B469" s="437" t="s">
         <v>481</v>
       </c>
       <c r="C469" s="315" t="s">
         <v>482</v>
       </c>
-      <c r="D469" s="397" t="s">
+      <c r="D469" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A470" s="395"/>
-      <c r="B470" s="550"/>
+      <c r="A470" s="396"/>
+      <c r="B470" s="437"/>
       <c r="C470" s="316" t="s">
         <v>483</v>
       </c>
-      <c r="D470" s="397"/>
+      <c r="D470" s="398"/>
     </row>
     <row r="472" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A472" s="395">
+      <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="551" t="s">
+      <c r="B472" s="438" t="s">
         <v>484</v>
       </c>
       <c r="C472" s="317" t="s">
         <v>485</v>
       </c>
-      <c r="D472" s="397" t="s">
+      <c r="D472" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A473" s="395"/>
-      <c r="B473" s="551"/>
+      <c r="A473" s="396"/>
+      <c r="B473" s="438"/>
       <c r="C473" s="318" t="s">
         <v>486</v>
       </c>
-      <c r="D473" s="397"/>
+      <c r="D473" s="398"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A475" s="395">
+      <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="556" t="s">
+      <c r="B475" s="435" t="s">
         <v>487</v>
       </c>
       <c r="C475" s="319" t="s">
         <v>488</v>
       </c>
-      <c r="D475" s="397" t="s">
+      <c r="D475" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A476" s="395"/>
-      <c r="B476" s="556"/>
+      <c r="A476" s="396"/>
+      <c r="B476" s="435"/>
       <c r="C476" s="320" t="s">
         <v>489</v>
       </c>
-      <c r="D476" s="397"/>
+      <c r="D476" s="398"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A478" s="395">
+      <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="557" t="s">
+      <c r="B478" s="436" t="s">
         <v>490</v>
       </c>
       <c r="C478" s="321" t="s">
         <v>491</v>
       </c>
-      <c r="D478" s="397" t="s">
+      <c r="D478" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A479" s="395"/>
-      <c r="B479" s="557"/>
+      <c r="A479" s="396"/>
+      <c r="B479" s="436"/>
       <c r="C479" s="322" t="s">
         <v>492</v>
       </c>
-      <c r="D479" s="397"/>
+      <c r="D479" s="398"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A481" s="395">
+      <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="554" t="s">
+      <c r="B481" s="433" t="s">
         <v>493</v>
       </c>
       <c r="C481" s="323" t="s">
         <v>494</v>
       </c>
-      <c r="D481" s="397" t="s">
+      <c r="D481" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A482" s="395"/>
-      <c r="B482" s="554"/>
+      <c r="A482" s="396"/>
+      <c r="B482" s="433"/>
       <c r="C482" s="324" t="s">
         <v>495</v>
       </c>
-      <c r="D482" s="397"/>
+      <c r="D482" s="398"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A484" s="395">
+      <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="555" t="s">
+      <c r="B484" s="434" t="s">
         <v>496</v>
       </c>
       <c r="C484" s="325" t="s">
         <v>497</v>
       </c>
-      <c r="D484" s="397" t="s">
+      <c r="D484" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A485" s="395"/>
-      <c r="B485" s="555"/>
+      <c r="A485" s="396"/>
+      <c r="B485" s="434"/>
       <c r="C485" s="326" t="s">
         <v>498</v>
       </c>
-      <c r="D485" s="397"/>
+      <c r="D485" s="398"/>
     </row>
     <row r="487" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="395">
+      <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="560" t="s">
+      <c r="B487" s="431" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="327" t="s">
         <v>500</v>
       </c>
-      <c r="D487" s="397" t="s">
+      <c r="D487" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A488" s="395"/>
-      <c r="B488" s="560"/>
+      <c r="A488" s="396"/>
+      <c r="B488" s="431"/>
       <c r="C488" s="328" t="s">
         <v>501</v>
       </c>
-      <c r="D488" s="397"/>
+      <c r="D488" s="398"/>
     </row>
     <row r="490" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A490" s="395">
+      <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="561" t="s">
+      <c r="B490" s="432" t="s">
         <v>502</v>
       </c>
       <c r="C490" s="329" t="s">
         <v>503</v>
       </c>
-      <c r="D490" s="397" t="s">
+      <c r="D490" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A491" s="395"/>
-      <c r="B491" s="561"/>
+      <c r="A491" s="396"/>
+      <c r="B491" s="432"/>
       <c r="C491" s="330" t="s">
         <v>504</v>
       </c>
-      <c r="D491" s="397"/>
+      <c r="D491" s="398"/>
     </row>
     <row r="493" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="395">
+      <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="558" t="s">
+      <c r="B493" s="429" t="s">
         <v>505</v>
       </c>
       <c r="C493" s="331" t="s">
         <v>506</v>
       </c>
-      <c r="D493" s="397" t="s">
+      <c r="D493" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A494" s="395"/>
-      <c r="B494" s="558"/>
+      <c r="A494" s="396"/>
+      <c r="B494" s="429"/>
       <c r="C494" s="332" t="s">
         <v>507</v>
       </c>
-      <c r="D494" s="397"/>
+      <c r="D494" s="398"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A496" s="395">
+      <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="559" t="s">
+      <c r="B496" s="430" t="s">
         <v>508</v>
       </c>
       <c r="C496" s="333" t="s">
         <v>509</v>
       </c>
-      <c r="D496" s="397" t="s">
+      <c r="D496" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A497" s="395"/>
-      <c r="B497" s="559"/>
+      <c r="A497" s="396"/>
+      <c r="B497" s="430"/>
       <c r="C497" s="334" t="s">
         <v>510</v>
       </c>
-      <c r="D497" s="397"/>
+      <c r="D497" s="398"/>
     </row>
     <row r="499" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="395">
+      <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="564" t="s">
+      <c r="B499" s="427" t="s">
         <v>511</v>
       </c>
       <c r="C499" s="335" t="s">
         <v>512</v>
       </c>
-      <c r="D499" s="397" t="s">
+      <c r="D499" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A500" s="395"/>
-      <c r="B500" s="564"/>
+      <c r="A500" s="396"/>
+      <c r="B500" s="427"/>
       <c r="C500" s="336" t="s">
         <v>513</v>
       </c>
-      <c r="D500" s="397"/>
+      <c r="D500" s="398"/>
     </row>
     <row r="502" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="395">
+      <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="565" t="s">
+      <c r="B502" s="428" t="s">
         <v>514</v>
       </c>
       <c r="C502" s="337" t="s">
         <v>515</v>
       </c>
-      <c r="D502" s="397" t="s">
+      <c r="D502" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A503" s="395"/>
-      <c r="B503" s="565"/>
+      <c r="A503" s="396"/>
+      <c r="B503" s="428"/>
       <c r="C503" s="338" t="s">
         <v>516</v>
       </c>
-      <c r="D503" s="397"/>
+      <c r="D503" s="398"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A505" s="395">
+      <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="562" t="s">
+      <c r="B505" s="425" t="s">
         <v>517</v>
       </c>
       <c r="C505" s="339" t="s">
         <v>518</v>
       </c>
-      <c r="D505" s="397" t="s">
+      <c r="D505" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A506" s="395"/>
-      <c r="B506" s="562"/>
+      <c r="A506" s="396"/>
+      <c r="B506" s="425"/>
       <c r="C506" s="340" t="s">
         <v>519</v>
       </c>
-      <c r="D506" s="397"/>
+      <c r="D506" s="398"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A508" s="395">
+      <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="563" t="s">
+      <c r="B508" s="426" t="s">
         <v>520</v>
       </c>
       <c r="C508" s="341" t="s">
         <v>521</v>
       </c>
-      <c r="D508" s="397" t="s">
+      <c r="D508" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A509" s="395"/>
-      <c r="B509" s="563"/>
+      <c r="A509" s="396"/>
+      <c r="B509" s="426"/>
       <c r="C509" s="342" t="s">
         <v>522</v>
       </c>
-      <c r="D509" s="397"/>
+      <c r="D509" s="398"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A511" s="395">
+      <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="568" t="s">
+      <c r="B511" s="423" t="s">
         <v>523</v>
       </c>
       <c r="C511" s="343" t="s">
         <v>524</v>
       </c>
-      <c r="D511" s="397" t="s">
+      <c r="D511" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A512" s="395"/>
-      <c r="B512" s="568"/>
+      <c r="A512" s="396"/>
+      <c r="B512" s="423"/>
       <c r="C512" s="344" t="s">
         <v>525</v>
       </c>
-      <c r="D512" s="397"/>
+      <c r="D512" s="398"/>
     </row>
     <row r="514" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A514" s="395">
+      <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="569" t="s">
+      <c r="B514" s="424" t="s">
         <v>526</v>
       </c>
       <c r="C514" s="345" t="s">
         <v>527</v>
       </c>
-      <c r="D514" s="397" t="s">
+      <c r="D514" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A515" s="395"/>
-      <c r="B515" s="569"/>
+      <c r="A515" s="396"/>
+      <c r="B515" s="424"/>
       <c r="C515" s="346" t="s">
         <v>528</v>
       </c>
-      <c r="D515" s="397"/>
+      <c r="D515" s="398"/>
     </row>
     <row r="517" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="395">
+      <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="566" t="s">
+      <c r="B517" s="421" t="s">
         <v>529</v>
       </c>
       <c r="C517" s="347" t="s">
         <v>530</v>
       </c>
-      <c r="D517" s="397" t="s">
+      <c r="D517" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A518" s="395"/>
-      <c r="B518" s="566"/>
+      <c r="A518" s="396"/>
+      <c r="B518" s="421"/>
       <c r="C518" s="348" t="s">
         <v>531</v>
       </c>
-      <c r="D518" s="397"/>
+      <c r="D518" s="398"/>
     </row>
     <row r="520" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A520" s="395">
+      <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="567" t="s">
+      <c r="B520" s="422" t="s">
         <v>532</v>
       </c>
       <c r="C520" s="349" t="s">
         <v>533</v>
       </c>
-      <c r="D520" s="397" t="s">
+      <c r="D520" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A521" s="395"/>
-      <c r="B521" s="567"/>
+      <c r="A521" s="396"/>
+      <c r="B521" s="422"/>
       <c r="C521" s="350" t="s">
         <v>534</v>
       </c>
-      <c r="D521" s="397"/>
+      <c r="D521" s="398"/>
     </row>
     <row r="523" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A523" s="395">
+      <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="572" t="s">
+      <c r="B523" s="419" t="s">
         <v>535</v>
       </c>
       <c r="C523" s="351" t="s">
         <v>536</v>
       </c>
-      <c r="D523" s="397" t="s">
+      <c r="D523" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A524" s="395"/>
-      <c r="B524" s="572"/>
+      <c r="A524" s="396"/>
+      <c r="B524" s="419"/>
       <c r="C524" s="352" t="s">
         <v>537</v>
       </c>
-      <c r="D524" s="397"/>
+      <c r="D524" s="398"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A526" s="395">
+      <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="573" t="s">
+      <c r="B526" s="420" t="s">
         <v>538</v>
       </c>
       <c r="C526" s="353" t="s">
         <v>539</v>
       </c>
-      <c r="D526" s="397" t="s">
+      <c r="D526" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A527" s="395"/>
-      <c r="B527" s="573"/>
+      <c r="A527" s="396"/>
+      <c r="B527" s="420"/>
       <c r="C527" s="354" t="s">
         <v>540</v>
       </c>
-      <c r="D527" s="397"/>
+      <c r="D527" s="398"/>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A529" s="395">
+      <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="570" t="s">
+      <c r="B529" s="417" t="s">
         <v>541</v>
       </c>
       <c r="C529" s="355" t="s">
         <v>542</v>
       </c>
-      <c r="D529" s="397" t="s">
+      <c r="D529" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A530" s="395"/>
-      <c r="B530" s="570"/>
+      <c r="A530" s="396"/>
+      <c r="B530" s="417"/>
       <c r="C530" s="356" t="s">
         <v>543</v>
       </c>
-      <c r="D530" s="397"/>
+      <c r="D530" s="398"/>
     </row>
     <row r="532" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="395">
+      <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="571" t="s">
+      <c r="B532" s="418" t="s">
         <v>544</v>
       </c>
       <c r="C532" s="357" t="s">
         <v>545</v>
       </c>
-      <c r="D532" s="397" t="s">
+      <c r="D532" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A533" s="395"/>
-      <c r="B533" s="571"/>
+      <c r="A533" s="396"/>
+      <c r="B533" s="418"/>
       <c r="C533" s="358" t="s">
         <v>546</v>
       </c>
-      <c r="D533" s="397"/>
+      <c r="D533" s="398"/>
     </row>
     <row r="535" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A535" s="395">
+      <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="576" t="s">
+      <c r="B535" s="415" t="s">
         <v>547</v>
       </c>
       <c r="C535" s="359" t="s">
         <v>548</v>
       </c>
-      <c r="D535" s="397" t="s">
+      <c r="D535" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A536" s="395"/>
-      <c r="B536" s="576"/>
+      <c r="A536" s="396"/>
+      <c r="B536" s="415"/>
       <c r="C536" s="360" t="s">
         <v>549</v>
       </c>
-      <c r="D536" s="397"/>
+      <c r="D536" s="398"/>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A538" s="395">
+      <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="577" t="s">
+      <c r="B538" s="416" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="361" t="s">
         <v>551</v>
       </c>
-      <c r="D538" s="397" t="s">
+      <c r="D538" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A539" s="395"/>
-      <c r="B539" s="577"/>
+      <c r="A539" s="396"/>
+      <c r="B539" s="416"/>
       <c r="C539" s="362" t="s">
         <v>552</v>
       </c>
-      <c r="D539" s="397"/>
+      <c r="D539" s="398"/>
     </row>
     <row r="541" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A541" s="395">
+      <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="574" t="s">
+      <c r="B541" s="413" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="363" t="s">
         <v>554</v>
       </c>
-      <c r="D541" s="397" t="s">
+      <c r="D541" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A542" s="395"/>
-      <c r="B542" s="574"/>
+      <c r="A542" s="396"/>
+      <c r="B542" s="413"/>
       <c r="C542" s="364" t="s">
         <v>555</v>
       </c>
-      <c r="D542" s="397"/>
+      <c r="D542" s="398"/>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A544" s="395">
+      <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="575" t="s">
+      <c r="B544" s="414" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="365" t="s">
         <v>557</v>
       </c>
-      <c r="D544" s="397" t="s">
+      <c r="D544" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A545" s="395"/>
-      <c r="B545" s="575"/>
+      <c r="A545" s="396"/>
+      <c r="B545" s="414"/>
       <c r="C545" s="366" t="s">
         <v>558</v>
       </c>
-      <c r="D545" s="397"/>
+      <c r="D545" s="398"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A547" s="395">
+      <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="580" t="s">
+      <c r="B547" s="411" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="367" t="s">
         <v>560</v>
       </c>
-      <c r="D547" s="397" t="s">
+      <c r="D547" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A548" s="395"/>
-      <c r="B548" s="580"/>
+      <c r="A548" s="396"/>
+      <c r="B548" s="411"/>
       <c r="C548" s="368" t="s">
         <v>561</v>
       </c>
-      <c r="D548" s="397"/>
+      <c r="D548" s="398"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A550" s="395">
+      <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="581" t="s">
+      <c r="B550" s="412" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="369" t="s">
         <v>563</v>
       </c>
-      <c r="D550" s="397" t="s">
+      <c r="D550" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A551" s="395"/>
-      <c r="B551" s="581"/>
+      <c r="A551" s="396"/>
+      <c r="B551" s="412"/>
       <c r="C551" s="370" t="s">
         <v>564</v>
       </c>
-      <c r="D551" s="397"/>
+      <c r="D551" s="398"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A553" s="395">
+      <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="578" t="s">
+      <c r="B553" s="409" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="371" t="s">
         <v>566</v>
       </c>
-      <c r="D553" s="397" t="s">
+      <c r="D553" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A554" s="395"/>
-      <c r="B554" s="578"/>
+      <c r="A554" s="396"/>
+      <c r="B554" s="409"/>
       <c r="C554" s="372" t="s">
         <v>567</v>
       </c>
-      <c r="D554" s="397"/>
+      <c r="D554" s="398"/>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A556" s="395">
+      <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="579" t="s">
+      <c r="B556" s="410" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="373" t="s">
         <v>569</v>
       </c>
-      <c r="D556" s="397" t="s">
+      <c r="D556" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A557" s="395"/>
-      <c r="B557" s="579"/>
+      <c r="A557" s="396"/>
+      <c r="B557" s="410"/>
       <c r="C557" s="374" t="s">
         <v>570</v>
       </c>
-      <c r="D557" s="397"/>
+      <c r="D557" s="398"/>
     </row>
     <row r="559" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A559" s="395">
+      <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="584" t="s">
+      <c r="B559" s="407" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="375" t="s">
         <v>572</v>
       </c>
-      <c r="D559" s="397" t="s">
+      <c r="D559" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A560" s="395"/>
-      <c r="B560" s="584"/>
+      <c r="A560" s="396"/>
+      <c r="B560" s="407"/>
       <c r="C560" s="376" t="s">
         <v>573</v>
       </c>
-      <c r="D560" s="397"/>
+      <c r="D560" s="398"/>
     </row>
     <row r="562" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A562" s="395">
+      <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="585" t="s">
+      <c r="B562" s="408" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="377" t="s">
         <v>575</v>
       </c>
-      <c r="D562" s="397" t="s">
+      <c r="D562" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A563" s="395"/>
-      <c r="B563" s="585"/>
+      <c r="A563" s="396"/>
+      <c r="B563" s="408"/>
       <c r="C563" s="378" t="s">
         <v>576</v>
       </c>
-      <c r="D563" s="397"/>
+      <c r="D563" s="398"/>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A565" s="395">
+      <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="582" t="s">
+      <c r="B565" s="405" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="379" t="s">
         <v>578</v>
       </c>
-      <c r="D565" s="397" t="s">
+      <c r="D565" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A566" s="395"/>
-      <c r="B566" s="582"/>
+      <c r="A566" s="396"/>
+      <c r="B566" s="405"/>
       <c r="C566" s="380" t="s">
         <v>579</v>
       </c>
-      <c r="D566" s="397"/>
+      <c r="D566" s="398"/>
     </row>
     <row r="568" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A568" s="395">
+      <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="583" t="s">
+      <c r="B568" s="406" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="381" t="s">
         <v>581</v>
       </c>
-      <c r="D568" s="397" t="s">
+      <c r="D568" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A569" s="395"/>
-      <c r="B569" s="583"/>
+      <c r="A569" s="396"/>
+      <c r="B569" s="406"/>
       <c r="C569" s="382" t="s">
         <v>582</v>
       </c>
-      <c r="D569" s="397"/>
+      <c r="D569" s="398"/>
     </row>
     <row r="571" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A571" s="395">
+      <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="591" t="s">
+      <c r="B571" s="403" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="383" t="s">
         <v>584</v>
       </c>
-      <c r="D571" s="397" t="s">
+      <c r="D571" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A572" s="395"/>
-      <c r="B572" s="591"/>
+      <c r="A572" s="396"/>
+      <c r="B572" s="403"/>
       <c r="C572" s="384" t="s">
         <v>585</v>
       </c>
-      <c r="D572" s="397"/>
+      <c r="D572" s="398"/>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A574" s="395">
+      <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="592" t="s">
+      <c r="B574" s="404" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="385" t="s">
         <v>587</v>
       </c>
-      <c r="D574" s="397" t="s">
+      <c r="D574" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A575" s="395"/>
-      <c r="B575" s="592"/>
+      <c r="A575" s="396"/>
+      <c r="B575" s="404"/>
       <c r="C575" s="386" t="s">
         <v>588</v>
       </c>
-      <c r="D575" s="397"/>
+      <c r="D575" s="398"/>
     </row>
     <row r="577" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A577" s="395">
+      <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="586" t="s">
+      <c r="B577" s="397" t="s">
         <v>589</v>
       </c>
       <c r="C577" s="387" t="s">
         <v>590</v>
       </c>
-      <c r="D577" s="397" t="s">
+      <c r="D577" s="398" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A578" s="395"/>
-      <c r="B578" s="586"/>
+      <c r="A578" s="396"/>
+      <c r="B578" s="397"/>
       <c r="C578" s="388" t="s">
         <v>591</v>
       </c>
-      <c r="D578" s="397"/>
+      <c r="D578" s="398"/>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A580" s="397"/>
-      <c r="B580" s="397"/>
-      <c r="C580" s="397"/>
-      <c r="D580" s="397"/>
+      <c r="A580" s="398"/>
+      <c r="B580" s="398"/>
+      <c r="C580" s="398"/>
+      <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="587"/>
-      <c r="B581" s="589"/>
+      <c r="A581" s="399"/>
+      <c r="B581" s="401"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="588"/>
-      <c r="B582" s="590"/>
+      <c r="A582" s="400"/>
+      <c r="B582" s="402"/>
     </row>
   </sheetData>
   <mergeCells count="582">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
     <mergeCell ref="A577:A578"/>
     <mergeCell ref="B577:B578"/>
     <mergeCell ref="D577:D578"/>
@@ -10252,576 +10859,6 @@
     <mergeCell ref="A574:A575"/>
     <mergeCell ref="B574:B575"/>
     <mergeCell ref="D574:D575"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31862A58-809B-4887-BD1C-8C9F782E652B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B79AFDA5-8EAD-446F-B74F-3D570E877CD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="632">
   <si>
     <t>#</t>
   </si>
@@ -1898,9 +1898,6 @@
     <t>https://www.kugellager-express.de/miniatur-kugellager-624-2rs-4x13x5-mm</t>
   </si>
   <si>
-    <t>Bearing 4x13x5</t>
-  </si>
-  <si>
     <t>Allen screw DIN912 M2</t>
   </si>
   <si>
@@ -1914,6 +1911,15 @@
   </si>
   <si>
     <t>Pieces in Stock</t>
+  </si>
+  <si>
+    <t>Bearing 4x13x6</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/miniatur-kugellager-626-2rs-6x19x6-mm</t>
+  </si>
+  <si>
+    <t>OmniWheel Axis Bearings</t>
   </si>
 </sst>
 </file>
@@ -4324,10 +4330,577 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4346,573 +4919,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5433,10 +5439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M14"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5472,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J2" s="390" t="s">
         <v>5</v>
@@ -5481,7 +5487,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -5502,14 +5508,14 @@
         <v>1</v>
       </c>
       <c r="I3" s="394">
-        <f>INT((B3-1-L3)/H3+1)</f>
+        <f t="shared" ref="I3:I13" si="0">INT((B3-1-L3)/H3+1)</f>
         <v>0</v>
       </c>
       <c r="J3" s="392">
         <v>19.899999999999999</v>
       </c>
       <c r="K3" s="392">
-        <f t="shared" ref="K3:K13" si="0">I3*J3</f>
+        <f t="shared" ref="K3:K13" si="1">I3*J3</f>
         <v>0</v>
       </c>
       <c r="L3" s="394">
@@ -5533,14 +5539,14 @@
         <v>1</v>
       </c>
       <c r="I4" s="394">
-        <f>INT((B4-1-L4)/H4+1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="392">
         <v>12.5</v>
       </c>
       <c r="K4" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="394">
@@ -5565,14 +5571,14 @@
         <v>1</v>
       </c>
       <c r="I5" s="394">
-        <f>INT((B5-1-L5)/H5+1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J5" s="392">
         <v>0.87</v>
       </c>
       <c r="K5" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.14</v>
       </c>
       <c r="L5" s="394">
@@ -5597,14 +5603,14 @@
         <v>2</v>
       </c>
       <c r="I6" s="394">
-        <f>INT((B6-1-L6)/H6+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J6" s="392">
         <v>7.5</v>
       </c>
       <c r="K6" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="L6" s="394">
@@ -5629,14 +5635,14 @@
         <v>100</v>
       </c>
       <c r="I7" s="394">
-        <f>INT((B7-1-L7)/H7+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7" s="392">
         <v>11.34</v>
       </c>
       <c r="K7" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.34</v>
       </c>
       <c r="L7" s="394">
@@ -5660,14 +5666,14 @@
         <v>1</v>
       </c>
       <c r="I8" s="394">
-        <f>INT((B8-1-L8)/H8+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J8" s="392">
         <v>2.34</v>
       </c>
       <c r="K8" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.68</v>
       </c>
       <c r="L8" s="394">
@@ -5691,14 +5697,14 @@
         <v>1</v>
       </c>
       <c r="I9" s="394">
-        <f>INT((B9-1-L9)/H9+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9" s="392">
         <v>2.59</v>
       </c>
       <c r="K9" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.59</v>
       </c>
       <c r="L9" s="394">
@@ -5722,14 +5728,14 @@
         <v>1</v>
       </c>
       <c r="I10" s="394">
-        <f>INT((B10-1-L10)/H10+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J10" s="392">
         <v>19.899999999999999</v>
       </c>
       <c r="K10" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.699999999999996</v>
       </c>
       <c r="L10" s="394">
@@ -5753,14 +5759,14 @@
         <v>5</v>
       </c>
       <c r="I11" s="394">
-        <f>INT((B11-1-L11)/H11+1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="395">
         <v>23</v>
       </c>
       <c r="K11" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="394">
@@ -5772,26 +5778,26 @@
         <v>9</v>
       </c>
       <c r="C12" s="394" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D12" s="394" t="s">
         <v>622</v>
       </c>
       <c r="G12" s="391" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="H12" s="394">
         <v>1</v>
       </c>
       <c r="I12" s="394">
-        <f>INT((B12-1-L12)/H12+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J12" s="395">
         <v>1</v>
       </c>
       <c r="K12" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L12" s="394">
@@ -5803,32 +5809,65 @@
         <v>9</v>
       </c>
       <c r="C13" s="394" t="s">
+        <v>624</v>
+      </c>
+      <c r="D13" s="394" t="s">
         <v>625</v>
       </c>
-      <c r="D13" s="394" t="s">
+      <c r="G13" s="391" t="s">
         <v>626</v>
-      </c>
-      <c r="G13" s="391" t="s">
-        <v>627</v>
       </c>
       <c r="H13" s="394">
         <v>100</v>
       </c>
       <c r="I13" s="394">
-        <f>INT((B13-1-L13)/H13+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J13" s="395">
         <v>3</v>
       </c>
       <c r="K13" s="392">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L13" s="394"/>
+      <c r="L13" s="394">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K14" s="393">
+      <c r="B14" s="394">
+        <v>9</v>
+      </c>
+      <c r="C14" s="394" t="s">
+        <v>629</v>
+      </c>
+      <c r="D14" s="394" t="s">
+        <v>631</v>
+      </c>
+      <c r="G14" s="391" t="s">
+        <v>623</v>
+      </c>
+      <c r="H14" s="394">
+        <v>1</v>
+      </c>
+      <c r="I14" s="394">
+        <f t="shared" ref="I14" si="2">INT((B14-1-L14)/H14+1)</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="395">
+        <v>1</v>
+      </c>
+      <c r="K14" s="392">
+        <f t="shared" ref="K14" si="3">I14*J14</f>
+        <v>3</v>
+      </c>
+      <c r="L14" s="394">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K15" s="393">
         <f>SUM(K3:K11)</f>
         <v>119.94999999999999</v>
       </c>
@@ -6019,7 +6058,7 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="591" t="s">
+      <c r="B1" s="397" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -6031,7 +6070,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="591"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
@@ -6041,7 +6080,7 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="592" t="s">
+      <c r="B4" s="399" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6053,7 +6092,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="592"/>
+      <c r="B5" s="399"/>
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
@@ -6063,7 +6102,7 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="589" t="s">
+      <c r="B7" s="402" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6075,7 +6114,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="589"/>
+      <c r="B8" s="402"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
@@ -6085,7 +6124,7 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="590" t="s">
+      <c r="B10" s="403" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -6097,7 +6136,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="590"/>
+      <c r="B11" s="403"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
@@ -6107,7 +6146,7 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="593" t="s">
+      <c r="B13" s="400" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6119,7 +6158,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="593"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
@@ -6129,7 +6168,7 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="401" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -6141,7 +6180,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="588"/>
+      <c r="B17" s="401"/>
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
@@ -6151,7 +6190,7 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="586" t="s">
+      <c r="B19" s="406" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -6163,7 +6202,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="586"/>
+      <c r="B20" s="406"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
@@ -6173,7 +6212,7 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="587" t="s">
+      <c r="B22" s="407" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6185,7 +6224,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="587"/>
+      <c r="B23" s="407"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
@@ -6195,7 +6234,7 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="584" t="s">
+      <c r="B25" s="404" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6207,7 +6246,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="584"/>
+      <c r="B26" s="404"/>
       <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
@@ -6217,7 +6256,7 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="585" t="s">
+      <c r="B28" s="405" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6229,7 +6268,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="585"/>
+      <c r="B29" s="405"/>
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
@@ -6239,7 +6278,7 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="582" t="s">
+      <c r="B31" s="410" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6251,7 +6290,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="582"/>
+      <c r="B32" s="410"/>
       <c r="C32" s="26" t="s">
         <v>48</v>
       </c>
@@ -6261,7 +6300,7 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="583" t="s">
+      <c r="B34" s="411" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6273,7 +6312,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="583"/>
+      <c r="B35" s="411"/>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
@@ -6283,7 +6322,7 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="580" t="s">
+      <c r="B37" s="408" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6295,7 +6334,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="580"/>
+      <c r="B38" s="408"/>
       <c r="C38" s="30" t="s">
         <v>54</v>
       </c>
@@ -6305,7 +6344,7 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="581" t="s">
+      <c r="B40" s="409" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6317,7 +6356,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="581"/>
+      <c r="B41" s="409"/>
       <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
@@ -6327,7 +6366,7 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="578" t="s">
+      <c r="B43" s="414" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6339,7 +6378,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="578"/>
+      <c r="B44" s="414"/>
       <c r="C44" s="34" t="s">
         <v>60</v>
       </c>
@@ -6349,7 +6388,7 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="579" t="s">
+      <c r="B46" s="415" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6361,7 +6400,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="579"/>
+      <c r="B47" s="415"/>
       <c r="C47" s="36" t="s">
         <v>63</v>
       </c>
@@ -6371,7 +6410,7 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="576" t="s">
+      <c r="B49" s="412" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6383,7 +6422,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="576"/>
+      <c r="B50" s="412"/>
       <c r="C50" s="38" t="s">
         <v>66</v>
       </c>
@@ -6393,7 +6432,7 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="577" t="s">
+      <c r="B52" s="413" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6405,7 +6444,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="577"/>
+      <c r="B53" s="413"/>
       <c r="C53" s="40" t="s">
         <v>69</v>
       </c>
@@ -6415,7 +6454,7 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="575" t="s">
+      <c r="B55" s="418" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6427,7 +6466,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="575"/>
+      <c r="B56" s="418"/>
       <c r="C56" s="42" t="s">
         <v>72</v>
       </c>
@@ -6437,7 +6476,7 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="575" t="s">
+      <c r="B58" s="418" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6449,7 +6488,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="575"/>
+      <c r="B59" s="418"/>
       <c r="C59" s="42" t="s">
         <v>72</v>
       </c>
@@ -6459,7 +6498,7 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="573" t="s">
+      <c r="B61" s="416" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6471,7 +6510,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="573"/>
+      <c r="B62" s="416"/>
       <c r="C62" s="44" t="s">
         <v>76</v>
       </c>
@@ -6481,7 +6520,7 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="574" t="s">
+      <c r="B64" s="417" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6493,7 +6532,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="574"/>
+      <c r="B65" s="417"/>
       <c r="C65" s="46" t="s">
         <v>79</v>
       </c>
@@ -6503,7 +6542,7 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="571" t="s">
+      <c r="B67" s="421" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6515,7 +6554,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="571"/>
+      <c r="B68" s="421"/>
       <c r="C68" s="48" t="s">
         <v>82</v>
       </c>
@@ -6525,7 +6564,7 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="572" t="s">
+      <c r="B70" s="422" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6537,7 +6576,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="572"/>
+      <c r="B71" s="422"/>
       <c r="C71" s="50" t="s">
         <v>85</v>
       </c>
@@ -6547,7 +6586,7 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="569" t="s">
+      <c r="B73" s="419" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6559,7 +6598,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="569"/>
+      <c r="B74" s="419"/>
       <c r="C74" s="52" t="s">
         <v>88</v>
       </c>
@@ -6569,7 +6608,7 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="570" t="s">
+      <c r="B76" s="420" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6581,7 +6620,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="570"/>
+      <c r="B77" s="420"/>
       <c r="C77" s="54" t="s">
         <v>91</v>
       </c>
@@ -6591,7 +6630,7 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="567" t="s">
+      <c r="B79" s="425" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6603,7 +6642,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="567"/>
+      <c r="B80" s="425"/>
       <c r="C80" s="56" t="s">
         <v>94</v>
       </c>
@@ -6613,7 +6652,7 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="568" t="s">
+      <c r="B82" s="426" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6625,7 +6664,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="568"/>
+      <c r="B83" s="426"/>
       <c r="C83" s="58" t="s">
         <v>97</v>
       </c>
@@ -6635,7 +6674,7 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="565" t="s">
+      <c r="B85" s="423" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6647,7 +6686,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="565"/>
+      <c r="B86" s="423"/>
       <c r="C86" s="60" t="s">
         <v>100</v>
       </c>
@@ -6657,7 +6696,7 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="566" t="s">
+      <c r="B88" s="424" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6669,7 +6708,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="566"/>
+      <c r="B89" s="424"/>
       <c r="C89" s="62" t="s">
         <v>103</v>
       </c>
@@ -6679,7 +6718,7 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="563" t="s">
+      <c r="B91" s="429" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6691,7 +6730,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="563"/>
+      <c r="B92" s="429"/>
       <c r="C92" s="64" t="s">
         <v>106</v>
       </c>
@@ -6701,7 +6740,7 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="564" t="s">
+      <c r="B94" s="430" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6713,7 +6752,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="564"/>
+      <c r="B95" s="430"/>
       <c r="C95" s="66" t="s">
         <v>109</v>
       </c>
@@ -6723,7 +6762,7 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="561" t="s">
+      <c r="B97" s="427" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -6735,7 +6774,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="561"/>
+      <c r="B98" s="427"/>
       <c r="C98" s="68" t="s">
         <v>112</v>
       </c>
@@ -6745,7 +6784,7 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="562" t="s">
+      <c r="B100" s="428" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -6757,7 +6796,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="562"/>
+      <c r="B101" s="428"/>
       <c r="C101" s="70" t="s">
         <v>115</v>
       </c>
@@ -6767,7 +6806,7 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="559" t="s">
+      <c r="B103" s="433" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -6779,7 +6818,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="559"/>
+      <c r="B104" s="433"/>
       <c r="C104" s="72" t="s">
         <v>118</v>
       </c>
@@ -6789,7 +6828,7 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="560" t="s">
+      <c r="B106" s="434" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -6801,7 +6840,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="560"/>
+      <c r="B107" s="434"/>
       <c r="C107" s="74" t="s">
         <v>121</v>
       </c>
@@ -6811,7 +6850,7 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="557" t="s">
+      <c r="B109" s="431" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -6823,7 +6862,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="557"/>
+      <c r="B110" s="431"/>
       <c r="C110" s="76" t="s">
         <v>124</v>
       </c>
@@ -6833,7 +6872,7 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="558" t="s">
+      <c r="B112" s="432" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -6845,7 +6884,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="558"/>
+      <c r="B113" s="432"/>
       <c r="C113" s="78" t="s">
         <v>127</v>
       </c>
@@ -6855,7 +6894,7 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="555" t="s">
+      <c r="B115" s="437" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -6867,7 +6906,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="555"/>
+      <c r="B116" s="437"/>
       <c r="C116" s="80" t="s">
         <v>130</v>
       </c>
@@ -6877,7 +6916,7 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="556" t="s">
+      <c r="B118" s="438" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -6889,7 +6928,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="556"/>
+      <c r="B119" s="438"/>
       <c r="C119" s="82" t="s">
         <v>133</v>
       </c>
@@ -6899,7 +6938,7 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="553" t="s">
+      <c r="B121" s="435" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -6911,7 +6950,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="553"/>
+      <c r="B122" s="435"/>
       <c r="C122" s="84" t="s">
         <v>136</v>
       </c>
@@ -6921,7 +6960,7 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="554" t="s">
+      <c r="B124" s="436" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -6933,7 +6972,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="554"/>
+      <c r="B125" s="436"/>
       <c r="C125" s="86" t="s">
         <v>139</v>
       </c>
@@ -6943,7 +6982,7 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="551" t="s">
+      <c r="B127" s="441" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -6955,7 +6994,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="551"/>
+      <c r="B128" s="441"/>
       <c r="C128" s="88" t="s">
         <v>142</v>
       </c>
@@ -6965,7 +7004,7 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="552" t="s">
+      <c r="B130" s="442" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -6977,7 +7016,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="552"/>
+      <c r="B131" s="442"/>
       <c r="C131" s="90" t="s">
         <v>145</v>
       </c>
@@ -6987,7 +7026,7 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="549" t="s">
+      <c r="B133" s="439" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -6999,7 +7038,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="549"/>
+      <c r="B134" s="439"/>
       <c r="C134" s="92" t="s">
         <v>148</v>
       </c>
@@ -7009,7 +7048,7 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="550" t="s">
+      <c r="B136" s="440" t="s">
         <v>149</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -7021,7 +7060,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="550"/>
+      <c r="B137" s="440"/>
       <c r="C137" s="94" t="s">
         <v>151</v>
       </c>
@@ -7031,7 +7070,7 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="547" t="s">
+      <c r="B139" s="445" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -7043,7 +7082,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="547"/>
+      <c r="B140" s="445"/>
       <c r="C140" s="96" t="s">
         <v>154</v>
       </c>
@@ -7053,7 +7092,7 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="548" t="s">
+      <c r="B142" s="446" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -7065,7 +7104,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="548"/>
+      <c r="B143" s="446"/>
       <c r="C143" s="98" t="s">
         <v>157</v>
       </c>
@@ -7075,7 +7114,7 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="545" t="s">
+      <c r="B145" s="443" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -7087,7 +7126,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="545"/>
+      <c r="B146" s="443"/>
       <c r="C146" s="100" t="s">
         <v>160</v>
       </c>
@@ -7097,7 +7136,7 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="546" t="s">
+      <c r="B148" s="444" t="s">
         <v>161</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -7109,7 +7148,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="546"/>
+      <c r="B149" s="444"/>
       <c r="C149" s="102" t="s">
         <v>163</v>
       </c>
@@ -7119,7 +7158,7 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="543" t="s">
+      <c r="B151" s="449" t="s">
         <v>164</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -7131,7 +7170,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="543"/>
+      <c r="B152" s="449"/>
       <c r="C152" s="104" t="s">
         <v>166</v>
       </c>
@@ -7141,7 +7180,7 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="544" t="s">
+      <c r="B154" s="450" t="s">
         <v>167</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -7153,7 +7192,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="544"/>
+      <c r="B155" s="450"/>
       <c r="C155" s="106" t="s">
         <v>169</v>
       </c>
@@ -7163,7 +7202,7 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="541" t="s">
+      <c r="B157" s="447" t="s">
         <v>170</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -7175,7 +7214,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="541"/>
+      <c r="B158" s="447"/>
       <c r="C158" s="108" t="s">
         <v>172</v>
       </c>
@@ -7185,7 +7224,7 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="542" t="s">
+      <c r="B160" s="448" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -7197,7 +7236,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="542"/>
+      <c r="B161" s="448"/>
       <c r="C161" s="110" t="s">
         <v>175</v>
       </c>
@@ -7207,7 +7246,7 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="539" t="s">
+      <c r="B163" s="453" t="s">
         <v>176</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7219,7 +7258,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="539"/>
+      <c r="B164" s="453"/>
       <c r="C164" s="112" t="s">
         <v>178</v>
       </c>
@@ -7229,7 +7268,7 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="540" t="s">
+      <c r="B166" s="454" t="s">
         <v>179</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7241,7 +7280,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="540"/>
+      <c r="B167" s="454"/>
       <c r="C167" s="114" t="s">
         <v>181</v>
       </c>
@@ -7251,7 +7290,7 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="537" t="s">
+      <c r="B169" s="451" t="s">
         <v>182</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7263,7 +7302,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="537"/>
+      <c r="B170" s="451"/>
       <c r="C170" s="116" t="s">
         <v>184</v>
       </c>
@@ -7273,7 +7312,7 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="538" t="s">
+      <c r="B172" s="452" t="s">
         <v>185</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7285,7 +7324,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="538"/>
+      <c r="B173" s="452"/>
       <c r="C173" s="118" t="s">
         <v>187</v>
       </c>
@@ -7295,7 +7334,7 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="535" t="s">
+      <c r="B175" s="457" t="s">
         <v>188</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7307,7 +7346,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="535"/>
+      <c r="B176" s="457"/>
       <c r="C176" s="120" t="s">
         <v>190</v>
       </c>
@@ -7317,7 +7356,7 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="536" t="s">
+      <c r="B178" s="458" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7329,7 +7368,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="536"/>
+      <c r="B179" s="458"/>
       <c r="C179" s="122" t="s">
         <v>193</v>
       </c>
@@ -7339,7 +7378,7 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="533" t="s">
+      <c r="B181" s="455" t="s">
         <v>194</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7351,7 +7390,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="533"/>
+      <c r="B182" s="455"/>
       <c r="C182" s="124" t="s">
         <v>196</v>
       </c>
@@ -7361,7 +7400,7 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="534" t="s">
+      <c r="B184" s="456" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7373,7 +7412,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="534"/>
+      <c r="B185" s="456"/>
       <c r="C185" s="126" t="s">
         <v>199</v>
       </c>
@@ -7383,7 +7422,7 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="531" t="s">
+      <c r="B187" s="461" t="s">
         <v>200</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7395,7 +7434,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="531"/>
+      <c r="B188" s="461"/>
       <c r="C188" s="128" t="s">
         <v>202</v>
       </c>
@@ -7405,7 +7444,7 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="532" t="s">
+      <c r="B190" s="462" t="s">
         <v>203</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7417,7 +7456,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="532"/>
+      <c r="B191" s="462"/>
       <c r="C191" s="130" t="s">
         <v>205</v>
       </c>
@@ -7427,7 +7466,7 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="529" t="s">
+      <c r="B193" s="459" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7439,7 +7478,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="529"/>
+      <c r="B194" s="459"/>
       <c r="C194" s="132" t="s">
         <v>208</v>
       </c>
@@ -7449,7 +7488,7 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="530" t="s">
+      <c r="B196" s="460" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7461,7 +7500,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="530"/>
+      <c r="B197" s="460"/>
       <c r="C197" s="134" t="s">
         <v>211</v>
       </c>
@@ -7471,7 +7510,7 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="527" t="s">
+      <c r="B199" s="465" t="s">
         <v>212</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7483,7 +7522,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="527"/>
+      <c r="B200" s="465"/>
       <c r="C200" s="136" t="s">
         <v>214</v>
       </c>
@@ -7493,7 +7532,7 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="528" t="s">
+      <c r="B202" s="466" t="s">
         <v>215</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7505,7 +7544,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="528"/>
+      <c r="B203" s="466"/>
       <c r="C203" s="138" t="s">
         <v>217</v>
       </c>
@@ -7515,7 +7554,7 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="525" t="s">
+      <c r="B205" s="463" t="s">
         <v>218</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7527,7 +7566,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="525"/>
+      <c r="B206" s="463"/>
       <c r="C206" s="140" t="s">
         <v>220</v>
       </c>
@@ -7537,7 +7576,7 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="526" t="s">
+      <c r="B208" s="464" t="s">
         <v>221</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7549,7 +7588,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="526"/>
+      <c r="B209" s="464"/>
       <c r="C209" s="142" t="s">
         <v>223</v>
       </c>
@@ -7559,7 +7598,7 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="523" t="s">
+      <c r="B211" s="469" t="s">
         <v>224</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7571,7 +7610,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="523"/>
+      <c r="B212" s="469"/>
       <c r="C212" s="144" t="s">
         <v>226</v>
       </c>
@@ -7581,7 +7620,7 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="524" t="s">
+      <c r="B214" s="470" t="s">
         <v>227</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7593,7 +7632,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="524"/>
+      <c r="B215" s="470"/>
       <c r="C215" s="146" t="s">
         <v>229</v>
       </c>
@@ -7603,7 +7642,7 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="521" t="s">
+      <c r="B217" s="467" t="s">
         <v>230</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7615,7 +7654,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="521"/>
+      <c r="B218" s="467"/>
       <c r="C218" s="148" t="s">
         <v>232</v>
       </c>
@@ -7625,7 +7664,7 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="522" t="s">
+      <c r="B220" s="468" t="s">
         <v>233</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7637,7 +7676,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="522"/>
+      <c r="B221" s="468"/>
       <c r="C221" s="150" t="s">
         <v>235</v>
       </c>
@@ -7647,7 +7686,7 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="519" t="s">
+      <c r="B223" s="473" t="s">
         <v>236</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7659,7 +7698,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="519"/>
+      <c r="B224" s="473"/>
       <c r="C224" s="152" t="s">
         <v>238</v>
       </c>
@@ -7669,7 +7708,7 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="520" t="s">
+      <c r="B226" s="474" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7681,7 +7720,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="520"/>
+      <c r="B227" s="474"/>
       <c r="C227" s="154" t="s">
         <v>241</v>
       </c>
@@ -7691,7 +7730,7 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="517" t="s">
+      <c r="B229" s="471" t="s">
         <v>242</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7703,7 +7742,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="517"/>
+      <c r="B230" s="471"/>
       <c r="C230" s="156" t="s">
         <v>244</v>
       </c>
@@ -7713,7 +7752,7 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="518" t="s">
+      <c r="B232" s="472" t="s">
         <v>245</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7725,7 +7764,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="518"/>
+      <c r="B233" s="472"/>
       <c r="C233" s="158" t="s">
         <v>247</v>
       </c>
@@ -7735,7 +7774,7 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="515" t="s">
+      <c r="B235" s="477" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -7747,7 +7786,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="515"/>
+      <c r="B236" s="477"/>
       <c r="C236" s="160" t="s">
         <v>250</v>
       </c>
@@ -7757,7 +7796,7 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="516" t="s">
+      <c r="B238" s="478" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -7769,7 +7808,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="516"/>
+      <c r="B239" s="478"/>
       <c r="C239" s="162" t="s">
         <v>253</v>
       </c>
@@ -7779,7 +7818,7 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="513" t="s">
+      <c r="B241" s="475" t="s">
         <v>254</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -7791,7 +7830,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="513"/>
+      <c r="B242" s="475"/>
       <c r="C242" s="164" t="s">
         <v>256</v>
       </c>
@@ -7801,7 +7840,7 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="514" t="s">
+      <c r="B244" s="476" t="s">
         <v>257</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -7813,7 +7852,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="514"/>
+      <c r="B245" s="476"/>
       <c r="C245" s="166" t="s">
         <v>259</v>
       </c>
@@ -7823,7 +7862,7 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="511" t="s">
+      <c r="B247" s="481" t="s">
         <v>260</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -7835,7 +7874,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="511"/>
+      <c r="B248" s="481"/>
       <c r="C248" s="168" t="s">
         <v>262</v>
       </c>
@@ -7845,7 +7884,7 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="512" t="s">
+      <c r="B250" s="482" t="s">
         <v>263</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -7857,7 +7896,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="512"/>
+      <c r="B251" s="482"/>
       <c r="C251" s="170" t="s">
         <v>265</v>
       </c>
@@ -7867,7 +7906,7 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="509" t="s">
+      <c r="B253" s="479" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -7879,7 +7918,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="509"/>
+      <c r="B254" s="479"/>
       <c r="C254" s="172" t="s">
         <v>268</v>
       </c>
@@ -7889,7 +7928,7 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="510" t="s">
+      <c r="B256" s="480" t="s">
         <v>269</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -7901,7 +7940,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="510"/>
+      <c r="B257" s="480"/>
       <c r="C257" s="174" t="s">
         <v>271</v>
       </c>
@@ -7911,7 +7950,7 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="507" t="s">
+      <c r="B259" s="485" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -7923,7 +7962,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="507"/>
+      <c r="B260" s="485"/>
       <c r="C260" s="176" t="s">
         <v>274</v>
       </c>
@@ -7933,7 +7972,7 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="508" t="s">
+      <c r="B262" s="486" t="s">
         <v>275</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -7945,7 +7984,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="508"/>
+      <c r="B263" s="486"/>
       <c r="C263" s="178" t="s">
         <v>277</v>
       </c>
@@ -7955,7 +7994,7 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="505" t="s">
+      <c r="B265" s="483" t="s">
         <v>254</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -7967,7 +8006,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="505"/>
+      <c r="B266" s="483"/>
       <c r="C266" s="180" t="s">
         <v>279</v>
       </c>
@@ -7977,7 +8016,7 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="506" t="s">
+      <c r="B268" s="484" t="s">
         <v>280</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -7989,7 +8028,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="506"/>
+      <c r="B269" s="484"/>
       <c r="C269" s="182" t="s">
         <v>282</v>
       </c>
@@ -7999,7 +8038,7 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="503" t="s">
+      <c r="B271" s="489" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -8011,7 +8050,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="503"/>
+      <c r="B272" s="489"/>
       <c r="C272" s="184" t="s">
         <v>285</v>
       </c>
@@ -8021,7 +8060,7 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="504" t="s">
+      <c r="B274" s="490" t="s">
         <v>286</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -8033,7 +8072,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="504"/>
+      <c r="B275" s="490"/>
       <c r="C275" s="186" t="s">
         <v>288</v>
       </c>
@@ -8043,7 +8082,7 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="501" t="s">
+      <c r="B277" s="487" t="s">
         <v>289</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -8055,7 +8094,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="501"/>
+      <c r="B278" s="487"/>
       <c r="C278" s="188" t="s">
         <v>291</v>
       </c>
@@ -8065,7 +8104,7 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="502" t="s">
+      <c r="B280" s="488" t="s">
         <v>292</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -8077,7 +8116,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="502"/>
+      <c r="B281" s="488"/>
       <c r="C281" s="190" t="s">
         <v>294</v>
       </c>
@@ -8087,7 +8126,7 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="499" t="s">
+      <c r="B283" s="493" t="s">
         <v>295</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -8099,7 +8138,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="499"/>
+      <c r="B284" s="493"/>
       <c r="C284" s="192" t="s">
         <v>297</v>
       </c>
@@ -8109,7 +8148,7 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="500" t="s">
+      <c r="B286" s="494" t="s">
         <v>298</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -8121,7 +8160,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="500"/>
+      <c r="B287" s="494"/>
       <c r="C287" s="194" t="s">
         <v>300</v>
       </c>
@@ -8131,7 +8170,7 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="497" t="s">
+      <c r="B289" s="491" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -8143,7 +8182,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="497"/>
+      <c r="B290" s="491"/>
       <c r="C290" s="196" t="s">
         <v>303</v>
       </c>
@@ -8153,7 +8192,7 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="498" t="s">
+      <c r="B292" s="492" t="s">
         <v>304</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -8165,7 +8204,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="498"/>
+      <c r="B293" s="492"/>
       <c r="C293" s="198" t="s">
         <v>306</v>
       </c>
@@ -8175,7 +8214,7 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="495" t="s">
+      <c r="B295" s="497" t="s">
         <v>307</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -8187,7 +8226,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="495"/>
+      <c r="B296" s="497"/>
       <c r="C296" s="200" t="s">
         <v>309</v>
       </c>
@@ -8197,7 +8236,7 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="496" t="s">
+      <c r="B298" s="498" t="s">
         <v>310</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8209,7 +8248,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="496"/>
+      <c r="B299" s="498"/>
       <c r="C299" s="202" t="s">
         <v>312</v>
       </c>
@@ -8219,7 +8258,7 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="493" t="s">
+      <c r="B301" s="495" t="s">
         <v>313</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8231,7 +8270,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="493"/>
+      <c r="B302" s="495"/>
       <c r="C302" s="204" t="s">
         <v>315</v>
       </c>
@@ -8241,7 +8280,7 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="494" t="s">
+      <c r="B304" s="496" t="s">
         <v>316</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8253,7 +8292,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="494"/>
+      <c r="B305" s="496"/>
       <c r="C305" s="206" t="s">
         <v>318</v>
       </c>
@@ -8263,7 +8302,7 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="491" t="s">
+      <c r="B307" s="501" t="s">
         <v>319</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8275,7 +8314,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="491"/>
+      <c r="B308" s="501"/>
       <c r="C308" s="208" t="s">
         <v>321</v>
       </c>
@@ -8285,7 +8324,7 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="492" t="s">
+      <c r="B310" s="502" t="s">
         <v>322</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8297,7 +8336,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="492"/>
+      <c r="B311" s="502"/>
       <c r="C311" s="210" t="s">
         <v>324</v>
       </c>
@@ -8307,7 +8346,7 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="489" t="s">
+      <c r="B313" s="499" t="s">
         <v>325</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8319,7 +8358,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="489"/>
+      <c r="B314" s="499"/>
       <c r="C314" s="212" t="s">
         <v>327</v>
       </c>
@@ -8329,7 +8368,7 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="490" t="s">
+      <c r="B316" s="500" t="s">
         <v>328</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8341,7 +8380,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="490"/>
+      <c r="B317" s="500"/>
       <c r="C317" s="214" t="s">
         <v>330</v>
       </c>
@@ -8351,7 +8390,7 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="487" t="s">
+      <c r="B319" s="505" t="s">
         <v>331</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8363,7 +8402,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="487"/>
+      <c r="B320" s="505"/>
       <c r="C320" s="216" t="s">
         <v>333</v>
       </c>
@@ -8373,7 +8412,7 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="488" t="s">
+      <c r="B322" s="506" t="s">
         <v>334</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8385,7 +8424,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="488"/>
+      <c r="B323" s="506"/>
       <c r="C323" s="218" t="s">
         <v>336</v>
       </c>
@@ -8395,7 +8434,7 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="485" t="s">
+      <c r="B325" s="503" t="s">
         <v>337</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8407,7 +8446,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="485"/>
+      <c r="B326" s="503"/>
       <c r="C326" s="220" t="s">
         <v>339</v>
       </c>
@@ -8417,7 +8456,7 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="486" t="s">
+      <c r="B328" s="504" t="s">
         <v>340</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8429,7 +8468,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="486"/>
+      <c r="B329" s="504"/>
       <c r="C329" s="222" t="s">
         <v>342</v>
       </c>
@@ -8439,7 +8478,7 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="483" t="s">
+      <c r="B331" s="509" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8451,7 +8490,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="483"/>
+      <c r="B332" s="509"/>
       <c r="C332" s="224" t="s">
         <v>345</v>
       </c>
@@ -8461,7 +8500,7 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="484" t="s">
+      <c r="B334" s="510" t="s">
         <v>346</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8473,7 +8512,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="484"/>
+      <c r="B335" s="510"/>
       <c r="C335" s="226" t="s">
         <v>348</v>
       </c>
@@ -8483,7 +8522,7 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="481" t="s">
+      <c r="B337" s="507" t="s">
         <v>349</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8495,7 +8534,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="481"/>
+      <c r="B338" s="507"/>
       <c r="C338" s="228" t="s">
         <v>351</v>
       </c>
@@ -8505,7 +8544,7 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="482" t="s">
+      <c r="B340" s="508" t="s">
         <v>352</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8517,7 +8556,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="482"/>
+      <c r="B341" s="508"/>
       <c r="C341" s="230" t="s">
         <v>354</v>
       </c>
@@ -8527,7 +8566,7 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="479" t="s">
+      <c r="B343" s="513" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8539,7 +8578,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="479"/>
+      <c r="B344" s="513"/>
       <c r="C344" s="232" t="s">
         <v>357</v>
       </c>
@@ -8549,7 +8588,7 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="480" t="s">
+      <c r="B346" s="514" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8561,7 +8600,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="480"/>
+      <c r="B347" s="514"/>
       <c r="C347" s="234" t="s">
         <v>360</v>
       </c>
@@ -8571,7 +8610,7 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="477" t="s">
+      <c r="B349" s="511" t="s">
         <v>361</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8583,7 +8622,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="477"/>
+      <c r="B350" s="511"/>
       <c r="C350" s="236" t="s">
         <v>363</v>
       </c>
@@ -8593,7 +8632,7 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="478" t="s">
+      <c r="B352" s="512" t="s">
         <v>364</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8605,7 +8644,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="478"/>
+      <c r="B353" s="512"/>
       <c r="C353" s="238" t="s">
         <v>366</v>
       </c>
@@ -8615,7 +8654,7 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="475" t="s">
+      <c r="B355" s="517" t="s">
         <v>367</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8627,7 +8666,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="475"/>
+      <c r="B356" s="517"/>
       <c r="C356" s="240" t="s">
         <v>369</v>
       </c>
@@ -8637,7 +8676,7 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="476" t="s">
+      <c r="B358" s="518" t="s">
         <v>370</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8649,7 +8688,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="476"/>
+      <c r="B359" s="518"/>
       <c r="C359" s="242" t="s">
         <v>372</v>
       </c>
@@ -8659,7 +8698,7 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="473" t="s">
+      <c r="B361" s="515" t="s">
         <v>373</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8671,7 +8710,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="473"/>
+      <c r="B362" s="515"/>
       <c r="C362" s="244" t="s">
         <v>375</v>
       </c>
@@ -8681,7 +8720,7 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="474" t="s">
+      <c r="B364" s="516" t="s">
         <v>376</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8693,7 +8732,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="474"/>
+      <c r="B365" s="516"/>
       <c r="C365" s="246" t="s">
         <v>378</v>
       </c>
@@ -8703,7 +8742,7 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="471" t="s">
+      <c r="B367" s="521" t="s">
         <v>379</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8715,7 +8754,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="471"/>
+      <c r="B368" s="521"/>
       <c r="C368" s="248" t="s">
         <v>381</v>
       </c>
@@ -8725,7 +8764,7 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="472" t="s">
+      <c r="B370" s="522" t="s">
         <v>382</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -8737,7 +8776,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="472"/>
+      <c r="B371" s="522"/>
       <c r="C371" s="250" t="s">
         <v>384</v>
       </c>
@@ -8747,7 +8786,7 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="469" t="s">
+      <c r="B373" s="519" t="s">
         <v>385</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -8759,7 +8798,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="469"/>
+      <c r="B374" s="519"/>
       <c r="C374" s="252" t="s">
         <v>387</v>
       </c>
@@ -8769,7 +8808,7 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="470" t="s">
+      <c r="B376" s="520" t="s">
         <v>388</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -8781,7 +8820,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="470"/>
+      <c r="B377" s="520"/>
       <c r="C377" s="254" t="s">
         <v>390</v>
       </c>
@@ -8791,7 +8830,7 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="467" t="s">
+      <c r="B379" s="525" t="s">
         <v>391</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -8803,7 +8842,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="467"/>
+      <c r="B380" s="525"/>
       <c r="C380" s="256" t="s">
         <v>393</v>
       </c>
@@ -8813,7 +8852,7 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="468" t="s">
+      <c r="B382" s="526" t="s">
         <v>394</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -8825,7 +8864,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="468"/>
+      <c r="B383" s="526"/>
       <c r="C383" s="258" t="s">
         <v>396</v>
       </c>
@@ -8835,7 +8874,7 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="465" t="s">
+      <c r="B385" s="523" t="s">
         <v>397</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -8847,7 +8886,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="465"/>
+      <c r="B386" s="523"/>
       <c r="C386" s="260" t="s">
         <v>399</v>
       </c>
@@ -8857,7 +8896,7 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="466" t="s">
+      <c r="B388" s="524" t="s">
         <v>400</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -8869,7 +8908,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="466"/>
+      <c r="B389" s="524"/>
       <c r="C389" s="262" t="s">
         <v>402</v>
       </c>
@@ -8879,7 +8918,7 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="463" t="s">
+      <c r="B391" s="529" t="s">
         <v>403</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -8891,7 +8930,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="463"/>
+      <c r="B392" s="529"/>
       <c r="C392" s="264" t="s">
         <v>405</v>
       </c>
@@ -8901,7 +8940,7 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="464" t="s">
+      <c r="B394" s="530" t="s">
         <v>406</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -8913,7 +8952,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="464"/>
+      <c r="B395" s="530"/>
       <c r="C395" s="266" t="s">
         <v>408</v>
       </c>
@@ -8923,7 +8962,7 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="461" t="s">
+      <c r="B397" s="527" t="s">
         <v>409</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -8935,7 +8974,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="461"/>
+      <c r="B398" s="527"/>
       <c r="C398" s="268" t="s">
         <v>411</v>
       </c>
@@ -8945,7 +8984,7 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="462" t="s">
+      <c r="B400" s="528" t="s">
         <v>412</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -8957,7 +8996,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="462"/>
+      <c r="B401" s="528"/>
       <c r="C401" s="270" t="s">
         <v>414</v>
       </c>
@@ -8967,7 +9006,7 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="459" t="s">
+      <c r="B403" s="533" t="s">
         <v>415</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -8979,7 +9018,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="459"/>
+      <c r="B404" s="533"/>
       <c r="C404" s="272" t="s">
         <v>417</v>
       </c>
@@ -8989,7 +9028,7 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="460" t="s">
+      <c r="B406" s="534" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -9001,7 +9040,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="460"/>
+      <c r="B407" s="534"/>
       <c r="C407" s="274" t="s">
         <v>420</v>
       </c>
@@ -9011,7 +9050,7 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="457" t="s">
+      <c r="B409" s="531" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -9023,7 +9062,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="457"/>
+      <c r="B410" s="531"/>
       <c r="C410" s="276" t="s">
         <v>423</v>
       </c>
@@ -9033,7 +9072,7 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="458" t="s">
+      <c r="B412" s="532" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -9045,7 +9084,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="458"/>
+      <c r="B413" s="532"/>
       <c r="C413" s="278" t="s">
         <v>426</v>
       </c>
@@ -9055,7 +9094,7 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="455" t="s">
+      <c r="B415" s="537" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -9067,7 +9106,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="455"/>
+      <c r="B416" s="537"/>
       <c r="C416" s="280" t="s">
         <v>429</v>
       </c>
@@ -9077,7 +9116,7 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="456" t="s">
+      <c r="B418" s="538" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -9089,7 +9128,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="456"/>
+      <c r="B419" s="538"/>
       <c r="C419" s="282" t="s">
         <v>432</v>
       </c>
@@ -9099,7 +9138,7 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="453" t="s">
+      <c r="B421" s="535" t="s">
         <v>433</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -9111,7 +9150,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="453"/>
+      <c r="B422" s="535"/>
       <c r="C422" s="284" t="s">
         <v>435</v>
       </c>
@@ -9121,7 +9160,7 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="454" t="s">
+      <c r="B424" s="536" t="s">
         <v>436</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -9133,7 +9172,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="454"/>
+      <c r="B425" s="536"/>
       <c r="C425" s="286" t="s">
         <v>438</v>
       </c>
@@ -9143,7 +9182,7 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="451" t="s">
+      <c r="B427" s="541" t="s">
         <v>439</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -9155,7 +9194,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="451"/>
+      <c r="B428" s="541"/>
       <c r="C428" s="288" t="s">
         <v>441</v>
       </c>
@@ -9165,7 +9204,7 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="452" t="s">
+      <c r="B430" s="542" t="s">
         <v>442</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -9177,7 +9216,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="452"/>
+      <c r="B431" s="542"/>
       <c r="C431" s="290" t="s">
         <v>444</v>
       </c>
@@ -9187,7 +9226,7 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="449" t="s">
+      <c r="B433" s="539" t="s">
         <v>445</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -9199,7 +9238,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="449"/>
+      <c r="B434" s="539"/>
       <c r="C434" s="292" t="s">
         <v>447</v>
       </c>
@@ -9209,7 +9248,7 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="450" t="s">
+      <c r="B436" s="540" t="s">
         <v>448</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9221,7 +9260,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="450"/>
+      <c r="B437" s="540"/>
       <c r="C437" s="294" t="s">
         <v>450</v>
       </c>
@@ -9231,7 +9270,7 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="447" t="s">
+      <c r="B439" s="545" t="s">
         <v>451</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9243,7 +9282,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="447"/>
+      <c r="B440" s="545"/>
       <c r="C440" s="296" t="s">
         <v>453</v>
       </c>
@@ -9253,7 +9292,7 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="448" t="s">
+      <c r="B442" s="546" t="s">
         <v>454</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9265,7 +9304,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="448"/>
+      <c r="B443" s="546"/>
       <c r="C443" s="298" t="s">
         <v>456</v>
       </c>
@@ -9275,7 +9314,7 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="445" t="s">
+      <c r="B445" s="543" t="s">
         <v>457</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9287,7 +9326,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="445"/>
+      <c r="B446" s="543"/>
       <c r="C446" s="300" t="s">
         <v>459</v>
       </c>
@@ -9297,7 +9336,7 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="446" t="s">
+      <c r="B448" s="544" t="s">
         <v>460</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9309,7 +9348,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="446"/>
+      <c r="B449" s="544"/>
       <c r="C449" s="302" t="s">
         <v>462</v>
       </c>
@@ -9319,7 +9358,7 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="443" t="s">
+      <c r="B451" s="549" t="s">
         <v>463</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9331,7 +9370,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="443"/>
+      <c r="B452" s="549"/>
       <c r="C452" s="304" t="s">
         <v>465</v>
       </c>
@@ -9341,7 +9380,7 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="444" t="s">
+      <c r="B454" s="550" t="s">
         <v>466</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9353,7 +9392,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="444"/>
+      <c r="B455" s="550"/>
       <c r="C455" s="306" t="s">
         <v>468</v>
       </c>
@@ -9363,7 +9402,7 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="441" t="s">
+      <c r="B457" s="547" t="s">
         <v>469</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9375,7 +9414,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="441"/>
+      <c r="B458" s="547"/>
       <c r="C458" s="308" t="s">
         <v>471</v>
       </c>
@@ -9385,7 +9424,7 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="442" t="s">
+      <c r="B460" s="548" t="s">
         <v>472</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9397,7 +9436,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="442"/>
+      <c r="B461" s="548"/>
       <c r="C461" s="310" t="s">
         <v>474</v>
       </c>
@@ -9407,7 +9446,7 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="439" t="s">
+      <c r="B463" s="553" t="s">
         <v>475</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9419,7 +9458,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="439"/>
+      <c r="B464" s="553"/>
       <c r="C464" s="312" t="s">
         <v>477</v>
       </c>
@@ -9429,7 +9468,7 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="440" t="s">
+      <c r="B466" s="554" t="s">
         <v>478</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9441,7 +9480,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="440"/>
+      <c r="B467" s="554"/>
       <c r="C467" s="314" t="s">
         <v>480</v>
       </c>
@@ -9451,7 +9490,7 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="437" t="s">
+      <c r="B469" s="551" t="s">
         <v>481</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9463,7 +9502,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="437"/>
+      <c r="B470" s="551"/>
       <c r="C470" s="316" t="s">
         <v>483</v>
       </c>
@@ -9473,7 +9512,7 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="438" t="s">
+      <c r="B472" s="552" t="s">
         <v>484</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9485,7 +9524,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="438"/>
+      <c r="B473" s="552"/>
       <c r="C473" s="318" t="s">
         <v>486</v>
       </c>
@@ -9495,7 +9534,7 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="435" t="s">
+      <c r="B475" s="557" t="s">
         <v>487</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9507,7 +9546,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="435"/>
+      <c r="B476" s="557"/>
       <c r="C476" s="320" t="s">
         <v>489</v>
       </c>
@@ -9517,7 +9556,7 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="436" t="s">
+      <c r="B478" s="558" t="s">
         <v>490</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9529,7 +9568,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="436"/>
+      <c r="B479" s="558"/>
       <c r="C479" s="322" t="s">
         <v>492</v>
       </c>
@@ -9539,7 +9578,7 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="433" t="s">
+      <c r="B481" s="555" t="s">
         <v>493</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9551,7 +9590,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="433"/>
+      <c r="B482" s="555"/>
       <c r="C482" s="324" t="s">
         <v>495</v>
       </c>
@@ -9561,7 +9600,7 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="434" t="s">
+      <c r="B484" s="556" t="s">
         <v>496</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9573,7 +9612,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="434"/>
+      <c r="B485" s="556"/>
       <c r="C485" s="326" t="s">
         <v>498</v>
       </c>
@@ -9583,7 +9622,7 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="431" t="s">
+      <c r="B487" s="561" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9595,7 +9634,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="431"/>
+      <c r="B488" s="561"/>
       <c r="C488" s="328" t="s">
         <v>501</v>
       </c>
@@ -9605,7 +9644,7 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="432" t="s">
+      <c r="B490" s="562" t="s">
         <v>502</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9617,7 +9656,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="432"/>
+      <c r="B491" s="562"/>
       <c r="C491" s="330" t="s">
         <v>504</v>
       </c>
@@ -9627,7 +9666,7 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="429" t="s">
+      <c r="B493" s="559" t="s">
         <v>505</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9639,7 +9678,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="429"/>
+      <c r="B494" s="559"/>
       <c r="C494" s="332" t="s">
         <v>507</v>
       </c>
@@ -9649,7 +9688,7 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="430" t="s">
+      <c r="B496" s="560" t="s">
         <v>508</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9661,7 +9700,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="430"/>
+      <c r="B497" s="560"/>
       <c r="C497" s="334" t="s">
         <v>510</v>
       </c>
@@ -9671,7 +9710,7 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="427" t="s">
+      <c r="B499" s="565" t="s">
         <v>511</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9683,7 +9722,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="427"/>
+      <c r="B500" s="565"/>
       <c r="C500" s="336" t="s">
         <v>513</v>
       </c>
@@ -9693,7 +9732,7 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="428" t="s">
+      <c r="B502" s="566" t="s">
         <v>514</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9705,7 +9744,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="428"/>
+      <c r="B503" s="566"/>
       <c r="C503" s="338" t="s">
         <v>516</v>
       </c>
@@ -9715,7 +9754,7 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="425" t="s">
+      <c r="B505" s="563" t="s">
         <v>517</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -9727,7 +9766,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="425"/>
+      <c r="B506" s="563"/>
       <c r="C506" s="340" t="s">
         <v>519</v>
       </c>
@@ -9737,7 +9776,7 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="426" t="s">
+      <c r="B508" s="564" t="s">
         <v>520</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -9749,7 +9788,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="426"/>
+      <c r="B509" s="564"/>
       <c r="C509" s="342" t="s">
         <v>522</v>
       </c>
@@ -9759,7 +9798,7 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="423" t="s">
+      <c r="B511" s="569" t="s">
         <v>523</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -9771,7 +9810,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="423"/>
+      <c r="B512" s="569"/>
       <c r="C512" s="344" t="s">
         <v>525</v>
       </c>
@@ -9781,7 +9820,7 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="424" t="s">
+      <c r="B514" s="570" t="s">
         <v>526</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -9793,7 +9832,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="424"/>
+      <c r="B515" s="570"/>
       <c r="C515" s="346" t="s">
         <v>528</v>
       </c>
@@ -9803,7 +9842,7 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="421" t="s">
+      <c r="B517" s="567" t="s">
         <v>529</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -9815,7 +9854,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="421"/>
+      <c r="B518" s="567"/>
       <c r="C518" s="348" t="s">
         <v>531</v>
       </c>
@@ -9825,7 +9864,7 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="422" t="s">
+      <c r="B520" s="568" t="s">
         <v>532</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -9837,7 +9876,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="422"/>
+      <c r="B521" s="568"/>
       <c r="C521" s="350" t="s">
         <v>534</v>
       </c>
@@ -9847,7 +9886,7 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="419" t="s">
+      <c r="B523" s="573" t="s">
         <v>535</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -9859,7 +9898,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="419"/>
+      <c r="B524" s="573"/>
       <c r="C524" s="352" t="s">
         <v>537</v>
       </c>
@@ -9869,7 +9908,7 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="420" t="s">
+      <c r="B526" s="574" t="s">
         <v>538</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -9881,7 +9920,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="420"/>
+      <c r="B527" s="574"/>
       <c r="C527" s="354" t="s">
         <v>540</v>
       </c>
@@ -9891,7 +9930,7 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="417" t="s">
+      <c r="B529" s="571" t="s">
         <v>541</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -9903,7 +9942,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="417"/>
+      <c r="B530" s="571"/>
       <c r="C530" s="356" t="s">
         <v>543</v>
       </c>
@@ -9913,7 +9952,7 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="418" t="s">
+      <c r="B532" s="572" t="s">
         <v>544</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -9925,7 +9964,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="418"/>
+      <c r="B533" s="572"/>
       <c r="C533" s="358" t="s">
         <v>546</v>
       </c>
@@ -9935,7 +9974,7 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="415" t="s">
+      <c r="B535" s="577" t="s">
         <v>547</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -9947,7 +9986,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="415"/>
+      <c r="B536" s="577"/>
       <c r="C536" s="360" t="s">
         <v>549</v>
       </c>
@@ -9957,7 +9996,7 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="416" t="s">
+      <c r="B538" s="578" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -9969,7 +10008,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="416"/>
+      <c r="B539" s="578"/>
       <c r="C539" s="362" t="s">
         <v>552</v>
       </c>
@@ -9979,7 +10018,7 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="413" t="s">
+      <c r="B541" s="575" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -9991,7 +10030,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="413"/>
+      <c r="B542" s="575"/>
       <c r="C542" s="364" t="s">
         <v>555</v>
       </c>
@@ -10001,7 +10040,7 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="414" t="s">
+      <c r="B544" s="576" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -10013,7 +10052,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="414"/>
+      <c r="B545" s="576"/>
       <c r="C545" s="366" t="s">
         <v>558</v>
       </c>
@@ -10023,7 +10062,7 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="411" t="s">
+      <c r="B547" s="581" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -10035,7 +10074,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="411"/>
+      <c r="B548" s="581"/>
       <c r="C548" s="368" t="s">
         <v>561</v>
       </c>
@@ -10045,7 +10084,7 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="412" t="s">
+      <c r="B550" s="582" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -10057,7 +10096,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="412"/>
+      <c r="B551" s="582"/>
       <c r="C551" s="370" t="s">
         <v>564</v>
       </c>
@@ -10067,7 +10106,7 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="409" t="s">
+      <c r="B553" s="579" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -10079,7 +10118,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="409"/>
+      <c r="B554" s="579"/>
       <c r="C554" s="372" t="s">
         <v>567</v>
       </c>
@@ -10089,7 +10128,7 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="410" t="s">
+      <c r="B556" s="580" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -10101,7 +10140,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="410"/>
+      <c r="B557" s="580"/>
       <c r="C557" s="374" t="s">
         <v>570</v>
       </c>
@@ -10111,7 +10150,7 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="407" t="s">
+      <c r="B559" s="585" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -10123,7 +10162,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="407"/>
+      <c r="B560" s="585"/>
       <c r="C560" s="376" t="s">
         <v>573</v>
       </c>
@@ -10133,7 +10172,7 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="408" t="s">
+      <c r="B562" s="586" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -10145,7 +10184,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="408"/>
+      <c r="B563" s="586"/>
       <c r="C563" s="378" t="s">
         <v>576</v>
       </c>
@@ -10155,7 +10194,7 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="405" t="s">
+      <c r="B565" s="583" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -10167,7 +10206,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="405"/>
+      <c r="B566" s="583"/>
       <c r="C566" s="380" t="s">
         <v>579</v>
       </c>
@@ -10177,7 +10216,7 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="406" t="s">
+      <c r="B568" s="584" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -10189,7 +10228,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="406"/>
+      <c r="B569" s="584"/>
       <c r="C569" s="382" t="s">
         <v>582</v>
       </c>
@@ -10199,7 +10238,7 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="403" t="s">
+      <c r="B571" s="592" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10211,7 +10250,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="403"/>
+      <c r="B572" s="592"/>
       <c r="C572" s="384" t="s">
         <v>585</v>
       </c>
@@ -10221,7 +10260,7 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="404" t="s">
+      <c r="B574" s="593" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10233,7 +10272,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="404"/>
+      <c r="B575" s="593"/>
       <c r="C575" s="386" t="s">
         <v>588</v>
       </c>
@@ -10243,7 +10282,7 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="397" t="s">
+      <c r="B577" s="587" t="s">
         <v>589</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10255,7 +10294,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="397"/>
+      <c r="B578" s="587"/>
       <c r="C578" s="388" t="s">
         <v>591</v>
       </c>
@@ -10268,33 +10307,567 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="399"/>
-      <c r="B581" s="401"/>
+      <c r="A581" s="588"/>
+      <c r="B581" s="590"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="400"/>
-      <c r="B582" s="402"/>
+      <c r="A582" s="589"/>
+      <c r="B582" s="591"/>
     </row>
   </sheetData>
   <mergeCells count="582">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="A580:D580"/>
+    <mergeCell ref="A581:A582"/>
+    <mergeCell ref="B581:B582"/>
+    <mergeCell ref="A571:A572"/>
+    <mergeCell ref="B571:B572"/>
+    <mergeCell ref="D571:D572"/>
+    <mergeCell ref="A574:A575"/>
+    <mergeCell ref="B574:B575"/>
+    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
@@ -10307,558 +10880,24 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="A580:D580"/>
-    <mergeCell ref="A581:A582"/>
-    <mergeCell ref="B581:B582"/>
-    <mergeCell ref="A571:A572"/>
-    <mergeCell ref="B571:B572"/>
-    <mergeCell ref="D571:D572"/>
-    <mergeCell ref="A574:A575"/>
-    <mergeCell ref="B574:B575"/>
-    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B79AFDA5-8EAD-446F-B74F-3D570E877CD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{372DF925-736A-410F-8A74-C3CB1B11526C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="635">
   <si>
     <t>#</t>
   </si>
@@ -1920,6 +1920,15 @@
   </si>
   <si>
     <t>OmniWheel Axis Bearings</t>
+  </si>
+  <si>
+    <t>Motor Driver</t>
+  </si>
+  <si>
+    <t>https://www.tomtop.com/de/p-e1880.html</t>
+  </si>
+  <si>
+    <t>Motor controller QS-909</t>
   </si>
 </sst>
 </file>
@@ -4330,577 +4339,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4919,6 +4361,573 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5439,10 +5448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M15"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5852,14 +5861,14 @@
         <v>1</v>
       </c>
       <c r="I14" s="394">
-        <f t="shared" ref="I14" si="2">INT((B14-1-L14)/H14+1)</f>
+        <f t="shared" ref="I14:I15" si="2">INT((B14-1-L14)/H14+1)</f>
         <v>3</v>
       </c>
       <c r="J14" s="395">
         <v>1</v>
       </c>
       <c r="K14" s="392">
-        <f t="shared" ref="K14" si="3">I14*J14</f>
+        <f t="shared" ref="K14:K15" si="3">I14*J14</f>
         <v>3</v>
       </c>
       <c r="L14" s="394">
@@ -5867,7 +5876,38 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K15" s="393">
+      <c r="B15" s="394">
+        <v>3</v>
+      </c>
+      <c r="C15" s="394" t="s">
+        <v>634</v>
+      </c>
+      <c r="D15" s="394" t="s">
+        <v>632</v>
+      </c>
+      <c r="G15" s="391" t="s">
+        <v>633</v>
+      </c>
+      <c r="H15" s="394">
+        <v>1</v>
+      </c>
+      <c r="I15" s="394">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="395">
+        <v>11</v>
+      </c>
+      <c r="K15" s="392">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="L15" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K16" s="393">
         <f>SUM(K3:K11)</f>
         <v>119.94999999999999</v>
       </c>
@@ -6058,7 +6098,7 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="591" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -6070,7 +6110,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="397"/>
+      <c r="B2" s="591"/>
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
@@ -6080,7 +6120,7 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="399" t="s">
+      <c r="B4" s="592" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6092,7 +6132,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="399"/>
+      <c r="B5" s="592"/>
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
@@ -6102,7 +6142,7 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="589" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6114,7 +6154,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="402"/>
+      <c r="B8" s="589"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
@@ -6124,7 +6164,7 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="590" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -6136,7 +6176,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="403"/>
+      <c r="B11" s="590"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
@@ -6146,7 +6186,7 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="400" t="s">
+      <c r="B13" s="593" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6158,7 +6198,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="400"/>
+      <c r="B14" s="593"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
@@ -6168,7 +6208,7 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="401" t="s">
+      <c r="B16" s="588" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -6180,7 +6220,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="401"/>
+      <c r="B17" s="588"/>
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
@@ -6190,7 +6230,7 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="406" t="s">
+      <c r="B19" s="586" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -6202,7 +6242,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="406"/>
+      <c r="B20" s="586"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
@@ -6212,7 +6252,7 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="407" t="s">
+      <c r="B22" s="587" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6224,7 +6264,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="407"/>
+      <c r="B23" s="587"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
@@ -6234,7 +6274,7 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="404" t="s">
+      <c r="B25" s="584" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6246,7 +6286,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="404"/>
+      <c r="B26" s="584"/>
       <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
@@ -6256,7 +6296,7 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="405" t="s">
+      <c r="B28" s="585" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6268,7 +6308,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="405"/>
+      <c r="B29" s="585"/>
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
@@ -6278,7 +6318,7 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="410" t="s">
+      <c r="B31" s="582" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6290,7 +6330,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="410"/>
+      <c r="B32" s="582"/>
       <c r="C32" s="26" t="s">
         <v>48</v>
       </c>
@@ -6300,7 +6340,7 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="411" t="s">
+      <c r="B34" s="583" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6312,7 +6352,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="411"/>
+      <c r="B35" s="583"/>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
@@ -6322,7 +6362,7 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="408" t="s">
+      <c r="B37" s="580" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6334,7 +6374,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="408"/>
+      <c r="B38" s="580"/>
       <c r="C38" s="30" t="s">
         <v>54</v>
       </c>
@@ -6344,7 +6384,7 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="409" t="s">
+      <c r="B40" s="581" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6356,7 +6396,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="409"/>
+      <c r="B41" s="581"/>
       <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
@@ -6366,7 +6406,7 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="414" t="s">
+      <c r="B43" s="578" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6378,7 +6418,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="414"/>
+      <c r="B44" s="578"/>
       <c r="C44" s="34" t="s">
         <v>60</v>
       </c>
@@ -6388,7 +6428,7 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="415" t="s">
+      <c r="B46" s="579" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6400,7 +6440,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="415"/>
+      <c r="B47" s="579"/>
       <c r="C47" s="36" t="s">
         <v>63</v>
       </c>
@@ -6410,7 +6450,7 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="412" t="s">
+      <c r="B49" s="576" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6422,7 +6462,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="412"/>
+      <c r="B50" s="576"/>
       <c r="C50" s="38" t="s">
         <v>66</v>
       </c>
@@ -6432,7 +6472,7 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="413" t="s">
+      <c r="B52" s="577" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6444,7 +6484,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="413"/>
+      <c r="B53" s="577"/>
       <c r="C53" s="40" t="s">
         <v>69</v>
       </c>
@@ -6454,7 +6494,7 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="418" t="s">
+      <c r="B55" s="575" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6466,7 +6506,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="418"/>
+      <c r="B56" s="575"/>
       <c r="C56" s="42" t="s">
         <v>72</v>
       </c>
@@ -6476,7 +6516,7 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="418" t="s">
+      <c r="B58" s="575" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6488,7 +6528,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="418"/>
+      <c r="B59" s="575"/>
       <c r="C59" s="42" t="s">
         <v>72</v>
       </c>
@@ -6498,7 +6538,7 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="416" t="s">
+      <c r="B61" s="573" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6510,7 +6550,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="416"/>
+      <c r="B62" s="573"/>
       <c r="C62" s="44" t="s">
         <v>76</v>
       </c>
@@ -6520,7 +6560,7 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="417" t="s">
+      <c r="B64" s="574" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6532,7 +6572,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="417"/>
+      <c r="B65" s="574"/>
       <c r="C65" s="46" t="s">
         <v>79</v>
       </c>
@@ -6542,7 +6582,7 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="421" t="s">
+      <c r="B67" s="571" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6554,7 +6594,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="421"/>
+      <c r="B68" s="571"/>
       <c r="C68" s="48" t="s">
         <v>82</v>
       </c>
@@ -6564,7 +6604,7 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="422" t="s">
+      <c r="B70" s="572" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6576,7 +6616,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="422"/>
+      <c r="B71" s="572"/>
       <c r="C71" s="50" t="s">
         <v>85</v>
       </c>
@@ -6586,7 +6626,7 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="419" t="s">
+      <c r="B73" s="569" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6598,7 +6638,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="419"/>
+      <c r="B74" s="569"/>
       <c r="C74" s="52" t="s">
         <v>88</v>
       </c>
@@ -6608,7 +6648,7 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="420" t="s">
+      <c r="B76" s="570" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6620,7 +6660,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="420"/>
+      <c r="B77" s="570"/>
       <c r="C77" s="54" t="s">
         <v>91</v>
       </c>
@@ -6630,7 +6670,7 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="425" t="s">
+      <c r="B79" s="567" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6642,7 +6682,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="425"/>
+      <c r="B80" s="567"/>
       <c r="C80" s="56" t="s">
         <v>94</v>
       </c>
@@ -6652,7 +6692,7 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="426" t="s">
+      <c r="B82" s="568" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6664,7 +6704,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="426"/>
+      <c r="B83" s="568"/>
       <c r="C83" s="58" t="s">
         <v>97</v>
       </c>
@@ -6674,7 +6714,7 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="423" t="s">
+      <c r="B85" s="565" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6686,7 +6726,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="423"/>
+      <c r="B86" s="565"/>
       <c r="C86" s="60" t="s">
         <v>100</v>
       </c>
@@ -6696,7 +6736,7 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="424" t="s">
+      <c r="B88" s="566" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6708,7 +6748,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="424"/>
+      <c r="B89" s="566"/>
       <c r="C89" s="62" t="s">
         <v>103</v>
       </c>
@@ -6718,7 +6758,7 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="429" t="s">
+      <c r="B91" s="563" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6730,7 +6770,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="429"/>
+      <c r="B92" s="563"/>
       <c r="C92" s="64" t="s">
         <v>106</v>
       </c>
@@ -6740,7 +6780,7 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="430" t="s">
+      <c r="B94" s="564" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6752,7 +6792,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="430"/>
+      <c r="B95" s="564"/>
       <c r="C95" s="66" t="s">
         <v>109</v>
       </c>
@@ -6762,7 +6802,7 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="427" t="s">
+      <c r="B97" s="561" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -6774,7 +6814,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="427"/>
+      <c r="B98" s="561"/>
       <c r="C98" s="68" t="s">
         <v>112</v>
       </c>
@@ -6784,7 +6824,7 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="428" t="s">
+      <c r="B100" s="562" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -6796,7 +6836,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="428"/>
+      <c r="B101" s="562"/>
       <c r="C101" s="70" t="s">
         <v>115</v>
       </c>
@@ -6806,7 +6846,7 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="433" t="s">
+      <c r="B103" s="559" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -6818,7 +6858,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="433"/>
+      <c r="B104" s="559"/>
       <c r="C104" s="72" t="s">
         <v>118</v>
       </c>
@@ -6828,7 +6868,7 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="434" t="s">
+      <c r="B106" s="560" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -6840,7 +6880,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="434"/>
+      <c r="B107" s="560"/>
       <c r="C107" s="74" t="s">
         <v>121</v>
       </c>
@@ -6850,7 +6890,7 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="431" t="s">
+      <c r="B109" s="557" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -6862,7 +6902,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="431"/>
+      <c r="B110" s="557"/>
       <c r="C110" s="76" t="s">
         <v>124</v>
       </c>
@@ -6872,7 +6912,7 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="432" t="s">
+      <c r="B112" s="558" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -6884,7 +6924,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="432"/>
+      <c r="B113" s="558"/>
       <c r="C113" s="78" t="s">
         <v>127</v>
       </c>
@@ -6894,7 +6934,7 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="437" t="s">
+      <c r="B115" s="555" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -6906,7 +6946,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="437"/>
+      <c r="B116" s="555"/>
       <c r="C116" s="80" t="s">
         <v>130</v>
       </c>
@@ -6916,7 +6956,7 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="438" t="s">
+      <c r="B118" s="556" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -6928,7 +6968,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="438"/>
+      <c r="B119" s="556"/>
       <c r="C119" s="82" t="s">
         <v>133</v>
       </c>
@@ -6938,7 +6978,7 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="435" t="s">
+      <c r="B121" s="553" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -6950,7 +6990,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="435"/>
+      <c r="B122" s="553"/>
       <c r="C122" s="84" t="s">
         <v>136</v>
       </c>
@@ -6960,7 +7000,7 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="436" t="s">
+      <c r="B124" s="554" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -6972,7 +7012,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="436"/>
+      <c r="B125" s="554"/>
       <c r="C125" s="86" t="s">
         <v>139</v>
       </c>
@@ -6982,7 +7022,7 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="441" t="s">
+      <c r="B127" s="551" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -6994,7 +7034,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="441"/>
+      <c r="B128" s="551"/>
       <c r="C128" s="88" t="s">
         <v>142</v>
       </c>
@@ -7004,7 +7044,7 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="442" t="s">
+      <c r="B130" s="552" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -7016,7 +7056,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="442"/>
+      <c r="B131" s="552"/>
       <c r="C131" s="90" t="s">
         <v>145</v>
       </c>
@@ -7026,7 +7066,7 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="439" t="s">
+      <c r="B133" s="549" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -7038,7 +7078,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="439"/>
+      <c r="B134" s="549"/>
       <c r="C134" s="92" t="s">
         <v>148</v>
       </c>
@@ -7048,7 +7088,7 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="440" t="s">
+      <c r="B136" s="550" t="s">
         <v>149</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -7060,7 +7100,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="440"/>
+      <c r="B137" s="550"/>
       <c r="C137" s="94" t="s">
         <v>151</v>
       </c>
@@ -7070,7 +7110,7 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="445" t="s">
+      <c r="B139" s="547" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -7082,7 +7122,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="445"/>
+      <c r="B140" s="547"/>
       <c r="C140" s="96" t="s">
         <v>154</v>
       </c>
@@ -7092,7 +7132,7 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="446" t="s">
+      <c r="B142" s="548" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -7104,7 +7144,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="446"/>
+      <c r="B143" s="548"/>
       <c r="C143" s="98" t="s">
         <v>157</v>
       </c>
@@ -7114,7 +7154,7 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="443" t="s">
+      <c r="B145" s="545" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -7126,7 +7166,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="443"/>
+      <c r="B146" s="545"/>
       <c r="C146" s="100" t="s">
         <v>160</v>
       </c>
@@ -7136,7 +7176,7 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="444" t="s">
+      <c r="B148" s="546" t="s">
         <v>161</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -7148,7 +7188,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="444"/>
+      <c r="B149" s="546"/>
       <c r="C149" s="102" t="s">
         <v>163</v>
       </c>
@@ -7158,7 +7198,7 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="449" t="s">
+      <c r="B151" s="543" t="s">
         <v>164</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -7170,7 +7210,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="449"/>
+      <c r="B152" s="543"/>
       <c r="C152" s="104" t="s">
         <v>166</v>
       </c>
@@ -7180,7 +7220,7 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="450" t="s">
+      <c r="B154" s="544" t="s">
         <v>167</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -7192,7 +7232,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="450"/>
+      <c r="B155" s="544"/>
       <c r="C155" s="106" t="s">
         <v>169</v>
       </c>
@@ -7202,7 +7242,7 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="447" t="s">
+      <c r="B157" s="541" t="s">
         <v>170</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -7214,7 +7254,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="447"/>
+      <c r="B158" s="541"/>
       <c r="C158" s="108" t="s">
         <v>172</v>
       </c>
@@ -7224,7 +7264,7 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="448" t="s">
+      <c r="B160" s="542" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -7236,7 +7276,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="448"/>
+      <c r="B161" s="542"/>
       <c r="C161" s="110" t="s">
         <v>175</v>
       </c>
@@ -7246,7 +7286,7 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="453" t="s">
+      <c r="B163" s="539" t="s">
         <v>176</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7258,7 +7298,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="453"/>
+      <c r="B164" s="539"/>
       <c r="C164" s="112" t="s">
         <v>178</v>
       </c>
@@ -7268,7 +7308,7 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="454" t="s">
+      <c r="B166" s="540" t="s">
         <v>179</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7280,7 +7320,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="454"/>
+      <c r="B167" s="540"/>
       <c r="C167" s="114" t="s">
         <v>181</v>
       </c>
@@ -7290,7 +7330,7 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="451" t="s">
+      <c r="B169" s="537" t="s">
         <v>182</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7302,7 +7342,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="451"/>
+      <c r="B170" s="537"/>
       <c r="C170" s="116" t="s">
         <v>184</v>
       </c>
@@ -7312,7 +7352,7 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="452" t="s">
+      <c r="B172" s="538" t="s">
         <v>185</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7324,7 +7364,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="452"/>
+      <c r="B173" s="538"/>
       <c r="C173" s="118" t="s">
         <v>187</v>
       </c>
@@ -7334,7 +7374,7 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="457" t="s">
+      <c r="B175" s="535" t="s">
         <v>188</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7346,7 +7386,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="457"/>
+      <c r="B176" s="535"/>
       <c r="C176" s="120" t="s">
         <v>190</v>
       </c>
@@ -7356,7 +7396,7 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="458" t="s">
+      <c r="B178" s="536" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7368,7 +7408,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="458"/>
+      <c r="B179" s="536"/>
       <c r="C179" s="122" t="s">
         <v>193</v>
       </c>
@@ -7378,7 +7418,7 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="455" t="s">
+      <c r="B181" s="533" t="s">
         <v>194</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7390,7 +7430,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="455"/>
+      <c r="B182" s="533"/>
       <c r="C182" s="124" t="s">
         <v>196</v>
       </c>
@@ -7400,7 +7440,7 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="456" t="s">
+      <c r="B184" s="534" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7412,7 +7452,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="456"/>
+      <c r="B185" s="534"/>
       <c r="C185" s="126" t="s">
         <v>199</v>
       </c>
@@ -7422,7 +7462,7 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="461" t="s">
+      <c r="B187" s="531" t="s">
         <v>200</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7434,7 +7474,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="461"/>
+      <c r="B188" s="531"/>
       <c r="C188" s="128" t="s">
         <v>202</v>
       </c>
@@ -7444,7 +7484,7 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="462" t="s">
+      <c r="B190" s="532" t="s">
         <v>203</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7456,7 +7496,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="462"/>
+      <c r="B191" s="532"/>
       <c r="C191" s="130" t="s">
         <v>205</v>
       </c>
@@ -7466,7 +7506,7 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="459" t="s">
+      <c r="B193" s="529" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7478,7 +7518,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="459"/>
+      <c r="B194" s="529"/>
       <c r="C194" s="132" t="s">
         <v>208</v>
       </c>
@@ -7488,7 +7528,7 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="460" t="s">
+      <c r="B196" s="530" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7500,7 +7540,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="460"/>
+      <c r="B197" s="530"/>
       <c r="C197" s="134" t="s">
         <v>211</v>
       </c>
@@ -7510,7 +7550,7 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="465" t="s">
+      <c r="B199" s="527" t="s">
         <v>212</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7522,7 +7562,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="465"/>
+      <c r="B200" s="527"/>
       <c r="C200" s="136" t="s">
         <v>214</v>
       </c>
@@ -7532,7 +7572,7 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="466" t="s">
+      <c r="B202" s="528" t="s">
         <v>215</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7544,7 +7584,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="466"/>
+      <c r="B203" s="528"/>
       <c r="C203" s="138" t="s">
         <v>217</v>
       </c>
@@ -7554,7 +7594,7 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="463" t="s">
+      <c r="B205" s="525" t="s">
         <v>218</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7566,7 +7606,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="463"/>
+      <c r="B206" s="525"/>
       <c r="C206" s="140" t="s">
         <v>220</v>
       </c>
@@ -7576,7 +7616,7 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="464" t="s">
+      <c r="B208" s="526" t="s">
         <v>221</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7588,7 +7628,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="464"/>
+      <c r="B209" s="526"/>
       <c r="C209" s="142" t="s">
         <v>223</v>
       </c>
@@ -7598,7 +7638,7 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="469" t="s">
+      <c r="B211" s="523" t="s">
         <v>224</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7610,7 +7650,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="469"/>
+      <c r="B212" s="523"/>
       <c r="C212" s="144" t="s">
         <v>226</v>
       </c>
@@ -7620,7 +7660,7 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="470" t="s">
+      <c r="B214" s="524" t="s">
         <v>227</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7632,7 +7672,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="470"/>
+      <c r="B215" s="524"/>
       <c r="C215" s="146" t="s">
         <v>229</v>
       </c>
@@ -7642,7 +7682,7 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="467" t="s">
+      <c r="B217" s="521" t="s">
         <v>230</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7654,7 +7694,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="467"/>
+      <c r="B218" s="521"/>
       <c r="C218" s="148" t="s">
         <v>232</v>
       </c>
@@ -7664,7 +7704,7 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="468" t="s">
+      <c r="B220" s="522" t="s">
         <v>233</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7676,7 +7716,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="468"/>
+      <c r="B221" s="522"/>
       <c r="C221" s="150" t="s">
         <v>235</v>
       </c>
@@ -7686,7 +7726,7 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="473" t="s">
+      <c r="B223" s="519" t="s">
         <v>236</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7698,7 +7738,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="473"/>
+      <c r="B224" s="519"/>
       <c r="C224" s="152" t="s">
         <v>238</v>
       </c>
@@ -7708,7 +7748,7 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="474" t="s">
+      <c r="B226" s="520" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7720,7 +7760,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="474"/>
+      <c r="B227" s="520"/>
       <c r="C227" s="154" t="s">
         <v>241</v>
       </c>
@@ -7730,7 +7770,7 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="471" t="s">
+      <c r="B229" s="517" t="s">
         <v>242</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7742,7 +7782,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="471"/>
+      <c r="B230" s="517"/>
       <c r="C230" s="156" t="s">
         <v>244</v>
       </c>
@@ -7752,7 +7792,7 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="472" t="s">
+      <c r="B232" s="518" t="s">
         <v>245</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7764,7 +7804,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="472"/>
+      <c r="B233" s="518"/>
       <c r="C233" s="158" t="s">
         <v>247</v>
       </c>
@@ -7774,7 +7814,7 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="477" t="s">
+      <c r="B235" s="515" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -7786,7 +7826,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="477"/>
+      <c r="B236" s="515"/>
       <c r="C236" s="160" t="s">
         <v>250</v>
       </c>
@@ -7796,7 +7836,7 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="478" t="s">
+      <c r="B238" s="516" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -7808,7 +7848,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="478"/>
+      <c r="B239" s="516"/>
       <c r="C239" s="162" t="s">
         <v>253</v>
       </c>
@@ -7818,7 +7858,7 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="475" t="s">
+      <c r="B241" s="513" t="s">
         <v>254</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -7830,7 +7870,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="475"/>
+      <c r="B242" s="513"/>
       <c r="C242" s="164" t="s">
         <v>256</v>
       </c>
@@ -7840,7 +7880,7 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="476" t="s">
+      <c r="B244" s="514" t="s">
         <v>257</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -7852,7 +7892,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="476"/>
+      <c r="B245" s="514"/>
       <c r="C245" s="166" t="s">
         <v>259</v>
       </c>
@@ -7862,7 +7902,7 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="481" t="s">
+      <c r="B247" s="511" t="s">
         <v>260</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -7874,7 +7914,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="481"/>
+      <c r="B248" s="511"/>
       <c r="C248" s="168" t="s">
         <v>262</v>
       </c>
@@ -7884,7 +7924,7 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="482" t="s">
+      <c r="B250" s="512" t="s">
         <v>263</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -7896,7 +7936,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="482"/>
+      <c r="B251" s="512"/>
       <c r="C251" s="170" t="s">
         <v>265</v>
       </c>
@@ -7906,7 +7946,7 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="479" t="s">
+      <c r="B253" s="509" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -7918,7 +7958,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="479"/>
+      <c r="B254" s="509"/>
       <c r="C254" s="172" t="s">
         <v>268</v>
       </c>
@@ -7928,7 +7968,7 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="480" t="s">
+      <c r="B256" s="510" t="s">
         <v>269</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -7940,7 +7980,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="480"/>
+      <c r="B257" s="510"/>
       <c r="C257" s="174" t="s">
         <v>271</v>
       </c>
@@ -7950,7 +7990,7 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="485" t="s">
+      <c r="B259" s="507" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -7962,7 +8002,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="485"/>
+      <c r="B260" s="507"/>
       <c r="C260" s="176" t="s">
         <v>274</v>
       </c>
@@ -7972,7 +8012,7 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="486" t="s">
+      <c r="B262" s="508" t="s">
         <v>275</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -7984,7 +8024,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="486"/>
+      <c r="B263" s="508"/>
       <c r="C263" s="178" t="s">
         <v>277</v>
       </c>
@@ -7994,7 +8034,7 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="483" t="s">
+      <c r="B265" s="505" t="s">
         <v>254</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -8006,7 +8046,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="483"/>
+      <c r="B266" s="505"/>
       <c r="C266" s="180" t="s">
         <v>279</v>
       </c>
@@ -8016,7 +8056,7 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="484" t="s">
+      <c r="B268" s="506" t="s">
         <v>280</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -8028,7 +8068,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="484"/>
+      <c r="B269" s="506"/>
       <c r="C269" s="182" t="s">
         <v>282</v>
       </c>
@@ -8038,7 +8078,7 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="489" t="s">
+      <c r="B271" s="503" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -8050,7 +8090,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="489"/>
+      <c r="B272" s="503"/>
       <c r="C272" s="184" t="s">
         <v>285</v>
       </c>
@@ -8060,7 +8100,7 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="490" t="s">
+      <c r="B274" s="504" t="s">
         <v>286</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -8072,7 +8112,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="490"/>
+      <c r="B275" s="504"/>
       <c r="C275" s="186" t="s">
         <v>288</v>
       </c>
@@ -8082,7 +8122,7 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="487" t="s">
+      <c r="B277" s="501" t="s">
         <v>289</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -8094,7 +8134,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="487"/>
+      <c r="B278" s="501"/>
       <c r="C278" s="188" t="s">
         <v>291</v>
       </c>
@@ -8104,7 +8144,7 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="488" t="s">
+      <c r="B280" s="502" t="s">
         <v>292</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -8116,7 +8156,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="488"/>
+      <c r="B281" s="502"/>
       <c r="C281" s="190" t="s">
         <v>294</v>
       </c>
@@ -8126,7 +8166,7 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="493" t="s">
+      <c r="B283" s="499" t="s">
         <v>295</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -8138,7 +8178,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="493"/>
+      <c r="B284" s="499"/>
       <c r="C284" s="192" t="s">
         <v>297</v>
       </c>
@@ -8148,7 +8188,7 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="494" t="s">
+      <c r="B286" s="500" t="s">
         <v>298</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -8160,7 +8200,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="494"/>
+      <c r="B287" s="500"/>
       <c r="C287" s="194" t="s">
         <v>300</v>
       </c>
@@ -8170,7 +8210,7 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="491" t="s">
+      <c r="B289" s="497" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -8182,7 +8222,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="491"/>
+      <c r="B290" s="497"/>
       <c r="C290" s="196" t="s">
         <v>303</v>
       </c>
@@ -8192,7 +8232,7 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="492" t="s">
+      <c r="B292" s="498" t="s">
         <v>304</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -8204,7 +8244,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="492"/>
+      <c r="B293" s="498"/>
       <c r="C293" s="198" t="s">
         <v>306</v>
       </c>
@@ -8214,7 +8254,7 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="497" t="s">
+      <c r="B295" s="495" t="s">
         <v>307</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -8226,7 +8266,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="497"/>
+      <c r="B296" s="495"/>
       <c r="C296" s="200" t="s">
         <v>309</v>
       </c>
@@ -8236,7 +8276,7 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="498" t="s">
+      <c r="B298" s="496" t="s">
         <v>310</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8248,7 +8288,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="498"/>
+      <c r="B299" s="496"/>
       <c r="C299" s="202" t="s">
         <v>312</v>
       </c>
@@ -8258,7 +8298,7 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="495" t="s">
+      <c r="B301" s="493" t="s">
         <v>313</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8270,7 +8310,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="495"/>
+      <c r="B302" s="493"/>
       <c r="C302" s="204" t="s">
         <v>315</v>
       </c>
@@ -8280,7 +8320,7 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="496" t="s">
+      <c r="B304" s="494" t="s">
         <v>316</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8292,7 +8332,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="496"/>
+      <c r="B305" s="494"/>
       <c r="C305" s="206" t="s">
         <v>318</v>
       </c>
@@ -8302,7 +8342,7 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="501" t="s">
+      <c r="B307" s="491" t="s">
         <v>319</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8314,7 +8354,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="501"/>
+      <c r="B308" s="491"/>
       <c r="C308" s="208" t="s">
         <v>321</v>
       </c>
@@ -8324,7 +8364,7 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="502" t="s">
+      <c r="B310" s="492" t="s">
         <v>322</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8336,7 +8376,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="502"/>
+      <c r="B311" s="492"/>
       <c r="C311" s="210" t="s">
         <v>324</v>
       </c>
@@ -8346,7 +8386,7 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="499" t="s">
+      <c r="B313" s="489" t="s">
         <v>325</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8358,7 +8398,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="499"/>
+      <c r="B314" s="489"/>
       <c r="C314" s="212" t="s">
         <v>327</v>
       </c>
@@ -8368,7 +8408,7 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="500" t="s">
+      <c r="B316" s="490" t="s">
         <v>328</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8380,7 +8420,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="500"/>
+      <c r="B317" s="490"/>
       <c r="C317" s="214" t="s">
         <v>330</v>
       </c>
@@ -8390,7 +8430,7 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="505" t="s">
+      <c r="B319" s="487" t="s">
         <v>331</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8402,7 +8442,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="505"/>
+      <c r="B320" s="487"/>
       <c r="C320" s="216" t="s">
         <v>333</v>
       </c>
@@ -8412,7 +8452,7 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="506" t="s">
+      <c r="B322" s="488" t="s">
         <v>334</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8424,7 +8464,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="506"/>
+      <c r="B323" s="488"/>
       <c r="C323" s="218" t="s">
         <v>336</v>
       </c>
@@ -8434,7 +8474,7 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="503" t="s">
+      <c r="B325" s="485" t="s">
         <v>337</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8446,7 +8486,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="503"/>
+      <c r="B326" s="485"/>
       <c r="C326" s="220" t="s">
         <v>339</v>
       </c>
@@ -8456,7 +8496,7 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="504" t="s">
+      <c r="B328" s="486" t="s">
         <v>340</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8468,7 +8508,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="504"/>
+      <c r="B329" s="486"/>
       <c r="C329" s="222" t="s">
         <v>342</v>
       </c>
@@ -8478,7 +8518,7 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="509" t="s">
+      <c r="B331" s="483" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8490,7 +8530,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="509"/>
+      <c r="B332" s="483"/>
       <c r="C332" s="224" t="s">
         <v>345</v>
       </c>
@@ -8500,7 +8540,7 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="510" t="s">
+      <c r="B334" s="484" t="s">
         <v>346</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8512,7 +8552,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="510"/>
+      <c r="B335" s="484"/>
       <c r="C335" s="226" t="s">
         <v>348</v>
       </c>
@@ -8522,7 +8562,7 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="507" t="s">
+      <c r="B337" s="481" t="s">
         <v>349</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8534,7 +8574,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="507"/>
+      <c r="B338" s="481"/>
       <c r="C338" s="228" t="s">
         <v>351</v>
       </c>
@@ -8544,7 +8584,7 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="508" t="s">
+      <c r="B340" s="482" t="s">
         <v>352</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8556,7 +8596,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="508"/>
+      <c r="B341" s="482"/>
       <c r="C341" s="230" t="s">
         <v>354</v>
       </c>
@@ -8566,7 +8606,7 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="513" t="s">
+      <c r="B343" s="479" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8578,7 +8618,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="513"/>
+      <c r="B344" s="479"/>
       <c r="C344" s="232" t="s">
         <v>357</v>
       </c>
@@ -8588,7 +8628,7 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="514" t="s">
+      <c r="B346" s="480" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8600,7 +8640,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="514"/>
+      <c r="B347" s="480"/>
       <c r="C347" s="234" t="s">
         <v>360</v>
       </c>
@@ -8610,7 +8650,7 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="511" t="s">
+      <c r="B349" s="477" t="s">
         <v>361</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8622,7 +8662,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="511"/>
+      <c r="B350" s="477"/>
       <c r="C350" s="236" t="s">
         <v>363</v>
       </c>
@@ -8632,7 +8672,7 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="512" t="s">
+      <c r="B352" s="478" t="s">
         <v>364</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8644,7 +8684,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="512"/>
+      <c r="B353" s="478"/>
       <c r="C353" s="238" t="s">
         <v>366</v>
       </c>
@@ -8654,7 +8694,7 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="517" t="s">
+      <c r="B355" s="475" t="s">
         <v>367</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8666,7 +8706,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="517"/>
+      <c r="B356" s="475"/>
       <c r="C356" s="240" t="s">
         <v>369</v>
       </c>
@@ -8676,7 +8716,7 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="518" t="s">
+      <c r="B358" s="476" t="s">
         <v>370</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8688,7 +8728,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="518"/>
+      <c r="B359" s="476"/>
       <c r="C359" s="242" t="s">
         <v>372</v>
       </c>
@@ -8698,7 +8738,7 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="515" t="s">
+      <c r="B361" s="473" t="s">
         <v>373</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8710,7 +8750,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="515"/>
+      <c r="B362" s="473"/>
       <c r="C362" s="244" t="s">
         <v>375</v>
       </c>
@@ -8720,7 +8760,7 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="516" t="s">
+      <c r="B364" s="474" t="s">
         <v>376</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8732,7 +8772,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="516"/>
+      <c r="B365" s="474"/>
       <c r="C365" s="246" t="s">
         <v>378</v>
       </c>
@@ -8742,7 +8782,7 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="521" t="s">
+      <c r="B367" s="471" t="s">
         <v>379</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8754,7 +8794,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="521"/>
+      <c r="B368" s="471"/>
       <c r="C368" s="248" t="s">
         <v>381</v>
       </c>
@@ -8764,7 +8804,7 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="522" t="s">
+      <c r="B370" s="472" t="s">
         <v>382</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -8776,7 +8816,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="522"/>
+      <c r="B371" s="472"/>
       <c r="C371" s="250" t="s">
         <v>384</v>
       </c>
@@ -8786,7 +8826,7 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="519" t="s">
+      <c r="B373" s="469" t="s">
         <v>385</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -8798,7 +8838,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="519"/>
+      <c r="B374" s="469"/>
       <c r="C374" s="252" t="s">
         <v>387</v>
       </c>
@@ -8808,7 +8848,7 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="520" t="s">
+      <c r="B376" s="470" t="s">
         <v>388</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -8820,7 +8860,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="520"/>
+      <c r="B377" s="470"/>
       <c r="C377" s="254" t="s">
         <v>390</v>
       </c>
@@ -8830,7 +8870,7 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="525" t="s">
+      <c r="B379" s="467" t="s">
         <v>391</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -8842,7 +8882,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="525"/>
+      <c r="B380" s="467"/>
       <c r="C380" s="256" t="s">
         <v>393</v>
       </c>
@@ -8852,7 +8892,7 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="526" t="s">
+      <c r="B382" s="468" t="s">
         <v>394</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -8864,7 +8904,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="526"/>
+      <c r="B383" s="468"/>
       <c r="C383" s="258" t="s">
         <v>396</v>
       </c>
@@ -8874,7 +8914,7 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="523" t="s">
+      <c r="B385" s="465" t="s">
         <v>397</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -8886,7 +8926,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="523"/>
+      <c r="B386" s="465"/>
       <c r="C386" s="260" t="s">
         <v>399</v>
       </c>
@@ -8896,7 +8936,7 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="524" t="s">
+      <c r="B388" s="466" t="s">
         <v>400</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -8908,7 +8948,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="524"/>
+      <c r="B389" s="466"/>
       <c r="C389" s="262" t="s">
         <v>402</v>
       </c>
@@ -8918,7 +8958,7 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="529" t="s">
+      <c r="B391" s="463" t="s">
         <v>403</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -8930,7 +8970,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="529"/>
+      <c r="B392" s="463"/>
       <c r="C392" s="264" t="s">
         <v>405</v>
       </c>
@@ -8940,7 +8980,7 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="530" t="s">
+      <c r="B394" s="464" t="s">
         <v>406</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -8952,7 +8992,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="530"/>
+      <c r="B395" s="464"/>
       <c r="C395" s="266" t="s">
         <v>408</v>
       </c>
@@ -8962,7 +9002,7 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="527" t="s">
+      <c r="B397" s="461" t="s">
         <v>409</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -8974,7 +9014,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="527"/>
+      <c r="B398" s="461"/>
       <c r="C398" s="268" t="s">
         <v>411</v>
       </c>
@@ -8984,7 +9024,7 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="528" t="s">
+      <c r="B400" s="462" t="s">
         <v>412</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -8996,7 +9036,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="528"/>
+      <c r="B401" s="462"/>
       <c r="C401" s="270" t="s">
         <v>414</v>
       </c>
@@ -9006,7 +9046,7 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="533" t="s">
+      <c r="B403" s="459" t="s">
         <v>415</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -9018,7 +9058,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="533"/>
+      <c r="B404" s="459"/>
       <c r="C404" s="272" t="s">
         <v>417</v>
       </c>
@@ -9028,7 +9068,7 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="534" t="s">
+      <c r="B406" s="460" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -9040,7 +9080,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="534"/>
+      <c r="B407" s="460"/>
       <c r="C407" s="274" t="s">
         <v>420</v>
       </c>
@@ -9050,7 +9090,7 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="531" t="s">
+      <c r="B409" s="457" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -9062,7 +9102,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="531"/>
+      <c r="B410" s="457"/>
       <c r="C410" s="276" t="s">
         <v>423</v>
       </c>
@@ -9072,7 +9112,7 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="532" t="s">
+      <c r="B412" s="458" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -9084,7 +9124,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="532"/>
+      <c r="B413" s="458"/>
       <c r="C413" s="278" t="s">
         <v>426</v>
       </c>
@@ -9094,7 +9134,7 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="537" t="s">
+      <c r="B415" s="455" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -9106,7 +9146,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="537"/>
+      <c r="B416" s="455"/>
       <c r="C416" s="280" t="s">
         <v>429</v>
       </c>
@@ -9116,7 +9156,7 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="538" t="s">
+      <c r="B418" s="456" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -9128,7 +9168,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="538"/>
+      <c r="B419" s="456"/>
       <c r="C419" s="282" t="s">
         <v>432</v>
       </c>
@@ -9138,7 +9178,7 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="535" t="s">
+      <c r="B421" s="453" t="s">
         <v>433</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -9150,7 +9190,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="535"/>
+      <c r="B422" s="453"/>
       <c r="C422" s="284" t="s">
         <v>435</v>
       </c>
@@ -9160,7 +9200,7 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="536" t="s">
+      <c r="B424" s="454" t="s">
         <v>436</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -9172,7 +9212,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="536"/>
+      <c r="B425" s="454"/>
       <c r="C425" s="286" t="s">
         <v>438</v>
       </c>
@@ -9182,7 +9222,7 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="541" t="s">
+      <c r="B427" s="451" t="s">
         <v>439</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -9194,7 +9234,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="541"/>
+      <c r="B428" s="451"/>
       <c r="C428" s="288" t="s">
         <v>441</v>
       </c>
@@ -9204,7 +9244,7 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="542" t="s">
+      <c r="B430" s="452" t="s">
         <v>442</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -9216,7 +9256,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="542"/>
+      <c r="B431" s="452"/>
       <c r="C431" s="290" t="s">
         <v>444</v>
       </c>
@@ -9226,7 +9266,7 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="539" t="s">
+      <c r="B433" s="449" t="s">
         <v>445</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -9238,7 +9278,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="539"/>
+      <c r="B434" s="449"/>
       <c r="C434" s="292" t="s">
         <v>447</v>
       </c>
@@ -9248,7 +9288,7 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="540" t="s">
+      <c r="B436" s="450" t="s">
         <v>448</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9260,7 +9300,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="540"/>
+      <c r="B437" s="450"/>
       <c r="C437" s="294" t="s">
         <v>450</v>
       </c>
@@ -9270,7 +9310,7 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="545" t="s">
+      <c r="B439" s="447" t="s">
         <v>451</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9282,7 +9322,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="545"/>
+      <c r="B440" s="447"/>
       <c r="C440" s="296" t="s">
         <v>453</v>
       </c>
@@ -9292,7 +9332,7 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="546" t="s">
+      <c r="B442" s="448" t="s">
         <v>454</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9304,7 +9344,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="546"/>
+      <c r="B443" s="448"/>
       <c r="C443" s="298" t="s">
         <v>456</v>
       </c>
@@ -9314,7 +9354,7 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="543" t="s">
+      <c r="B445" s="445" t="s">
         <v>457</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9326,7 +9366,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="543"/>
+      <c r="B446" s="445"/>
       <c r="C446" s="300" t="s">
         <v>459</v>
       </c>
@@ -9336,7 +9376,7 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="544" t="s">
+      <c r="B448" s="446" t="s">
         <v>460</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9348,7 +9388,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="544"/>
+      <c r="B449" s="446"/>
       <c r="C449" s="302" t="s">
         <v>462</v>
       </c>
@@ -9358,7 +9398,7 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="549" t="s">
+      <c r="B451" s="443" t="s">
         <v>463</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9370,7 +9410,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="549"/>
+      <c r="B452" s="443"/>
       <c r="C452" s="304" t="s">
         <v>465</v>
       </c>
@@ -9380,7 +9420,7 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="550" t="s">
+      <c r="B454" s="444" t="s">
         <v>466</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9392,7 +9432,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="550"/>
+      <c r="B455" s="444"/>
       <c r="C455" s="306" t="s">
         <v>468</v>
       </c>
@@ -9402,7 +9442,7 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="547" t="s">
+      <c r="B457" s="441" t="s">
         <v>469</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9414,7 +9454,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="547"/>
+      <c r="B458" s="441"/>
       <c r="C458" s="308" t="s">
         <v>471</v>
       </c>
@@ -9424,7 +9464,7 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="548" t="s">
+      <c r="B460" s="442" t="s">
         <v>472</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9436,7 +9476,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="548"/>
+      <c r="B461" s="442"/>
       <c r="C461" s="310" t="s">
         <v>474</v>
       </c>
@@ -9446,7 +9486,7 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="553" t="s">
+      <c r="B463" s="439" t="s">
         <v>475</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9458,7 +9498,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="553"/>
+      <c r="B464" s="439"/>
       <c r="C464" s="312" t="s">
         <v>477</v>
       </c>
@@ -9468,7 +9508,7 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="554" t="s">
+      <c r="B466" s="440" t="s">
         <v>478</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9480,7 +9520,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="554"/>
+      <c r="B467" s="440"/>
       <c r="C467" s="314" t="s">
         <v>480</v>
       </c>
@@ -9490,7 +9530,7 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="551" t="s">
+      <c r="B469" s="437" t="s">
         <v>481</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9502,7 +9542,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="551"/>
+      <c r="B470" s="437"/>
       <c r="C470" s="316" t="s">
         <v>483</v>
       </c>
@@ -9512,7 +9552,7 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="552" t="s">
+      <c r="B472" s="438" t="s">
         <v>484</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9524,7 +9564,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="552"/>
+      <c r="B473" s="438"/>
       <c r="C473" s="318" t="s">
         <v>486</v>
       </c>
@@ -9534,7 +9574,7 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="557" t="s">
+      <c r="B475" s="435" t="s">
         <v>487</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9546,7 +9586,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="557"/>
+      <c r="B476" s="435"/>
       <c r="C476" s="320" t="s">
         <v>489</v>
       </c>
@@ -9556,7 +9596,7 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="558" t="s">
+      <c r="B478" s="436" t="s">
         <v>490</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9568,7 +9608,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="558"/>
+      <c r="B479" s="436"/>
       <c r="C479" s="322" t="s">
         <v>492</v>
       </c>
@@ -9578,7 +9618,7 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="555" t="s">
+      <c r="B481" s="433" t="s">
         <v>493</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9590,7 +9630,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="555"/>
+      <c r="B482" s="433"/>
       <c r="C482" s="324" t="s">
         <v>495</v>
       </c>
@@ -9600,7 +9640,7 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="556" t="s">
+      <c r="B484" s="434" t="s">
         <v>496</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9612,7 +9652,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="556"/>
+      <c r="B485" s="434"/>
       <c r="C485" s="326" t="s">
         <v>498</v>
       </c>
@@ -9622,7 +9662,7 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="561" t="s">
+      <c r="B487" s="431" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9634,7 +9674,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="561"/>
+      <c r="B488" s="431"/>
       <c r="C488" s="328" t="s">
         <v>501</v>
       </c>
@@ -9644,7 +9684,7 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="562" t="s">
+      <c r="B490" s="432" t="s">
         <v>502</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9656,7 +9696,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="562"/>
+      <c r="B491" s="432"/>
       <c r="C491" s="330" t="s">
         <v>504</v>
       </c>
@@ -9666,7 +9706,7 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="559" t="s">
+      <c r="B493" s="429" t="s">
         <v>505</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9678,7 +9718,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="559"/>
+      <c r="B494" s="429"/>
       <c r="C494" s="332" t="s">
         <v>507</v>
       </c>
@@ -9688,7 +9728,7 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="560" t="s">
+      <c r="B496" s="430" t="s">
         <v>508</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9700,7 +9740,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="560"/>
+      <c r="B497" s="430"/>
       <c r="C497" s="334" t="s">
         <v>510</v>
       </c>
@@ -9710,7 +9750,7 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="565" t="s">
+      <c r="B499" s="427" t="s">
         <v>511</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9722,7 +9762,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="565"/>
+      <c r="B500" s="427"/>
       <c r="C500" s="336" t="s">
         <v>513</v>
       </c>
@@ -9732,7 +9772,7 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="566" t="s">
+      <c r="B502" s="428" t="s">
         <v>514</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9744,7 +9784,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="566"/>
+      <c r="B503" s="428"/>
       <c r="C503" s="338" t="s">
         <v>516</v>
       </c>
@@ -9754,7 +9794,7 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="563" t="s">
+      <c r="B505" s="425" t="s">
         <v>517</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -9766,7 +9806,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="563"/>
+      <c r="B506" s="425"/>
       <c r="C506" s="340" t="s">
         <v>519</v>
       </c>
@@ -9776,7 +9816,7 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="564" t="s">
+      <c r="B508" s="426" t="s">
         <v>520</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -9788,7 +9828,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="564"/>
+      <c r="B509" s="426"/>
       <c r="C509" s="342" t="s">
         <v>522</v>
       </c>
@@ -9798,7 +9838,7 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="569" t="s">
+      <c r="B511" s="423" t="s">
         <v>523</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -9810,7 +9850,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="569"/>
+      <c r="B512" s="423"/>
       <c r="C512" s="344" t="s">
         <v>525</v>
       </c>
@@ -9820,7 +9860,7 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="570" t="s">
+      <c r="B514" s="424" t="s">
         <v>526</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -9832,7 +9872,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="570"/>
+      <c r="B515" s="424"/>
       <c r="C515" s="346" t="s">
         <v>528</v>
       </c>
@@ -9842,7 +9882,7 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="567" t="s">
+      <c r="B517" s="421" t="s">
         <v>529</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -9854,7 +9894,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="567"/>
+      <c r="B518" s="421"/>
       <c r="C518" s="348" t="s">
         <v>531</v>
       </c>
@@ -9864,7 +9904,7 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="568" t="s">
+      <c r="B520" s="422" t="s">
         <v>532</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -9876,7 +9916,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="568"/>
+      <c r="B521" s="422"/>
       <c r="C521" s="350" t="s">
         <v>534</v>
       </c>
@@ -9886,7 +9926,7 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="573" t="s">
+      <c r="B523" s="419" t="s">
         <v>535</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -9898,7 +9938,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="573"/>
+      <c r="B524" s="419"/>
       <c r="C524" s="352" t="s">
         <v>537</v>
       </c>
@@ -9908,7 +9948,7 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="574" t="s">
+      <c r="B526" s="420" t="s">
         <v>538</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -9920,7 +9960,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="574"/>
+      <c r="B527" s="420"/>
       <c r="C527" s="354" t="s">
         <v>540</v>
       </c>
@@ -9930,7 +9970,7 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="571" t="s">
+      <c r="B529" s="417" t="s">
         <v>541</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -9942,7 +9982,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="571"/>
+      <c r="B530" s="417"/>
       <c r="C530" s="356" t="s">
         <v>543</v>
       </c>
@@ -9952,7 +9992,7 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="572" t="s">
+      <c r="B532" s="418" t="s">
         <v>544</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -9964,7 +10004,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="572"/>
+      <c r="B533" s="418"/>
       <c r="C533" s="358" t="s">
         <v>546</v>
       </c>
@@ -9974,7 +10014,7 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="577" t="s">
+      <c r="B535" s="415" t="s">
         <v>547</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -9986,7 +10026,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="577"/>
+      <c r="B536" s="415"/>
       <c r="C536" s="360" t="s">
         <v>549</v>
       </c>
@@ -9996,7 +10036,7 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="578" t="s">
+      <c r="B538" s="416" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -10008,7 +10048,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="578"/>
+      <c r="B539" s="416"/>
       <c r="C539" s="362" t="s">
         <v>552</v>
       </c>
@@ -10018,7 +10058,7 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="575" t="s">
+      <c r="B541" s="413" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -10030,7 +10070,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="575"/>
+      <c r="B542" s="413"/>
       <c r="C542" s="364" t="s">
         <v>555</v>
       </c>
@@ -10040,7 +10080,7 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="576" t="s">
+      <c r="B544" s="414" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -10052,7 +10092,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="576"/>
+      <c r="B545" s="414"/>
       <c r="C545" s="366" t="s">
         <v>558</v>
       </c>
@@ -10062,7 +10102,7 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="581" t="s">
+      <c r="B547" s="411" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -10074,7 +10114,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="581"/>
+      <c r="B548" s="411"/>
       <c r="C548" s="368" t="s">
         <v>561</v>
       </c>
@@ -10084,7 +10124,7 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="582" t="s">
+      <c r="B550" s="412" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -10096,7 +10136,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="582"/>
+      <c r="B551" s="412"/>
       <c r="C551" s="370" t="s">
         <v>564</v>
       </c>
@@ -10106,7 +10146,7 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="579" t="s">
+      <c r="B553" s="409" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -10118,7 +10158,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="579"/>
+      <c r="B554" s="409"/>
       <c r="C554" s="372" t="s">
         <v>567</v>
       </c>
@@ -10128,7 +10168,7 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="580" t="s">
+      <c r="B556" s="410" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -10140,7 +10180,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="580"/>
+      <c r="B557" s="410"/>
       <c r="C557" s="374" t="s">
         <v>570</v>
       </c>
@@ -10150,7 +10190,7 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="585" t="s">
+      <c r="B559" s="407" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -10162,7 +10202,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="585"/>
+      <c r="B560" s="407"/>
       <c r="C560" s="376" t="s">
         <v>573</v>
       </c>
@@ -10172,7 +10212,7 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="586" t="s">
+      <c r="B562" s="408" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -10184,7 +10224,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="586"/>
+      <c r="B563" s="408"/>
       <c r="C563" s="378" t="s">
         <v>576</v>
       </c>
@@ -10194,7 +10234,7 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="583" t="s">
+      <c r="B565" s="405" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -10206,7 +10246,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="583"/>
+      <c r="B566" s="405"/>
       <c r="C566" s="380" t="s">
         <v>579</v>
       </c>
@@ -10216,7 +10256,7 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="584" t="s">
+      <c r="B568" s="406" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -10228,7 +10268,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="584"/>
+      <c r="B569" s="406"/>
       <c r="C569" s="382" t="s">
         <v>582</v>
       </c>
@@ -10238,7 +10278,7 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="592" t="s">
+      <c r="B571" s="403" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10250,7 +10290,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="592"/>
+      <c r="B572" s="403"/>
       <c r="C572" s="384" t="s">
         <v>585</v>
       </c>
@@ -10260,7 +10300,7 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="593" t="s">
+      <c r="B574" s="404" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10272,7 +10312,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="593"/>
+      <c r="B575" s="404"/>
       <c r="C575" s="386" t="s">
         <v>588</v>
       </c>
@@ -10282,7 +10322,7 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="587" t="s">
+      <c r="B577" s="397" t="s">
         <v>589</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10294,7 +10334,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="587"/>
+      <c r="B578" s="397"/>
       <c r="C578" s="388" t="s">
         <v>591</v>
       </c>
@@ -10307,15 +10347,585 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="588"/>
-      <c r="B581" s="590"/>
+      <c r="A581" s="399"/>
+      <c r="B581" s="401"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="589"/>
-      <c r="B582" s="591"/>
+      <c r="A582" s="400"/>
+      <c r="B582" s="402"/>
     </row>
   </sheetData>
   <mergeCells count="582">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
     <mergeCell ref="A577:A578"/>
     <mergeCell ref="B577:B578"/>
     <mergeCell ref="D577:D578"/>
@@ -10328,576 +10938,6 @@
     <mergeCell ref="A574:A575"/>
     <mergeCell ref="B574:B575"/>
     <mergeCell ref="D574:D575"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{372DF925-736A-410F-8A74-C3CB1B11526C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D96FBA7-0423-4656-852B-328080428D40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="640">
   <si>
     <t>#</t>
   </si>
@@ -1929,6 +1929,21 @@
   </si>
   <si>
     <t>Motor controller QS-909</t>
+  </si>
+  <si>
+    <t>Cycloid Gear Bearing</t>
+  </si>
+  <si>
+    <t>Bearing 12x18x4</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/rillenkugellager-6701-2rs-61701-2rs-12x18x4-mm</t>
+  </si>
+  <si>
+    <t>Bearing 4x7x2,5</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/miniatur-kugellager-mr74-zz-4x7x2-5-mm</t>
   </si>
 </sst>
 </file>
@@ -4339,10 +4354,577 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4361,573 +4943,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5448,10 +5463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5861,14 +5876,14 @@
         <v>1</v>
       </c>
       <c r="I14" s="394">
-        <f t="shared" ref="I14:I15" si="2">INT((B14-1-L14)/H14+1)</f>
+        <f t="shared" ref="I14:I16" si="2">INT((B14-1-L14)/H14+1)</f>
         <v>3</v>
       </c>
       <c r="J14" s="395">
         <v>1</v>
       </c>
       <c r="K14" s="392">
-        <f t="shared" ref="K14:K15" si="3">I14*J14</f>
+        <f t="shared" ref="K14:K16" si="3">I14*J14</f>
         <v>3</v>
       </c>
       <c r="L14" s="394">
@@ -5907,7 +5922,70 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K16" s="393">
+      <c r="B16" s="394">
+        <f>3*2*3</f>
+        <v>18</v>
+      </c>
+      <c r="C16" s="394" t="s">
+        <v>636</v>
+      </c>
+      <c r="D16" s="394" t="s">
+        <v>635</v>
+      </c>
+      <c r="G16" s="391" t="s">
+        <v>637</v>
+      </c>
+      <c r="H16" s="394">
+        <v>1</v>
+      </c>
+      <c r="I16" s="394">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J16" s="395">
+        <v>1.34</v>
+      </c>
+      <c r="K16" s="392">
+        <f t="shared" si="3"/>
+        <v>24.12</v>
+      </c>
+      <c r="L16" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="394">
+        <v>4</v>
+      </c>
+      <c r="C17" s="394" t="s">
+        <v>638</v>
+      </c>
+      <c r="D17" s="394" t="s">
+        <v>635</v>
+      </c>
+      <c r="G17" s="391" t="s">
+        <v>639</v>
+      </c>
+      <c r="H17" s="394">
+        <v>1</v>
+      </c>
+      <c r="I17" s="394">
+        <f t="shared" ref="I17" si="4">INT((B17-1-L17)/H17+1)</f>
+        <v>4</v>
+      </c>
+      <c r="J17" s="395">
+        <v>1.19</v>
+      </c>
+      <c r="K17" s="392">
+        <f t="shared" ref="K17" si="5">I17*J17</f>
+        <v>4.76</v>
+      </c>
+      <c r="L17" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K18" s="393">
         <f>SUM(K3:K11)</f>
         <v>119.94999999999999</v>
       </c>
@@ -6098,7 +6176,7 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="591" t="s">
+      <c r="B1" s="397" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -6110,7 +6188,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="591"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
@@ -6120,7 +6198,7 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="592" t="s">
+      <c r="B4" s="399" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6132,7 +6210,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="592"/>
+      <c r="B5" s="399"/>
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
@@ -6142,7 +6220,7 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="589" t="s">
+      <c r="B7" s="402" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6154,7 +6232,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="589"/>
+      <c r="B8" s="402"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
@@ -6164,7 +6242,7 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="590" t="s">
+      <c r="B10" s="403" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -6176,7 +6254,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="590"/>
+      <c r="B11" s="403"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
@@ -6186,7 +6264,7 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="593" t="s">
+      <c r="B13" s="400" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6198,7 +6276,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="593"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
@@ -6208,7 +6286,7 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="401" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -6220,7 +6298,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="588"/>
+      <c r="B17" s="401"/>
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
@@ -6230,7 +6308,7 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="586" t="s">
+      <c r="B19" s="406" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -6242,7 +6320,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="586"/>
+      <c r="B20" s="406"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
@@ -6252,7 +6330,7 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="587" t="s">
+      <c r="B22" s="407" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6264,7 +6342,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="587"/>
+      <c r="B23" s="407"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
@@ -6274,7 +6352,7 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="584" t="s">
+      <c r="B25" s="404" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6286,7 +6364,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="584"/>
+      <c r="B26" s="404"/>
       <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
@@ -6296,7 +6374,7 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="585" t="s">
+      <c r="B28" s="405" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6308,7 +6386,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="585"/>
+      <c r="B29" s="405"/>
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
@@ -6318,7 +6396,7 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="582" t="s">
+      <c r="B31" s="410" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6330,7 +6408,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="582"/>
+      <c r="B32" s="410"/>
       <c r="C32" s="26" t="s">
         <v>48</v>
       </c>
@@ -6340,7 +6418,7 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="583" t="s">
+      <c r="B34" s="411" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6352,7 +6430,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="583"/>
+      <c r="B35" s="411"/>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
@@ -6362,7 +6440,7 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="580" t="s">
+      <c r="B37" s="408" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6374,7 +6452,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="580"/>
+      <c r="B38" s="408"/>
       <c r="C38" s="30" t="s">
         <v>54</v>
       </c>
@@ -6384,7 +6462,7 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="581" t="s">
+      <c r="B40" s="409" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6396,7 +6474,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="581"/>
+      <c r="B41" s="409"/>
       <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
@@ -6406,7 +6484,7 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="578" t="s">
+      <c r="B43" s="414" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6418,7 +6496,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="578"/>
+      <c r="B44" s="414"/>
       <c r="C44" s="34" t="s">
         <v>60</v>
       </c>
@@ -6428,7 +6506,7 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="579" t="s">
+      <c r="B46" s="415" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6440,7 +6518,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="579"/>
+      <c r="B47" s="415"/>
       <c r="C47" s="36" t="s">
         <v>63</v>
       </c>
@@ -6450,7 +6528,7 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="576" t="s">
+      <c r="B49" s="412" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6462,7 +6540,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="576"/>
+      <c r="B50" s="412"/>
       <c r="C50" s="38" t="s">
         <v>66</v>
       </c>
@@ -6472,7 +6550,7 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="577" t="s">
+      <c r="B52" s="413" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6484,7 +6562,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="577"/>
+      <c r="B53" s="413"/>
       <c r="C53" s="40" t="s">
         <v>69</v>
       </c>
@@ -6494,7 +6572,7 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="575" t="s">
+      <c r="B55" s="418" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6506,7 +6584,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="575"/>
+      <c r="B56" s="418"/>
       <c r="C56" s="42" t="s">
         <v>72</v>
       </c>
@@ -6516,7 +6594,7 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="575" t="s">
+      <c r="B58" s="418" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6528,7 +6606,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="575"/>
+      <c r="B59" s="418"/>
       <c r="C59" s="42" t="s">
         <v>72</v>
       </c>
@@ -6538,7 +6616,7 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="573" t="s">
+      <c r="B61" s="416" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6550,7 +6628,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="573"/>
+      <c r="B62" s="416"/>
       <c r="C62" s="44" t="s">
         <v>76</v>
       </c>
@@ -6560,7 +6638,7 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="574" t="s">
+      <c r="B64" s="417" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6572,7 +6650,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="574"/>
+      <c r="B65" s="417"/>
       <c r="C65" s="46" t="s">
         <v>79</v>
       </c>
@@ -6582,7 +6660,7 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="571" t="s">
+      <c r="B67" s="421" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6594,7 +6672,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="571"/>
+      <c r="B68" s="421"/>
       <c r="C68" s="48" t="s">
         <v>82</v>
       </c>
@@ -6604,7 +6682,7 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="572" t="s">
+      <c r="B70" s="422" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6616,7 +6694,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="572"/>
+      <c r="B71" s="422"/>
       <c r="C71" s="50" t="s">
         <v>85</v>
       </c>
@@ -6626,7 +6704,7 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="569" t="s">
+      <c r="B73" s="419" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6638,7 +6716,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="569"/>
+      <c r="B74" s="419"/>
       <c r="C74" s="52" t="s">
         <v>88</v>
       </c>
@@ -6648,7 +6726,7 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="570" t="s">
+      <c r="B76" s="420" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6660,7 +6738,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="570"/>
+      <c r="B77" s="420"/>
       <c r="C77" s="54" t="s">
         <v>91</v>
       </c>
@@ -6670,7 +6748,7 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="567" t="s">
+      <c r="B79" s="425" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6682,7 +6760,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="567"/>
+      <c r="B80" s="425"/>
       <c r="C80" s="56" t="s">
         <v>94</v>
       </c>
@@ -6692,7 +6770,7 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="568" t="s">
+      <c r="B82" s="426" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6704,7 +6782,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="568"/>
+      <c r="B83" s="426"/>
       <c r="C83" s="58" t="s">
         <v>97</v>
       </c>
@@ -6714,7 +6792,7 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="565" t="s">
+      <c r="B85" s="423" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6726,7 +6804,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="565"/>
+      <c r="B86" s="423"/>
       <c r="C86" s="60" t="s">
         <v>100</v>
       </c>
@@ -6736,7 +6814,7 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="566" t="s">
+      <c r="B88" s="424" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6748,7 +6826,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="566"/>
+      <c r="B89" s="424"/>
       <c r="C89" s="62" t="s">
         <v>103</v>
       </c>
@@ -6758,7 +6836,7 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="563" t="s">
+      <c r="B91" s="429" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6770,7 +6848,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="563"/>
+      <c r="B92" s="429"/>
       <c r="C92" s="64" t="s">
         <v>106</v>
       </c>
@@ -6780,7 +6858,7 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="564" t="s">
+      <c r="B94" s="430" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6792,7 +6870,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="564"/>
+      <c r="B95" s="430"/>
       <c r="C95" s="66" t="s">
         <v>109</v>
       </c>
@@ -6802,7 +6880,7 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="561" t="s">
+      <c r="B97" s="427" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -6814,7 +6892,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="561"/>
+      <c r="B98" s="427"/>
       <c r="C98" s="68" t="s">
         <v>112</v>
       </c>
@@ -6824,7 +6902,7 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="562" t="s">
+      <c r="B100" s="428" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -6836,7 +6914,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="562"/>
+      <c r="B101" s="428"/>
       <c r="C101" s="70" t="s">
         <v>115</v>
       </c>
@@ -6846,7 +6924,7 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="559" t="s">
+      <c r="B103" s="433" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -6858,7 +6936,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="559"/>
+      <c r="B104" s="433"/>
       <c r="C104" s="72" t="s">
         <v>118</v>
       </c>
@@ -6868,7 +6946,7 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="560" t="s">
+      <c r="B106" s="434" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -6880,7 +6958,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="560"/>
+      <c r="B107" s="434"/>
       <c r="C107" s="74" t="s">
         <v>121</v>
       </c>
@@ -6890,7 +6968,7 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="557" t="s">
+      <c r="B109" s="431" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -6902,7 +6980,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="557"/>
+      <c r="B110" s="431"/>
       <c r="C110" s="76" t="s">
         <v>124</v>
       </c>
@@ -6912,7 +6990,7 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="558" t="s">
+      <c r="B112" s="432" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -6924,7 +7002,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="558"/>
+      <c r="B113" s="432"/>
       <c r="C113" s="78" t="s">
         <v>127</v>
       </c>
@@ -6934,7 +7012,7 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="555" t="s">
+      <c r="B115" s="437" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -6946,7 +7024,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="555"/>
+      <c r="B116" s="437"/>
       <c r="C116" s="80" t="s">
         <v>130</v>
       </c>
@@ -6956,7 +7034,7 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="556" t="s">
+      <c r="B118" s="438" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -6968,7 +7046,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="556"/>
+      <c r="B119" s="438"/>
       <c r="C119" s="82" t="s">
         <v>133</v>
       </c>
@@ -6978,7 +7056,7 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="553" t="s">
+      <c r="B121" s="435" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -6990,7 +7068,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="553"/>
+      <c r="B122" s="435"/>
       <c r="C122" s="84" t="s">
         <v>136</v>
       </c>
@@ -7000,7 +7078,7 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="554" t="s">
+      <c r="B124" s="436" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -7012,7 +7090,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="554"/>
+      <c r="B125" s="436"/>
       <c r="C125" s="86" t="s">
         <v>139</v>
       </c>
@@ -7022,7 +7100,7 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="551" t="s">
+      <c r="B127" s="441" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -7034,7 +7112,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="551"/>
+      <c r="B128" s="441"/>
       <c r="C128" s="88" t="s">
         <v>142</v>
       </c>
@@ -7044,7 +7122,7 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="552" t="s">
+      <c r="B130" s="442" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -7056,7 +7134,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="552"/>
+      <c r="B131" s="442"/>
       <c r="C131" s="90" t="s">
         <v>145</v>
       </c>
@@ -7066,7 +7144,7 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="549" t="s">
+      <c r="B133" s="439" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -7078,7 +7156,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="549"/>
+      <c r="B134" s="439"/>
       <c r="C134" s="92" t="s">
         <v>148</v>
       </c>
@@ -7088,7 +7166,7 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="550" t="s">
+      <c r="B136" s="440" t="s">
         <v>149</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -7100,7 +7178,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="550"/>
+      <c r="B137" s="440"/>
       <c r="C137" s="94" t="s">
         <v>151</v>
       </c>
@@ -7110,7 +7188,7 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="547" t="s">
+      <c r="B139" s="445" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -7122,7 +7200,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="547"/>
+      <c r="B140" s="445"/>
       <c r="C140" s="96" t="s">
         <v>154</v>
       </c>
@@ -7132,7 +7210,7 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="548" t="s">
+      <c r="B142" s="446" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -7144,7 +7222,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="548"/>
+      <c r="B143" s="446"/>
       <c r="C143" s="98" t="s">
         <v>157</v>
       </c>
@@ -7154,7 +7232,7 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="545" t="s">
+      <c r="B145" s="443" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -7166,7 +7244,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="545"/>
+      <c r="B146" s="443"/>
       <c r="C146" s="100" t="s">
         <v>160</v>
       </c>
@@ -7176,7 +7254,7 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="546" t="s">
+      <c r="B148" s="444" t="s">
         <v>161</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -7188,7 +7266,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="546"/>
+      <c r="B149" s="444"/>
       <c r="C149" s="102" t="s">
         <v>163</v>
       </c>
@@ -7198,7 +7276,7 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="543" t="s">
+      <c r="B151" s="449" t="s">
         <v>164</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -7210,7 +7288,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="543"/>
+      <c r="B152" s="449"/>
       <c r="C152" s="104" t="s">
         <v>166</v>
       </c>
@@ -7220,7 +7298,7 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="544" t="s">
+      <c r="B154" s="450" t="s">
         <v>167</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -7232,7 +7310,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="544"/>
+      <c r="B155" s="450"/>
       <c r="C155" s="106" t="s">
         <v>169</v>
       </c>
@@ -7242,7 +7320,7 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="541" t="s">
+      <c r="B157" s="447" t="s">
         <v>170</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -7254,7 +7332,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="541"/>
+      <c r="B158" s="447"/>
       <c r="C158" s="108" t="s">
         <v>172</v>
       </c>
@@ -7264,7 +7342,7 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="542" t="s">
+      <c r="B160" s="448" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -7276,7 +7354,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="542"/>
+      <c r="B161" s="448"/>
       <c r="C161" s="110" t="s">
         <v>175</v>
       </c>
@@ -7286,7 +7364,7 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="539" t="s">
+      <c r="B163" s="453" t="s">
         <v>176</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7298,7 +7376,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="539"/>
+      <c r="B164" s="453"/>
       <c r="C164" s="112" t="s">
         <v>178</v>
       </c>
@@ -7308,7 +7386,7 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="540" t="s">
+      <c r="B166" s="454" t="s">
         <v>179</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7320,7 +7398,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="540"/>
+      <c r="B167" s="454"/>
       <c r="C167" s="114" t="s">
         <v>181</v>
       </c>
@@ -7330,7 +7408,7 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="537" t="s">
+      <c r="B169" s="451" t="s">
         <v>182</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7342,7 +7420,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="537"/>
+      <c r="B170" s="451"/>
       <c r="C170" s="116" t="s">
         <v>184</v>
       </c>
@@ -7352,7 +7430,7 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="538" t="s">
+      <c r="B172" s="452" t="s">
         <v>185</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7364,7 +7442,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="538"/>
+      <c r="B173" s="452"/>
       <c r="C173" s="118" t="s">
         <v>187</v>
       </c>
@@ -7374,7 +7452,7 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="535" t="s">
+      <c r="B175" s="457" t="s">
         <v>188</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7386,7 +7464,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="535"/>
+      <c r="B176" s="457"/>
       <c r="C176" s="120" t="s">
         <v>190</v>
       </c>
@@ -7396,7 +7474,7 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="536" t="s">
+      <c r="B178" s="458" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7408,7 +7486,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="536"/>
+      <c r="B179" s="458"/>
       <c r="C179" s="122" t="s">
         <v>193</v>
       </c>
@@ -7418,7 +7496,7 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="533" t="s">
+      <c r="B181" s="455" t="s">
         <v>194</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7430,7 +7508,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="533"/>
+      <c r="B182" s="455"/>
       <c r="C182" s="124" t="s">
         <v>196</v>
       </c>
@@ -7440,7 +7518,7 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="534" t="s">
+      <c r="B184" s="456" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7452,7 +7530,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="534"/>
+      <c r="B185" s="456"/>
       <c r="C185" s="126" t="s">
         <v>199</v>
       </c>
@@ -7462,7 +7540,7 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="531" t="s">
+      <c r="B187" s="461" t="s">
         <v>200</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7474,7 +7552,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="531"/>
+      <c r="B188" s="461"/>
       <c r="C188" s="128" t="s">
         <v>202</v>
       </c>
@@ -7484,7 +7562,7 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="532" t="s">
+      <c r="B190" s="462" t="s">
         <v>203</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7496,7 +7574,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="532"/>
+      <c r="B191" s="462"/>
       <c r="C191" s="130" t="s">
         <v>205</v>
       </c>
@@ -7506,7 +7584,7 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="529" t="s">
+      <c r="B193" s="459" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7518,7 +7596,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="529"/>
+      <c r="B194" s="459"/>
       <c r="C194" s="132" t="s">
         <v>208</v>
       </c>
@@ -7528,7 +7606,7 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="530" t="s">
+      <c r="B196" s="460" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7540,7 +7618,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="530"/>
+      <c r="B197" s="460"/>
       <c r="C197" s="134" t="s">
         <v>211</v>
       </c>
@@ -7550,7 +7628,7 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="527" t="s">
+      <c r="B199" s="465" t="s">
         <v>212</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7562,7 +7640,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="527"/>
+      <c r="B200" s="465"/>
       <c r="C200" s="136" t="s">
         <v>214</v>
       </c>
@@ -7572,7 +7650,7 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="528" t="s">
+      <c r="B202" s="466" t="s">
         <v>215</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7584,7 +7662,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="528"/>
+      <c r="B203" s="466"/>
       <c r="C203" s="138" t="s">
         <v>217</v>
       </c>
@@ -7594,7 +7672,7 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="525" t="s">
+      <c r="B205" s="463" t="s">
         <v>218</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7606,7 +7684,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="525"/>
+      <c r="B206" s="463"/>
       <c r="C206" s="140" t="s">
         <v>220</v>
       </c>
@@ -7616,7 +7694,7 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="526" t="s">
+      <c r="B208" s="464" t="s">
         <v>221</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7628,7 +7706,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="526"/>
+      <c r="B209" s="464"/>
       <c r="C209" s="142" t="s">
         <v>223</v>
       </c>
@@ -7638,7 +7716,7 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="523" t="s">
+      <c r="B211" s="469" t="s">
         <v>224</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7650,7 +7728,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="523"/>
+      <c r="B212" s="469"/>
       <c r="C212" s="144" t="s">
         <v>226</v>
       </c>
@@ -7660,7 +7738,7 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="524" t="s">
+      <c r="B214" s="470" t="s">
         <v>227</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7672,7 +7750,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="524"/>
+      <c r="B215" s="470"/>
       <c r="C215" s="146" t="s">
         <v>229</v>
       </c>
@@ -7682,7 +7760,7 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="521" t="s">
+      <c r="B217" s="467" t="s">
         <v>230</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7694,7 +7772,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="521"/>
+      <c r="B218" s="467"/>
       <c r="C218" s="148" t="s">
         <v>232</v>
       </c>
@@ -7704,7 +7782,7 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="522" t="s">
+      <c r="B220" s="468" t="s">
         <v>233</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7716,7 +7794,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="522"/>
+      <c r="B221" s="468"/>
       <c r="C221" s="150" t="s">
         <v>235</v>
       </c>
@@ -7726,7 +7804,7 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="519" t="s">
+      <c r="B223" s="473" t="s">
         <v>236</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7738,7 +7816,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="519"/>
+      <c r="B224" s="473"/>
       <c r="C224" s="152" t="s">
         <v>238</v>
       </c>
@@ -7748,7 +7826,7 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="520" t="s">
+      <c r="B226" s="474" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7760,7 +7838,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="520"/>
+      <c r="B227" s="474"/>
       <c r="C227" s="154" t="s">
         <v>241</v>
       </c>
@@ -7770,7 +7848,7 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="517" t="s">
+      <c r="B229" s="471" t="s">
         <v>242</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7782,7 +7860,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="517"/>
+      <c r="B230" s="471"/>
       <c r="C230" s="156" t="s">
         <v>244</v>
       </c>
@@ -7792,7 +7870,7 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="518" t="s">
+      <c r="B232" s="472" t="s">
         <v>245</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7804,7 +7882,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="518"/>
+      <c r="B233" s="472"/>
       <c r="C233" s="158" t="s">
         <v>247</v>
       </c>
@@ -7814,7 +7892,7 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="515" t="s">
+      <c r="B235" s="477" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -7826,7 +7904,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="515"/>
+      <c r="B236" s="477"/>
       <c r="C236" s="160" t="s">
         <v>250</v>
       </c>
@@ -7836,7 +7914,7 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="516" t="s">
+      <c r="B238" s="478" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -7848,7 +7926,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="516"/>
+      <c r="B239" s="478"/>
       <c r="C239" s="162" t="s">
         <v>253</v>
       </c>
@@ -7858,7 +7936,7 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="513" t="s">
+      <c r="B241" s="475" t="s">
         <v>254</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -7870,7 +7948,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="513"/>
+      <c r="B242" s="475"/>
       <c r="C242" s="164" t="s">
         <v>256</v>
       </c>
@@ -7880,7 +7958,7 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="514" t="s">
+      <c r="B244" s="476" t="s">
         <v>257</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -7892,7 +7970,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="514"/>
+      <c r="B245" s="476"/>
       <c r="C245" s="166" t="s">
         <v>259</v>
       </c>
@@ -7902,7 +7980,7 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="511" t="s">
+      <c r="B247" s="481" t="s">
         <v>260</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -7914,7 +7992,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="511"/>
+      <c r="B248" s="481"/>
       <c r="C248" s="168" t="s">
         <v>262</v>
       </c>
@@ -7924,7 +8002,7 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="512" t="s">
+      <c r="B250" s="482" t="s">
         <v>263</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -7936,7 +8014,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="512"/>
+      <c r="B251" s="482"/>
       <c r="C251" s="170" t="s">
         <v>265</v>
       </c>
@@ -7946,7 +8024,7 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="509" t="s">
+      <c r="B253" s="479" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -7958,7 +8036,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="509"/>
+      <c r="B254" s="479"/>
       <c r="C254" s="172" t="s">
         <v>268</v>
       </c>
@@ -7968,7 +8046,7 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="510" t="s">
+      <c r="B256" s="480" t="s">
         <v>269</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -7980,7 +8058,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="510"/>
+      <c r="B257" s="480"/>
       <c r="C257" s="174" t="s">
         <v>271</v>
       </c>
@@ -7990,7 +8068,7 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="507" t="s">
+      <c r="B259" s="485" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -8002,7 +8080,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="507"/>
+      <c r="B260" s="485"/>
       <c r="C260" s="176" t="s">
         <v>274</v>
       </c>
@@ -8012,7 +8090,7 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="508" t="s">
+      <c r="B262" s="486" t="s">
         <v>275</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -8024,7 +8102,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="508"/>
+      <c r="B263" s="486"/>
       <c r="C263" s="178" t="s">
         <v>277</v>
       </c>
@@ -8034,7 +8112,7 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="505" t="s">
+      <c r="B265" s="483" t="s">
         <v>254</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -8046,7 +8124,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="505"/>
+      <c r="B266" s="483"/>
       <c r="C266" s="180" t="s">
         <v>279</v>
       </c>
@@ -8056,7 +8134,7 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="506" t="s">
+      <c r="B268" s="484" t="s">
         <v>280</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -8068,7 +8146,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="506"/>
+      <c r="B269" s="484"/>
       <c r="C269" s="182" t="s">
         <v>282</v>
       </c>
@@ -8078,7 +8156,7 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="503" t="s">
+      <c r="B271" s="489" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -8090,7 +8168,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="503"/>
+      <c r="B272" s="489"/>
       <c r="C272" s="184" t="s">
         <v>285</v>
       </c>
@@ -8100,7 +8178,7 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="504" t="s">
+      <c r="B274" s="490" t="s">
         <v>286</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -8112,7 +8190,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="504"/>
+      <c r="B275" s="490"/>
       <c r="C275" s="186" t="s">
         <v>288</v>
       </c>
@@ -8122,7 +8200,7 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="501" t="s">
+      <c r="B277" s="487" t="s">
         <v>289</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -8134,7 +8212,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="501"/>
+      <c r="B278" s="487"/>
       <c r="C278" s="188" t="s">
         <v>291</v>
       </c>
@@ -8144,7 +8222,7 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="502" t="s">
+      <c r="B280" s="488" t="s">
         <v>292</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -8156,7 +8234,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="502"/>
+      <c r="B281" s="488"/>
       <c r="C281" s="190" t="s">
         <v>294</v>
       </c>
@@ -8166,7 +8244,7 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="499" t="s">
+      <c r="B283" s="493" t="s">
         <v>295</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -8178,7 +8256,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="499"/>
+      <c r="B284" s="493"/>
       <c r="C284" s="192" t="s">
         <v>297</v>
       </c>
@@ -8188,7 +8266,7 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="500" t="s">
+      <c r="B286" s="494" t="s">
         <v>298</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -8200,7 +8278,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="500"/>
+      <c r="B287" s="494"/>
       <c r="C287" s="194" t="s">
         <v>300</v>
       </c>
@@ -8210,7 +8288,7 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="497" t="s">
+      <c r="B289" s="491" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -8222,7 +8300,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="497"/>
+      <c r="B290" s="491"/>
       <c r="C290" s="196" t="s">
         <v>303</v>
       </c>
@@ -8232,7 +8310,7 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="498" t="s">
+      <c r="B292" s="492" t="s">
         <v>304</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -8244,7 +8322,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="498"/>
+      <c r="B293" s="492"/>
       <c r="C293" s="198" t="s">
         <v>306</v>
       </c>
@@ -8254,7 +8332,7 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="495" t="s">
+      <c r="B295" s="497" t="s">
         <v>307</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -8266,7 +8344,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="495"/>
+      <c r="B296" s="497"/>
       <c r="C296" s="200" t="s">
         <v>309</v>
       </c>
@@ -8276,7 +8354,7 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="496" t="s">
+      <c r="B298" s="498" t="s">
         <v>310</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8288,7 +8366,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="496"/>
+      <c r="B299" s="498"/>
       <c r="C299" s="202" t="s">
         <v>312</v>
       </c>
@@ -8298,7 +8376,7 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="493" t="s">
+      <c r="B301" s="495" t="s">
         <v>313</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8310,7 +8388,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="493"/>
+      <c r="B302" s="495"/>
       <c r="C302" s="204" t="s">
         <v>315</v>
       </c>
@@ -8320,7 +8398,7 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="494" t="s">
+      <c r="B304" s="496" t="s">
         <v>316</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8332,7 +8410,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="494"/>
+      <c r="B305" s="496"/>
       <c r="C305" s="206" t="s">
         <v>318</v>
       </c>
@@ -8342,7 +8420,7 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="491" t="s">
+      <c r="B307" s="501" t="s">
         <v>319</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8354,7 +8432,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="491"/>
+      <c r="B308" s="501"/>
       <c r="C308" s="208" t="s">
         <v>321</v>
       </c>
@@ -8364,7 +8442,7 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="492" t="s">
+      <c r="B310" s="502" t="s">
         <v>322</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8376,7 +8454,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="492"/>
+      <c r="B311" s="502"/>
       <c r="C311" s="210" t="s">
         <v>324</v>
       </c>
@@ -8386,7 +8464,7 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="489" t="s">
+      <c r="B313" s="499" t="s">
         <v>325</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8398,7 +8476,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="489"/>
+      <c r="B314" s="499"/>
       <c r="C314" s="212" t="s">
         <v>327</v>
       </c>
@@ -8408,7 +8486,7 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="490" t="s">
+      <c r="B316" s="500" t="s">
         <v>328</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8420,7 +8498,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="490"/>
+      <c r="B317" s="500"/>
       <c r="C317" s="214" t="s">
         <v>330</v>
       </c>
@@ -8430,7 +8508,7 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="487" t="s">
+      <c r="B319" s="505" t="s">
         <v>331</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8442,7 +8520,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="487"/>
+      <c r="B320" s="505"/>
       <c r="C320" s="216" t="s">
         <v>333</v>
       </c>
@@ -8452,7 +8530,7 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="488" t="s">
+      <c r="B322" s="506" t="s">
         <v>334</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8464,7 +8542,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="488"/>
+      <c r="B323" s="506"/>
       <c r="C323" s="218" t="s">
         <v>336</v>
       </c>
@@ -8474,7 +8552,7 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="485" t="s">
+      <c r="B325" s="503" t="s">
         <v>337</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8486,7 +8564,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="485"/>
+      <c r="B326" s="503"/>
       <c r="C326" s="220" t="s">
         <v>339</v>
       </c>
@@ -8496,7 +8574,7 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="486" t="s">
+      <c r="B328" s="504" t="s">
         <v>340</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8508,7 +8586,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="486"/>
+      <c r="B329" s="504"/>
       <c r="C329" s="222" t="s">
         <v>342</v>
       </c>
@@ -8518,7 +8596,7 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="483" t="s">
+      <c r="B331" s="509" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8530,7 +8608,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="483"/>
+      <c r="B332" s="509"/>
       <c r="C332" s="224" t="s">
         <v>345</v>
       </c>
@@ -8540,7 +8618,7 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="484" t="s">
+      <c r="B334" s="510" t="s">
         <v>346</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8552,7 +8630,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="484"/>
+      <c r="B335" s="510"/>
       <c r="C335" s="226" t="s">
         <v>348</v>
       </c>
@@ -8562,7 +8640,7 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="481" t="s">
+      <c r="B337" s="507" t="s">
         <v>349</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8574,7 +8652,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="481"/>
+      <c r="B338" s="507"/>
       <c r="C338" s="228" t="s">
         <v>351</v>
       </c>
@@ -8584,7 +8662,7 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="482" t="s">
+      <c r="B340" s="508" t="s">
         <v>352</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8596,7 +8674,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="482"/>
+      <c r="B341" s="508"/>
       <c r="C341" s="230" t="s">
         <v>354</v>
       </c>
@@ -8606,7 +8684,7 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="479" t="s">
+      <c r="B343" s="513" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8618,7 +8696,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="479"/>
+      <c r="B344" s="513"/>
       <c r="C344" s="232" t="s">
         <v>357</v>
       </c>
@@ -8628,7 +8706,7 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="480" t="s">
+      <c r="B346" s="514" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8640,7 +8718,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="480"/>
+      <c r="B347" s="514"/>
       <c r="C347" s="234" t="s">
         <v>360</v>
       </c>
@@ -8650,7 +8728,7 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="477" t="s">
+      <c r="B349" s="511" t="s">
         <v>361</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8662,7 +8740,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="477"/>
+      <c r="B350" s="511"/>
       <c r="C350" s="236" t="s">
         <v>363</v>
       </c>
@@ -8672,7 +8750,7 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="478" t="s">
+      <c r="B352" s="512" t="s">
         <v>364</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8684,7 +8762,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="478"/>
+      <c r="B353" s="512"/>
       <c r="C353" s="238" t="s">
         <v>366</v>
       </c>
@@ -8694,7 +8772,7 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="475" t="s">
+      <c r="B355" s="517" t="s">
         <v>367</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8706,7 +8784,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="475"/>
+      <c r="B356" s="517"/>
       <c r="C356" s="240" t="s">
         <v>369</v>
       </c>
@@ -8716,7 +8794,7 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="476" t="s">
+      <c r="B358" s="518" t="s">
         <v>370</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8728,7 +8806,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="476"/>
+      <c r="B359" s="518"/>
       <c r="C359" s="242" t="s">
         <v>372</v>
       </c>
@@ -8738,7 +8816,7 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="473" t="s">
+      <c r="B361" s="515" t="s">
         <v>373</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8750,7 +8828,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="473"/>
+      <c r="B362" s="515"/>
       <c r="C362" s="244" t="s">
         <v>375</v>
       </c>
@@ -8760,7 +8838,7 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="474" t="s">
+      <c r="B364" s="516" t="s">
         <v>376</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8772,7 +8850,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="474"/>
+      <c r="B365" s="516"/>
       <c r="C365" s="246" t="s">
         <v>378</v>
       </c>
@@ -8782,7 +8860,7 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="471" t="s">
+      <c r="B367" s="521" t="s">
         <v>379</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8794,7 +8872,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="471"/>
+      <c r="B368" s="521"/>
       <c r="C368" s="248" t="s">
         <v>381</v>
       </c>
@@ -8804,7 +8882,7 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="472" t="s">
+      <c r="B370" s="522" t="s">
         <v>382</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -8816,7 +8894,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="472"/>
+      <c r="B371" s="522"/>
       <c r="C371" s="250" t="s">
         <v>384</v>
       </c>
@@ -8826,7 +8904,7 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="469" t="s">
+      <c r="B373" s="519" t="s">
         <v>385</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -8838,7 +8916,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="469"/>
+      <c r="B374" s="519"/>
       <c r="C374" s="252" t="s">
         <v>387</v>
       </c>
@@ -8848,7 +8926,7 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="470" t="s">
+      <c r="B376" s="520" t="s">
         <v>388</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -8860,7 +8938,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="470"/>
+      <c r="B377" s="520"/>
       <c r="C377" s="254" t="s">
         <v>390</v>
       </c>
@@ -8870,7 +8948,7 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="467" t="s">
+      <c r="B379" s="525" t="s">
         <v>391</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -8882,7 +8960,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="467"/>
+      <c r="B380" s="525"/>
       <c r="C380" s="256" t="s">
         <v>393</v>
       </c>
@@ -8892,7 +8970,7 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="468" t="s">
+      <c r="B382" s="526" t="s">
         <v>394</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -8904,7 +8982,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="468"/>
+      <c r="B383" s="526"/>
       <c r="C383" s="258" t="s">
         <v>396</v>
       </c>
@@ -8914,7 +8992,7 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="465" t="s">
+      <c r="B385" s="523" t="s">
         <v>397</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -8926,7 +9004,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="465"/>
+      <c r="B386" s="523"/>
       <c r="C386" s="260" t="s">
         <v>399</v>
       </c>
@@ -8936,7 +9014,7 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="466" t="s">
+      <c r="B388" s="524" t="s">
         <v>400</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -8948,7 +9026,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="466"/>
+      <c r="B389" s="524"/>
       <c r="C389" s="262" t="s">
         <v>402</v>
       </c>
@@ -8958,7 +9036,7 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="463" t="s">
+      <c r="B391" s="529" t="s">
         <v>403</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -8970,7 +9048,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="463"/>
+      <c r="B392" s="529"/>
       <c r="C392" s="264" t="s">
         <v>405</v>
       </c>
@@ -8980,7 +9058,7 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="464" t="s">
+      <c r="B394" s="530" t="s">
         <v>406</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -8992,7 +9070,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="464"/>
+      <c r="B395" s="530"/>
       <c r="C395" s="266" t="s">
         <v>408</v>
       </c>
@@ -9002,7 +9080,7 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="461" t="s">
+      <c r="B397" s="527" t="s">
         <v>409</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -9014,7 +9092,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="461"/>
+      <c r="B398" s="527"/>
       <c r="C398" s="268" t="s">
         <v>411</v>
       </c>
@@ -9024,7 +9102,7 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="462" t="s">
+      <c r="B400" s="528" t="s">
         <v>412</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -9036,7 +9114,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="462"/>
+      <c r="B401" s="528"/>
       <c r="C401" s="270" t="s">
         <v>414</v>
       </c>
@@ -9046,7 +9124,7 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="459" t="s">
+      <c r="B403" s="533" t="s">
         <v>415</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -9058,7 +9136,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="459"/>
+      <c r="B404" s="533"/>
       <c r="C404" s="272" t="s">
         <v>417</v>
       </c>
@@ -9068,7 +9146,7 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="460" t="s">
+      <c r="B406" s="534" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -9080,7 +9158,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="460"/>
+      <c r="B407" s="534"/>
       <c r="C407" s="274" t="s">
         <v>420</v>
       </c>
@@ -9090,7 +9168,7 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="457" t="s">
+      <c r="B409" s="531" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -9102,7 +9180,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="457"/>
+      <c r="B410" s="531"/>
       <c r="C410" s="276" t="s">
         <v>423</v>
       </c>
@@ -9112,7 +9190,7 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="458" t="s">
+      <c r="B412" s="532" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -9124,7 +9202,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="458"/>
+      <c r="B413" s="532"/>
       <c r="C413" s="278" t="s">
         <v>426</v>
       </c>
@@ -9134,7 +9212,7 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="455" t="s">
+      <c r="B415" s="537" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -9146,7 +9224,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="455"/>
+      <c r="B416" s="537"/>
       <c r="C416" s="280" t="s">
         <v>429</v>
       </c>
@@ -9156,7 +9234,7 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="456" t="s">
+      <c r="B418" s="538" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -9168,7 +9246,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="456"/>
+      <c r="B419" s="538"/>
       <c r="C419" s="282" t="s">
         <v>432</v>
       </c>
@@ -9178,7 +9256,7 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="453" t="s">
+      <c r="B421" s="535" t="s">
         <v>433</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -9190,7 +9268,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="453"/>
+      <c r="B422" s="535"/>
       <c r="C422" s="284" t="s">
         <v>435</v>
       </c>
@@ -9200,7 +9278,7 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="454" t="s">
+      <c r="B424" s="536" t="s">
         <v>436</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -9212,7 +9290,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="454"/>
+      <c r="B425" s="536"/>
       <c r="C425" s="286" t="s">
         <v>438</v>
       </c>
@@ -9222,7 +9300,7 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="451" t="s">
+      <c r="B427" s="541" t="s">
         <v>439</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -9234,7 +9312,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="451"/>
+      <c r="B428" s="541"/>
       <c r="C428" s="288" t="s">
         <v>441</v>
       </c>
@@ -9244,7 +9322,7 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="452" t="s">
+      <c r="B430" s="542" t="s">
         <v>442</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -9256,7 +9334,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="452"/>
+      <c r="B431" s="542"/>
       <c r="C431" s="290" t="s">
         <v>444</v>
       </c>
@@ -9266,7 +9344,7 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="449" t="s">
+      <c r="B433" s="539" t="s">
         <v>445</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -9278,7 +9356,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="449"/>
+      <c r="B434" s="539"/>
       <c r="C434" s="292" t="s">
         <v>447</v>
       </c>
@@ -9288,7 +9366,7 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="450" t="s">
+      <c r="B436" s="540" t="s">
         <v>448</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9300,7 +9378,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="450"/>
+      <c r="B437" s="540"/>
       <c r="C437" s="294" t="s">
         <v>450</v>
       </c>
@@ -9310,7 +9388,7 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="447" t="s">
+      <c r="B439" s="545" t="s">
         <v>451</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9322,7 +9400,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="447"/>
+      <c r="B440" s="545"/>
       <c r="C440" s="296" t="s">
         <v>453</v>
       </c>
@@ -9332,7 +9410,7 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="448" t="s">
+      <c r="B442" s="546" t="s">
         <v>454</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9344,7 +9422,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="448"/>
+      <c r="B443" s="546"/>
       <c r="C443" s="298" t="s">
         <v>456</v>
       </c>
@@ -9354,7 +9432,7 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="445" t="s">
+      <c r="B445" s="543" t="s">
         <v>457</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9366,7 +9444,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="445"/>
+      <c r="B446" s="543"/>
       <c r="C446" s="300" t="s">
         <v>459</v>
       </c>
@@ -9376,7 +9454,7 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="446" t="s">
+      <c r="B448" s="544" t="s">
         <v>460</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9388,7 +9466,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="446"/>
+      <c r="B449" s="544"/>
       <c r="C449" s="302" t="s">
         <v>462</v>
       </c>
@@ -9398,7 +9476,7 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="443" t="s">
+      <c r="B451" s="549" t="s">
         <v>463</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9410,7 +9488,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="443"/>
+      <c r="B452" s="549"/>
       <c r="C452" s="304" t="s">
         <v>465</v>
       </c>
@@ -9420,7 +9498,7 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="444" t="s">
+      <c r="B454" s="550" t="s">
         <v>466</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9432,7 +9510,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="444"/>
+      <c r="B455" s="550"/>
       <c r="C455" s="306" t="s">
         <v>468</v>
       </c>
@@ -9442,7 +9520,7 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="441" t="s">
+      <c r="B457" s="547" t="s">
         <v>469</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9454,7 +9532,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="441"/>
+      <c r="B458" s="547"/>
       <c r="C458" s="308" t="s">
         <v>471</v>
       </c>
@@ -9464,7 +9542,7 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="442" t="s">
+      <c r="B460" s="548" t="s">
         <v>472</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9476,7 +9554,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="442"/>
+      <c r="B461" s="548"/>
       <c r="C461" s="310" t="s">
         <v>474</v>
       </c>
@@ -9486,7 +9564,7 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="439" t="s">
+      <c r="B463" s="553" t="s">
         <v>475</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9498,7 +9576,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="439"/>
+      <c r="B464" s="553"/>
       <c r="C464" s="312" t="s">
         <v>477</v>
       </c>
@@ -9508,7 +9586,7 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="440" t="s">
+      <c r="B466" s="554" t="s">
         <v>478</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9520,7 +9598,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="440"/>
+      <c r="B467" s="554"/>
       <c r="C467" s="314" t="s">
         <v>480</v>
       </c>
@@ -9530,7 +9608,7 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="437" t="s">
+      <c r="B469" s="551" t="s">
         <v>481</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9542,7 +9620,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="437"/>
+      <c r="B470" s="551"/>
       <c r="C470" s="316" t="s">
         <v>483</v>
       </c>
@@ -9552,7 +9630,7 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="438" t="s">
+      <c r="B472" s="552" t="s">
         <v>484</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9564,7 +9642,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="438"/>
+      <c r="B473" s="552"/>
       <c r="C473" s="318" t="s">
         <v>486</v>
       </c>
@@ -9574,7 +9652,7 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="435" t="s">
+      <c r="B475" s="557" t="s">
         <v>487</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9586,7 +9664,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="435"/>
+      <c r="B476" s="557"/>
       <c r="C476" s="320" t="s">
         <v>489</v>
       </c>
@@ -9596,7 +9674,7 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="436" t="s">
+      <c r="B478" s="558" t="s">
         <v>490</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9608,7 +9686,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="436"/>
+      <c r="B479" s="558"/>
       <c r="C479" s="322" t="s">
         <v>492</v>
       </c>
@@ -9618,7 +9696,7 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="433" t="s">
+      <c r="B481" s="555" t="s">
         <v>493</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9630,7 +9708,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="433"/>
+      <c r="B482" s="555"/>
       <c r="C482" s="324" t="s">
         <v>495</v>
       </c>
@@ -9640,7 +9718,7 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="434" t="s">
+      <c r="B484" s="556" t="s">
         <v>496</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9652,7 +9730,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="434"/>
+      <c r="B485" s="556"/>
       <c r="C485" s="326" t="s">
         <v>498</v>
       </c>
@@ -9662,7 +9740,7 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="431" t="s">
+      <c r="B487" s="561" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9674,7 +9752,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="431"/>
+      <c r="B488" s="561"/>
       <c r="C488" s="328" t="s">
         <v>501</v>
       </c>
@@ -9684,7 +9762,7 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="432" t="s">
+      <c r="B490" s="562" t="s">
         <v>502</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9696,7 +9774,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="432"/>
+      <c r="B491" s="562"/>
       <c r="C491" s="330" t="s">
         <v>504</v>
       </c>
@@ -9706,7 +9784,7 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="429" t="s">
+      <c r="B493" s="559" t="s">
         <v>505</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9718,7 +9796,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="429"/>
+      <c r="B494" s="559"/>
       <c r="C494" s="332" t="s">
         <v>507</v>
       </c>
@@ -9728,7 +9806,7 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="430" t="s">
+      <c r="B496" s="560" t="s">
         <v>508</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9740,7 +9818,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="430"/>
+      <c r="B497" s="560"/>
       <c r="C497" s="334" t="s">
         <v>510</v>
       </c>
@@ -9750,7 +9828,7 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="427" t="s">
+      <c r="B499" s="565" t="s">
         <v>511</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9762,7 +9840,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="427"/>
+      <c r="B500" s="565"/>
       <c r="C500" s="336" t="s">
         <v>513</v>
       </c>
@@ -9772,7 +9850,7 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="428" t="s">
+      <c r="B502" s="566" t="s">
         <v>514</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9784,7 +9862,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="428"/>
+      <c r="B503" s="566"/>
       <c r="C503" s="338" t="s">
         <v>516</v>
       </c>
@@ -9794,7 +9872,7 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="425" t="s">
+      <c r="B505" s="563" t="s">
         <v>517</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -9806,7 +9884,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="425"/>
+      <c r="B506" s="563"/>
       <c r="C506" s="340" t="s">
         <v>519</v>
       </c>
@@ -9816,7 +9894,7 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="426" t="s">
+      <c r="B508" s="564" t="s">
         <v>520</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -9828,7 +9906,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="426"/>
+      <c r="B509" s="564"/>
       <c r="C509" s="342" t="s">
         <v>522</v>
       </c>
@@ -9838,7 +9916,7 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="423" t="s">
+      <c r="B511" s="569" t="s">
         <v>523</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -9850,7 +9928,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="423"/>
+      <c r="B512" s="569"/>
       <c r="C512" s="344" t="s">
         <v>525</v>
       </c>
@@ -9860,7 +9938,7 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="424" t="s">
+      <c r="B514" s="570" t="s">
         <v>526</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -9872,7 +9950,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="424"/>
+      <c r="B515" s="570"/>
       <c r="C515" s="346" t="s">
         <v>528</v>
       </c>
@@ -9882,7 +9960,7 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="421" t="s">
+      <c r="B517" s="567" t="s">
         <v>529</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -9894,7 +9972,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="421"/>
+      <c r="B518" s="567"/>
       <c r="C518" s="348" t="s">
         <v>531</v>
       </c>
@@ -9904,7 +9982,7 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="422" t="s">
+      <c r="B520" s="568" t="s">
         <v>532</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -9916,7 +9994,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="422"/>
+      <c r="B521" s="568"/>
       <c r="C521" s="350" t="s">
         <v>534</v>
       </c>
@@ -9926,7 +10004,7 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="419" t="s">
+      <c r="B523" s="573" t="s">
         <v>535</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -9938,7 +10016,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="419"/>
+      <c r="B524" s="573"/>
       <c r="C524" s="352" t="s">
         <v>537</v>
       </c>
@@ -9948,7 +10026,7 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="420" t="s">
+      <c r="B526" s="574" t="s">
         <v>538</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -9960,7 +10038,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="420"/>
+      <c r="B527" s="574"/>
       <c r="C527" s="354" t="s">
         <v>540</v>
       </c>
@@ -9970,7 +10048,7 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="417" t="s">
+      <c r="B529" s="571" t="s">
         <v>541</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -9982,7 +10060,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="417"/>
+      <c r="B530" s="571"/>
       <c r="C530" s="356" t="s">
         <v>543</v>
       </c>
@@ -9992,7 +10070,7 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="418" t="s">
+      <c r="B532" s="572" t="s">
         <v>544</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -10004,7 +10082,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="418"/>
+      <c r="B533" s="572"/>
       <c r="C533" s="358" t="s">
         <v>546</v>
       </c>
@@ -10014,7 +10092,7 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="415" t="s">
+      <c r="B535" s="577" t="s">
         <v>547</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -10026,7 +10104,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="415"/>
+      <c r="B536" s="577"/>
       <c r="C536" s="360" t="s">
         <v>549</v>
       </c>
@@ -10036,7 +10114,7 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="416" t="s">
+      <c r="B538" s="578" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -10048,7 +10126,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="416"/>
+      <c r="B539" s="578"/>
       <c r="C539" s="362" t="s">
         <v>552</v>
       </c>
@@ -10058,7 +10136,7 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="413" t="s">
+      <c r="B541" s="575" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -10070,7 +10148,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="413"/>
+      <c r="B542" s="575"/>
       <c r="C542" s="364" t="s">
         <v>555</v>
       </c>
@@ -10080,7 +10158,7 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="414" t="s">
+      <c r="B544" s="576" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -10092,7 +10170,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="414"/>
+      <c r="B545" s="576"/>
       <c r="C545" s="366" t="s">
         <v>558</v>
       </c>
@@ -10102,7 +10180,7 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="411" t="s">
+      <c r="B547" s="581" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -10114,7 +10192,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="411"/>
+      <c r="B548" s="581"/>
       <c r="C548" s="368" t="s">
         <v>561</v>
       </c>
@@ -10124,7 +10202,7 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="412" t="s">
+      <c r="B550" s="582" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -10136,7 +10214,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="412"/>
+      <c r="B551" s="582"/>
       <c r="C551" s="370" t="s">
         <v>564</v>
       </c>
@@ -10146,7 +10224,7 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="409" t="s">
+      <c r="B553" s="579" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -10158,7 +10236,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="409"/>
+      <c r="B554" s="579"/>
       <c r="C554" s="372" t="s">
         <v>567</v>
       </c>
@@ -10168,7 +10246,7 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="410" t="s">
+      <c r="B556" s="580" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -10180,7 +10258,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="410"/>
+      <c r="B557" s="580"/>
       <c r="C557" s="374" t="s">
         <v>570</v>
       </c>
@@ -10190,7 +10268,7 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="407" t="s">
+      <c r="B559" s="585" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -10202,7 +10280,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="407"/>
+      <c r="B560" s="585"/>
       <c r="C560" s="376" t="s">
         <v>573</v>
       </c>
@@ -10212,7 +10290,7 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="408" t="s">
+      <c r="B562" s="586" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -10224,7 +10302,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="408"/>
+      <c r="B563" s="586"/>
       <c r="C563" s="378" t="s">
         <v>576</v>
       </c>
@@ -10234,7 +10312,7 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="405" t="s">
+      <c r="B565" s="583" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -10246,7 +10324,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="405"/>
+      <c r="B566" s="583"/>
       <c r="C566" s="380" t="s">
         <v>579</v>
       </c>
@@ -10256,7 +10334,7 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="406" t="s">
+      <c r="B568" s="584" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -10268,7 +10346,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="406"/>
+      <c r="B569" s="584"/>
       <c r="C569" s="382" t="s">
         <v>582</v>
       </c>
@@ -10278,7 +10356,7 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="403" t="s">
+      <c r="B571" s="592" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10290,7 +10368,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="403"/>
+      <c r="B572" s="592"/>
       <c r="C572" s="384" t="s">
         <v>585</v>
       </c>
@@ -10300,7 +10378,7 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="404" t="s">
+      <c r="B574" s="593" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10312,7 +10390,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="404"/>
+      <c r="B575" s="593"/>
       <c r="C575" s="386" t="s">
         <v>588</v>
       </c>
@@ -10322,7 +10400,7 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="397" t="s">
+      <c r="B577" s="587" t="s">
         <v>589</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10334,7 +10412,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="397"/>
+      <c r="B578" s="587"/>
       <c r="C578" s="388" t="s">
         <v>591</v>
       </c>
@@ -10347,33 +10425,567 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="399"/>
-      <c r="B581" s="401"/>
+      <c r="A581" s="588"/>
+      <c r="B581" s="590"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="400"/>
-      <c r="B582" s="402"/>
+      <c r="A582" s="589"/>
+      <c r="B582" s="591"/>
     </row>
   </sheetData>
   <mergeCells count="582">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="A580:D580"/>
+    <mergeCell ref="A581:A582"/>
+    <mergeCell ref="B581:B582"/>
+    <mergeCell ref="A571:A572"/>
+    <mergeCell ref="B571:B572"/>
+    <mergeCell ref="D571:D572"/>
+    <mergeCell ref="A574:A575"/>
+    <mergeCell ref="B574:B575"/>
+    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
@@ -10386,558 +10998,24 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="A580:D580"/>
-    <mergeCell ref="A581:A582"/>
-    <mergeCell ref="B581:B582"/>
-    <mergeCell ref="A571:A572"/>
-    <mergeCell ref="B571:B572"/>
-    <mergeCell ref="D571:D572"/>
-    <mergeCell ref="A574:A575"/>
-    <mergeCell ref="B574:B575"/>
-    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D96FBA7-0423-4656-852B-328080428D40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC7E05BF-B093-4EC2-AE7C-80829CD18D88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="643">
   <si>
     <t>#</t>
   </si>
@@ -1944,6 +1944,15 @@
   </si>
   <si>
     <t>https://www.kugellager-express.de/miniatur-kugellager-mr74-zz-4x7x2-5-mm</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/Linearer-Kugellager-langer-Serie-1pcs-LM6LUU-6-mm-Motion-Liner-Ball-bushing/232391646779?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2060353.m2749.l2649</t>
+  </si>
+  <si>
+    <t>Form linear bearing</t>
+  </si>
+  <si>
+    <t>linear bearing LM6 lUU, 6x12x35mm</t>
   </si>
 </sst>
 </file>
@@ -4354,577 +4363,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4943,6 +4385,573 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5463,10 +5472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M18"/>
+  <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5970,14 +5979,14 @@
         <v>1</v>
       </c>
       <c r="I17" s="394">
-        <f t="shared" ref="I17" si="4">INT((B17-1-L17)/H17+1)</f>
+        <f t="shared" ref="I17:I18" si="4">INT((B17-1-L17)/H17+1)</f>
         <v>4</v>
       </c>
       <c r="J17" s="395">
         <v>1.19</v>
       </c>
       <c r="K17" s="392">
-        <f t="shared" ref="K17" si="5">I17*J17</f>
+        <f t="shared" ref="K17:K18" si="5">I17*J17</f>
         <v>4.76</v>
       </c>
       <c r="L17" s="394">
@@ -5985,7 +5994,38 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K18" s="393">
+      <c r="B18" s="394">
+        <v>3</v>
+      </c>
+      <c r="C18" s="394" t="s">
+        <v>642</v>
+      </c>
+      <c r="D18" s="394" t="s">
+        <v>641</v>
+      </c>
+      <c r="G18" s="391" t="s">
+        <v>640</v>
+      </c>
+      <c r="H18" s="394">
+        <v>1</v>
+      </c>
+      <c r="I18" s="394">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J18" s="395">
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="392">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="L18" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K19" s="393">
         <f>SUM(K3:K11)</f>
         <v>119.94999999999999</v>
       </c>
@@ -6176,7 +6216,7 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="591" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -6188,7 +6228,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="397"/>
+      <c r="B2" s="591"/>
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
@@ -6198,7 +6238,7 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="399" t="s">
+      <c r="B4" s="592" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6210,7 +6250,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="399"/>
+      <c r="B5" s="592"/>
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
@@ -6220,7 +6260,7 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="589" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6232,7 +6272,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="402"/>
+      <c r="B8" s="589"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
@@ -6242,7 +6282,7 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="590" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -6254,7 +6294,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="403"/>
+      <c r="B11" s="590"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
@@ -6264,7 +6304,7 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="400" t="s">
+      <c r="B13" s="593" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6276,7 +6316,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="400"/>
+      <c r="B14" s="593"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
@@ -6286,7 +6326,7 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="401" t="s">
+      <c r="B16" s="588" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -6298,7 +6338,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="401"/>
+      <c r="B17" s="588"/>
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
@@ -6308,7 +6348,7 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="406" t="s">
+      <c r="B19" s="586" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -6320,7 +6360,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="406"/>
+      <c r="B20" s="586"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
@@ -6330,7 +6370,7 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="407" t="s">
+      <c r="B22" s="587" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6342,7 +6382,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="407"/>
+      <c r="B23" s="587"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
@@ -6352,7 +6392,7 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="404" t="s">
+      <c r="B25" s="584" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6364,7 +6404,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="404"/>
+      <c r="B26" s="584"/>
       <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
@@ -6374,7 +6414,7 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="405" t="s">
+      <c r="B28" s="585" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6386,7 +6426,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="405"/>
+      <c r="B29" s="585"/>
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
@@ -6396,7 +6436,7 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="410" t="s">
+      <c r="B31" s="582" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6408,7 +6448,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="410"/>
+      <c r="B32" s="582"/>
       <c r="C32" s="26" t="s">
         <v>48</v>
       </c>
@@ -6418,7 +6458,7 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="411" t="s">
+      <c r="B34" s="583" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6430,7 +6470,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="411"/>
+      <c r="B35" s="583"/>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
@@ -6440,7 +6480,7 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="408" t="s">
+      <c r="B37" s="580" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6452,7 +6492,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="408"/>
+      <c r="B38" s="580"/>
       <c r="C38" s="30" t="s">
         <v>54</v>
       </c>
@@ -6462,7 +6502,7 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="409" t="s">
+      <c r="B40" s="581" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6474,7 +6514,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="409"/>
+      <c r="B41" s="581"/>
       <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
@@ -6484,7 +6524,7 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="414" t="s">
+      <c r="B43" s="578" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6496,7 +6536,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="414"/>
+      <c r="B44" s="578"/>
       <c r="C44" s="34" t="s">
         <v>60</v>
       </c>
@@ -6506,7 +6546,7 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="415" t="s">
+      <c r="B46" s="579" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6518,7 +6558,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="415"/>
+      <c r="B47" s="579"/>
       <c r="C47" s="36" t="s">
         <v>63</v>
       </c>
@@ -6528,7 +6568,7 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="412" t="s">
+      <c r="B49" s="576" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6540,7 +6580,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="412"/>
+      <c r="B50" s="576"/>
       <c r="C50" s="38" t="s">
         <v>66</v>
       </c>
@@ -6550,7 +6590,7 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="413" t="s">
+      <c r="B52" s="577" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6562,7 +6602,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="413"/>
+      <c r="B53" s="577"/>
       <c r="C53" s="40" t="s">
         <v>69</v>
       </c>
@@ -6572,7 +6612,7 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="418" t="s">
+      <c r="B55" s="575" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6584,7 +6624,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="418"/>
+      <c r="B56" s="575"/>
       <c r="C56" s="42" t="s">
         <v>72</v>
       </c>
@@ -6594,7 +6634,7 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="418" t="s">
+      <c r="B58" s="575" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6606,7 +6646,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="418"/>
+      <c r="B59" s="575"/>
       <c r="C59" s="42" t="s">
         <v>72</v>
       </c>
@@ -6616,7 +6656,7 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="416" t="s">
+      <c r="B61" s="573" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6628,7 +6668,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="416"/>
+      <c r="B62" s="573"/>
       <c r="C62" s="44" t="s">
         <v>76</v>
       </c>
@@ -6638,7 +6678,7 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="417" t="s">
+      <c r="B64" s="574" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6650,7 +6690,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="417"/>
+      <c r="B65" s="574"/>
       <c r="C65" s="46" t="s">
         <v>79</v>
       </c>
@@ -6660,7 +6700,7 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="421" t="s">
+      <c r="B67" s="571" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6672,7 +6712,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="421"/>
+      <c r="B68" s="571"/>
       <c r="C68" s="48" t="s">
         <v>82</v>
       </c>
@@ -6682,7 +6722,7 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="422" t="s">
+      <c r="B70" s="572" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6694,7 +6734,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="422"/>
+      <c r="B71" s="572"/>
       <c r="C71" s="50" t="s">
         <v>85</v>
       </c>
@@ -6704,7 +6744,7 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="419" t="s">
+      <c r="B73" s="569" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6716,7 +6756,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="419"/>
+      <c r="B74" s="569"/>
       <c r="C74" s="52" t="s">
         <v>88</v>
       </c>
@@ -6726,7 +6766,7 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="420" t="s">
+      <c r="B76" s="570" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6738,7 +6778,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="420"/>
+      <c r="B77" s="570"/>
       <c r="C77" s="54" t="s">
         <v>91</v>
       </c>
@@ -6748,7 +6788,7 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="425" t="s">
+      <c r="B79" s="567" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6760,7 +6800,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="425"/>
+      <c r="B80" s="567"/>
       <c r="C80" s="56" t="s">
         <v>94</v>
       </c>
@@ -6770,7 +6810,7 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="426" t="s">
+      <c r="B82" s="568" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6782,7 +6822,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="426"/>
+      <c r="B83" s="568"/>
       <c r="C83" s="58" t="s">
         <v>97</v>
       </c>
@@ -6792,7 +6832,7 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="423" t="s">
+      <c r="B85" s="565" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6804,7 +6844,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="423"/>
+      <c r="B86" s="565"/>
       <c r="C86" s="60" t="s">
         <v>100</v>
       </c>
@@ -6814,7 +6854,7 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="424" t="s">
+      <c r="B88" s="566" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6826,7 +6866,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="424"/>
+      <c r="B89" s="566"/>
       <c r="C89" s="62" t="s">
         <v>103</v>
       </c>
@@ -6836,7 +6876,7 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="429" t="s">
+      <c r="B91" s="563" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6848,7 +6888,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="429"/>
+      <c r="B92" s="563"/>
       <c r="C92" s="64" t="s">
         <v>106</v>
       </c>
@@ -6858,7 +6898,7 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="430" t="s">
+      <c r="B94" s="564" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6870,7 +6910,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="430"/>
+      <c r="B95" s="564"/>
       <c r="C95" s="66" t="s">
         <v>109</v>
       </c>
@@ -6880,7 +6920,7 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="427" t="s">
+      <c r="B97" s="561" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -6892,7 +6932,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="427"/>
+      <c r="B98" s="561"/>
       <c r="C98" s="68" t="s">
         <v>112</v>
       </c>
@@ -6902,7 +6942,7 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="428" t="s">
+      <c r="B100" s="562" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -6914,7 +6954,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="428"/>
+      <c r="B101" s="562"/>
       <c r="C101" s="70" t="s">
         <v>115</v>
       </c>
@@ -6924,7 +6964,7 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="433" t="s">
+      <c r="B103" s="559" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -6936,7 +6976,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="433"/>
+      <c r="B104" s="559"/>
       <c r="C104" s="72" t="s">
         <v>118</v>
       </c>
@@ -6946,7 +6986,7 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="434" t="s">
+      <c r="B106" s="560" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -6958,7 +6998,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="434"/>
+      <c r="B107" s="560"/>
       <c r="C107" s="74" t="s">
         <v>121</v>
       </c>
@@ -6968,7 +7008,7 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="431" t="s">
+      <c r="B109" s="557" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -6980,7 +7020,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="431"/>
+      <c r="B110" s="557"/>
       <c r="C110" s="76" t="s">
         <v>124</v>
       </c>
@@ -6990,7 +7030,7 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="432" t="s">
+      <c r="B112" s="558" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -7002,7 +7042,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="432"/>
+      <c r="B113" s="558"/>
       <c r="C113" s="78" t="s">
         <v>127</v>
       </c>
@@ -7012,7 +7052,7 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="437" t="s">
+      <c r="B115" s="555" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -7024,7 +7064,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="437"/>
+      <c r="B116" s="555"/>
       <c r="C116" s="80" t="s">
         <v>130</v>
       </c>
@@ -7034,7 +7074,7 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="438" t="s">
+      <c r="B118" s="556" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -7046,7 +7086,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="438"/>
+      <c r="B119" s="556"/>
       <c r="C119" s="82" t="s">
         <v>133</v>
       </c>
@@ -7056,7 +7096,7 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="435" t="s">
+      <c r="B121" s="553" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -7068,7 +7108,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="435"/>
+      <c r="B122" s="553"/>
       <c r="C122" s="84" t="s">
         <v>136</v>
       </c>
@@ -7078,7 +7118,7 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="436" t="s">
+      <c r="B124" s="554" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -7090,7 +7130,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="436"/>
+      <c r="B125" s="554"/>
       <c r="C125" s="86" t="s">
         <v>139</v>
       </c>
@@ -7100,7 +7140,7 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="441" t="s">
+      <c r="B127" s="551" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -7112,7 +7152,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="441"/>
+      <c r="B128" s="551"/>
       <c r="C128" s="88" t="s">
         <v>142</v>
       </c>
@@ -7122,7 +7162,7 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="442" t="s">
+      <c r="B130" s="552" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -7134,7 +7174,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="442"/>
+      <c r="B131" s="552"/>
       <c r="C131" s="90" t="s">
         <v>145</v>
       </c>
@@ -7144,7 +7184,7 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="439" t="s">
+      <c r="B133" s="549" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -7156,7 +7196,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="439"/>
+      <c r="B134" s="549"/>
       <c r="C134" s="92" t="s">
         <v>148</v>
       </c>
@@ -7166,7 +7206,7 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="440" t="s">
+      <c r="B136" s="550" t="s">
         <v>149</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -7178,7 +7218,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="440"/>
+      <c r="B137" s="550"/>
       <c r="C137" s="94" t="s">
         <v>151</v>
       </c>
@@ -7188,7 +7228,7 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="445" t="s">
+      <c r="B139" s="547" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -7200,7 +7240,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="445"/>
+      <c r="B140" s="547"/>
       <c r="C140" s="96" t="s">
         <v>154</v>
       </c>
@@ -7210,7 +7250,7 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="446" t="s">
+      <c r="B142" s="548" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -7222,7 +7262,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="446"/>
+      <c r="B143" s="548"/>
       <c r="C143" s="98" t="s">
         <v>157</v>
       </c>
@@ -7232,7 +7272,7 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="443" t="s">
+      <c r="B145" s="545" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -7244,7 +7284,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="443"/>
+      <c r="B146" s="545"/>
       <c r="C146" s="100" t="s">
         <v>160</v>
       </c>
@@ -7254,7 +7294,7 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="444" t="s">
+      <c r="B148" s="546" t="s">
         <v>161</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -7266,7 +7306,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="444"/>
+      <c r="B149" s="546"/>
       <c r="C149" s="102" t="s">
         <v>163</v>
       </c>
@@ -7276,7 +7316,7 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="449" t="s">
+      <c r="B151" s="543" t="s">
         <v>164</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -7288,7 +7328,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="449"/>
+      <c r="B152" s="543"/>
       <c r="C152" s="104" t="s">
         <v>166</v>
       </c>
@@ -7298,7 +7338,7 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="450" t="s">
+      <c r="B154" s="544" t="s">
         <v>167</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -7310,7 +7350,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="450"/>
+      <c r="B155" s="544"/>
       <c r="C155" s="106" t="s">
         <v>169</v>
       </c>
@@ -7320,7 +7360,7 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="447" t="s">
+      <c r="B157" s="541" t="s">
         <v>170</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -7332,7 +7372,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="447"/>
+      <c r="B158" s="541"/>
       <c r="C158" s="108" t="s">
         <v>172</v>
       </c>
@@ -7342,7 +7382,7 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="448" t="s">
+      <c r="B160" s="542" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -7354,7 +7394,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="448"/>
+      <c r="B161" s="542"/>
       <c r="C161" s="110" t="s">
         <v>175</v>
       </c>
@@ -7364,7 +7404,7 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="453" t="s">
+      <c r="B163" s="539" t="s">
         <v>176</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7376,7 +7416,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="453"/>
+      <c r="B164" s="539"/>
       <c r="C164" s="112" t="s">
         <v>178</v>
       </c>
@@ -7386,7 +7426,7 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="454" t="s">
+      <c r="B166" s="540" t="s">
         <v>179</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7398,7 +7438,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="454"/>
+      <c r="B167" s="540"/>
       <c r="C167" s="114" t="s">
         <v>181</v>
       </c>
@@ -7408,7 +7448,7 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="451" t="s">
+      <c r="B169" s="537" t="s">
         <v>182</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7420,7 +7460,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="451"/>
+      <c r="B170" s="537"/>
       <c r="C170" s="116" t="s">
         <v>184</v>
       </c>
@@ -7430,7 +7470,7 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="452" t="s">
+      <c r="B172" s="538" t="s">
         <v>185</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7442,7 +7482,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="452"/>
+      <c r="B173" s="538"/>
       <c r="C173" s="118" t="s">
         <v>187</v>
       </c>
@@ -7452,7 +7492,7 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="457" t="s">
+      <c r="B175" s="535" t="s">
         <v>188</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7464,7 +7504,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="457"/>
+      <c r="B176" s="535"/>
       <c r="C176" s="120" t="s">
         <v>190</v>
       </c>
@@ -7474,7 +7514,7 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="458" t="s">
+      <c r="B178" s="536" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7486,7 +7526,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="458"/>
+      <c r="B179" s="536"/>
       <c r="C179" s="122" t="s">
         <v>193</v>
       </c>
@@ -7496,7 +7536,7 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="455" t="s">
+      <c r="B181" s="533" t="s">
         <v>194</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7508,7 +7548,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="455"/>
+      <c r="B182" s="533"/>
       <c r="C182" s="124" t="s">
         <v>196</v>
       </c>
@@ -7518,7 +7558,7 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="456" t="s">
+      <c r="B184" s="534" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7530,7 +7570,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="456"/>
+      <c r="B185" s="534"/>
       <c r="C185" s="126" t="s">
         <v>199</v>
       </c>
@@ -7540,7 +7580,7 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="461" t="s">
+      <c r="B187" s="531" t="s">
         <v>200</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7552,7 +7592,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="461"/>
+      <c r="B188" s="531"/>
       <c r="C188" s="128" t="s">
         <v>202</v>
       </c>
@@ -7562,7 +7602,7 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="462" t="s">
+      <c r="B190" s="532" t="s">
         <v>203</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7574,7 +7614,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="462"/>
+      <c r="B191" s="532"/>
       <c r="C191" s="130" t="s">
         <v>205</v>
       </c>
@@ -7584,7 +7624,7 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="459" t="s">
+      <c r="B193" s="529" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7596,7 +7636,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="459"/>
+      <c r="B194" s="529"/>
       <c r="C194" s="132" t="s">
         <v>208</v>
       </c>
@@ -7606,7 +7646,7 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="460" t="s">
+      <c r="B196" s="530" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7618,7 +7658,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="460"/>
+      <c r="B197" s="530"/>
       <c r="C197" s="134" t="s">
         <v>211</v>
       </c>
@@ -7628,7 +7668,7 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="465" t="s">
+      <c r="B199" s="527" t="s">
         <v>212</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7640,7 +7680,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="465"/>
+      <c r="B200" s="527"/>
       <c r="C200" s="136" t="s">
         <v>214</v>
       </c>
@@ -7650,7 +7690,7 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="466" t="s">
+      <c r="B202" s="528" t="s">
         <v>215</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7662,7 +7702,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="466"/>
+      <c r="B203" s="528"/>
       <c r="C203" s="138" t="s">
         <v>217</v>
       </c>
@@ -7672,7 +7712,7 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="463" t="s">
+      <c r="B205" s="525" t="s">
         <v>218</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7684,7 +7724,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="463"/>
+      <c r="B206" s="525"/>
       <c r="C206" s="140" t="s">
         <v>220</v>
       </c>
@@ -7694,7 +7734,7 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="464" t="s">
+      <c r="B208" s="526" t="s">
         <v>221</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7706,7 +7746,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="464"/>
+      <c r="B209" s="526"/>
       <c r="C209" s="142" t="s">
         <v>223</v>
       </c>
@@ -7716,7 +7756,7 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="469" t="s">
+      <c r="B211" s="523" t="s">
         <v>224</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7728,7 +7768,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="469"/>
+      <c r="B212" s="523"/>
       <c r="C212" s="144" t="s">
         <v>226</v>
       </c>
@@ -7738,7 +7778,7 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="470" t="s">
+      <c r="B214" s="524" t="s">
         <v>227</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7750,7 +7790,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="470"/>
+      <c r="B215" s="524"/>
       <c r="C215" s="146" t="s">
         <v>229</v>
       </c>
@@ -7760,7 +7800,7 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="467" t="s">
+      <c r="B217" s="521" t="s">
         <v>230</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7772,7 +7812,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="467"/>
+      <c r="B218" s="521"/>
       <c r="C218" s="148" t="s">
         <v>232</v>
       </c>
@@ -7782,7 +7822,7 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="468" t="s">
+      <c r="B220" s="522" t="s">
         <v>233</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7794,7 +7834,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="468"/>
+      <c r="B221" s="522"/>
       <c r="C221" s="150" t="s">
         <v>235</v>
       </c>
@@ -7804,7 +7844,7 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="473" t="s">
+      <c r="B223" s="519" t="s">
         <v>236</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7816,7 +7856,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="473"/>
+      <c r="B224" s="519"/>
       <c r="C224" s="152" t="s">
         <v>238</v>
       </c>
@@ -7826,7 +7866,7 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="474" t="s">
+      <c r="B226" s="520" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7838,7 +7878,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="474"/>
+      <c r="B227" s="520"/>
       <c r="C227" s="154" t="s">
         <v>241</v>
       </c>
@@ -7848,7 +7888,7 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="471" t="s">
+      <c r="B229" s="517" t="s">
         <v>242</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7860,7 +7900,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="471"/>
+      <c r="B230" s="517"/>
       <c r="C230" s="156" t="s">
         <v>244</v>
       </c>
@@ -7870,7 +7910,7 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="472" t="s">
+      <c r="B232" s="518" t="s">
         <v>245</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7882,7 +7922,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="472"/>
+      <c r="B233" s="518"/>
       <c r="C233" s="158" t="s">
         <v>247</v>
       </c>
@@ -7892,7 +7932,7 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="477" t="s">
+      <c r="B235" s="515" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -7904,7 +7944,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="477"/>
+      <c r="B236" s="515"/>
       <c r="C236" s="160" t="s">
         <v>250</v>
       </c>
@@ -7914,7 +7954,7 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="478" t="s">
+      <c r="B238" s="516" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -7926,7 +7966,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="478"/>
+      <c r="B239" s="516"/>
       <c r="C239" s="162" t="s">
         <v>253</v>
       </c>
@@ -7936,7 +7976,7 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="475" t="s">
+      <c r="B241" s="513" t="s">
         <v>254</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -7948,7 +7988,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="475"/>
+      <c r="B242" s="513"/>
       <c r="C242" s="164" t="s">
         <v>256</v>
       </c>
@@ -7958,7 +7998,7 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="476" t="s">
+      <c r="B244" s="514" t="s">
         <v>257</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -7970,7 +8010,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="476"/>
+      <c r="B245" s="514"/>
       <c r="C245" s="166" t="s">
         <v>259</v>
       </c>
@@ -7980,7 +8020,7 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="481" t="s">
+      <c r="B247" s="511" t="s">
         <v>260</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -7992,7 +8032,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="481"/>
+      <c r="B248" s="511"/>
       <c r="C248" s="168" t="s">
         <v>262</v>
       </c>
@@ -8002,7 +8042,7 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="482" t="s">
+      <c r="B250" s="512" t="s">
         <v>263</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -8014,7 +8054,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="482"/>
+      <c r="B251" s="512"/>
       <c r="C251" s="170" t="s">
         <v>265</v>
       </c>
@@ -8024,7 +8064,7 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="479" t="s">
+      <c r="B253" s="509" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -8036,7 +8076,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="479"/>
+      <c r="B254" s="509"/>
       <c r="C254" s="172" t="s">
         <v>268</v>
       </c>
@@ -8046,7 +8086,7 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="480" t="s">
+      <c r="B256" s="510" t="s">
         <v>269</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -8058,7 +8098,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="480"/>
+      <c r="B257" s="510"/>
       <c r="C257" s="174" t="s">
         <v>271</v>
       </c>
@@ -8068,7 +8108,7 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="485" t="s">
+      <c r="B259" s="507" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -8080,7 +8120,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="485"/>
+      <c r="B260" s="507"/>
       <c r="C260" s="176" t="s">
         <v>274</v>
       </c>
@@ -8090,7 +8130,7 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="486" t="s">
+      <c r="B262" s="508" t="s">
         <v>275</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -8102,7 +8142,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="486"/>
+      <c r="B263" s="508"/>
       <c r="C263" s="178" t="s">
         <v>277</v>
       </c>
@@ -8112,7 +8152,7 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="483" t="s">
+      <c r="B265" s="505" t="s">
         <v>254</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -8124,7 +8164,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="483"/>
+      <c r="B266" s="505"/>
       <c r="C266" s="180" t="s">
         <v>279</v>
       </c>
@@ -8134,7 +8174,7 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="484" t="s">
+      <c r="B268" s="506" t="s">
         <v>280</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -8146,7 +8186,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="484"/>
+      <c r="B269" s="506"/>
       <c r="C269" s="182" t="s">
         <v>282</v>
       </c>
@@ -8156,7 +8196,7 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="489" t="s">
+      <c r="B271" s="503" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -8168,7 +8208,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="489"/>
+      <c r="B272" s="503"/>
       <c r="C272" s="184" t="s">
         <v>285</v>
       </c>
@@ -8178,7 +8218,7 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="490" t="s">
+      <c r="B274" s="504" t="s">
         <v>286</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -8190,7 +8230,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="490"/>
+      <c r="B275" s="504"/>
       <c r="C275" s="186" t="s">
         <v>288</v>
       </c>
@@ -8200,7 +8240,7 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="487" t="s">
+      <c r="B277" s="501" t="s">
         <v>289</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -8212,7 +8252,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="487"/>
+      <c r="B278" s="501"/>
       <c r="C278" s="188" t="s">
         <v>291</v>
       </c>
@@ -8222,7 +8262,7 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="488" t="s">
+      <c r="B280" s="502" t="s">
         <v>292</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -8234,7 +8274,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="488"/>
+      <c r="B281" s="502"/>
       <c r="C281" s="190" t="s">
         <v>294</v>
       </c>
@@ -8244,7 +8284,7 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="493" t="s">
+      <c r="B283" s="499" t="s">
         <v>295</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -8256,7 +8296,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="493"/>
+      <c r="B284" s="499"/>
       <c r="C284" s="192" t="s">
         <v>297</v>
       </c>
@@ -8266,7 +8306,7 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="494" t="s">
+      <c r="B286" s="500" t="s">
         <v>298</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -8278,7 +8318,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="494"/>
+      <c r="B287" s="500"/>
       <c r="C287" s="194" t="s">
         <v>300</v>
       </c>
@@ -8288,7 +8328,7 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="491" t="s">
+      <c r="B289" s="497" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -8300,7 +8340,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="491"/>
+      <c r="B290" s="497"/>
       <c r="C290" s="196" t="s">
         <v>303</v>
       </c>
@@ -8310,7 +8350,7 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="492" t="s">
+      <c r="B292" s="498" t="s">
         <v>304</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -8322,7 +8362,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="492"/>
+      <c r="B293" s="498"/>
       <c r="C293" s="198" t="s">
         <v>306</v>
       </c>
@@ -8332,7 +8372,7 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="497" t="s">
+      <c r="B295" s="495" t="s">
         <v>307</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -8344,7 +8384,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="497"/>
+      <c r="B296" s="495"/>
       <c r="C296" s="200" t="s">
         <v>309</v>
       </c>
@@ -8354,7 +8394,7 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="498" t="s">
+      <c r="B298" s="496" t="s">
         <v>310</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8366,7 +8406,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="498"/>
+      <c r="B299" s="496"/>
       <c r="C299" s="202" t="s">
         <v>312</v>
       </c>
@@ -8376,7 +8416,7 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="495" t="s">
+      <c r="B301" s="493" t="s">
         <v>313</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8388,7 +8428,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="495"/>
+      <c r="B302" s="493"/>
       <c r="C302" s="204" t="s">
         <v>315</v>
       </c>
@@ -8398,7 +8438,7 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="496" t="s">
+      <c r="B304" s="494" t="s">
         <v>316</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8410,7 +8450,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="496"/>
+      <c r="B305" s="494"/>
       <c r="C305" s="206" t="s">
         <v>318</v>
       </c>
@@ -8420,7 +8460,7 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="501" t="s">
+      <c r="B307" s="491" t="s">
         <v>319</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8432,7 +8472,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="501"/>
+      <c r="B308" s="491"/>
       <c r="C308" s="208" t="s">
         <v>321</v>
       </c>
@@ -8442,7 +8482,7 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="502" t="s">
+      <c r="B310" s="492" t="s">
         <v>322</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8454,7 +8494,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="502"/>
+      <c r="B311" s="492"/>
       <c r="C311" s="210" t="s">
         <v>324</v>
       </c>
@@ -8464,7 +8504,7 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="499" t="s">
+      <c r="B313" s="489" t="s">
         <v>325</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8476,7 +8516,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="499"/>
+      <c r="B314" s="489"/>
       <c r="C314" s="212" t="s">
         <v>327</v>
       </c>
@@ -8486,7 +8526,7 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="500" t="s">
+      <c r="B316" s="490" t="s">
         <v>328</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8498,7 +8538,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="500"/>
+      <c r="B317" s="490"/>
       <c r="C317" s="214" t="s">
         <v>330</v>
       </c>
@@ -8508,7 +8548,7 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="505" t="s">
+      <c r="B319" s="487" t="s">
         <v>331</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8520,7 +8560,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="505"/>
+      <c r="B320" s="487"/>
       <c r="C320" s="216" t="s">
         <v>333</v>
       </c>
@@ -8530,7 +8570,7 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="506" t="s">
+      <c r="B322" s="488" t="s">
         <v>334</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8542,7 +8582,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="506"/>
+      <c r="B323" s="488"/>
       <c r="C323" s="218" t="s">
         <v>336</v>
       </c>
@@ -8552,7 +8592,7 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="503" t="s">
+      <c r="B325" s="485" t="s">
         <v>337</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8564,7 +8604,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="503"/>
+      <c r="B326" s="485"/>
       <c r="C326" s="220" t="s">
         <v>339</v>
       </c>
@@ -8574,7 +8614,7 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="504" t="s">
+      <c r="B328" s="486" t="s">
         <v>340</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8586,7 +8626,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="504"/>
+      <c r="B329" s="486"/>
       <c r="C329" s="222" t="s">
         <v>342</v>
       </c>
@@ -8596,7 +8636,7 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="509" t="s">
+      <c r="B331" s="483" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8608,7 +8648,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="509"/>
+      <c r="B332" s="483"/>
       <c r="C332" s="224" t="s">
         <v>345</v>
       </c>
@@ -8618,7 +8658,7 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="510" t="s">
+      <c r="B334" s="484" t="s">
         <v>346</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8630,7 +8670,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="510"/>
+      <c r="B335" s="484"/>
       <c r="C335" s="226" t="s">
         <v>348</v>
       </c>
@@ -8640,7 +8680,7 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="507" t="s">
+      <c r="B337" s="481" t="s">
         <v>349</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8652,7 +8692,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="507"/>
+      <c r="B338" s="481"/>
       <c r="C338" s="228" t="s">
         <v>351</v>
       </c>
@@ -8662,7 +8702,7 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="508" t="s">
+      <c r="B340" s="482" t="s">
         <v>352</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8674,7 +8714,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="508"/>
+      <c r="B341" s="482"/>
       <c r="C341" s="230" t="s">
         <v>354</v>
       </c>
@@ -8684,7 +8724,7 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="513" t="s">
+      <c r="B343" s="479" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8696,7 +8736,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="513"/>
+      <c r="B344" s="479"/>
       <c r="C344" s="232" t="s">
         <v>357</v>
       </c>
@@ -8706,7 +8746,7 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="514" t="s">
+      <c r="B346" s="480" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8718,7 +8758,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="514"/>
+      <c r="B347" s="480"/>
       <c r="C347" s="234" t="s">
         <v>360</v>
       </c>
@@ -8728,7 +8768,7 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="511" t="s">
+      <c r="B349" s="477" t="s">
         <v>361</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8740,7 +8780,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="511"/>
+      <c r="B350" s="477"/>
       <c r="C350" s="236" t="s">
         <v>363</v>
       </c>
@@ -8750,7 +8790,7 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="512" t="s">
+      <c r="B352" s="478" t="s">
         <v>364</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8762,7 +8802,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="512"/>
+      <c r="B353" s="478"/>
       <c r="C353" s="238" t="s">
         <v>366</v>
       </c>
@@ -8772,7 +8812,7 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="517" t="s">
+      <c r="B355" s="475" t="s">
         <v>367</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8784,7 +8824,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="517"/>
+      <c r="B356" s="475"/>
       <c r="C356" s="240" t="s">
         <v>369</v>
       </c>
@@ -8794,7 +8834,7 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="518" t="s">
+      <c r="B358" s="476" t="s">
         <v>370</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8806,7 +8846,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="518"/>
+      <c r="B359" s="476"/>
       <c r="C359" s="242" t="s">
         <v>372</v>
       </c>
@@ -8816,7 +8856,7 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="515" t="s">
+      <c r="B361" s="473" t="s">
         <v>373</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8828,7 +8868,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="515"/>
+      <c r="B362" s="473"/>
       <c r="C362" s="244" t="s">
         <v>375</v>
       </c>
@@ -8838,7 +8878,7 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="516" t="s">
+      <c r="B364" s="474" t="s">
         <v>376</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8850,7 +8890,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="516"/>
+      <c r="B365" s="474"/>
       <c r="C365" s="246" t="s">
         <v>378</v>
       </c>
@@ -8860,7 +8900,7 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="521" t="s">
+      <c r="B367" s="471" t="s">
         <v>379</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8872,7 +8912,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="521"/>
+      <c r="B368" s="471"/>
       <c r="C368" s="248" t="s">
         <v>381</v>
       </c>
@@ -8882,7 +8922,7 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="522" t="s">
+      <c r="B370" s="472" t="s">
         <v>382</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -8894,7 +8934,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="522"/>
+      <c r="B371" s="472"/>
       <c r="C371" s="250" t="s">
         <v>384</v>
       </c>
@@ -8904,7 +8944,7 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="519" t="s">
+      <c r="B373" s="469" t="s">
         <v>385</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -8916,7 +8956,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="519"/>
+      <c r="B374" s="469"/>
       <c r="C374" s="252" t="s">
         <v>387</v>
       </c>
@@ -8926,7 +8966,7 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="520" t="s">
+      <c r="B376" s="470" t="s">
         <v>388</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -8938,7 +8978,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="520"/>
+      <c r="B377" s="470"/>
       <c r="C377" s="254" t="s">
         <v>390</v>
       </c>
@@ -8948,7 +8988,7 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="525" t="s">
+      <c r="B379" s="467" t="s">
         <v>391</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -8960,7 +9000,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="525"/>
+      <c r="B380" s="467"/>
       <c r="C380" s="256" t="s">
         <v>393</v>
       </c>
@@ -8970,7 +9010,7 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="526" t="s">
+      <c r="B382" s="468" t="s">
         <v>394</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -8982,7 +9022,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="526"/>
+      <c r="B383" s="468"/>
       <c r="C383" s="258" t="s">
         <v>396</v>
       </c>
@@ -8992,7 +9032,7 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="523" t="s">
+      <c r="B385" s="465" t="s">
         <v>397</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -9004,7 +9044,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="523"/>
+      <c r="B386" s="465"/>
       <c r="C386" s="260" t="s">
         <v>399</v>
       </c>
@@ -9014,7 +9054,7 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="524" t="s">
+      <c r="B388" s="466" t="s">
         <v>400</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -9026,7 +9066,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="524"/>
+      <c r="B389" s="466"/>
       <c r="C389" s="262" t="s">
         <v>402</v>
       </c>
@@ -9036,7 +9076,7 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="529" t="s">
+      <c r="B391" s="463" t="s">
         <v>403</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -9048,7 +9088,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="529"/>
+      <c r="B392" s="463"/>
       <c r="C392" s="264" t="s">
         <v>405</v>
       </c>
@@ -9058,7 +9098,7 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="530" t="s">
+      <c r="B394" s="464" t="s">
         <v>406</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -9070,7 +9110,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="530"/>
+      <c r="B395" s="464"/>
       <c r="C395" s="266" t="s">
         <v>408</v>
       </c>
@@ -9080,7 +9120,7 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="527" t="s">
+      <c r="B397" s="461" t="s">
         <v>409</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -9092,7 +9132,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="527"/>
+      <c r="B398" s="461"/>
       <c r="C398" s="268" t="s">
         <v>411</v>
       </c>
@@ -9102,7 +9142,7 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="528" t="s">
+      <c r="B400" s="462" t="s">
         <v>412</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -9114,7 +9154,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="528"/>
+      <c r="B401" s="462"/>
       <c r="C401" s="270" t="s">
         <v>414</v>
       </c>
@@ -9124,7 +9164,7 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="533" t="s">
+      <c r="B403" s="459" t="s">
         <v>415</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -9136,7 +9176,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="533"/>
+      <c r="B404" s="459"/>
       <c r="C404" s="272" t="s">
         <v>417</v>
       </c>
@@ -9146,7 +9186,7 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="534" t="s">
+      <c r="B406" s="460" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -9158,7 +9198,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="534"/>
+      <c r="B407" s="460"/>
       <c r="C407" s="274" t="s">
         <v>420</v>
       </c>
@@ -9168,7 +9208,7 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="531" t="s">
+      <c r="B409" s="457" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -9180,7 +9220,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="531"/>
+      <c r="B410" s="457"/>
       <c r="C410" s="276" t="s">
         <v>423</v>
       </c>
@@ -9190,7 +9230,7 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="532" t="s">
+      <c r="B412" s="458" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -9202,7 +9242,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="532"/>
+      <c r="B413" s="458"/>
       <c r="C413" s="278" t="s">
         <v>426</v>
       </c>
@@ -9212,7 +9252,7 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="537" t="s">
+      <c r="B415" s="455" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -9224,7 +9264,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="537"/>
+      <c r="B416" s="455"/>
       <c r="C416" s="280" t="s">
         <v>429</v>
       </c>
@@ -9234,7 +9274,7 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="538" t="s">
+      <c r="B418" s="456" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -9246,7 +9286,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="538"/>
+      <c r="B419" s="456"/>
       <c r="C419" s="282" t="s">
         <v>432</v>
       </c>
@@ -9256,7 +9296,7 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="535" t="s">
+      <c r="B421" s="453" t="s">
         <v>433</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -9268,7 +9308,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="535"/>
+      <c r="B422" s="453"/>
       <c r="C422" s="284" t="s">
         <v>435</v>
       </c>
@@ -9278,7 +9318,7 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="536" t="s">
+      <c r="B424" s="454" t="s">
         <v>436</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -9290,7 +9330,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="536"/>
+      <c r="B425" s="454"/>
       <c r="C425" s="286" t="s">
         <v>438</v>
       </c>
@@ -9300,7 +9340,7 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="541" t="s">
+      <c r="B427" s="451" t="s">
         <v>439</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -9312,7 +9352,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="541"/>
+      <c r="B428" s="451"/>
       <c r="C428" s="288" t="s">
         <v>441</v>
       </c>
@@ -9322,7 +9362,7 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="542" t="s">
+      <c r="B430" s="452" t="s">
         <v>442</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -9334,7 +9374,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="542"/>
+      <c r="B431" s="452"/>
       <c r="C431" s="290" t="s">
         <v>444</v>
       </c>
@@ -9344,7 +9384,7 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="539" t="s">
+      <c r="B433" s="449" t="s">
         <v>445</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -9356,7 +9396,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="539"/>
+      <c r="B434" s="449"/>
       <c r="C434" s="292" t="s">
         <v>447</v>
       </c>
@@ -9366,7 +9406,7 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="540" t="s">
+      <c r="B436" s="450" t="s">
         <v>448</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9378,7 +9418,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="540"/>
+      <c r="B437" s="450"/>
       <c r="C437" s="294" t="s">
         <v>450</v>
       </c>
@@ -9388,7 +9428,7 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="545" t="s">
+      <c r="B439" s="447" t="s">
         <v>451</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9400,7 +9440,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="545"/>
+      <c r="B440" s="447"/>
       <c r="C440" s="296" t="s">
         <v>453</v>
       </c>
@@ -9410,7 +9450,7 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="546" t="s">
+      <c r="B442" s="448" t="s">
         <v>454</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9422,7 +9462,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="546"/>
+      <c r="B443" s="448"/>
       <c r="C443" s="298" t="s">
         <v>456</v>
       </c>
@@ -9432,7 +9472,7 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="543" t="s">
+      <c r="B445" s="445" t="s">
         <v>457</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9444,7 +9484,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="543"/>
+      <c r="B446" s="445"/>
       <c r="C446" s="300" t="s">
         <v>459</v>
       </c>
@@ -9454,7 +9494,7 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="544" t="s">
+      <c r="B448" s="446" t="s">
         <v>460</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9466,7 +9506,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="544"/>
+      <c r="B449" s="446"/>
       <c r="C449" s="302" t="s">
         <v>462</v>
       </c>
@@ -9476,7 +9516,7 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="549" t="s">
+      <c r="B451" s="443" t="s">
         <v>463</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9488,7 +9528,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="549"/>
+      <c r="B452" s="443"/>
       <c r="C452" s="304" t="s">
         <v>465</v>
       </c>
@@ -9498,7 +9538,7 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="550" t="s">
+      <c r="B454" s="444" t="s">
         <v>466</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9510,7 +9550,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="550"/>
+      <c r="B455" s="444"/>
       <c r="C455" s="306" t="s">
         <v>468</v>
       </c>
@@ -9520,7 +9560,7 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="547" t="s">
+      <c r="B457" s="441" t="s">
         <v>469</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9532,7 +9572,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="547"/>
+      <c r="B458" s="441"/>
       <c r="C458" s="308" t="s">
         <v>471</v>
       </c>
@@ -9542,7 +9582,7 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="548" t="s">
+      <c r="B460" s="442" t="s">
         <v>472</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9554,7 +9594,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="548"/>
+      <c r="B461" s="442"/>
       <c r="C461" s="310" t="s">
         <v>474</v>
       </c>
@@ -9564,7 +9604,7 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="553" t="s">
+      <c r="B463" s="439" t="s">
         <v>475</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9576,7 +9616,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="553"/>
+      <c r="B464" s="439"/>
       <c r="C464" s="312" t="s">
         <v>477</v>
       </c>
@@ -9586,7 +9626,7 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="554" t="s">
+      <c r="B466" s="440" t="s">
         <v>478</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9598,7 +9638,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="554"/>
+      <c r="B467" s="440"/>
       <c r="C467" s="314" t="s">
         <v>480</v>
       </c>
@@ -9608,7 +9648,7 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="551" t="s">
+      <c r="B469" s="437" t="s">
         <v>481</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9620,7 +9660,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="551"/>
+      <c r="B470" s="437"/>
       <c r="C470" s="316" t="s">
         <v>483</v>
       </c>
@@ -9630,7 +9670,7 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="552" t="s">
+      <c r="B472" s="438" t="s">
         <v>484</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9642,7 +9682,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="552"/>
+      <c r="B473" s="438"/>
       <c r="C473" s="318" t="s">
         <v>486</v>
       </c>
@@ -9652,7 +9692,7 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="557" t="s">
+      <c r="B475" s="435" t="s">
         <v>487</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9664,7 +9704,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="557"/>
+      <c r="B476" s="435"/>
       <c r="C476" s="320" t="s">
         <v>489</v>
       </c>
@@ -9674,7 +9714,7 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="558" t="s">
+      <c r="B478" s="436" t="s">
         <v>490</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9686,7 +9726,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="558"/>
+      <c r="B479" s="436"/>
       <c r="C479" s="322" t="s">
         <v>492</v>
       </c>
@@ -9696,7 +9736,7 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="555" t="s">
+      <c r="B481" s="433" t="s">
         <v>493</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9708,7 +9748,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="555"/>
+      <c r="B482" s="433"/>
       <c r="C482" s="324" t="s">
         <v>495</v>
       </c>
@@ -9718,7 +9758,7 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="556" t="s">
+      <c r="B484" s="434" t="s">
         <v>496</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9730,7 +9770,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="556"/>
+      <c r="B485" s="434"/>
       <c r="C485" s="326" t="s">
         <v>498</v>
       </c>
@@ -9740,7 +9780,7 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="561" t="s">
+      <c r="B487" s="431" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9752,7 +9792,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="561"/>
+      <c r="B488" s="431"/>
       <c r="C488" s="328" t="s">
         <v>501</v>
       </c>
@@ -9762,7 +9802,7 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="562" t="s">
+      <c r="B490" s="432" t="s">
         <v>502</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9774,7 +9814,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="562"/>
+      <c r="B491" s="432"/>
       <c r="C491" s="330" t="s">
         <v>504</v>
       </c>
@@ -9784,7 +9824,7 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="559" t="s">
+      <c r="B493" s="429" t="s">
         <v>505</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9796,7 +9836,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="559"/>
+      <c r="B494" s="429"/>
       <c r="C494" s="332" t="s">
         <v>507</v>
       </c>
@@ -9806,7 +9846,7 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="560" t="s">
+      <c r="B496" s="430" t="s">
         <v>508</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9818,7 +9858,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="560"/>
+      <c r="B497" s="430"/>
       <c r="C497" s="334" t="s">
         <v>510</v>
       </c>
@@ -9828,7 +9868,7 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="565" t="s">
+      <c r="B499" s="427" t="s">
         <v>511</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9840,7 +9880,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="565"/>
+      <c r="B500" s="427"/>
       <c r="C500" s="336" t="s">
         <v>513</v>
       </c>
@@ -9850,7 +9890,7 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="566" t="s">
+      <c r="B502" s="428" t="s">
         <v>514</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9862,7 +9902,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="566"/>
+      <c r="B503" s="428"/>
       <c r="C503" s="338" t="s">
         <v>516</v>
       </c>
@@ -9872,7 +9912,7 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="563" t="s">
+      <c r="B505" s="425" t="s">
         <v>517</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -9884,7 +9924,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="563"/>
+      <c r="B506" s="425"/>
       <c r="C506" s="340" t="s">
         <v>519</v>
       </c>
@@ -9894,7 +9934,7 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="564" t="s">
+      <c r="B508" s="426" t="s">
         <v>520</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -9906,7 +9946,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="564"/>
+      <c r="B509" s="426"/>
       <c r="C509" s="342" t="s">
         <v>522</v>
       </c>
@@ -9916,7 +9956,7 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="569" t="s">
+      <c r="B511" s="423" t="s">
         <v>523</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -9928,7 +9968,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="569"/>
+      <c r="B512" s="423"/>
       <c r="C512" s="344" t="s">
         <v>525</v>
       </c>
@@ -9938,7 +9978,7 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="570" t="s">
+      <c r="B514" s="424" t="s">
         <v>526</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -9950,7 +9990,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="570"/>
+      <c r="B515" s="424"/>
       <c r="C515" s="346" t="s">
         <v>528</v>
       </c>
@@ -9960,7 +10000,7 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="567" t="s">
+      <c r="B517" s="421" t="s">
         <v>529</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -9972,7 +10012,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="567"/>
+      <c r="B518" s="421"/>
       <c r="C518" s="348" t="s">
         <v>531</v>
       </c>
@@ -9982,7 +10022,7 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="568" t="s">
+      <c r="B520" s="422" t="s">
         <v>532</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -9994,7 +10034,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="568"/>
+      <c r="B521" s="422"/>
       <c r="C521" s="350" t="s">
         <v>534</v>
       </c>
@@ -10004,7 +10044,7 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="573" t="s">
+      <c r="B523" s="419" t="s">
         <v>535</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -10016,7 +10056,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="573"/>
+      <c r="B524" s="419"/>
       <c r="C524" s="352" t="s">
         <v>537</v>
       </c>
@@ -10026,7 +10066,7 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="574" t="s">
+      <c r="B526" s="420" t="s">
         <v>538</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -10038,7 +10078,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="574"/>
+      <c r="B527" s="420"/>
       <c r="C527" s="354" t="s">
         <v>540</v>
       </c>
@@ -10048,7 +10088,7 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="571" t="s">
+      <c r="B529" s="417" t="s">
         <v>541</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -10060,7 +10100,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="571"/>
+      <c r="B530" s="417"/>
       <c r="C530" s="356" t="s">
         <v>543</v>
       </c>
@@ -10070,7 +10110,7 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="572" t="s">
+      <c r="B532" s="418" t="s">
         <v>544</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -10082,7 +10122,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="572"/>
+      <c r="B533" s="418"/>
       <c r="C533" s="358" t="s">
         <v>546</v>
       </c>
@@ -10092,7 +10132,7 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="577" t="s">
+      <c r="B535" s="415" t="s">
         <v>547</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -10104,7 +10144,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="577"/>
+      <c r="B536" s="415"/>
       <c r="C536" s="360" t="s">
         <v>549</v>
       </c>
@@ -10114,7 +10154,7 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="578" t="s">
+      <c r="B538" s="416" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -10126,7 +10166,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="578"/>
+      <c r="B539" s="416"/>
       <c r="C539" s="362" t="s">
         <v>552</v>
       </c>
@@ -10136,7 +10176,7 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="575" t="s">
+      <c r="B541" s="413" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -10148,7 +10188,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="575"/>
+      <c r="B542" s="413"/>
       <c r="C542" s="364" t="s">
         <v>555</v>
       </c>
@@ -10158,7 +10198,7 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="576" t="s">
+      <c r="B544" s="414" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -10170,7 +10210,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="576"/>
+      <c r="B545" s="414"/>
       <c r="C545" s="366" t="s">
         <v>558</v>
       </c>
@@ -10180,7 +10220,7 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="581" t="s">
+      <c r="B547" s="411" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -10192,7 +10232,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="581"/>
+      <c r="B548" s="411"/>
       <c r="C548" s="368" t="s">
         <v>561</v>
       </c>
@@ -10202,7 +10242,7 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="582" t="s">
+      <c r="B550" s="412" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -10214,7 +10254,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="582"/>
+      <c r="B551" s="412"/>
       <c r="C551" s="370" t="s">
         <v>564</v>
       </c>
@@ -10224,7 +10264,7 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="579" t="s">
+      <c r="B553" s="409" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -10236,7 +10276,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="579"/>
+      <c r="B554" s="409"/>
       <c r="C554" s="372" t="s">
         <v>567</v>
       </c>
@@ -10246,7 +10286,7 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="580" t="s">
+      <c r="B556" s="410" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -10258,7 +10298,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="580"/>
+      <c r="B557" s="410"/>
       <c r="C557" s="374" t="s">
         <v>570</v>
       </c>
@@ -10268,7 +10308,7 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="585" t="s">
+      <c r="B559" s="407" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -10280,7 +10320,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="585"/>
+      <c r="B560" s="407"/>
       <c r="C560" s="376" t="s">
         <v>573</v>
       </c>
@@ -10290,7 +10330,7 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="586" t="s">
+      <c r="B562" s="408" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -10302,7 +10342,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="586"/>
+      <c r="B563" s="408"/>
       <c r="C563" s="378" t="s">
         <v>576</v>
       </c>
@@ -10312,7 +10352,7 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="583" t="s">
+      <c r="B565" s="405" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -10324,7 +10364,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="583"/>
+      <c r="B566" s="405"/>
       <c r="C566" s="380" t="s">
         <v>579</v>
       </c>
@@ -10334,7 +10374,7 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="584" t="s">
+      <c r="B568" s="406" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -10346,7 +10386,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="584"/>
+      <c r="B569" s="406"/>
       <c r="C569" s="382" t="s">
         <v>582</v>
       </c>
@@ -10356,7 +10396,7 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="592" t="s">
+      <c r="B571" s="403" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10368,7 +10408,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="592"/>
+      <c r="B572" s="403"/>
       <c r="C572" s="384" t="s">
         <v>585</v>
       </c>
@@ -10378,7 +10418,7 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="593" t="s">
+      <c r="B574" s="404" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10390,7 +10430,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="593"/>
+      <c r="B575" s="404"/>
       <c r="C575" s="386" t="s">
         <v>588</v>
       </c>
@@ -10400,7 +10440,7 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="587" t="s">
+      <c r="B577" s="397" t="s">
         <v>589</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10412,7 +10452,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="587"/>
+      <c r="B578" s="397"/>
       <c r="C578" s="388" t="s">
         <v>591</v>
       </c>
@@ -10425,15 +10465,585 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="588"/>
-      <c r="B581" s="590"/>
+      <c r="A581" s="399"/>
+      <c r="B581" s="401"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="589"/>
-      <c r="B582" s="591"/>
+      <c r="A582" s="400"/>
+      <c r="B582" s="402"/>
     </row>
   </sheetData>
   <mergeCells count="582">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
     <mergeCell ref="A577:A578"/>
     <mergeCell ref="B577:B578"/>
     <mergeCell ref="D577:D578"/>
@@ -10446,576 +11056,6 @@
     <mergeCell ref="A574:A575"/>
     <mergeCell ref="B574:B575"/>
     <mergeCell ref="D574:D575"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC7E05BF-B093-4EC2-AE7C-80829CD18D88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E70728D-7DDC-4B30-A94E-63A825EC1072}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1946,13 +1946,13 @@
     <t>https://www.kugellager-express.de/miniatur-kugellager-mr74-zz-4x7x2-5-mm</t>
   </si>
   <si>
-    <t>https://www.ebay.de/itm/Linearer-Kugellager-langer-Serie-1pcs-LM6LUU-6-mm-Motion-Liner-Ball-bushing/232391646779?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2060353.m2749.l2649</t>
-  </si>
-  <si>
-    <t>Form linear bearing</t>
-  </si>
-  <si>
-    <t>linear bearing LM6 lUU, 6x12x35mm</t>
+    <t>https://www.pololu.com/product/3432</t>
+  </si>
+  <si>
+    <t>Rotational Servo Parallax 360°</t>
+  </si>
+  <si>
+    <t>Form Lifting Servo</t>
   </si>
 </sst>
 </file>
@@ -5472,10 +5472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M19"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="394">
-        <f t="shared" ref="I17:I18" si="4">INT((B17-1-L17)/H17+1)</f>
+        <f t="shared" ref="I17" si="4">INT((B17-1-L17)/H17+1)</f>
         <v>4</v>
       </c>
       <c r="J17" s="395">
@@ -5995,13 +5995,13 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="394">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="394" t="s">
+        <v>641</v>
+      </c>
+      <c r="D18" s="394" t="s">
         <v>642</v>
-      </c>
-      <c r="D18" s="394" t="s">
-        <v>641</v>
       </c>
       <c r="G18" s="391" t="s">
         <v>640</v>
@@ -6010,24 +6010,33 @@
         <v>1</v>
       </c>
       <c r="I18" s="394">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="395">
-        <v>1.5</v>
+        <v>29.9</v>
       </c>
       <c r="K18" s="392">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>29.9</v>
       </c>
       <c r="L18" s="394">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K19" s="393">
-        <f>SUM(K3:K11)</f>
-        <v>119.94999999999999</v>
+      <c r="B19" s="394"/>
+      <c r="C19" s="394"/>
+      <c r="D19" s="394"/>
+      <c r="H19" s="394"/>
+      <c r="I19" s="394"/>
+      <c r="J19" s="395"/>
+      <c r="K19" s="392"/>
+      <c r="L19" s="394"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K20" s="393">
+        <f>SUM(K3:K17)</f>
+        <v>192.82999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E70728D-7DDC-4B30-A94E-63A825EC1072}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7623002F-8EF0-4326-8BE8-7AF0A30AB929}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="649">
   <si>
     <t>#</t>
   </si>
@@ -1953,6 +1953,24 @@
   </si>
   <si>
     <t>Form Lifting Servo</t>
+  </si>
+  <si>
+    <t>https://drotek.com/shop/en/home/212-brushless-gimbal-controller-l6234.html</t>
+  </si>
+  <si>
+    <t>Triple half bridge  brushless motor driver</t>
+  </si>
+  <si>
+    <t>Brushless Motor Driver</t>
+  </si>
+  <si>
+    <t>https://spinblades.com/Reduzierhuelsen-5mm-4mm_1</t>
+  </si>
+  <si>
+    <t>Reduzierhülsen 5mm 4mm</t>
+  </si>
+  <si>
+    <t>Reduzierhülse for Belt pulleys</t>
   </si>
 </sst>
 </file>
@@ -4363,10 +4381,577 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4385,573 +4970,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5472,10 +5490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5986,7 +6004,7 @@
         <v>1.19</v>
       </c>
       <c r="K17" s="392">
-        <f t="shared" ref="K17:K18" si="5">I17*J17</f>
+        <f t="shared" ref="K17:K19" si="5">I17*J17</f>
         <v>4.76</v>
       </c>
       <c r="L17" s="394">
@@ -6024,17 +6042,66 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="394"/>
-      <c r="C19" s="394"/>
-      <c r="D19" s="394"/>
-      <c r="H19" s="394"/>
-      <c r="I19" s="394"/>
-      <c r="J19" s="395"/>
-      <c r="K19" s="392"/>
-      <c r="L19" s="394"/>
+      <c r="B19" s="394">
+        <v>9</v>
+      </c>
+      <c r="C19" s="394" t="s">
+        <v>647</v>
+      </c>
+      <c r="D19" s="394" t="s">
+        <v>648</v>
+      </c>
+      <c r="G19" s="391" t="s">
+        <v>646</v>
+      </c>
+      <c r="H19" s="394">
+        <v>1</v>
+      </c>
+      <c r="I19" s="394">
+        <v>1</v>
+      </c>
+      <c r="J19" s="395">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="392">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="L19" s="394">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K20" s="393">
+      <c r="B20" s="394">
+        <v>3</v>
+      </c>
+      <c r="C20" s="394" t="s">
+        <v>645</v>
+      </c>
+      <c r="D20" s="394" t="s">
+        <v>644</v>
+      </c>
+      <c r="G20" s="391" t="s">
+        <v>643</v>
+      </c>
+      <c r="H20" s="394"/>
+      <c r="I20" s="394"/>
+      <c r="J20" s="395"/>
+      <c r="K20" s="392"/>
+      <c r="L20" s="394"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="394"/>
+      <c r="C21" s="394"/>
+      <c r="D21" s="394"/>
+      <c r="H21" s="394"/>
+      <c r="I21" s="394"/>
+      <c r="J21" s="395"/>
+      <c r="K21" s="392"/>
+      <c r="L21" s="394"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K22" s="393">
         <f>SUM(K3:K17)</f>
         <v>192.82999999999998</v>
       </c>
@@ -6225,7 +6292,7 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="591" t="s">
+      <c r="B1" s="397" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -6237,7 +6304,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="591"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
@@ -6247,7 +6314,7 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="592" t="s">
+      <c r="B4" s="399" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6259,7 +6326,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="592"/>
+      <c r="B5" s="399"/>
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
@@ -6269,7 +6336,7 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="589" t="s">
+      <c r="B7" s="402" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6281,7 +6348,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="589"/>
+      <c r="B8" s="402"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
@@ -6291,7 +6358,7 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="590" t="s">
+      <c r="B10" s="403" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -6303,7 +6370,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="590"/>
+      <c r="B11" s="403"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
@@ -6313,7 +6380,7 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="593" t="s">
+      <c r="B13" s="400" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6325,7 +6392,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="593"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
@@ -6335,7 +6402,7 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="401" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -6347,7 +6414,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="588"/>
+      <c r="B17" s="401"/>
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
@@ -6357,7 +6424,7 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="586" t="s">
+      <c r="B19" s="406" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -6369,7 +6436,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="586"/>
+      <c r="B20" s="406"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
@@ -6379,7 +6446,7 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="587" t="s">
+      <c r="B22" s="407" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6391,7 +6458,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="587"/>
+      <c r="B23" s="407"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
@@ -6401,7 +6468,7 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="584" t="s">
+      <c r="B25" s="404" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6413,7 +6480,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="584"/>
+      <c r="B26" s="404"/>
       <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
@@ -6423,7 +6490,7 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="585" t="s">
+      <c r="B28" s="405" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6435,7 +6502,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="585"/>
+      <c r="B29" s="405"/>
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
@@ -6445,7 +6512,7 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="582" t="s">
+      <c r="B31" s="410" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6457,7 +6524,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="582"/>
+      <c r="B32" s="410"/>
       <c r="C32" s="26" t="s">
         <v>48</v>
       </c>
@@ -6467,7 +6534,7 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="583" t="s">
+      <c r="B34" s="411" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6479,7 +6546,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="583"/>
+      <c r="B35" s="411"/>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
@@ -6489,7 +6556,7 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="580" t="s">
+      <c r="B37" s="408" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6501,7 +6568,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="580"/>
+      <c r="B38" s="408"/>
       <c r="C38" s="30" t="s">
         <v>54</v>
       </c>
@@ -6511,7 +6578,7 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="581" t="s">
+      <c r="B40" s="409" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6523,7 +6590,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="581"/>
+      <c r="B41" s="409"/>
       <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
@@ -6533,7 +6600,7 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="578" t="s">
+      <c r="B43" s="414" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6545,7 +6612,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="578"/>
+      <c r="B44" s="414"/>
       <c r="C44" s="34" t="s">
         <v>60</v>
       </c>
@@ -6555,7 +6622,7 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="579" t="s">
+      <c r="B46" s="415" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6567,7 +6634,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="579"/>
+      <c r="B47" s="415"/>
       <c r="C47" s="36" t="s">
         <v>63</v>
       </c>
@@ -6577,7 +6644,7 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="576" t="s">
+      <c r="B49" s="412" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6589,7 +6656,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="576"/>
+      <c r="B50" s="412"/>
       <c r="C50" s="38" t="s">
         <v>66</v>
       </c>
@@ -6599,7 +6666,7 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="577" t="s">
+      <c r="B52" s="413" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6611,7 +6678,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="577"/>
+      <c r="B53" s="413"/>
       <c r="C53" s="40" t="s">
         <v>69</v>
       </c>
@@ -6621,7 +6688,7 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="575" t="s">
+      <c r="B55" s="418" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6633,7 +6700,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="575"/>
+      <c r="B56" s="418"/>
       <c r="C56" s="42" t="s">
         <v>72</v>
       </c>
@@ -6643,7 +6710,7 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="575" t="s">
+      <c r="B58" s="418" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6655,7 +6722,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="575"/>
+      <c r="B59" s="418"/>
       <c r="C59" s="42" t="s">
         <v>72</v>
       </c>
@@ -6665,7 +6732,7 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="573" t="s">
+      <c r="B61" s="416" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6677,7 +6744,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="573"/>
+      <c r="B62" s="416"/>
       <c r="C62" s="44" t="s">
         <v>76</v>
       </c>
@@ -6687,7 +6754,7 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="574" t="s">
+      <c r="B64" s="417" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6699,7 +6766,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="574"/>
+      <c r="B65" s="417"/>
       <c r="C65" s="46" t="s">
         <v>79</v>
       </c>
@@ -6709,7 +6776,7 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="571" t="s">
+      <c r="B67" s="421" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6721,7 +6788,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="571"/>
+      <c r="B68" s="421"/>
       <c r="C68" s="48" t="s">
         <v>82</v>
       </c>
@@ -6731,7 +6798,7 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="572" t="s">
+      <c r="B70" s="422" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6743,7 +6810,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="572"/>
+      <c r="B71" s="422"/>
       <c r="C71" s="50" t="s">
         <v>85</v>
       </c>
@@ -6753,7 +6820,7 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="569" t="s">
+      <c r="B73" s="419" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6765,7 +6832,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="569"/>
+      <c r="B74" s="419"/>
       <c r="C74" s="52" t="s">
         <v>88</v>
       </c>
@@ -6775,7 +6842,7 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="570" t="s">
+      <c r="B76" s="420" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6787,7 +6854,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="570"/>
+      <c r="B77" s="420"/>
       <c r="C77" s="54" t="s">
         <v>91</v>
       </c>
@@ -6797,7 +6864,7 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="567" t="s">
+      <c r="B79" s="425" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6809,7 +6876,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="567"/>
+      <c r="B80" s="425"/>
       <c r="C80" s="56" t="s">
         <v>94</v>
       </c>
@@ -6819,7 +6886,7 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="568" t="s">
+      <c r="B82" s="426" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6831,7 +6898,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="568"/>
+      <c r="B83" s="426"/>
       <c r="C83" s="58" t="s">
         <v>97</v>
       </c>
@@ -6841,7 +6908,7 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="565" t="s">
+      <c r="B85" s="423" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6853,7 +6920,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="565"/>
+      <c r="B86" s="423"/>
       <c r="C86" s="60" t="s">
         <v>100</v>
       </c>
@@ -6863,7 +6930,7 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="566" t="s">
+      <c r="B88" s="424" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6875,7 +6942,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="566"/>
+      <c r="B89" s="424"/>
       <c r="C89" s="62" t="s">
         <v>103</v>
       </c>
@@ -6885,7 +6952,7 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="563" t="s">
+      <c r="B91" s="429" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6897,7 +6964,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="563"/>
+      <c r="B92" s="429"/>
       <c r="C92" s="64" t="s">
         <v>106</v>
       </c>
@@ -6907,7 +6974,7 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="564" t="s">
+      <c r="B94" s="430" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6919,7 +6986,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="564"/>
+      <c r="B95" s="430"/>
       <c r="C95" s="66" t="s">
         <v>109</v>
       </c>
@@ -6929,7 +6996,7 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="561" t="s">
+      <c r="B97" s="427" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -6941,7 +7008,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="561"/>
+      <c r="B98" s="427"/>
       <c r="C98" s="68" t="s">
         <v>112</v>
       </c>
@@ -6951,7 +7018,7 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="562" t="s">
+      <c r="B100" s="428" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -6963,7 +7030,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="562"/>
+      <c r="B101" s="428"/>
       <c r="C101" s="70" t="s">
         <v>115</v>
       </c>
@@ -6973,7 +7040,7 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="559" t="s">
+      <c r="B103" s="433" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -6985,7 +7052,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="559"/>
+      <c r="B104" s="433"/>
       <c r="C104" s="72" t="s">
         <v>118</v>
       </c>
@@ -6995,7 +7062,7 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="560" t="s">
+      <c r="B106" s="434" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -7007,7 +7074,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="560"/>
+      <c r="B107" s="434"/>
       <c r="C107" s="74" t="s">
         <v>121</v>
       </c>
@@ -7017,7 +7084,7 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="557" t="s">
+      <c r="B109" s="431" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -7029,7 +7096,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="557"/>
+      <c r="B110" s="431"/>
       <c r="C110" s="76" t="s">
         <v>124</v>
       </c>
@@ -7039,7 +7106,7 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="558" t="s">
+      <c r="B112" s="432" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -7051,7 +7118,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="558"/>
+      <c r="B113" s="432"/>
       <c r="C113" s="78" t="s">
         <v>127</v>
       </c>
@@ -7061,7 +7128,7 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="555" t="s">
+      <c r="B115" s="437" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -7073,7 +7140,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="555"/>
+      <c r="B116" s="437"/>
       <c r="C116" s="80" t="s">
         <v>130</v>
       </c>
@@ -7083,7 +7150,7 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="556" t="s">
+      <c r="B118" s="438" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -7095,7 +7162,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="556"/>
+      <c r="B119" s="438"/>
       <c r="C119" s="82" t="s">
         <v>133</v>
       </c>
@@ -7105,7 +7172,7 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="553" t="s">
+      <c r="B121" s="435" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -7117,7 +7184,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="553"/>
+      <c r="B122" s="435"/>
       <c r="C122" s="84" t="s">
         <v>136</v>
       </c>
@@ -7127,7 +7194,7 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="554" t="s">
+      <c r="B124" s="436" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -7139,7 +7206,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="554"/>
+      <c r="B125" s="436"/>
       <c r="C125" s="86" t="s">
         <v>139</v>
       </c>
@@ -7149,7 +7216,7 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="551" t="s">
+      <c r="B127" s="441" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -7161,7 +7228,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="551"/>
+      <c r="B128" s="441"/>
       <c r="C128" s="88" t="s">
         <v>142</v>
       </c>
@@ -7171,7 +7238,7 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="552" t="s">
+      <c r="B130" s="442" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -7183,7 +7250,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="552"/>
+      <c r="B131" s="442"/>
       <c r="C131" s="90" t="s">
         <v>145</v>
       </c>
@@ -7193,7 +7260,7 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="549" t="s">
+      <c r="B133" s="439" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -7205,7 +7272,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="549"/>
+      <c r="B134" s="439"/>
       <c r="C134" s="92" t="s">
         <v>148</v>
       </c>
@@ -7215,7 +7282,7 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="550" t="s">
+      <c r="B136" s="440" t="s">
         <v>149</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -7227,7 +7294,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="550"/>
+      <c r="B137" s="440"/>
       <c r="C137" s="94" t="s">
         <v>151</v>
       </c>
@@ -7237,7 +7304,7 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="547" t="s">
+      <c r="B139" s="445" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -7249,7 +7316,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="547"/>
+      <c r="B140" s="445"/>
       <c r="C140" s="96" t="s">
         <v>154</v>
       </c>
@@ -7259,7 +7326,7 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="548" t="s">
+      <c r="B142" s="446" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -7271,7 +7338,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="548"/>
+      <c r="B143" s="446"/>
       <c r="C143" s="98" t="s">
         <v>157</v>
       </c>
@@ -7281,7 +7348,7 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="545" t="s">
+      <c r="B145" s="443" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -7293,7 +7360,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="545"/>
+      <c r="B146" s="443"/>
       <c r="C146" s="100" t="s">
         <v>160</v>
       </c>
@@ -7303,7 +7370,7 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="546" t="s">
+      <c r="B148" s="444" t="s">
         <v>161</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -7315,7 +7382,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="546"/>
+      <c r="B149" s="444"/>
       <c r="C149" s="102" t="s">
         <v>163</v>
       </c>
@@ -7325,7 +7392,7 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="543" t="s">
+      <c r="B151" s="449" t="s">
         <v>164</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -7337,7 +7404,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="543"/>
+      <c r="B152" s="449"/>
       <c r="C152" s="104" t="s">
         <v>166</v>
       </c>
@@ -7347,7 +7414,7 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="544" t="s">
+      <c r="B154" s="450" t="s">
         <v>167</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -7359,7 +7426,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="544"/>
+      <c r="B155" s="450"/>
       <c r="C155" s="106" t="s">
         <v>169</v>
       </c>
@@ -7369,7 +7436,7 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="541" t="s">
+      <c r="B157" s="447" t="s">
         <v>170</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -7381,7 +7448,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="541"/>
+      <c r="B158" s="447"/>
       <c r="C158" s="108" t="s">
         <v>172</v>
       </c>
@@ -7391,7 +7458,7 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="542" t="s">
+      <c r="B160" s="448" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -7403,7 +7470,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="542"/>
+      <c r="B161" s="448"/>
       <c r="C161" s="110" t="s">
         <v>175</v>
       </c>
@@ -7413,7 +7480,7 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="539" t="s">
+      <c r="B163" s="453" t="s">
         <v>176</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7425,7 +7492,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="539"/>
+      <c r="B164" s="453"/>
       <c r="C164" s="112" t="s">
         <v>178</v>
       </c>
@@ -7435,7 +7502,7 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="540" t="s">
+      <c r="B166" s="454" t="s">
         <v>179</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7447,7 +7514,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="540"/>
+      <c r="B167" s="454"/>
       <c r="C167" s="114" t="s">
         <v>181</v>
       </c>
@@ -7457,7 +7524,7 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="537" t="s">
+      <c r="B169" s="451" t="s">
         <v>182</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7469,7 +7536,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="537"/>
+      <c r="B170" s="451"/>
       <c r="C170" s="116" t="s">
         <v>184</v>
       </c>
@@ -7479,7 +7546,7 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="538" t="s">
+      <c r="B172" s="452" t="s">
         <v>185</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7491,7 +7558,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="538"/>
+      <c r="B173" s="452"/>
       <c r="C173" s="118" t="s">
         <v>187</v>
       </c>
@@ -7501,7 +7568,7 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="535" t="s">
+      <c r="B175" s="457" t="s">
         <v>188</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7513,7 +7580,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="535"/>
+      <c r="B176" s="457"/>
       <c r="C176" s="120" t="s">
         <v>190</v>
       </c>
@@ -7523,7 +7590,7 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="536" t="s">
+      <c r="B178" s="458" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7535,7 +7602,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="536"/>
+      <c r="B179" s="458"/>
       <c r="C179" s="122" t="s">
         <v>193</v>
       </c>
@@ -7545,7 +7612,7 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="533" t="s">
+      <c r="B181" s="455" t="s">
         <v>194</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7557,7 +7624,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="533"/>
+      <c r="B182" s="455"/>
       <c r="C182" s="124" t="s">
         <v>196</v>
       </c>
@@ -7567,7 +7634,7 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="534" t="s">
+      <c r="B184" s="456" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7579,7 +7646,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="534"/>
+      <c r="B185" s="456"/>
       <c r="C185" s="126" t="s">
         <v>199</v>
       </c>
@@ -7589,7 +7656,7 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="531" t="s">
+      <c r="B187" s="461" t="s">
         <v>200</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7601,7 +7668,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="531"/>
+      <c r="B188" s="461"/>
       <c r="C188" s="128" t="s">
         <v>202</v>
       </c>
@@ -7611,7 +7678,7 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="532" t="s">
+      <c r="B190" s="462" t="s">
         <v>203</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7623,7 +7690,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="532"/>
+      <c r="B191" s="462"/>
       <c r="C191" s="130" t="s">
         <v>205</v>
       </c>
@@ -7633,7 +7700,7 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="529" t="s">
+      <c r="B193" s="459" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7645,7 +7712,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="529"/>
+      <c r="B194" s="459"/>
       <c r="C194" s="132" t="s">
         <v>208</v>
       </c>
@@ -7655,7 +7722,7 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="530" t="s">
+      <c r="B196" s="460" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7667,7 +7734,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="530"/>
+      <c r="B197" s="460"/>
       <c r="C197" s="134" t="s">
         <v>211</v>
       </c>
@@ -7677,7 +7744,7 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="527" t="s">
+      <c r="B199" s="465" t="s">
         <v>212</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7689,7 +7756,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="527"/>
+      <c r="B200" s="465"/>
       <c r="C200" s="136" t="s">
         <v>214</v>
       </c>
@@ -7699,7 +7766,7 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="528" t="s">
+      <c r="B202" s="466" t="s">
         <v>215</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7711,7 +7778,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="528"/>
+      <c r="B203" s="466"/>
       <c r="C203" s="138" t="s">
         <v>217</v>
       </c>
@@ -7721,7 +7788,7 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="525" t="s">
+      <c r="B205" s="463" t="s">
         <v>218</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7733,7 +7800,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="525"/>
+      <c r="B206" s="463"/>
       <c r="C206" s="140" t="s">
         <v>220</v>
       </c>
@@ -7743,7 +7810,7 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="526" t="s">
+      <c r="B208" s="464" t="s">
         <v>221</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7755,7 +7822,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="526"/>
+      <c r="B209" s="464"/>
       <c r="C209" s="142" t="s">
         <v>223</v>
       </c>
@@ -7765,7 +7832,7 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="523" t="s">
+      <c r="B211" s="469" t="s">
         <v>224</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7777,7 +7844,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="523"/>
+      <c r="B212" s="469"/>
       <c r="C212" s="144" t="s">
         <v>226</v>
       </c>
@@ -7787,7 +7854,7 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="524" t="s">
+      <c r="B214" s="470" t="s">
         <v>227</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7799,7 +7866,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="524"/>
+      <c r="B215" s="470"/>
       <c r="C215" s="146" t="s">
         <v>229</v>
       </c>
@@ -7809,7 +7876,7 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="521" t="s">
+      <c r="B217" s="467" t="s">
         <v>230</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7821,7 +7888,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="521"/>
+      <c r="B218" s="467"/>
       <c r="C218" s="148" t="s">
         <v>232</v>
       </c>
@@ -7831,7 +7898,7 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="522" t="s">
+      <c r="B220" s="468" t="s">
         <v>233</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7843,7 +7910,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="522"/>
+      <c r="B221" s="468"/>
       <c r="C221" s="150" t="s">
         <v>235</v>
       </c>
@@ -7853,7 +7920,7 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="519" t="s">
+      <c r="B223" s="473" t="s">
         <v>236</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7865,7 +7932,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="519"/>
+      <c r="B224" s="473"/>
       <c r="C224" s="152" t="s">
         <v>238</v>
       </c>
@@ -7875,7 +7942,7 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="520" t="s">
+      <c r="B226" s="474" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7887,7 +7954,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="520"/>
+      <c r="B227" s="474"/>
       <c r="C227" s="154" t="s">
         <v>241</v>
       </c>
@@ -7897,7 +7964,7 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="517" t="s">
+      <c r="B229" s="471" t="s">
         <v>242</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7909,7 +7976,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="517"/>
+      <c r="B230" s="471"/>
       <c r="C230" s="156" t="s">
         <v>244</v>
       </c>
@@ -7919,7 +7986,7 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="518" t="s">
+      <c r="B232" s="472" t="s">
         <v>245</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7931,7 +7998,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="518"/>
+      <c r="B233" s="472"/>
       <c r="C233" s="158" t="s">
         <v>247</v>
       </c>
@@ -7941,7 +8008,7 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="515" t="s">
+      <c r="B235" s="477" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -7953,7 +8020,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="515"/>
+      <c r="B236" s="477"/>
       <c r="C236" s="160" t="s">
         <v>250</v>
       </c>
@@ -7963,7 +8030,7 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="516" t="s">
+      <c r="B238" s="478" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -7975,7 +8042,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="516"/>
+      <c r="B239" s="478"/>
       <c r="C239" s="162" t="s">
         <v>253</v>
       </c>
@@ -7985,7 +8052,7 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="513" t="s">
+      <c r="B241" s="475" t="s">
         <v>254</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -7997,7 +8064,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="513"/>
+      <c r="B242" s="475"/>
       <c r="C242" s="164" t="s">
         <v>256</v>
       </c>
@@ -8007,7 +8074,7 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="514" t="s">
+      <c r="B244" s="476" t="s">
         <v>257</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -8019,7 +8086,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="514"/>
+      <c r="B245" s="476"/>
       <c r="C245" s="166" t="s">
         <v>259</v>
       </c>
@@ -8029,7 +8096,7 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="511" t="s">
+      <c r="B247" s="481" t="s">
         <v>260</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -8041,7 +8108,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="511"/>
+      <c r="B248" s="481"/>
       <c r="C248" s="168" t="s">
         <v>262</v>
       </c>
@@ -8051,7 +8118,7 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="512" t="s">
+      <c r="B250" s="482" t="s">
         <v>263</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -8063,7 +8130,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="512"/>
+      <c r="B251" s="482"/>
       <c r="C251" s="170" t="s">
         <v>265</v>
       </c>
@@ -8073,7 +8140,7 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="509" t="s">
+      <c r="B253" s="479" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -8085,7 +8152,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="509"/>
+      <c r="B254" s="479"/>
       <c r="C254" s="172" t="s">
         <v>268</v>
       </c>
@@ -8095,7 +8162,7 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="510" t="s">
+      <c r="B256" s="480" t="s">
         <v>269</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -8107,7 +8174,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="510"/>
+      <c r="B257" s="480"/>
       <c r="C257" s="174" t="s">
         <v>271</v>
       </c>
@@ -8117,7 +8184,7 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="507" t="s">
+      <c r="B259" s="485" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -8129,7 +8196,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="507"/>
+      <c r="B260" s="485"/>
       <c r="C260" s="176" t="s">
         <v>274</v>
       </c>
@@ -8139,7 +8206,7 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="508" t="s">
+      <c r="B262" s="486" t="s">
         <v>275</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -8151,7 +8218,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="508"/>
+      <c r="B263" s="486"/>
       <c r="C263" s="178" t="s">
         <v>277</v>
       </c>
@@ -8161,7 +8228,7 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="505" t="s">
+      <c r="B265" s="483" t="s">
         <v>254</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -8173,7 +8240,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="505"/>
+      <c r="B266" s="483"/>
       <c r="C266" s="180" t="s">
         <v>279</v>
       </c>
@@ -8183,7 +8250,7 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="506" t="s">
+      <c r="B268" s="484" t="s">
         <v>280</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -8195,7 +8262,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="506"/>
+      <c r="B269" s="484"/>
       <c r="C269" s="182" t="s">
         <v>282</v>
       </c>
@@ -8205,7 +8272,7 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="503" t="s">
+      <c r="B271" s="489" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -8217,7 +8284,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="503"/>
+      <c r="B272" s="489"/>
       <c r="C272" s="184" t="s">
         <v>285</v>
       </c>
@@ -8227,7 +8294,7 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="504" t="s">
+      <c r="B274" s="490" t="s">
         <v>286</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -8239,7 +8306,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="504"/>
+      <c r="B275" s="490"/>
       <c r="C275" s="186" t="s">
         <v>288</v>
       </c>
@@ -8249,7 +8316,7 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="501" t="s">
+      <c r="B277" s="487" t="s">
         <v>289</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -8261,7 +8328,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="501"/>
+      <c r="B278" s="487"/>
       <c r="C278" s="188" t="s">
         <v>291</v>
       </c>
@@ -8271,7 +8338,7 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="502" t="s">
+      <c r="B280" s="488" t="s">
         <v>292</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -8283,7 +8350,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="502"/>
+      <c r="B281" s="488"/>
       <c r="C281" s="190" t="s">
         <v>294</v>
       </c>
@@ -8293,7 +8360,7 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="499" t="s">
+      <c r="B283" s="493" t="s">
         <v>295</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -8305,7 +8372,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="499"/>
+      <c r="B284" s="493"/>
       <c r="C284" s="192" t="s">
         <v>297</v>
       </c>
@@ -8315,7 +8382,7 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="500" t="s">
+      <c r="B286" s="494" t="s">
         <v>298</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -8327,7 +8394,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="500"/>
+      <c r="B287" s="494"/>
       <c r="C287" s="194" t="s">
         <v>300</v>
       </c>
@@ -8337,7 +8404,7 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="497" t="s">
+      <c r="B289" s="491" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -8349,7 +8416,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="497"/>
+      <c r="B290" s="491"/>
       <c r="C290" s="196" t="s">
         <v>303</v>
       </c>
@@ -8359,7 +8426,7 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="498" t="s">
+      <c r="B292" s="492" t="s">
         <v>304</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -8371,7 +8438,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="498"/>
+      <c r="B293" s="492"/>
       <c r="C293" s="198" t="s">
         <v>306</v>
       </c>
@@ -8381,7 +8448,7 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="495" t="s">
+      <c r="B295" s="497" t="s">
         <v>307</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -8393,7 +8460,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="495"/>
+      <c r="B296" s="497"/>
       <c r="C296" s="200" t="s">
         <v>309</v>
       </c>
@@ -8403,7 +8470,7 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="496" t="s">
+      <c r="B298" s="498" t="s">
         <v>310</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8415,7 +8482,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="496"/>
+      <c r="B299" s="498"/>
       <c r="C299" s="202" t="s">
         <v>312</v>
       </c>
@@ -8425,7 +8492,7 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="493" t="s">
+      <c r="B301" s="495" t="s">
         <v>313</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8437,7 +8504,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="493"/>
+      <c r="B302" s="495"/>
       <c r="C302" s="204" t="s">
         <v>315</v>
       </c>
@@ -8447,7 +8514,7 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="494" t="s">
+      <c r="B304" s="496" t="s">
         <v>316</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8459,7 +8526,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="494"/>
+      <c r="B305" s="496"/>
       <c r="C305" s="206" t="s">
         <v>318</v>
       </c>
@@ -8469,7 +8536,7 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="491" t="s">
+      <c r="B307" s="501" t="s">
         <v>319</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8481,7 +8548,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="491"/>
+      <c r="B308" s="501"/>
       <c r="C308" s="208" t="s">
         <v>321</v>
       </c>
@@ -8491,7 +8558,7 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="492" t="s">
+      <c r="B310" s="502" t="s">
         <v>322</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8503,7 +8570,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="492"/>
+      <c r="B311" s="502"/>
       <c r="C311" s="210" t="s">
         <v>324</v>
       </c>
@@ -8513,7 +8580,7 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="489" t="s">
+      <c r="B313" s="499" t="s">
         <v>325</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8525,7 +8592,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="489"/>
+      <c r="B314" s="499"/>
       <c r="C314" s="212" t="s">
         <v>327</v>
       </c>
@@ -8535,7 +8602,7 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="490" t="s">
+      <c r="B316" s="500" t="s">
         <v>328</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8547,7 +8614,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="490"/>
+      <c r="B317" s="500"/>
       <c r="C317" s="214" t="s">
         <v>330</v>
       </c>
@@ -8557,7 +8624,7 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="487" t="s">
+      <c r="B319" s="505" t="s">
         <v>331</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8569,7 +8636,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="487"/>
+      <c r="B320" s="505"/>
       <c r="C320" s="216" t="s">
         <v>333</v>
       </c>
@@ -8579,7 +8646,7 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="488" t="s">
+      <c r="B322" s="506" t="s">
         <v>334</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8591,7 +8658,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="488"/>
+      <c r="B323" s="506"/>
       <c r="C323" s="218" t="s">
         <v>336</v>
       </c>
@@ -8601,7 +8668,7 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="485" t="s">
+      <c r="B325" s="503" t="s">
         <v>337</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8613,7 +8680,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="485"/>
+      <c r="B326" s="503"/>
       <c r="C326" s="220" t="s">
         <v>339</v>
       </c>
@@ -8623,7 +8690,7 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="486" t="s">
+      <c r="B328" s="504" t="s">
         <v>340</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8635,7 +8702,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="486"/>
+      <c r="B329" s="504"/>
       <c r="C329" s="222" t="s">
         <v>342</v>
       </c>
@@ -8645,7 +8712,7 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="483" t="s">
+      <c r="B331" s="509" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8657,7 +8724,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="483"/>
+      <c r="B332" s="509"/>
       <c r="C332" s="224" t="s">
         <v>345</v>
       </c>
@@ -8667,7 +8734,7 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="484" t="s">
+      <c r="B334" s="510" t="s">
         <v>346</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8679,7 +8746,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="484"/>
+      <c r="B335" s="510"/>
       <c r="C335" s="226" t="s">
         <v>348</v>
       </c>
@@ -8689,7 +8756,7 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="481" t="s">
+      <c r="B337" s="507" t="s">
         <v>349</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8701,7 +8768,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="481"/>
+      <c r="B338" s="507"/>
       <c r="C338" s="228" t="s">
         <v>351</v>
       </c>
@@ -8711,7 +8778,7 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="482" t="s">
+      <c r="B340" s="508" t="s">
         <v>352</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8723,7 +8790,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="482"/>
+      <c r="B341" s="508"/>
       <c r="C341" s="230" t="s">
         <v>354</v>
       </c>
@@ -8733,7 +8800,7 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="479" t="s">
+      <c r="B343" s="513" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8745,7 +8812,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="479"/>
+      <c r="B344" s="513"/>
       <c r="C344" s="232" t="s">
         <v>357</v>
       </c>
@@ -8755,7 +8822,7 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="480" t="s">
+      <c r="B346" s="514" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8767,7 +8834,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="480"/>
+      <c r="B347" s="514"/>
       <c r="C347" s="234" t="s">
         <v>360</v>
       </c>
@@ -8777,7 +8844,7 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="477" t="s">
+      <c r="B349" s="511" t="s">
         <v>361</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8789,7 +8856,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="477"/>
+      <c r="B350" s="511"/>
       <c r="C350" s="236" t="s">
         <v>363</v>
       </c>
@@ -8799,7 +8866,7 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="478" t="s">
+      <c r="B352" s="512" t="s">
         <v>364</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8811,7 +8878,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="478"/>
+      <c r="B353" s="512"/>
       <c r="C353" s="238" t="s">
         <v>366</v>
       </c>
@@ -8821,7 +8888,7 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="475" t="s">
+      <c r="B355" s="517" t="s">
         <v>367</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8833,7 +8900,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="475"/>
+      <c r="B356" s="517"/>
       <c r="C356" s="240" t="s">
         <v>369</v>
       </c>
@@ -8843,7 +8910,7 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="476" t="s">
+      <c r="B358" s="518" t="s">
         <v>370</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8855,7 +8922,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="476"/>
+      <c r="B359" s="518"/>
       <c r="C359" s="242" t="s">
         <v>372</v>
       </c>
@@ -8865,7 +8932,7 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="473" t="s">
+      <c r="B361" s="515" t="s">
         <v>373</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8877,7 +8944,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="473"/>
+      <c r="B362" s="515"/>
       <c r="C362" s="244" t="s">
         <v>375</v>
       </c>
@@ -8887,7 +8954,7 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="474" t="s">
+      <c r="B364" s="516" t="s">
         <v>376</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8899,7 +8966,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="474"/>
+      <c r="B365" s="516"/>
       <c r="C365" s="246" t="s">
         <v>378</v>
       </c>
@@ -8909,7 +8976,7 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="471" t="s">
+      <c r="B367" s="521" t="s">
         <v>379</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8921,7 +8988,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="471"/>
+      <c r="B368" s="521"/>
       <c r="C368" s="248" t="s">
         <v>381</v>
       </c>
@@ -8931,7 +8998,7 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="472" t="s">
+      <c r="B370" s="522" t="s">
         <v>382</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -8943,7 +9010,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="472"/>
+      <c r="B371" s="522"/>
       <c r="C371" s="250" t="s">
         <v>384</v>
       </c>
@@ -8953,7 +9020,7 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="469" t="s">
+      <c r="B373" s="519" t="s">
         <v>385</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -8965,7 +9032,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="469"/>
+      <c r="B374" s="519"/>
       <c r="C374" s="252" t="s">
         <v>387</v>
       </c>
@@ -8975,7 +9042,7 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="470" t="s">
+      <c r="B376" s="520" t="s">
         <v>388</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -8987,7 +9054,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="470"/>
+      <c r="B377" s="520"/>
       <c r="C377" s="254" t="s">
         <v>390</v>
       </c>
@@ -8997,7 +9064,7 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="467" t="s">
+      <c r="B379" s="525" t="s">
         <v>391</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -9009,7 +9076,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="467"/>
+      <c r="B380" s="525"/>
       <c r="C380" s="256" t="s">
         <v>393</v>
       </c>
@@ -9019,7 +9086,7 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="468" t="s">
+      <c r="B382" s="526" t="s">
         <v>394</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -9031,7 +9098,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="468"/>
+      <c r="B383" s="526"/>
       <c r="C383" s="258" t="s">
         <v>396</v>
       </c>
@@ -9041,7 +9108,7 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="465" t="s">
+      <c r="B385" s="523" t="s">
         <v>397</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -9053,7 +9120,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="465"/>
+      <c r="B386" s="523"/>
       <c r="C386" s="260" t="s">
         <v>399</v>
       </c>
@@ -9063,7 +9130,7 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="466" t="s">
+      <c r="B388" s="524" t="s">
         <v>400</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -9075,7 +9142,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="466"/>
+      <c r="B389" s="524"/>
       <c r="C389" s="262" t="s">
         <v>402</v>
       </c>
@@ -9085,7 +9152,7 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="463" t="s">
+      <c r="B391" s="529" t="s">
         <v>403</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -9097,7 +9164,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="463"/>
+      <c r="B392" s="529"/>
       <c r="C392" s="264" t="s">
         <v>405</v>
       </c>
@@ -9107,7 +9174,7 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="464" t="s">
+      <c r="B394" s="530" t="s">
         <v>406</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -9119,7 +9186,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="464"/>
+      <c r="B395" s="530"/>
       <c r="C395" s="266" t="s">
         <v>408</v>
       </c>
@@ -9129,7 +9196,7 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="461" t="s">
+      <c r="B397" s="527" t="s">
         <v>409</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -9141,7 +9208,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="461"/>
+      <c r="B398" s="527"/>
       <c r="C398" s="268" t="s">
         <v>411</v>
       </c>
@@ -9151,7 +9218,7 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="462" t="s">
+      <c r="B400" s="528" t="s">
         <v>412</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -9163,7 +9230,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="462"/>
+      <c r="B401" s="528"/>
       <c r="C401" s="270" t="s">
         <v>414</v>
       </c>
@@ -9173,7 +9240,7 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="459" t="s">
+      <c r="B403" s="533" t="s">
         <v>415</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -9185,7 +9252,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="459"/>
+      <c r="B404" s="533"/>
       <c r="C404" s="272" t="s">
         <v>417</v>
       </c>
@@ -9195,7 +9262,7 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="460" t="s">
+      <c r="B406" s="534" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -9207,7 +9274,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="460"/>
+      <c r="B407" s="534"/>
       <c r="C407" s="274" t="s">
         <v>420</v>
       </c>
@@ -9217,7 +9284,7 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="457" t="s">
+      <c r="B409" s="531" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -9229,7 +9296,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="457"/>
+      <c r="B410" s="531"/>
       <c r="C410" s="276" t="s">
         <v>423</v>
       </c>
@@ -9239,7 +9306,7 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="458" t="s">
+      <c r="B412" s="532" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -9251,7 +9318,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="458"/>
+      <c r="B413" s="532"/>
       <c r="C413" s="278" t="s">
         <v>426</v>
       </c>
@@ -9261,7 +9328,7 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="455" t="s">
+      <c r="B415" s="537" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -9273,7 +9340,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="455"/>
+      <c r="B416" s="537"/>
       <c r="C416" s="280" t="s">
         <v>429</v>
       </c>
@@ -9283,7 +9350,7 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="456" t="s">
+      <c r="B418" s="538" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -9295,7 +9362,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="456"/>
+      <c r="B419" s="538"/>
       <c r="C419" s="282" t="s">
         <v>432</v>
       </c>
@@ -9305,7 +9372,7 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="453" t="s">
+      <c r="B421" s="535" t="s">
         <v>433</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -9317,7 +9384,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="453"/>
+      <c r="B422" s="535"/>
       <c r="C422" s="284" t="s">
         <v>435</v>
       </c>
@@ -9327,7 +9394,7 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="454" t="s">
+      <c r="B424" s="536" t="s">
         <v>436</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -9339,7 +9406,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="454"/>
+      <c r="B425" s="536"/>
       <c r="C425" s="286" t="s">
         <v>438</v>
       </c>
@@ -9349,7 +9416,7 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="451" t="s">
+      <c r="B427" s="541" t="s">
         <v>439</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -9361,7 +9428,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="451"/>
+      <c r="B428" s="541"/>
       <c r="C428" s="288" t="s">
         <v>441</v>
       </c>
@@ -9371,7 +9438,7 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="452" t="s">
+      <c r="B430" s="542" t="s">
         <v>442</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -9383,7 +9450,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="452"/>
+      <c r="B431" s="542"/>
       <c r="C431" s="290" t="s">
         <v>444</v>
       </c>
@@ -9393,7 +9460,7 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="449" t="s">
+      <c r="B433" s="539" t="s">
         <v>445</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -9405,7 +9472,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="449"/>
+      <c r="B434" s="539"/>
       <c r="C434" s="292" t="s">
         <v>447</v>
       </c>
@@ -9415,7 +9482,7 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="450" t="s">
+      <c r="B436" s="540" t="s">
         <v>448</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9427,7 +9494,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="450"/>
+      <c r="B437" s="540"/>
       <c r="C437" s="294" t="s">
         <v>450</v>
       </c>
@@ -9437,7 +9504,7 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="447" t="s">
+      <c r="B439" s="545" t="s">
         <v>451</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9449,7 +9516,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="447"/>
+      <c r="B440" s="545"/>
       <c r="C440" s="296" t="s">
         <v>453</v>
       </c>
@@ -9459,7 +9526,7 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="448" t="s">
+      <c r="B442" s="546" t="s">
         <v>454</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9471,7 +9538,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="448"/>
+      <c r="B443" s="546"/>
       <c r="C443" s="298" t="s">
         <v>456</v>
       </c>
@@ -9481,7 +9548,7 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="445" t="s">
+      <c r="B445" s="543" t="s">
         <v>457</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9493,7 +9560,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="445"/>
+      <c r="B446" s="543"/>
       <c r="C446" s="300" t="s">
         <v>459</v>
       </c>
@@ -9503,7 +9570,7 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="446" t="s">
+      <c r="B448" s="544" t="s">
         <v>460</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9515,7 +9582,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="446"/>
+      <c r="B449" s="544"/>
       <c r="C449" s="302" t="s">
         <v>462</v>
       </c>
@@ -9525,7 +9592,7 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="443" t="s">
+      <c r="B451" s="549" t="s">
         <v>463</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9537,7 +9604,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="443"/>
+      <c r="B452" s="549"/>
       <c r="C452" s="304" t="s">
         <v>465</v>
       </c>
@@ -9547,7 +9614,7 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="444" t="s">
+      <c r="B454" s="550" t="s">
         <v>466</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9559,7 +9626,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="444"/>
+      <c r="B455" s="550"/>
       <c r="C455" s="306" t="s">
         <v>468</v>
       </c>
@@ -9569,7 +9636,7 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="441" t="s">
+      <c r="B457" s="547" t="s">
         <v>469</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9581,7 +9648,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="441"/>
+      <c r="B458" s="547"/>
       <c r="C458" s="308" t="s">
         <v>471</v>
       </c>
@@ -9591,7 +9658,7 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="442" t="s">
+      <c r="B460" s="548" t="s">
         <v>472</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9603,7 +9670,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="442"/>
+      <c r="B461" s="548"/>
       <c r="C461" s="310" t="s">
         <v>474</v>
       </c>
@@ -9613,7 +9680,7 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="439" t="s">
+      <c r="B463" s="553" t="s">
         <v>475</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9625,7 +9692,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="439"/>
+      <c r="B464" s="553"/>
       <c r="C464" s="312" t="s">
         <v>477</v>
       </c>
@@ -9635,7 +9702,7 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="440" t="s">
+      <c r="B466" s="554" t="s">
         <v>478</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9647,7 +9714,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="440"/>
+      <c r="B467" s="554"/>
       <c r="C467" s="314" t="s">
         <v>480</v>
       </c>
@@ -9657,7 +9724,7 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="437" t="s">
+      <c r="B469" s="551" t="s">
         <v>481</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9669,7 +9736,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="437"/>
+      <c r="B470" s="551"/>
       <c r="C470" s="316" t="s">
         <v>483</v>
       </c>
@@ -9679,7 +9746,7 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="438" t="s">
+      <c r="B472" s="552" t="s">
         <v>484</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9691,7 +9758,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="438"/>
+      <c r="B473" s="552"/>
       <c r="C473" s="318" t="s">
         <v>486</v>
       </c>
@@ -9701,7 +9768,7 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="435" t="s">
+      <c r="B475" s="557" t="s">
         <v>487</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9713,7 +9780,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="435"/>
+      <c r="B476" s="557"/>
       <c r="C476" s="320" t="s">
         <v>489</v>
       </c>
@@ -9723,7 +9790,7 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="436" t="s">
+      <c r="B478" s="558" t="s">
         <v>490</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9735,7 +9802,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="436"/>
+      <c r="B479" s="558"/>
       <c r="C479" s="322" t="s">
         <v>492</v>
       </c>
@@ -9745,7 +9812,7 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="433" t="s">
+      <c r="B481" s="555" t="s">
         <v>493</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9757,7 +9824,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="433"/>
+      <c r="B482" s="555"/>
       <c r="C482" s="324" t="s">
         <v>495</v>
       </c>
@@ -9767,7 +9834,7 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="434" t="s">
+      <c r="B484" s="556" t="s">
         <v>496</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9779,7 +9846,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="434"/>
+      <c r="B485" s="556"/>
       <c r="C485" s="326" t="s">
         <v>498</v>
       </c>
@@ -9789,7 +9856,7 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="431" t="s">
+      <c r="B487" s="561" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9801,7 +9868,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="431"/>
+      <c r="B488" s="561"/>
       <c r="C488" s="328" t="s">
         <v>501</v>
       </c>
@@ -9811,7 +9878,7 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="432" t="s">
+      <c r="B490" s="562" t="s">
         <v>502</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9823,7 +9890,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="432"/>
+      <c r="B491" s="562"/>
       <c r="C491" s="330" t="s">
         <v>504</v>
       </c>
@@ -9833,7 +9900,7 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="429" t="s">
+      <c r="B493" s="559" t="s">
         <v>505</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9845,7 +9912,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="429"/>
+      <c r="B494" s="559"/>
       <c r="C494" s="332" t="s">
         <v>507</v>
       </c>
@@ -9855,7 +9922,7 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="430" t="s">
+      <c r="B496" s="560" t="s">
         <v>508</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9867,7 +9934,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="430"/>
+      <c r="B497" s="560"/>
       <c r="C497" s="334" t="s">
         <v>510</v>
       </c>
@@ -9877,7 +9944,7 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="427" t="s">
+      <c r="B499" s="565" t="s">
         <v>511</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9889,7 +9956,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="427"/>
+      <c r="B500" s="565"/>
       <c r="C500" s="336" t="s">
         <v>513</v>
       </c>
@@ -9899,7 +9966,7 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="428" t="s">
+      <c r="B502" s="566" t="s">
         <v>514</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9911,7 +9978,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="428"/>
+      <c r="B503" s="566"/>
       <c r="C503" s="338" t="s">
         <v>516</v>
       </c>
@@ -9921,7 +9988,7 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="425" t="s">
+      <c r="B505" s="563" t="s">
         <v>517</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -9933,7 +10000,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="425"/>
+      <c r="B506" s="563"/>
       <c r="C506" s="340" t="s">
         <v>519</v>
       </c>
@@ -9943,7 +10010,7 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="426" t="s">
+      <c r="B508" s="564" t="s">
         <v>520</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -9955,7 +10022,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="426"/>
+      <c r="B509" s="564"/>
       <c r="C509" s="342" t="s">
         <v>522</v>
       </c>
@@ -9965,7 +10032,7 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="423" t="s">
+      <c r="B511" s="569" t="s">
         <v>523</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -9977,7 +10044,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="423"/>
+      <c r="B512" s="569"/>
       <c r="C512" s="344" t="s">
         <v>525</v>
       </c>
@@ -9987,7 +10054,7 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="424" t="s">
+      <c r="B514" s="570" t="s">
         <v>526</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -9999,7 +10066,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="424"/>
+      <c r="B515" s="570"/>
       <c r="C515" s="346" t="s">
         <v>528</v>
       </c>
@@ -10009,7 +10076,7 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="421" t="s">
+      <c r="B517" s="567" t="s">
         <v>529</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -10021,7 +10088,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="421"/>
+      <c r="B518" s="567"/>
       <c r="C518" s="348" t="s">
         <v>531</v>
       </c>
@@ -10031,7 +10098,7 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="422" t="s">
+      <c r="B520" s="568" t="s">
         <v>532</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -10043,7 +10110,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="422"/>
+      <c r="B521" s="568"/>
       <c r="C521" s="350" t="s">
         <v>534</v>
       </c>
@@ -10053,7 +10120,7 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="419" t="s">
+      <c r="B523" s="573" t="s">
         <v>535</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -10065,7 +10132,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="419"/>
+      <c r="B524" s="573"/>
       <c r="C524" s="352" t="s">
         <v>537</v>
       </c>
@@ -10075,7 +10142,7 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="420" t="s">
+      <c r="B526" s="574" t="s">
         <v>538</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -10087,7 +10154,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="420"/>
+      <c r="B527" s="574"/>
       <c r="C527" s="354" t="s">
         <v>540</v>
       </c>
@@ -10097,7 +10164,7 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="417" t="s">
+      <c r="B529" s="571" t="s">
         <v>541</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -10109,7 +10176,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="417"/>
+      <c r="B530" s="571"/>
       <c r="C530" s="356" t="s">
         <v>543</v>
       </c>
@@ -10119,7 +10186,7 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="418" t="s">
+      <c r="B532" s="572" t="s">
         <v>544</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -10131,7 +10198,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="418"/>
+      <c r="B533" s="572"/>
       <c r="C533" s="358" t="s">
         <v>546</v>
       </c>
@@ -10141,7 +10208,7 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="415" t="s">
+      <c r="B535" s="577" t="s">
         <v>547</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -10153,7 +10220,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="415"/>
+      <c r="B536" s="577"/>
       <c r="C536" s="360" t="s">
         <v>549</v>
       </c>
@@ -10163,7 +10230,7 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="416" t="s">
+      <c r="B538" s="578" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -10175,7 +10242,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="416"/>
+      <c r="B539" s="578"/>
       <c r="C539" s="362" t="s">
         <v>552</v>
       </c>
@@ -10185,7 +10252,7 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="413" t="s">
+      <c r="B541" s="575" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -10197,7 +10264,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="413"/>
+      <c r="B542" s="575"/>
       <c r="C542" s="364" t="s">
         <v>555</v>
       </c>
@@ -10207,7 +10274,7 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="414" t="s">
+      <c r="B544" s="576" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -10219,7 +10286,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="414"/>
+      <c r="B545" s="576"/>
       <c r="C545" s="366" t="s">
         <v>558</v>
       </c>
@@ -10229,7 +10296,7 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="411" t="s">
+      <c r="B547" s="581" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -10241,7 +10308,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="411"/>
+      <c r="B548" s="581"/>
       <c r="C548" s="368" t="s">
         <v>561</v>
       </c>
@@ -10251,7 +10318,7 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="412" t="s">
+      <c r="B550" s="582" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -10263,7 +10330,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="412"/>
+      <c r="B551" s="582"/>
       <c r="C551" s="370" t="s">
         <v>564</v>
       </c>
@@ -10273,7 +10340,7 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="409" t="s">
+      <c r="B553" s="579" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -10285,7 +10352,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="409"/>
+      <c r="B554" s="579"/>
       <c r="C554" s="372" t="s">
         <v>567</v>
       </c>
@@ -10295,7 +10362,7 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="410" t="s">
+      <c r="B556" s="580" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -10307,7 +10374,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="410"/>
+      <c r="B557" s="580"/>
       <c r="C557" s="374" t="s">
         <v>570</v>
       </c>
@@ -10317,7 +10384,7 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="407" t="s">
+      <c r="B559" s="585" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -10329,7 +10396,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="407"/>
+      <c r="B560" s="585"/>
       <c r="C560" s="376" t="s">
         <v>573</v>
       </c>
@@ -10339,7 +10406,7 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="408" t="s">
+      <c r="B562" s="586" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -10351,7 +10418,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="408"/>
+      <c r="B563" s="586"/>
       <c r="C563" s="378" t="s">
         <v>576</v>
       </c>
@@ -10361,7 +10428,7 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="405" t="s">
+      <c r="B565" s="583" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -10373,7 +10440,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="405"/>
+      <c r="B566" s="583"/>
       <c r="C566" s="380" t="s">
         <v>579</v>
       </c>
@@ -10383,7 +10450,7 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="406" t="s">
+      <c r="B568" s="584" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -10395,7 +10462,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="406"/>
+      <c r="B569" s="584"/>
       <c r="C569" s="382" t="s">
         <v>582</v>
       </c>
@@ -10405,7 +10472,7 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="403" t="s">
+      <c r="B571" s="592" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10417,7 +10484,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="403"/>
+      <c r="B572" s="592"/>
       <c r="C572" s="384" t="s">
         <v>585</v>
       </c>
@@ -10427,7 +10494,7 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="404" t="s">
+      <c r="B574" s="593" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10439,7 +10506,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="404"/>
+      <c r="B575" s="593"/>
       <c r="C575" s="386" t="s">
         <v>588</v>
       </c>
@@ -10449,7 +10516,7 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="397" t="s">
+      <c r="B577" s="587" t="s">
         <v>589</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10461,7 +10528,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="397"/>
+      <c r="B578" s="587"/>
       <c r="C578" s="388" t="s">
         <v>591</v>
       </c>
@@ -10474,33 +10541,567 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="399"/>
-      <c r="B581" s="401"/>
+      <c r="A581" s="588"/>
+      <c r="B581" s="590"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="400"/>
-      <c r="B582" s="402"/>
+      <c r="A582" s="589"/>
+      <c r="B582" s="591"/>
     </row>
   </sheetData>
   <mergeCells count="582">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="A580:D580"/>
+    <mergeCell ref="A581:A582"/>
+    <mergeCell ref="B581:B582"/>
+    <mergeCell ref="A571:A572"/>
+    <mergeCell ref="B571:B572"/>
+    <mergeCell ref="D571:D572"/>
+    <mergeCell ref="A574:A575"/>
+    <mergeCell ref="B574:B575"/>
+    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
@@ -10513,558 +11114,24 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="A580:D580"/>
-    <mergeCell ref="A581:A582"/>
-    <mergeCell ref="B581:B582"/>
-    <mergeCell ref="A571:A572"/>
-    <mergeCell ref="B571:B572"/>
-    <mergeCell ref="D571:D572"/>
-    <mergeCell ref="A574:A575"/>
-    <mergeCell ref="B574:B575"/>
-    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7623002F-8EF0-4326-8BE8-7AF0A30AB929}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F32ABDE5-A0D2-48B9-BFB8-A3C75ADCDCEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="658">
   <si>
     <t>#</t>
   </si>
@@ -1971,6 +1971,33 @@
   </si>
   <si>
     <t>Reduzierhülse for Belt pulleys</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/molex-stiftleiste-mini-fit-jr-2x2-polig-stecker-molex-39288040-p190293.html?&amp;trstct=pos_0</t>
+  </si>
+  <si>
+    <t>motor Socket</t>
+  </si>
+  <si>
+    <t>Molex Mini-Fit Jr 2x2 Socket</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/molex-stiftleiste-micro-fit-2x3-polig-stecker-molex-430450612-p186168.html?&amp;trstct=pos_1</t>
+  </si>
+  <si>
+    <t>Molex Micro-Fit 3.0 TM 2x3 Socket</t>
+  </si>
+  <si>
+    <t>Hall Socket</t>
+  </si>
+  <si>
+    <t>https://www.robotshop.com/de/de/optischer-drehgeber-hkt22.html#</t>
+  </si>
+  <si>
+    <t>Motor Encoder</t>
+  </si>
+  <si>
+    <t>Optical Encoder 300 CPR</t>
   </si>
 </sst>
 </file>
@@ -4381,577 +4408,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4970,6 +4430,573 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5490,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5559,14 +5586,14 @@
         <v>1</v>
       </c>
       <c r="I3" s="394">
-        <f t="shared" ref="I3:I13" si="0">INT((B3-1-L3)/H3+1)</f>
+        <f t="shared" ref="I3:I14" si="0">INT((B3-1-L3)/H3+1)</f>
         <v>0</v>
       </c>
       <c r="J3" s="392">
         <v>19.899999999999999</v>
       </c>
       <c r="K3" s="392">
-        <f t="shared" ref="K3:K13" si="1">I3*J3</f>
+        <f t="shared" ref="K3:K14" si="1">I3*J3</f>
         <v>0</v>
       </c>
       <c r="L3" s="394">
@@ -5798,61 +5825,49 @@
         <v>3</v>
       </c>
       <c r="C11" s="394" t="s">
+        <v>657</v>
+      </c>
+      <c r="D11" s="394" t="s">
+        <v>656</v>
+      </c>
+      <c r="G11" s="391" t="s">
+        <v>655</v>
+      </c>
+      <c r="H11" s="394"/>
+      <c r="I11" s="394"/>
+      <c r="J11" s="392"/>
+      <c r="K11" s="392"/>
+      <c r="L11" s="394"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="394">
+        <v>3</v>
+      </c>
+      <c r="C12" s="394" t="s">
         <v>620</v>
       </c>
-      <c r="D11" s="394" t="s">
+      <c r="D12" s="394" t="s">
         <v>621</v>
       </c>
-      <c r="G11" s="391" t="s">
+      <c r="G12" s="391" t="s">
         <v>619</v>
       </c>
-      <c r="H11" s="394">
+      <c r="H12" s="394">
         <v>5</v>
       </c>
-      <c r="I11" s="394">
+      <c r="I12" s="394">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="395">
+      <c r="J12" s="395">
         <v>23</v>
       </c>
-      <c r="K11" s="392">
+      <c r="K12" s="392">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="394">
+      <c r="L12" s="394">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="394">
-        <v>9</v>
-      </c>
-      <c r="C12" s="394" t="s">
-        <v>629</v>
-      </c>
-      <c r="D12" s="394" t="s">
-        <v>622</v>
-      </c>
-      <c r="G12" s="391" t="s">
-        <v>630</v>
-      </c>
-      <c r="H12" s="394">
-        <v>1</v>
-      </c>
-      <c r="I12" s="394">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J12" s="395">
-        <v>1</v>
-      </c>
-      <c r="K12" s="392">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L12" s="394">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
@@ -5860,30 +5875,30 @@
         <v>9</v>
       </c>
       <c r="C13" s="394" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D13" s="394" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G13" s="391" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="H13" s="394">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I13" s="394">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="395">
         <v>1</v>
-      </c>
-      <c r="J13" s="395">
-        <v>3</v>
       </c>
       <c r="K13" s="392">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13" s="394">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
@@ -5891,121 +5906,121 @@
         <v>9</v>
       </c>
       <c r="C14" s="394" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D14" s="394" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G14" s="391" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="H14" s="394">
+        <v>100</v>
+      </c>
+      <c r="I14" s="394">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I14" s="394">
-        <f t="shared" ref="I14:I16" si="2">INT((B14-1-L14)/H14+1)</f>
+      <c r="J14" s="395">
         <v>3</v>
       </c>
-      <c r="J14" s="395">
-        <v>1</v>
-      </c>
       <c r="K14" s="392">
-        <f t="shared" ref="K14:K16" si="3">I14*J14</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L14" s="394">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="394">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" s="394" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D15" s="394" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G15" s="391" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="H15" s="394">
         <v>1</v>
       </c>
       <c r="I15" s="394">
-        <f t="shared" si="2"/>
+        <f>INT((B15-1-L15)/H15+1)</f>
         <v>3</v>
       </c>
       <c r="J15" s="395">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K15" s="392">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" ref="K15:K20" si="2">I15*J15</f>
+        <v>3</v>
       </c>
       <c r="L15" s="394">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="394">
+        <v>3</v>
+      </c>
+      <c r="C16" s="394" t="s">
+        <v>634</v>
+      </c>
+      <c r="D16" s="394" t="s">
+        <v>632</v>
+      </c>
+      <c r="G16" s="391" t="s">
+        <v>633</v>
+      </c>
+      <c r="H16" s="394">
+        <v>1</v>
+      </c>
+      <c r="I16" s="394">
+        <f>INT((B16-1-L16)/H16+1)</f>
+        <v>3</v>
+      </c>
+      <c r="J16" s="395">
+        <v>11</v>
+      </c>
+      <c r="K16" s="392">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L16" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="394">
         <f>3*2*3</f>
         <v>18</v>
       </c>
-      <c r="C16" s="394" t="s">
+      <c r="C17" s="394" t="s">
         <v>636</v>
-      </c>
-      <c r="D16" s="394" t="s">
-        <v>635</v>
-      </c>
-      <c r="G16" s="391" t="s">
-        <v>637</v>
-      </c>
-      <c r="H16" s="394">
-        <v>1</v>
-      </c>
-      <c r="I16" s="394">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="J16" s="395">
-        <v>1.34</v>
-      </c>
-      <c r="K16" s="392">
-        <f t="shared" si="3"/>
-        <v>24.12</v>
-      </c>
-      <c r="L16" s="394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="394">
-        <v>4</v>
-      </c>
-      <c r="C17" s="394" t="s">
-        <v>638</v>
       </c>
       <c r="D17" s="394" t="s">
         <v>635</v>
       </c>
       <c r="G17" s="391" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H17" s="394">
         <v>1</v>
       </c>
       <c r="I17" s="394">
-        <f t="shared" ref="I17" si="4">INT((B17-1-L17)/H17+1)</f>
-        <v>4</v>
+        <f>INT((B17-1-L17)/H17+1)</f>
+        <v>18</v>
       </c>
       <c r="J17" s="395">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="K17" s="392">
-        <f t="shared" ref="K17:K19" si="5">I17*J17</f>
-        <v>4.76</v>
+        <f t="shared" si="2"/>
+        <v>24.12</v>
       </c>
       <c r="L17" s="394">
         <v>0</v>
@@ -6013,29 +6028,30 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="394">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="394" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D18" s="394" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G18" s="391" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H18" s="394">
         <v>1</v>
       </c>
       <c r="I18" s="394">
-        <v>1</v>
+        <f>INT((B18-1-L18)/H18+1)</f>
+        <v>4</v>
       </c>
       <c r="J18" s="395">
-        <v>29.9</v>
+        <v>1.19</v>
       </c>
       <c r="K18" s="392">
-        <f t="shared" si="5"/>
-        <v>29.9</v>
+        <f t="shared" si="2"/>
+        <v>4.76</v>
       </c>
       <c r="L18" s="394">
         <v>0</v>
@@ -6043,16 +6059,16 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="394">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C19" s="394" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D19" s="394" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G19" s="391" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="H19" s="394">
         <v>1</v>
@@ -6061,11 +6077,11 @@
         <v>1</v>
       </c>
       <c r="J19" s="395">
-        <v>0.9</v>
+        <v>29.9</v>
       </c>
       <c r="K19" s="392">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
+        <f t="shared" si="2"/>
+        <v>29.9</v>
       </c>
       <c r="L19" s="394">
         <v>0</v>
@@ -6073,27 +6089,47 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="394">
+        <v>9</v>
+      </c>
+      <c r="C20" s="394" t="s">
+        <v>647</v>
+      </c>
+      <c r="D20" s="394" t="s">
+        <v>648</v>
+      </c>
+      <c r="G20" s="391" t="s">
+        <v>646</v>
+      </c>
+      <c r="H20" s="394">
+        <v>1</v>
+      </c>
+      <c r="I20" s="394">
+        <v>1</v>
+      </c>
+      <c r="J20" s="395">
+        <v>0.9</v>
+      </c>
+      <c r="K20" s="392">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="L20" s="394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="394">
         <v>3</v>
       </c>
-      <c r="C20" s="394" t="s">
+      <c r="C21" s="394" t="s">
         <v>645</v>
       </c>
-      <c r="D20" s="394" t="s">
+      <c r="D21" s="394" t="s">
         <v>644</v>
       </c>
-      <c r="G20" s="391" t="s">
+      <c r="G21" s="391" t="s">
         <v>643</v>
       </c>
-      <c r="H20" s="394"/>
-      <c r="I20" s="394"/>
-      <c r="J20" s="395"/>
-      <c r="K20" s="392"/>
-      <c r="L20" s="394"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="394"/>
-      <c r="C21" s="394"/>
-      <c r="D21" s="394"/>
       <c r="H21" s="394"/>
       <c r="I21" s="394"/>
       <c r="J21" s="395"/>
@@ -6101,8 +6137,56 @@
       <c r="L21" s="394"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K22" s="393">
-        <f>SUM(K3:K17)</f>
+      <c r="B22" s="394">
+        <v>3</v>
+      </c>
+      <c r="C22" s="394" t="s">
+        <v>651</v>
+      </c>
+      <c r="D22" s="394" t="s">
+        <v>650</v>
+      </c>
+      <c r="G22" s="391" t="s">
+        <v>649</v>
+      </c>
+      <c r="H22" s="394"/>
+      <c r="I22" s="394"/>
+      <c r="J22" s="395"/>
+      <c r="K22" s="392"/>
+      <c r="L22" s="394"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="394">
+        <v>3</v>
+      </c>
+      <c r="C23" s="394" t="s">
+        <v>653</v>
+      </c>
+      <c r="D23" s="394" t="s">
+        <v>654</v>
+      </c>
+      <c r="G23" s="391" t="s">
+        <v>652</v>
+      </c>
+      <c r="H23" s="394"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="395"/>
+      <c r="K23" s="392"/>
+      <c r="L23" s="394"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="394"/>
+      <c r="C24" s="394"/>
+      <c r="D24" s="394"/>
+      <c r="H24" s="394"/>
+      <c r="I24" s="394"/>
+      <c r="J24" s="395"/>
+      <c r="K24" s="392"/>
+      <c r="L24" s="394"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K25" s="393">
+        <f>SUM(K3:K18)</f>
         <v>192.82999999999998</v>
       </c>
     </row>
@@ -6205,19 +6289,19 @@
         <v>-0.32360679774997897</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:F7" si="0">$B$3*COS(RADIANS(C6))</f>
+        <f>$B$3*COS(RADIANS(C6))</f>
         <v>0.12360679774997899</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f>$B$3*COS(RADIANS(D6))</f>
         <v>0.4</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f>$B$3*COS(RADIANS(E6))</f>
         <v>0.12360679774997899</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f>$B$3*COS(RADIANS(F6))</f>
         <v>-0.32360679774997897</v>
       </c>
     </row>
@@ -6230,19 +6314,19 @@
         <v>-0.23511410091698931</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:F8" si="1">$B$3*SIN(RADIANS(C6))</f>
+        <f>$B$3*SIN(RADIANS(C6))</f>
         <v>-0.38042260651806142</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f>$B$3*SIN(RADIANS(D6))</f>
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
+        <f>$B$3*SIN(RADIANS(E6))</f>
         <v>0.38042260651806142</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f>$B$3*SIN(RADIANS(F6))</f>
         <v>0.23511410091698931</v>
       </c>
     </row>
@@ -6292,7 +6376,7 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="591" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -6304,7 +6388,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="397"/>
+      <c r="B2" s="591"/>
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
@@ -6314,7 +6398,7 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="399" t="s">
+      <c r="B4" s="592" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6326,7 +6410,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="399"/>
+      <c r="B5" s="592"/>
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
@@ -6336,7 +6420,7 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="589" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6348,7 +6432,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="402"/>
+      <c r="B8" s="589"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
@@ -6358,7 +6442,7 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="590" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -6370,7 +6454,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="403"/>
+      <c r="B11" s="590"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
@@ -6380,7 +6464,7 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="400" t="s">
+      <c r="B13" s="593" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6392,7 +6476,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="400"/>
+      <c r="B14" s="593"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
@@ -6402,7 +6486,7 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="401" t="s">
+      <c r="B16" s="588" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -6414,7 +6498,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="401"/>
+      <c r="B17" s="588"/>
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
@@ -6424,7 +6508,7 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="406" t="s">
+      <c r="B19" s="586" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -6436,7 +6520,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="406"/>
+      <c r="B20" s="586"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
@@ -6446,7 +6530,7 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="407" t="s">
+      <c r="B22" s="587" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6458,7 +6542,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="407"/>
+      <c r="B23" s="587"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
@@ -6468,7 +6552,7 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="404" t="s">
+      <c r="B25" s="584" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6480,7 +6564,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="404"/>
+      <c r="B26" s="584"/>
       <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
@@ -6490,7 +6574,7 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="405" t="s">
+      <c r="B28" s="585" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6502,7 +6586,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="405"/>
+      <c r="B29" s="585"/>
       <c r="C29" s="24" t="s">
         <v>45</v>
       </c>
@@ -6512,7 +6596,7 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="410" t="s">
+      <c r="B31" s="582" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6524,7 +6608,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="410"/>
+      <c r="B32" s="582"/>
       <c r="C32" s="26" t="s">
         <v>48</v>
       </c>
@@ -6534,7 +6618,7 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="411" t="s">
+      <c r="B34" s="583" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6546,7 +6630,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="411"/>
+      <c r="B35" s="583"/>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
@@ -6556,7 +6640,7 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="408" t="s">
+      <c r="B37" s="580" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6568,7 +6652,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="408"/>
+      <c r="B38" s="580"/>
       <c r="C38" s="30" t="s">
         <v>54</v>
       </c>
@@ -6578,7 +6662,7 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="409" t="s">
+      <c r="B40" s="581" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6590,7 +6674,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="409"/>
+      <c r="B41" s="581"/>
       <c r="C41" s="32" t="s">
         <v>57</v>
       </c>
@@ -6600,7 +6684,7 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="414" t="s">
+      <c r="B43" s="578" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6612,7 +6696,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="414"/>
+      <c r="B44" s="578"/>
       <c r="C44" s="34" t="s">
         <v>60</v>
       </c>
@@ -6622,7 +6706,7 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="415" t="s">
+      <c r="B46" s="579" t="s">
         <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6634,7 +6718,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="415"/>
+      <c r="B47" s="579"/>
       <c r="C47" s="36" t="s">
         <v>63</v>
       </c>
@@ -6644,7 +6728,7 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="412" t="s">
+      <c r="B49" s="576" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6656,7 +6740,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="412"/>
+      <c r="B50" s="576"/>
       <c r="C50" s="38" t="s">
         <v>66</v>
       </c>
@@ -6666,7 +6750,7 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="413" t="s">
+      <c r="B52" s="577" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6678,7 +6762,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="413"/>
+      <c r="B53" s="577"/>
       <c r="C53" s="40" t="s">
         <v>69</v>
       </c>
@@ -6688,7 +6772,7 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="418" t="s">
+      <c r="B55" s="575" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6700,7 +6784,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="418"/>
+      <c r="B56" s="575"/>
       <c r="C56" s="42" t="s">
         <v>72</v>
       </c>
@@ -6710,7 +6794,7 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="418" t="s">
+      <c r="B58" s="575" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6722,7 +6806,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="418"/>
+      <c r="B59" s="575"/>
       <c r="C59" s="42" t="s">
         <v>72</v>
       </c>
@@ -6732,7 +6816,7 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="416" t="s">
+      <c r="B61" s="573" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6744,7 +6828,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="416"/>
+      <c r="B62" s="573"/>
       <c r="C62" s="44" t="s">
         <v>76</v>
       </c>
@@ -6754,7 +6838,7 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="417" t="s">
+      <c r="B64" s="574" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6766,7 +6850,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="417"/>
+      <c r="B65" s="574"/>
       <c r="C65" s="46" t="s">
         <v>79</v>
       </c>
@@ -6776,7 +6860,7 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="421" t="s">
+      <c r="B67" s="571" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6788,7 +6872,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="421"/>
+      <c r="B68" s="571"/>
       <c r="C68" s="48" t="s">
         <v>82</v>
       </c>
@@ -6798,7 +6882,7 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="422" t="s">
+      <c r="B70" s="572" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6810,7 +6894,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="422"/>
+      <c r="B71" s="572"/>
       <c r="C71" s="50" t="s">
         <v>85</v>
       </c>
@@ -6820,7 +6904,7 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="419" t="s">
+      <c r="B73" s="569" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6832,7 +6916,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="419"/>
+      <c r="B74" s="569"/>
       <c r="C74" s="52" t="s">
         <v>88</v>
       </c>
@@ -6842,7 +6926,7 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="420" t="s">
+      <c r="B76" s="570" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6854,7 +6938,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="420"/>
+      <c r="B77" s="570"/>
       <c r="C77" s="54" t="s">
         <v>91</v>
       </c>
@@ -6864,7 +6948,7 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="425" t="s">
+      <c r="B79" s="567" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6876,7 +6960,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="425"/>
+      <c r="B80" s="567"/>
       <c r="C80" s="56" t="s">
         <v>94</v>
       </c>
@@ -6886,7 +6970,7 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="426" t="s">
+      <c r="B82" s="568" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6898,7 +6982,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="426"/>
+      <c r="B83" s="568"/>
       <c r="C83" s="58" t="s">
         <v>97</v>
       </c>
@@ -6908,7 +6992,7 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="423" t="s">
+      <c r="B85" s="565" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6920,7 +7004,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="423"/>
+      <c r="B86" s="565"/>
       <c r="C86" s="60" t="s">
         <v>100</v>
       </c>
@@ -6930,7 +7014,7 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="424" t="s">
+      <c r="B88" s="566" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6942,7 +7026,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="424"/>
+      <c r="B89" s="566"/>
       <c r="C89" s="62" t="s">
         <v>103</v>
       </c>
@@ -6952,7 +7036,7 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="429" t="s">
+      <c r="B91" s="563" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6964,7 +7048,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="429"/>
+      <c r="B92" s="563"/>
       <c r="C92" s="64" t="s">
         <v>106</v>
       </c>
@@ -6974,7 +7058,7 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="430" t="s">
+      <c r="B94" s="564" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6986,7 +7070,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="430"/>
+      <c r="B95" s="564"/>
       <c r="C95" s="66" t="s">
         <v>109</v>
       </c>
@@ -6996,7 +7080,7 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="427" t="s">
+      <c r="B97" s="561" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -7008,7 +7092,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="427"/>
+      <c r="B98" s="561"/>
       <c r="C98" s="68" t="s">
         <v>112</v>
       </c>
@@ -7018,7 +7102,7 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="428" t="s">
+      <c r="B100" s="562" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -7030,7 +7114,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="428"/>
+      <c r="B101" s="562"/>
       <c r="C101" s="70" t="s">
         <v>115</v>
       </c>
@@ -7040,7 +7124,7 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="433" t="s">
+      <c r="B103" s="559" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -7052,7 +7136,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="433"/>
+      <c r="B104" s="559"/>
       <c r="C104" s="72" t="s">
         <v>118</v>
       </c>
@@ -7062,7 +7146,7 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="434" t="s">
+      <c r="B106" s="560" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -7074,7 +7158,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="434"/>
+      <c r="B107" s="560"/>
       <c r="C107" s="74" t="s">
         <v>121</v>
       </c>
@@ -7084,7 +7168,7 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="431" t="s">
+      <c r="B109" s="557" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -7096,7 +7180,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="431"/>
+      <c r="B110" s="557"/>
       <c r="C110" s="76" t="s">
         <v>124</v>
       </c>
@@ -7106,7 +7190,7 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="432" t="s">
+      <c r="B112" s="558" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -7118,7 +7202,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="432"/>
+      <c r="B113" s="558"/>
       <c r="C113" s="78" t="s">
         <v>127</v>
       </c>
@@ -7128,7 +7212,7 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="437" t="s">
+      <c r="B115" s="555" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -7140,7 +7224,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="437"/>
+      <c r="B116" s="555"/>
       <c r="C116" s="80" t="s">
         <v>130</v>
       </c>
@@ -7150,7 +7234,7 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="438" t="s">
+      <c r="B118" s="556" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -7162,7 +7246,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="438"/>
+      <c r="B119" s="556"/>
       <c r="C119" s="82" t="s">
         <v>133</v>
       </c>
@@ -7172,7 +7256,7 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="435" t="s">
+      <c r="B121" s="553" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -7184,7 +7268,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="435"/>
+      <c r="B122" s="553"/>
       <c r="C122" s="84" t="s">
         <v>136</v>
       </c>
@@ -7194,7 +7278,7 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="436" t="s">
+      <c r="B124" s="554" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -7206,7 +7290,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="436"/>
+      <c r="B125" s="554"/>
       <c r="C125" s="86" t="s">
         <v>139</v>
       </c>
@@ -7216,7 +7300,7 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="441" t="s">
+      <c r="B127" s="551" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -7228,7 +7312,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="441"/>
+      <c r="B128" s="551"/>
       <c r="C128" s="88" t="s">
         <v>142</v>
       </c>
@@ -7238,7 +7322,7 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="442" t="s">
+      <c r="B130" s="552" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -7250,7 +7334,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="442"/>
+      <c r="B131" s="552"/>
       <c r="C131" s="90" t="s">
         <v>145</v>
       </c>
@@ -7260,7 +7344,7 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="439" t="s">
+      <c r="B133" s="549" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -7272,7 +7356,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="439"/>
+      <c r="B134" s="549"/>
       <c r="C134" s="92" t="s">
         <v>148</v>
       </c>
@@ -7282,7 +7366,7 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="440" t="s">
+      <c r="B136" s="550" t="s">
         <v>149</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -7294,7 +7378,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="440"/>
+      <c r="B137" s="550"/>
       <c r="C137" s="94" t="s">
         <v>151</v>
       </c>
@@ -7304,7 +7388,7 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="445" t="s">
+      <c r="B139" s="547" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -7316,7 +7400,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="445"/>
+      <c r="B140" s="547"/>
       <c r="C140" s="96" t="s">
         <v>154</v>
       </c>
@@ -7326,7 +7410,7 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="446" t="s">
+      <c r="B142" s="548" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -7338,7 +7422,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="446"/>
+      <c r="B143" s="548"/>
       <c r="C143" s="98" t="s">
         <v>157</v>
       </c>
@@ -7348,7 +7432,7 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="443" t="s">
+      <c r="B145" s="545" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -7360,7 +7444,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="443"/>
+      <c r="B146" s="545"/>
       <c r="C146" s="100" t="s">
         <v>160</v>
       </c>
@@ -7370,7 +7454,7 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="444" t="s">
+      <c r="B148" s="546" t="s">
         <v>161</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -7382,7 +7466,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="444"/>
+      <c r="B149" s="546"/>
       <c r="C149" s="102" t="s">
         <v>163</v>
       </c>
@@ -7392,7 +7476,7 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="449" t="s">
+      <c r="B151" s="543" t="s">
         <v>164</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -7404,7 +7488,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="449"/>
+      <c r="B152" s="543"/>
       <c r="C152" s="104" t="s">
         <v>166</v>
       </c>
@@ -7414,7 +7498,7 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="450" t="s">
+      <c r="B154" s="544" t="s">
         <v>167</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -7426,7 +7510,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="450"/>
+      <c r="B155" s="544"/>
       <c r="C155" s="106" t="s">
         <v>169</v>
       </c>
@@ -7436,7 +7520,7 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="447" t="s">
+      <c r="B157" s="541" t="s">
         <v>170</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -7448,7 +7532,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="447"/>
+      <c r="B158" s="541"/>
       <c r="C158" s="108" t="s">
         <v>172</v>
       </c>
@@ -7458,7 +7542,7 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="448" t="s">
+      <c r="B160" s="542" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -7470,7 +7554,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="448"/>
+      <c r="B161" s="542"/>
       <c r="C161" s="110" t="s">
         <v>175</v>
       </c>
@@ -7480,7 +7564,7 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="453" t="s">
+      <c r="B163" s="539" t="s">
         <v>176</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7492,7 +7576,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="453"/>
+      <c r="B164" s="539"/>
       <c r="C164" s="112" t="s">
         <v>178</v>
       </c>
@@ -7502,7 +7586,7 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="454" t="s">
+      <c r="B166" s="540" t="s">
         <v>179</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7514,7 +7598,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="454"/>
+      <c r="B167" s="540"/>
       <c r="C167" s="114" t="s">
         <v>181</v>
       </c>
@@ -7524,7 +7608,7 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="451" t="s">
+      <c r="B169" s="537" t="s">
         <v>182</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7536,7 +7620,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="451"/>
+      <c r="B170" s="537"/>
       <c r="C170" s="116" t="s">
         <v>184</v>
       </c>
@@ -7546,7 +7630,7 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="452" t="s">
+      <c r="B172" s="538" t="s">
         <v>185</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7558,7 +7642,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="452"/>
+      <c r="B173" s="538"/>
       <c r="C173" s="118" t="s">
         <v>187</v>
       </c>
@@ -7568,7 +7652,7 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="457" t="s">
+      <c r="B175" s="535" t="s">
         <v>188</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7580,7 +7664,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="457"/>
+      <c r="B176" s="535"/>
       <c r="C176" s="120" t="s">
         <v>190</v>
       </c>
@@ -7590,7 +7674,7 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="458" t="s">
+      <c r="B178" s="536" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7602,7 +7686,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="458"/>
+      <c r="B179" s="536"/>
       <c r="C179" s="122" t="s">
         <v>193</v>
       </c>
@@ -7612,7 +7696,7 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="455" t="s">
+      <c r="B181" s="533" t="s">
         <v>194</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7624,7 +7708,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="455"/>
+      <c r="B182" s="533"/>
       <c r="C182" s="124" t="s">
         <v>196</v>
       </c>
@@ -7634,7 +7718,7 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="456" t="s">
+      <c r="B184" s="534" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7646,7 +7730,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="456"/>
+      <c r="B185" s="534"/>
       <c r="C185" s="126" t="s">
         <v>199</v>
       </c>
@@ -7656,7 +7740,7 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="461" t="s">
+      <c r="B187" s="531" t="s">
         <v>200</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7668,7 +7752,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="461"/>
+      <c r="B188" s="531"/>
       <c r="C188" s="128" t="s">
         <v>202</v>
       </c>
@@ -7678,7 +7762,7 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="462" t="s">
+      <c r="B190" s="532" t="s">
         <v>203</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7690,7 +7774,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="462"/>
+      <c r="B191" s="532"/>
       <c r="C191" s="130" t="s">
         <v>205</v>
       </c>
@@ -7700,7 +7784,7 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="459" t="s">
+      <c r="B193" s="529" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7712,7 +7796,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="459"/>
+      <c r="B194" s="529"/>
       <c r="C194" s="132" t="s">
         <v>208</v>
       </c>
@@ -7722,7 +7806,7 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="460" t="s">
+      <c r="B196" s="530" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7734,7 +7818,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="460"/>
+      <c r="B197" s="530"/>
       <c r="C197" s="134" t="s">
         <v>211</v>
       </c>
@@ -7744,7 +7828,7 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="465" t="s">
+      <c r="B199" s="527" t="s">
         <v>212</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7756,7 +7840,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="465"/>
+      <c r="B200" s="527"/>
       <c r="C200" s="136" t="s">
         <v>214</v>
       </c>
@@ -7766,7 +7850,7 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="466" t="s">
+      <c r="B202" s="528" t="s">
         <v>215</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7778,7 +7862,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="466"/>
+      <c r="B203" s="528"/>
       <c r="C203" s="138" t="s">
         <v>217</v>
       </c>
@@ -7788,7 +7872,7 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="463" t="s">
+      <c r="B205" s="525" t="s">
         <v>218</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7800,7 +7884,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="463"/>
+      <c r="B206" s="525"/>
       <c r="C206" s="140" t="s">
         <v>220</v>
       </c>
@@ -7810,7 +7894,7 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="464" t="s">
+      <c r="B208" s="526" t="s">
         <v>221</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7822,7 +7906,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="464"/>
+      <c r="B209" s="526"/>
       <c r="C209" s="142" t="s">
         <v>223</v>
       </c>
@@ -7832,7 +7916,7 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="469" t="s">
+      <c r="B211" s="523" t="s">
         <v>224</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7844,7 +7928,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="469"/>
+      <c r="B212" s="523"/>
       <c r="C212" s="144" t="s">
         <v>226</v>
       </c>
@@ -7854,7 +7938,7 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="470" t="s">
+      <c r="B214" s="524" t="s">
         <v>227</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7866,7 +7950,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="470"/>
+      <c r="B215" s="524"/>
       <c r="C215" s="146" t="s">
         <v>229</v>
       </c>
@@ -7876,7 +7960,7 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="467" t="s">
+      <c r="B217" s="521" t="s">
         <v>230</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7888,7 +7972,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="467"/>
+      <c r="B218" s="521"/>
       <c r="C218" s="148" t="s">
         <v>232</v>
       </c>
@@ -7898,7 +7982,7 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="468" t="s">
+      <c r="B220" s="522" t="s">
         <v>233</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7910,7 +7994,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="468"/>
+      <c r="B221" s="522"/>
       <c r="C221" s="150" t="s">
         <v>235</v>
       </c>
@@ -7920,7 +8004,7 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="473" t="s">
+      <c r="B223" s="519" t="s">
         <v>236</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7932,7 +8016,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="473"/>
+      <c r="B224" s="519"/>
       <c r="C224" s="152" t="s">
         <v>238</v>
       </c>
@@ -7942,7 +8026,7 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="474" t="s">
+      <c r="B226" s="520" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7954,7 +8038,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="474"/>
+      <c r="B227" s="520"/>
       <c r="C227" s="154" t="s">
         <v>241</v>
       </c>
@@ -7964,7 +8048,7 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="471" t="s">
+      <c r="B229" s="517" t="s">
         <v>242</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7976,7 +8060,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="471"/>
+      <c r="B230" s="517"/>
       <c r="C230" s="156" t="s">
         <v>244</v>
       </c>
@@ -7986,7 +8070,7 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="472" t="s">
+      <c r="B232" s="518" t="s">
         <v>245</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7998,7 +8082,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="472"/>
+      <c r="B233" s="518"/>
       <c r="C233" s="158" t="s">
         <v>247</v>
       </c>
@@ -8008,7 +8092,7 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="477" t="s">
+      <c r="B235" s="515" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -8020,7 +8104,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="477"/>
+      <c r="B236" s="515"/>
       <c r="C236" s="160" t="s">
         <v>250</v>
       </c>
@@ -8030,7 +8114,7 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="478" t="s">
+      <c r="B238" s="516" t="s">
         <v>251</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -8042,7 +8126,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="478"/>
+      <c r="B239" s="516"/>
       <c r="C239" s="162" t="s">
         <v>253</v>
       </c>
@@ -8052,7 +8136,7 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="475" t="s">
+      <c r="B241" s="513" t="s">
         <v>254</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -8064,7 +8148,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="475"/>
+      <c r="B242" s="513"/>
       <c r="C242" s="164" t="s">
         <v>256</v>
       </c>
@@ -8074,7 +8158,7 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="476" t="s">
+      <c r="B244" s="514" t="s">
         <v>257</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -8086,7 +8170,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="476"/>
+      <c r="B245" s="514"/>
       <c r="C245" s="166" t="s">
         <v>259</v>
       </c>
@@ -8096,7 +8180,7 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="481" t="s">
+      <c r="B247" s="511" t="s">
         <v>260</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -8108,7 +8192,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="481"/>
+      <c r="B248" s="511"/>
       <c r="C248" s="168" t="s">
         <v>262</v>
       </c>
@@ -8118,7 +8202,7 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="482" t="s">
+      <c r="B250" s="512" t="s">
         <v>263</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -8130,7 +8214,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="482"/>
+      <c r="B251" s="512"/>
       <c r="C251" s="170" t="s">
         <v>265</v>
       </c>
@@ -8140,7 +8224,7 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="479" t="s">
+      <c r="B253" s="509" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -8152,7 +8236,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="479"/>
+      <c r="B254" s="509"/>
       <c r="C254" s="172" t="s">
         <v>268</v>
       </c>
@@ -8162,7 +8246,7 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="480" t="s">
+      <c r="B256" s="510" t="s">
         <v>269</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -8174,7 +8258,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="480"/>
+      <c r="B257" s="510"/>
       <c r="C257" s="174" t="s">
         <v>271</v>
       </c>
@@ -8184,7 +8268,7 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="485" t="s">
+      <c r="B259" s="507" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -8196,7 +8280,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="485"/>
+      <c r="B260" s="507"/>
       <c r="C260" s="176" t="s">
         <v>274</v>
       </c>
@@ -8206,7 +8290,7 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="486" t="s">
+      <c r="B262" s="508" t="s">
         <v>275</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -8218,7 +8302,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="486"/>
+      <c r="B263" s="508"/>
       <c r="C263" s="178" t="s">
         <v>277</v>
       </c>
@@ -8228,7 +8312,7 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="483" t="s">
+      <c r="B265" s="505" t="s">
         <v>254</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -8240,7 +8324,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="483"/>
+      <c r="B266" s="505"/>
       <c r="C266" s="180" t="s">
         <v>279</v>
       </c>
@@ -8250,7 +8334,7 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="484" t="s">
+      <c r="B268" s="506" t="s">
         <v>280</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -8262,7 +8346,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="484"/>
+      <c r="B269" s="506"/>
       <c r="C269" s="182" t="s">
         <v>282</v>
       </c>
@@ -8272,7 +8356,7 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="489" t="s">
+      <c r="B271" s="503" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -8284,7 +8368,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="489"/>
+      <c r="B272" s="503"/>
       <c r="C272" s="184" t="s">
         <v>285</v>
       </c>
@@ -8294,7 +8378,7 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="490" t="s">
+      <c r="B274" s="504" t="s">
         <v>286</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -8306,7 +8390,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="490"/>
+      <c r="B275" s="504"/>
       <c r="C275" s="186" t="s">
         <v>288</v>
       </c>
@@ -8316,7 +8400,7 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="487" t="s">
+      <c r="B277" s="501" t="s">
         <v>289</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -8328,7 +8412,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="487"/>
+      <c r="B278" s="501"/>
       <c r="C278" s="188" t="s">
         <v>291</v>
       </c>
@@ -8338,7 +8422,7 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="488" t="s">
+      <c r="B280" s="502" t="s">
         <v>292</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -8350,7 +8434,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="488"/>
+      <c r="B281" s="502"/>
       <c r="C281" s="190" t="s">
         <v>294</v>
       </c>
@@ -8360,7 +8444,7 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="493" t="s">
+      <c r="B283" s="499" t="s">
         <v>295</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -8372,7 +8456,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="493"/>
+      <c r="B284" s="499"/>
       <c r="C284" s="192" t="s">
         <v>297</v>
       </c>
@@ -8382,7 +8466,7 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="494" t="s">
+      <c r="B286" s="500" t="s">
         <v>298</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -8394,7 +8478,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="494"/>
+      <c r="B287" s="500"/>
       <c r="C287" s="194" t="s">
         <v>300</v>
       </c>
@@ -8404,7 +8488,7 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="491" t="s">
+      <c r="B289" s="497" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -8416,7 +8500,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="491"/>
+      <c r="B290" s="497"/>
       <c r="C290" s="196" t="s">
         <v>303</v>
       </c>
@@ -8426,7 +8510,7 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="492" t="s">
+      <c r="B292" s="498" t="s">
         <v>304</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -8438,7 +8522,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="492"/>
+      <c r="B293" s="498"/>
       <c r="C293" s="198" t="s">
         <v>306</v>
       </c>
@@ -8448,7 +8532,7 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="497" t="s">
+      <c r="B295" s="495" t="s">
         <v>307</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -8460,7 +8544,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="497"/>
+      <c r="B296" s="495"/>
       <c r="C296" s="200" t="s">
         <v>309</v>
       </c>
@@ -8470,7 +8554,7 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="498" t="s">
+      <c r="B298" s="496" t="s">
         <v>310</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8482,7 +8566,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="498"/>
+      <c r="B299" s="496"/>
       <c r="C299" s="202" t="s">
         <v>312</v>
       </c>
@@ -8492,7 +8576,7 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="495" t="s">
+      <c r="B301" s="493" t="s">
         <v>313</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8504,7 +8588,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="495"/>
+      <c r="B302" s="493"/>
       <c r="C302" s="204" t="s">
         <v>315</v>
       </c>
@@ -8514,7 +8598,7 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="496" t="s">
+      <c r="B304" s="494" t="s">
         <v>316</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8526,7 +8610,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="496"/>
+      <c r="B305" s="494"/>
       <c r="C305" s="206" t="s">
         <v>318</v>
       </c>
@@ -8536,7 +8620,7 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="501" t="s">
+      <c r="B307" s="491" t="s">
         <v>319</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8548,7 +8632,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="501"/>
+      <c r="B308" s="491"/>
       <c r="C308" s="208" t="s">
         <v>321</v>
       </c>
@@ -8558,7 +8642,7 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="502" t="s">
+      <c r="B310" s="492" t="s">
         <v>322</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8570,7 +8654,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="502"/>
+      <c r="B311" s="492"/>
       <c r="C311" s="210" t="s">
         <v>324</v>
       </c>
@@ -8580,7 +8664,7 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="499" t="s">
+      <c r="B313" s="489" t="s">
         <v>325</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8592,7 +8676,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="499"/>
+      <c r="B314" s="489"/>
       <c r="C314" s="212" t="s">
         <v>327</v>
       </c>
@@ -8602,7 +8686,7 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="500" t="s">
+      <c r="B316" s="490" t="s">
         <v>328</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8614,7 +8698,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="500"/>
+      <c r="B317" s="490"/>
       <c r="C317" s="214" t="s">
         <v>330</v>
       </c>
@@ -8624,7 +8708,7 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="505" t="s">
+      <c r="B319" s="487" t="s">
         <v>331</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8636,7 +8720,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="505"/>
+      <c r="B320" s="487"/>
       <c r="C320" s="216" t="s">
         <v>333</v>
       </c>
@@ -8646,7 +8730,7 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="506" t="s">
+      <c r="B322" s="488" t="s">
         <v>334</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8658,7 +8742,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="506"/>
+      <c r="B323" s="488"/>
       <c r="C323" s="218" t="s">
         <v>336</v>
       </c>
@@ -8668,7 +8752,7 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="503" t="s">
+      <c r="B325" s="485" t="s">
         <v>337</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8680,7 +8764,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="503"/>
+      <c r="B326" s="485"/>
       <c r="C326" s="220" t="s">
         <v>339</v>
       </c>
@@ -8690,7 +8774,7 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="504" t="s">
+      <c r="B328" s="486" t="s">
         <v>340</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8702,7 +8786,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="504"/>
+      <c r="B329" s="486"/>
       <c r="C329" s="222" t="s">
         <v>342</v>
       </c>
@@ -8712,7 +8796,7 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="509" t="s">
+      <c r="B331" s="483" t="s">
         <v>343</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8724,7 +8808,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="509"/>
+      <c r="B332" s="483"/>
       <c r="C332" s="224" t="s">
         <v>345</v>
       </c>
@@ -8734,7 +8818,7 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="510" t="s">
+      <c r="B334" s="484" t="s">
         <v>346</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8746,7 +8830,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="510"/>
+      <c r="B335" s="484"/>
       <c r="C335" s="226" t="s">
         <v>348</v>
       </c>
@@ -8756,7 +8840,7 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="507" t="s">
+      <c r="B337" s="481" t="s">
         <v>349</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8768,7 +8852,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="507"/>
+      <c r="B338" s="481"/>
       <c r="C338" s="228" t="s">
         <v>351</v>
       </c>
@@ -8778,7 +8862,7 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="508" t="s">
+      <c r="B340" s="482" t="s">
         <v>352</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8790,7 +8874,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="508"/>
+      <c r="B341" s="482"/>
       <c r="C341" s="230" t="s">
         <v>354</v>
       </c>
@@ -8800,7 +8884,7 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="513" t="s">
+      <c r="B343" s="479" t="s">
         <v>355</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8812,7 +8896,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="513"/>
+      <c r="B344" s="479"/>
       <c r="C344" s="232" t="s">
         <v>357</v>
       </c>
@@ -8822,7 +8906,7 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="514" t="s">
+      <c r="B346" s="480" t="s">
         <v>358</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8834,7 +8918,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="514"/>
+      <c r="B347" s="480"/>
       <c r="C347" s="234" t="s">
         <v>360</v>
       </c>
@@ -8844,7 +8928,7 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="511" t="s">
+      <c r="B349" s="477" t="s">
         <v>361</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8856,7 +8940,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="511"/>
+      <c r="B350" s="477"/>
       <c r="C350" s="236" t="s">
         <v>363</v>
       </c>
@@ -8866,7 +8950,7 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="512" t="s">
+      <c r="B352" s="478" t="s">
         <v>364</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8878,7 +8962,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="512"/>
+      <c r="B353" s="478"/>
       <c r="C353" s="238" t="s">
         <v>366</v>
       </c>
@@ -8888,7 +8972,7 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="517" t="s">
+      <c r="B355" s="475" t="s">
         <v>367</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8900,7 +8984,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="517"/>
+      <c r="B356" s="475"/>
       <c r="C356" s="240" t="s">
         <v>369</v>
       </c>
@@ -8910,7 +8994,7 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="518" t="s">
+      <c r="B358" s="476" t="s">
         <v>370</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8922,7 +9006,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="518"/>
+      <c r="B359" s="476"/>
       <c r="C359" s="242" t="s">
         <v>372</v>
       </c>
@@ -8932,7 +9016,7 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="515" t="s">
+      <c r="B361" s="473" t="s">
         <v>373</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8944,7 +9028,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="515"/>
+      <c r="B362" s="473"/>
       <c r="C362" s="244" t="s">
         <v>375</v>
       </c>
@@ -8954,7 +9038,7 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="516" t="s">
+      <c r="B364" s="474" t="s">
         <v>376</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8966,7 +9050,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="516"/>
+      <c r="B365" s="474"/>
       <c r="C365" s="246" t="s">
         <v>378</v>
       </c>
@@ -8976,7 +9060,7 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="521" t="s">
+      <c r="B367" s="471" t="s">
         <v>379</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8988,7 +9072,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="521"/>
+      <c r="B368" s="471"/>
       <c r="C368" s="248" t="s">
         <v>381</v>
       </c>
@@ -8998,7 +9082,7 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="522" t="s">
+      <c r="B370" s="472" t="s">
         <v>382</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -9010,7 +9094,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="522"/>
+      <c r="B371" s="472"/>
       <c r="C371" s="250" t="s">
         <v>384</v>
       </c>
@@ -9020,7 +9104,7 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="519" t="s">
+      <c r="B373" s="469" t="s">
         <v>385</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -9032,7 +9116,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="519"/>
+      <c r="B374" s="469"/>
       <c r="C374" s="252" t="s">
         <v>387</v>
       </c>
@@ -9042,7 +9126,7 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="520" t="s">
+      <c r="B376" s="470" t="s">
         <v>388</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -9054,7 +9138,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="520"/>
+      <c r="B377" s="470"/>
       <c r="C377" s="254" t="s">
         <v>390</v>
       </c>
@@ -9064,7 +9148,7 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="525" t="s">
+      <c r="B379" s="467" t="s">
         <v>391</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -9076,7 +9160,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="525"/>
+      <c r="B380" s="467"/>
       <c r="C380" s="256" t="s">
         <v>393</v>
       </c>
@@ -9086,7 +9170,7 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="526" t="s">
+      <c r="B382" s="468" t="s">
         <v>394</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -9098,7 +9182,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="526"/>
+      <c r="B383" s="468"/>
       <c r="C383" s="258" t="s">
         <v>396</v>
       </c>
@@ -9108,7 +9192,7 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="523" t="s">
+      <c r="B385" s="465" t="s">
         <v>397</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -9120,7 +9204,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="523"/>
+      <c r="B386" s="465"/>
       <c r="C386" s="260" t="s">
         <v>399</v>
       </c>
@@ -9130,7 +9214,7 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="524" t="s">
+      <c r="B388" s="466" t="s">
         <v>400</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -9142,7 +9226,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="524"/>
+      <c r="B389" s="466"/>
       <c r="C389" s="262" t="s">
         <v>402</v>
       </c>
@@ -9152,7 +9236,7 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="529" t="s">
+      <c r="B391" s="463" t="s">
         <v>403</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -9164,7 +9248,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="529"/>
+      <c r="B392" s="463"/>
       <c r="C392" s="264" t="s">
         <v>405</v>
       </c>
@@ -9174,7 +9258,7 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="530" t="s">
+      <c r="B394" s="464" t="s">
         <v>406</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -9186,7 +9270,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="530"/>
+      <c r="B395" s="464"/>
       <c r="C395" s="266" t="s">
         <v>408</v>
       </c>
@@ -9196,7 +9280,7 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="527" t="s">
+      <c r="B397" s="461" t="s">
         <v>409</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -9208,7 +9292,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="527"/>
+      <c r="B398" s="461"/>
       <c r="C398" s="268" t="s">
         <v>411</v>
       </c>
@@ -9218,7 +9302,7 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="528" t="s">
+      <c r="B400" s="462" t="s">
         <v>412</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -9230,7 +9314,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="528"/>
+      <c r="B401" s="462"/>
       <c r="C401" s="270" t="s">
         <v>414</v>
       </c>
@@ -9240,7 +9324,7 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="533" t="s">
+      <c r="B403" s="459" t="s">
         <v>415</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -9252,7 +9336,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="533"/>
+      <c r="B404" s="459"/>
       <c r="C404" s="272" t="s">
         <v>417</v>
       </c>
@@ -9262,7 +9346,7 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="534" t="s">
+      <c r="B406" s="460" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -9274,7 +9358,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="534"/>
+      <c r="B407" s="460"/>
       <c r="C407" s="274" t="s">
         <v>420</v>
       </c>
@@ -9284,7 +9368,7 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="531" t="s">
+      <c r="B409" s="457" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -9296,7 +9380,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="531"/>
+      <c r="B410" s="457"/>
       <c r="C410" s="276" t="s">
         <v>423</v>
       </c>
@@ -9306,7 +9390,7 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="532" t="s">
+      <c r="B412" s="458" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -9318,7 +9402,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="532"/>
+      <c r="B413" s="458"/>
       <c r="C413" s="278" t="s">
         <v>426</v>
       </c>
@@ -9328,7 +9412,7 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="537" t="s">
+      <c r="B415" s="455" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -9340,7 +9424,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="537"/>
+      <c r="B416" s="455"/>
       <c r="C416" s="280" t="s">
         <v>429</v>
       </c>
@@ -9350,7 +9434,7 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="538" t="s">
+      <c r="B418" s="456" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -9362,7 +9446,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="538"/>
+      <c r="B419" s="456"/>
       <c r="C419" s="282" t="s">
         <v>432</v>
       </c>
@@ -9372,7 +9456,7 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="535" t="s">
+      <c r="B421" s="453" t="s">
         <v>433</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -9384,7 +9468,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="535"/>
+      <c r="B422" s="453"/>
       <c r="C422" s="284" t="s">
         <v>435</v>
       </c>
@@ -9394,7 +9478,7 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="536" t="s">
+      <c r="B424" s="454" t="s">
         <v>436</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -9406,7 +9490,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="536"/>
+      <c r="B425" s="454"/>
       <c r="C425" s="286" t="s">
         <v>438</v>
       </c>
@@ -9416,7 +9500,7 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="541" t="s">
+      <c r="B427" s="451" t="s">
         <v>439</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -9428,7 +9512,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="541"/>
+      <c r="B428" s="451"/>
       <c r="C428" s="288" t="s">
         <v>441</v>
       </c>
@@ -9438,7 +9522,7 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="542" t="s">
+      <c r="B430" s="452" t="s">
         <v>442</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -9450,7 +9534,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="542"/>
+      <c r="B431" s="452"/>
       <c r="C431" s="290" t="s">
         <v>444</v>
       </c>
@@ -9460,7 +9544,7 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="539" t="s">
+      <c r="B433" s="449" t="s">
         <v>445</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -9472,7 +9556,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="539"/>
+      <c r="B434" s="449"/>
       <c r="C434" s="292" t="s">
         <v>447</v>
       </c>
@@ -9482,7 +9566,7 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="540" t="s">
+      <c r="B436" s="450" t="s">
         <v>448</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9494,7 +9578,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="540"/>
+      <c r="B437" s="450"/>
       <c r="C437" s="294" t="s">
         <v>450</v>
       </c>
@@ -9504,7 +9588,7 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="545" t="s">
+      <c r="B439" s="447" t="s">
         <v>451</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9516,7 +9600,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="545"/>
+      <c r="B440" s="447"/>
       <c r="C440" s="296" t="s">
         <v>453</v>
       </c>
@@ -9526,7 +9610,7 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="546" t="s">
+      <c r="B442" s="448" t="s">
         <v>454</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9538,7 +9622,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="546"/>
+      <c r="B443" s="448"/>
       <c r="C443" s="298" t="s">
         <v>456</v>
       </c>
@@ -9548,7 +9632,7 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="543" t="s">
+      <c r="B445" s="445" t="s">
         <v>457</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9560,7 +9644,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="543"/>
+      <c r="B446" s="445"/>
       <c r="C446" s="300" t="s">
         <v>459</v>
       </c>
@@ -9570,7 +9654,7 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="544" t="s">
+      <c r="B448" s="446" t="s">
         <v>460</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9582,7 +9666,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="544"/>
+      <c r="B449" s="446"/>
       <c r="C449" s="302" t="s">
         <v>462</v>
       </c>
@@ -9592,7 +9676,7 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="549" t="s">
+      <c r="B451" s="443" t="s">
         <v>463</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9604,7 +9688,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="549"/>
+      <c r="B452" s="443"/>
       <c r="C452" s="304" t="s">
         <v>465</v>
       </c>
@@ -9614,7 +9698,7 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="550" t="s">
+      <c r="B454" s="444" t="s">
         <v>466</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9626,7 +9710,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="550"/>
+      <c r="B455" s="444"/>
       <c r="C455" s="306" t="s">
         <v>468</v>
       </c>
@@ -9636,7 +9720,7 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="547" t="s">
+      <c r="B457" s="441" t="s">
         <v>469</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9648,7 +9732,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="547"/>
+      <c r="B458" s="441"/>
       <c r="C458" s="308" t="s">
         <v>471</v>
       </c>
@@ -9658,7 +9742,7 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="548" t="s">
+      <c r="B460" s="442" t="s">
         <v>472</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9670,7 +9754,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="548"/>
+      <c r="B461" s="442"/>
       <c r="C461" s="310" t="s">
         <v>474</v>
       </c>
@@ -9680,7 +9764,7 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="553" t="s">
+      <c r="B463" s="439" t="s">
         <v>475</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9692,7 +9776,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="553"/>
+      <c r="B464" s="439"/>
       <c r="C464" s="312" t="s">
         <v>477</v>
       </c>
@@ -9702,7 +9786,7 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="554" t="s">
+      <c r="B466" s="440" t="s">
         <v>478</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9714,7 +9798,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="554"/>
+      <c r="B467" s="440"/>
       <c r="C467" s="314" t="s">
         <v>480</v>
       </c>
@@ -9724,7 +9808,7 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="551" t="s">
+      <c r="B469" s="437" t="s">
         <v>481</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9736,7 +9820,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="551"/>
+      <c r="B470" s="437"/>
       <c r="C470" s="316" t="s">
         <v>483</v>
       </c>
@@ -9746,7 +9830,7 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="552" t="s">
+      <c r="B472" s="438" t="s">
         <v>484</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9758,7 +9842,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="552"/>
+      <c r="B473" s="438"/>
       <c r="C473" s="318" t="s">
         <v>486</v>
       </c>
@@ -9768,7 +9852,7 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="557" t="s">
+      <c r="B475" s="435" t="s">
         <v>487</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9780,7 +9864,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="557"/>
+      <c r="B476" s="435"/>
       <c r="C476" s="320" t="s">
         <v>489</v>
       </c>
@@ -9790,7 +9874,7 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="558" t="s">
+      <c r="B478" s="436" t="s">
         <v>490</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9802,7 +9886,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="558"/>
+      <c r="B479" s="436"/>
       <c r="C479" s="322" t="s">
         <v>492</v>
       </c>
@@ -9812,7 +9896,7 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="555" t="s">
+      <c r="B481" s="433" t="s">
         <v>493</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9824,7 +9908,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="555"/>
+      <c r="B482" s="433"/>
       <c r="C482" s="324" t="s">
         <v>495</v>
       </c>
@@ -9834,7 +9918,7 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="556" t="s">
+      <c r="B484" s="434" t="s">
         <v>496</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9846,7 +9930,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="556"/>
+      <c r="B485" s="434"/>
       <c r="C485" s="326" t="s">
         <v>498</v>
       </c>
@@ -9856,7 +9940,7 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="561" t="s">
+      <c r="B487" s="431" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9868,7 +9952,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="561"/>
+      <c r="B488" s="431"/>
       <c r="C488" s="328" t="s">
         <v>501</v>
       </c>
@@ -9878,7 +9962,7 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="562" t="s">
+      <c r="B490" s="432" t="s">
         <v>502</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9890,7 +9974,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="562"/>
+      <c r="B491" s="432"/>
       <c r="C491" s="330" t="s">
         <v>504</v>
       </c>
@@ -9900,7 +9984,7 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="559" t="s">
+      <c r="B493" s="429" t="s">
         <v>505</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9912,7 +9996,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="559"/>
+      <c r="B494" s="429"/>
       <c r="C494" s="332" t="s">
         <v>507</v>
       </c>
@@ -9922,7 +10006,7 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="560" t="s">
+      <c r="B496" s="430" t="s">
         <v>508</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9934,7 +10018,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="560"/>
+      <c r="B497" s="430"/>
       <c r="C497" s="334" t="s">
         <v>510</v>
       </c>
@@ -9944,7 +10028,7 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="565" t="s">
+      <c r="B499" s="427" t="s">
         <v>511</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9956,7 +10040,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="565"/>
+      <c r="B500" s="427"/>
       <c r="C500" s="336" t="s">
         <v>513</v>
       </c>
@@ -9966,7 +10050,7 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="566" t="s">
+      <c r="B502" s="428" t="s">
         <v>514</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9978,7 +10062,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="566"/>
+      <c r="B503" s="428"/>
       <c r="C503" s="338" t="s">
         <v>516</v>
       </c>
@@ -9988,7 +10072,7 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="563" t="s">
+      <c r="B505" s="425" t="s">
         <v>517</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -10000,7 +10084,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="563"/>
+      <c r="B506" s="425"/>
       <c r="C506" s="340" t="s">
         <v>519</v>
       </c>
@@ -10010,7 +10094,7 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="564" t="s">
+      <c r="B508" s="426" t="s">
         <v>520</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -10022,7 +10106,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="564"/>
+      <c r="B509" s="426"/>
       <c r="C509" s="342" t="s">
         <v>522</v>
       </c>
@@ -10032,7 +10116,7 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="569" t="s">
+      <c r="B511" s="423" t="s">
         <v>523</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -10044,7 +10128,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="569"/>
+      <c r="B512" s="423"/>
       <c r="C512" s="344" t="s">
         <v>525</v>
       </c>
@@ -10054,7 +10138,7 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="570" t="s">
+      <c r="B514" s="424" t="s">
         <v>526</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -10066,7 +10150,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="570"/>
+      <c r="B515" s="424"/>
       <c r="C515" s="346" t="s">
         <v>528</v>
       </c>
@@ -10076,7 +10160,7 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="567" t="s">
+      <c r="B517" s="421" t="s">
         <v>529</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -10088,7 +10172,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="567"/>
+      <c r="B518" s="421"/>
       <c r="C518" s="348" t="s">
         <v>531</v>
       </c>
@@ -10098,7 +10182,7 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="568" t="s">
+      <c r="B520" s="422" t="s">
         <v>532</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -10110,7 +10194,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="568"/>
+      <c r="B521" s="422"/>
       <c r="C521" s="350" t="s">
         <v>534</v>
       </c>
@@ -10120,7 +10204,7 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="573" t="s">
+      <c r="B523" s="419" t="s">
         <v>535</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -10132,7 +10216,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="573"/>
+      <c r="B524" s="419"/>
       <c r="C524" s="352" t="s">
         <v>537</v>
       </c>
@@ -10142,7 +10226,7 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="574" t="s">
+      <c r="B526" s="420" t="s">
         <v>538</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -10154,7 +10238,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="574"/>
+      <c r="B527" s="420"/>
       <c r="C527" s="354" t="s">
         <v>540</v>
       </c>
@@ -10164,7 +10248,7 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="571" t="s">
+      <c r="B529" s="417" t="s">
         <v>541</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -10176,7 +10260,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="571"/>
+      <c r="B530" s="417"/>
       <c r="C530" s="356" t="s">
         <v>543</v>
       </c>
@@ -10186,7 +10270,7 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="572" t="s">
+      <c r="B532" s="418" t="s">
         <v>544</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -10198,7 +10282,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="572"/>
+      <c r="B533" s="418"/>
       <c r="C533" s="358" t="s">
         <v>546</v>
       </c>
@@ -10208,7 +10292,7 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="577" t="s">
+      <c r="B535" s="415" t="s">
         <v>547</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -10220,7 +10304,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="577"/>
+      <c r="B536" s="415"/>
       <c r="C536" s="360" t="s">
         <v>549</v>
       </c>
@@ -10230,7 +10314,7 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="578" t="s">
+      <c r="B538" s="416" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -10242,7 +10326,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="578"/>
+      <c r="B539" s="416"/>
       <c r="C539" s="362" t="s">
         <v>552</v>
       </c>
@@ -10252,7 +10336,7 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="575" t="s">
+      <c r="B541" s="413" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -10264,7 +10348,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="575"/>
+      <c r="B542" s="413"/>
       <c r="C542" s="364" t="s">
         <v>555</v>
       </c>
@@ -10274,7 +10358,7 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="576" t="s">
+      <c r="B544" s="414" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -10286,7 +10370,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="576"/>
+      <c r="B545" s="414"/>
       <c r="C545" s="366" t="s">
         <v>558</v>
       </c>
@@ -10296,7 +10380,7 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="581" t="s">
+      <c r="B547" s="411" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -10308,7 +10392,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="581"/>
+      <c r="B548" s="411"/>
       <c r="C548" s="368" t="s">
         <v>561</v>
       </c>
@@ -10318,7 +10402,7 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="582" t="s">
+      <c r="B550" s="412" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -10330,7 +10414,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="582"/>
+      <c r="B551" s="412"/>
       <c r="C551" s="370" t="s">
         <v>564</v>
       </c>
@@ -10340,7 +10424,7 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="579" t="s">
+      <c r="B553" s="409" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -10352,7 +10436,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="579"/>
+      <c r="B554" s="409"/>
       <c r="C554" s="372" t="s">
         <v>567</v>
       </c>
@@ -10362,7 +10446,7 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="580" t="s">
+      <c r="B556" s="410" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -10374,7 +10458,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="580"/>
+      <c r="B557" s="410"/>
       <c r="C557" s="374" t="s">
         <v>570</v>
       </c>
@@ -10384,7 +10468,7 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="585" t="s">
+      <c r="B559" s="407" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -10396,7 +10480,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="585"/>
+      <c r="B560" s="407"/>
       <c r="C560" s="376" t="s">
         <v>573</v>
       </c>
@@ -10406,7 +10490,7 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="586" t="s">
+      <c r="B562" s="408" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -10418,7 +10502,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="586"/>
+      <c r="B563" s="408"/>
       <c r="C563" s="378" t="s">
         <v>576</v>
       </c>
@@ -10428,7 +10512,7 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="583" t="s">
+      <c r="B565" s="405" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -10440,7 +10524,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="583"/>
+      <c r="B566" s="405"/>
       <c r="C566" s="380" t="s">
         <v>579</v>
       </c>
@@ -10450,7 +10534,7 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="584" t="s">
+      <c r="B568" s="406" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -10462,7 +10546,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="584"/>
+      <c r="B569" s="406"/>
       <c r="C569" s="382" t="s">
         <v>582</v>
       </c>
@@ -10472,7 +10556,7 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="592" t="s">
+      <c r="B571" s="403" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10484,7 +10568,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="592"/>
+      <c r="B572" s="403"/>
       <c r="C572" s="384" t="s">
         <v>585</v>
       </c>
@@ -10494,7 +10578,7 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="593" t="s">
+      <c r="B574" s="404" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10506,7 +10590,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="593"/>
+      <c r="B575" s="404"/>
       <c r="C575" s="386" t="s">
         <v>588</v>
       </c>
@@ -10516,7 +10600,7 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="587" t="s">
+      <c r="B577" s="397" t="s">
         <v>589</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10528,7 +10612,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="587"/>
+      <c r="B578" s="397"/>
       <c r="C578" s="388" t="s">
         <v>591</v>
       </c>
@@ -10541,15 +10625,585 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="588"/>
-      <c r="B581" s="590"/>
+      <c r="A581" s="399"/>
+      <c r="B581" s="401"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="589"/>
-      <c r="B582" s="591"/>
+      <c r="A582" s="400"/>
+      <c r="B582" s="402"/>
     </row>
   </sheetData>
   <mergeCells count="582">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
     <mergeCell ref="A577:A578"/>
     <mergeCell ref="B577:B578"/>
     <mergeCell ref="D577:D578"/>
@@ -10562,576 +11216,6 @@
     <mergeCell ref="A574:A575"/>
     <mergeCell ref="B574:B575"/>
     <mergeCell ref="D574:D575"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE9E6ACA-3F98-4079-B5E9-317F93BD8982}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{04656479-5FE2-4DB5-9E36-A180C669FE7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="659">
   <si>
     <t>#</t>
   </si>
@@ -1982,6 +1982,24 @@
   </si>
   <si>
     <t>Drive Chain</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/1212</t>
+  </si>
+  <si>
+    <t>Pololu DC motor Driver 5A peak</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/3215</t>
+  </si>
+  <si>
+    <t>Pololu DC motor with Encoder 20.4:1, 5A, 0.6 Nm, 500RPM</t>
+  </si>
+  <si>
+    <t>Motor for lifting the enclosure</t>
+  </si>
+  <si>
+    <t>Driver for enclosure lifting motor</t>
   </si>
 </sst>
 </file>
@@ -5511,10 +5529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M42"/>
+  <dimension ref="B2:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5571,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="392" t="str">
-        <f>C35</f>
+        <f>C37</f>
         <v>2K Epoxy30 Glue</v>
       </c>
       <c r="D4" s="392" t="s">
@@ -5588,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="392" t="str">
-        <f>C36</f>
+        <f>C38</f>
         <v>Corundum (sharp-edged), 5kg, 0.15-0.2mm grain size</v>
       </c>
       <c r="D5" s="392" t="s">
@@ -5606,7 +5624,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="392" t="str">
-        <f>C37</f>
+        <f>C39</f>
         <v>Ball bearing 2x5x2.0</v>
       </c>
       <c r="D6" s="392" t="s">
@@ -5624,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="392" t="str">
-        <f>C38</f>
+        <f>C40</f>
         <v>Mounting Hub for 4mm axis</v>
       </c>
       <c r="D7" s="392" t="s">
@@ -5642,7 +5660,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="392" t="str">
-        <f>C39</f>
+        <f>C41</f>
         <v>AllenScrews M3, 8mm length, DIN 912</v>
       </c>
       <c r="D8" s="392" t="s">
@@ -5660,7 +5678,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="392" t="str">
-        <f>C40</f>
+        <f>C42</f>
         <v>AllenScrews M2, 8mm length, DIN 912</v>
       </c>
       <c r="D9" s="392" t="s">
@@ -5678,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="392" t="str">
-        <f>C41</f>
+        <f>C43</f>
         <v>Mounting Hub for 4mm axis</v>
       </c>
       <c r="D10" s="392" t="s">
@@ -5696,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="392" t="str">
-        <f>C42</f>
+        <f>C44</f>
         <v>Screw Nut M2 DIN 934</v>
       </c>
       <c r="D11" s="392" t="s">
@@ -5733,9 +5751,16 @@
       <c r="L13" s="392"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="392"/>
-      <c r="C14" s="392"/>
-      <c r="D14" s="392"/>
+      <c r="B14" s="392">
+        <v>1</v>
+      </c>
+      <c r="C14" s="392" t="str">
+        <f>C45</f>
+        <v>Pololu DC motor Driver 5A peak</v>
+      </c>
+      <c r="D14" s="392" t="s">
+        <v>658</v>
+      </c>
       <c r="H14" s="392"/>
       <c r="I14" s="392"/>
       <c r="J14" s="390"/>
@@ -5744,207 +5769,172 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="392">
+        <v>1</v>
+      </c>
+      <c r="C15" s="392" t="str">
+        <f>C46</f>
+        <v>Pololu DC motor with Encoder 20.4:1, 5A, 0.6 Nm, 500RPM</v>
+      </c>
+      <c r="D15" s="392" t="s">
+        <v>657</v>
+      </c>
+      <c r="H15" s="392"/>
+      <c r="I15" s="392"/>
+      <c r="J15" s="390"/>
+      <c r="K15" s="390"/>
+      <c r="L15" s="392"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="392"/>
+      <c r="C16" s="392"/>
+      <c r="D16" s="392"/>
+      <c r="H16" s="392"/>
+      <c r="I16" s="392"/>
+      <c r="J16" s="390"/>
+      <c r="K16" s="390"/>
+      <c r="L16" s="392"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="392">
         <v>2</v>
       </c>
-      <c r="C15" s="392" t="s">
+      <c r="C17" s="392" t="s">
         <v>597</v>
       </c>
-      <c r="D15" s="392" t="s">
+      <c r="D17" s="392" t="s">
         <v>598</v>
       </c>
-      <c r="G15" s="389" t="s">
+      <c r="G17" s="389" t="s">
         <v>596</v>
       </c>
-      <c r="H15" s="392">
+      <c r="H17" s="392">
         <v>1</v>
       </c>
-      <c r="I15" s="392">
-        <f t="shared" ref="I15:I21" si="0">INT((B15-1-L15)/H15+1)</f>
+      <c r="I17" s="392">
+        <f t="shared" ref="I17:I23" si="0">INT((B17-1-L17)/H17+1)</f>
         <v>2</v>
       </c>
-      <c r="J15" s="390">
+      <c r="J17" s="390">
         <v>2.34</v>
       </c>
-      <c r="K15" s="390">
-        <f t="shared" ref="K15:K21" si="1">I15*J15</f>
+      <c r="K17" s="390">
+        <f t="shared" ref="K17:K23" si="1">I17*J17</f>
         <v>4.68</v>
       </c>
-      <c r="L15" s="392">
+      <c r="L17" s="392">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="392">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="392">
         <v>1</v>
       </c>
-      <c r="C16" s="392" t="s">
+      <c r="C18" s="392" t="s">
         <v>599</v>
       </c>
-      <c r="D16" s="392" t="s">
+      <c r="D18" s="392" t="s">
         <v>600</v>
       </c>
-      <c r="G16" s="389" t="s">
+      <c r="G18" s="389" t="s">
         <v>596</v>
       </c>
-      <c r="H16" s="392">
+      <c r="H18" s="392">
         <v>1</v>
       </c>
-      <c r="I16" s="392">
+      <c r="I18" s="392">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="390">
+      <c r="J18" s="390">
         <v>2.59</v>
       </c>
-      <c r="K16" s="390">
+      <c r="K18" s="390">
         <f t="shared" si="1"/>
         <v>2.59</v>
       </c>
-      <c r="L16" s="392">
+      <c r="L18" s="392">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="392">
-        <v>3</v>
-      </c>
-      <c r="C17" s="392" t="s">
-        <v>604</v>
-      </c>
-      <c r="D17" s="392" t="s">
-        <v>602</v>
-      </c>
-      <c r="G17" s="389" t="s">
-        <v>603</v>
-      </c>
-      <c r="H17" s="392">
-        <v>1</v>
-      </c>
-      <c r="I17" s="392">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J17" s="390">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="K17" s="390">
-        <f t="shared" si="1"/>
-        <v>59.699999999999996</v>
-      </c>
-      <c r="L17" s="392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="392">
-        <v>3</v>
-      </c>
-      <c r="C18" s="392" t="s">
-        <v>637</v>
-      </c>
-      <c r="D18" s="392" t="s">
-        <v>636</v>
-      </c>
-      <c r="G18" s="389" t="s">
-        <v>635</v>
-      </c>
-      <c r="H18" s="392"/>
-      <c r="I18" s="392"/>
-      <c r="J18" s="390"/>
-      <c r="K18" s="390"/>
-      <c r="L18" s="392"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="392">
         <v>3</v>
       </c>
       <c r="C19" s="392" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D19" s="392" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G19" s="389" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H19" s="392">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19" s="392">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="393">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="J19" s="390">
+        <v>19.899999999999999</v>
       </c>
       <c r="K19" s="390">
         <f t="shared" si="1"/>
+        <v>59.699999999999996</v>
+      </c>
+      <c r="L19" s="392">
         <v>0</v>
-      </c>
-      <c r="L19" s="392">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="392">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20" s="392" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="D20" s="392" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="G20" s="389" t="s">
-        <v>616</v>
-      </c>
-      <c r="H20" s="392">
-        <v>1</v>
-      </c>
-      <c r="I20" s="392">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J20" s="393">
-        <v>1</v>
-      </c>
-      <c r="K20" s="390">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L20" s="392">
-        <v>4</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="H20" s="392"/>
+      <c r="I20" s="392"/>
+      <c r="J20" s="390"/>
+      <c r="K20" s="390"/>
+      <c r="L20" s="392"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="392">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C21" s="392" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D21" s="392" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G21" s="389" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="H21" s="392">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="I21" s="392">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="393">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K21" s="390">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="392">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
@@ -5955,172 +5945,196 @@
         <v>615</v>
       </c>
       <c r="D22" s="392" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="G22" s="389" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="H22" s="392">
         <v>1</v>
       </c>
       <c r="I22" s="392">
-        <f>INT((B22-1-L22)/H22+1)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="J22" s="393">
         <v>1</v>
       </c>
       <c r="K22" s="390">
-        <f t="shared" ref="K22:K25" si="2">I22*J22</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="L22" s="392">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="392">
+        <v>9</v>
+      </c>
+      <c r="C23" s="392" t="s">
+        <v>610</v>
+      </c>
+      <c r="D23" s="392" t="s">
+        <v>611</v>
+      </c>
+      <c r="G23" s="389" t="s">
+        <v>612</v>
+      </c>
+      <c r="H23" s="392">
+        <v>100</v>
+      </c>
+      <c r="I23" s="392">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="393">
+        <v>3</v>
+      </c>
+      <c r="K23" s="390">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L23" s="392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="392">
+        <v>9</v>
+      </c>
+      <c r="C24" s="392" t="s">
+        <v>615</v>
+      </c>
+      <c r="D24" s="392" t="s">
+        <v>617</v>
+      </c>
+      <c r="G24" s="389" t="s">
+        <v>609</v>
+      </c>
+      <c r="H24" s="392">
+        <v>1</v>
+      </c>
+      <c r="I24" s="392">
+        <f>INT((B24-1-L24)/H24+1)</f>
+        <v>3</v>
+      </c>
+      <c r="J24" s="393">
+        <v>1</v>
+      </c>
+      <c r="K24" s="390">
+        <f t="shared" ref="K24:K27" si="2">I24*J24</f>
+        <v>3</v>
+      </c>
+      <c r="L24" s="392">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="392">
         <f>3*2*3</f>
         <v>18</v>
       </c>
-      <c r="C23" s="392" t="s">
+      <c r="C25" s="392" t="s">
         <v>619</v>
       </c>
-      <c r="D23" s="392" t="s">
+      <c r="D25" s="392" t="s">
         <v>618</v>
       </c>
-      <c r="G23" s="389" t="s">
+      <c r="G25" s="389" t="s">
         <v>620</v>
       </c>
-      <c r="H23" s="392">
+      <c r="H25" s="392">
         <v>1</v>
       </c>
-      <c r="I23" s="392">
-        <f>INT((B23-1-L23)/H23+1)</f>
+      <c r="I25" s="392">
+        <f>INT((B25-1-L25)/H25+1)</f>
         <v>18</v>
       </c>
-      <c r="J23" s="393">
+      <c r="J25" s="393">
         <v>1.34</v>
       </c>
-      <c r="K23" s="390">
+      <c r="K25" s="390">
         <f t="shared" si="2"/>
         <v>24.12</v>
       </c>
-      <c r="L23" s="392">
+      <c r="L25" s="392">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="392">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="392">
         <v>4</v>
       </c>
-      <c r="C24" s="392" t="s">
+      <c r="C26" s="392" t="s">
         <v>621</v>
       </c>
-      <c r="D24" s="392" t="s">
+      <c r="D26" s="392" t="s">
         <v>618</v>
       </c>
-      <c r="G24" s="389" t="s">
+      <c r="G26" s="389" t="s">
         <v>622</v>
       </c>
-      <c r="H24" s="392">
+      <c r="H26" s="392">
         <v>1</v>
       </c>
-      <c r="I24" s="392">
-        <f>INT((B24-1-L24)/H24+1)</f>
+      <c r="I26" s="392">
+        <f>INT((B26-1-L26)/H26+1)</f>
         <v>4</v>
       </c>
-      <c r="J24" s="393">
+      <c r="J26" s="393">
         <v>1.19</v>
       </c>
-      <c r="K24" s="390">
+      <c r="K26" s="390">
         <f t="shared" si="2"/>
         <v>4.76</v>
       </c>
-      <c r="L24" s="392">
+      <c r="L26" s="392">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="392">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="392">
         <v>9</v>
       </c>
-      <c r="C25" s="392" t="s">
+      <c r="C27" s="392" t="s">
         <v>627</v>
       </c>
-      <c r="D25" s="392" t="s">
+      <c r="D27" s="392" t="s">
         <v>628</v>
       </c>
-      <c r="G25" s="389" t="s">
+      <c r="G27" s="389" t="s">
         <v>626</v>
       </c>
-      <c r="H25" s="392">
+      <c r="H27" s="392">
         <v>1</v>
       </c>
-      <c r="I25" s="392">
+      <c r="I27" s="392">
         <v>1</v>
       </c>
-      <c r="J25" s="393">
+      <c r="J27" s="393">
         <v>0.9</v>
       </c>
-      <c r="K25" s="390">
+      <c r="K27" s="390">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="L25" s="392">
+      <c r="L27" s="392">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="392">
-        <v>3</v>
-      </c>
-      <c r="C26" s="392" t="s">
-        <v>625</v>
-      </c>
-      <c r="D26" s="392" t="s">
-        <v>624</v>
-      </c>
-      <c r="G26" s="389" t="s">
-        <v>623</v>
-      </c>
-      <c r="H26" s="392"/>
-      <c r="I26" s="392"/>
-      <c r="J26" s="393"/>
-      <c r="K26" s="390"/>
-      <c r="L26" s="392"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="392">
-        <v>3</v>
-      </c>
-      <c r="C27" s="392" t="s">
-        <v>631</v>
-      </c>
-      <c r="D27" s="392" t="s">
-        <v>630</v>
-      </c>
-      <c r="G27" s="389" t="s">
-        <v>629</v>
-      </c>
-      <c r="H27" s="392"/>
-      <c r="I27" s="392"/>
-      <c r="J27" s="393"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="392"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="392">
         <v>3</v>
       </c>
       <c r="C28" s="392" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D28" s="392" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G28" s="389" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="H28" s="392"/>
       <c r="I28" s="392"/>
@@ -6129,9 +6143,18 @@
       <c r="L28" s="392"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="392"/>
-      <c r="C29" s="392"/>
-      <c r="D29" s="392"/>
+      <c r="B29" s="392">
+        <v>3</v>
+      </c>
+      <c r="C29" s="392" t="s">
+        <v>631</v>
+      </c>
+      <c r="D29" s="392" t="s">
+        <v>630</v>
+      </c>
+      <c r="G29" s="389" t="s">
+        <v>629</v>
+      </c>
       <c r="H29" s="392"/>
       <c r="I29" s="392"/>
       <c r="J29" s="393"/>
@@ -6139,244 +6162,220 @@
       <c r="L29" s="392"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K30" s="391">
-        <f>SUM(K4:K24)</f>
+      <c r="B30" s="392">
+        <v>3</v>
+      </c>
+      <c r="C30" s="392" t="s">
+        <v>633</v>
+      </c>
+      <c r="D30" s="392" t="s">
+        <v>634</v>
+      </c>
+      <c r="G30" s="389" t="s">
+        <v>632</v>
+      </c>
+      <c r="H30" s="392"/>
+      <c r="I30" s="392"/>
+      <c r="J30" s="393"/>
+      <c r="K30" s="390"/>
+      <c r="L30" s="392"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="392"/>
+      <c r="C31" s="392"/>
+      <c r="D31" s="392"/>
+      <c r="H31" s="392"/>
+      <c r="I31" s="392"/>
+      <c r="J31" s="393"/>
+      <c r="K31" s="390"/>
+      <c r="L31" s="392"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K32" s="391">
+        <f>SUM(K4:K26)</f>
         <v>106.85000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="H34" s="388" t="s">
+      <c r="H36" s="388" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="J34" s="388" t="s">
+      <c r="J36" s="388" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="388" t="s">
+      <c r="K36" s="388" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B35" s="389">
-        <f>SUMIF(C3:C33,C35,B3:B33)</f>
-        <v>1</v>
-      </c>
-      <c r="C35" s="392" t="s">
-        <v>646</v>
-      </c>
-      <c r="G35" s="394" t="s">
-        <v>589</v>
-      </c>
-      <c r="H35" s="389">
-        <v>1</v>
-      </c>
-      <c r="I35" s="392">
-        <f t="shared" ref="I35" si="3">INT((B35-1-L35)/H35+1)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="390">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="K35" s="390">
-        <f t="shared" ref="K35" si="4">I35*J35</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="389">
-        <f>SUMIF(C4:C34,C36,B4:B34)</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="392" t="s">
-        <v>644</v>
-      </c>
-      <c r="G36" s="394" t="s">
-        <v>590</v>
-      </c>
-      <c r="H36" s="389">
-        <v>1</v>
-      </c>
-      <c r="I36" s="392">
-        <f t="shared" ref="I36:I42" si="5">INT((B36-1-L36)/H36+1)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="390">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="K36" s="390">
-        <f t="shared" ref="K36:K42" si="6">I36*J36</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="392">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="389">
-        <f>SUMIF(C5:C35,C37,B5:B35)</f>
-        <v>72</v>
+        <f>SUMIF(C3:C35,C37,B3:B35)</f>
+        <v>1</v>
       </c>
       <c r="C37" s="392" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="G37" s="394" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H37" s="389">
         <v>1</v>
       </c>
       <c r="I37" s="392">
+        <f t="shared" ref="I37" si="3">INT((B37-1-L37)/H37+1)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="390">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K37" s="390">
+        <f t="shared" ref="K37" si="4">I37*J37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="389">
+        <f>SUMIF(C4:C36,C38,B4:B36)</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="392" t="s">
+        <v>644</v>
+      </c>
+      <c r="G38" s="394" t="s">
+        <v>590</v>
+      </c>
+      <c r="H38" s="389">
+        <v>1</v>
+      </c>
+      <c r="I38" s="392">
+        <f t="shared" ref="I38:I44" si="5">INT((B38-1-L38)/H38+1)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="390">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K38" s="390">
+        <f t="shared" ref="K38:K46" si="6">I38*J38</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="389">
+        <f>SUMIF(C5:C37,C39,B5:B37)</f>
+        <v>72</v>
+      </c>
+      <c r="C39" s="392" t="s">
+        <v>638</v>
+      </c>
+      <c r="G39" s="394" t="s">
+        <v>592</v>
+      </c>
+      <c r="H39" s="389">
+        <v>1</v>
+      </c>
+      <c r="I39" s="392">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J37" s="390">
+      <c r="J39" s="390">
         <v>0.81</v>
       </c>
-      <c r="K37" s="390">
+      <c r="K39" s="390">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L37" s="392">
+      <c r="L39" s="392">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="389">
-        <f>SUMIF(C6:C36,C38,B6:B36)</f>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="389">
+        <f>SUMIF(C6:C38,C40,B6:B38)</f>
         <v>6</v>
       </c>
-      <c r="C38" s="392" t="s">
+      <c r="C40" s="392" t="s">
         <v>595</v>
       </c>
-      <c r="G38" s="394" t="s">
+      <c r="G40" s="394" t="s">
         <v>593</v>
       </c>
-      <c r="H38" s="392">
+      <c r="H40" s="392">
         <v>1</v>
       </c>
-      <c r="I38" s="392">
+      <c r="I40" s="392">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J38" s="390">
+      <c r="J40" s="390">
         <v>0.87</v>
       </c>
-      <c r="K38" s="390">
+      <c r="K40" s="390">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L38" s="392">
+      <c r="L40" s="392">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="389">
-        <f>SUMIF(C7:C37,C39,B7:B37)</f>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="389">
+        <f>SUMIF(C7:C39,C41,B7:B39)</f>
         <v>4</v>
       </c>
-      <c r="C39" s="392" t="s">
+      <c r="C41" s="392" t="s">
         <v>649</v>
       </c>
-      <c r="G39" s="394" t="s">
+      <c r="G41" s="394" t="s">
         <v>642</v>
       </c>
-      <c r="H39" s="392">
+      <c r="H41" s="392">
         <v>50</v>
       </c>
-      <c r="I39" s="392">
+      <c r="I41" s="392">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J39" s="390">
+      <c r="J41" s="390">
         <v>3.5</v>
       </c>
-      <c r="K39" s="390">
+      <c r="K41" s="390">
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="L39" s="392">
+      <c r="L41" s="392">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B40" s="389">
-        <f>SUMIF(C8:C38,C40,B8:B38)</f>
-        <v>6</v>
-      </c>
-      <c r="C40" s="392" t="s">
-        <v>650</v>
-      </c>
-      <c r="G40" s="394" t="s">
-        <v>642</v>
-      </c>
-      <c r="H40" s="392">
-        <v>50</v>
-      </c>
-      <c r="I40" s="392">
-        <v>1</v>
-      </c>
-      <c r="J40" s="390">
-        <v>2.5</v>
-      </c>
-      <c r="K40" s="390">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="L40" s="392"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B41" s="389">
-        <f>SUMIF(C9:C39,C41,B9:B39)</f>
-        <v>9</v>
-      </c>
-      <c r="C41" s="392" t="s">
-        <v>595</v>
-      </c>
-      <c r="G41" s="394" t="s">
-        <v>593</v>
-      </c>
-      <c r="H41" s="392">
-        <v>50</v>
-      </c>
-      <c r="I41" s="392">
-        <v>1</v>
-      </c>
-      <c r="J41" s="390">
-        <v>2.5</v>
-      </c>
-      <c r="K41" s="390">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="L41" s="392"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="389">
-        <f>SUMIF(C10:C40,C42,B10:B40)</f>
+        <f>SUMIF(C8:C40,C42,B8:B40)</f>
         <v>6</v>
       </c>
       <c r="C42" s="392" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G42" s="394" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="H42" s="392">
         <v>50</v>
       </c>
       <c r="I42" s="392">
-        <f t="shared" ref="I42" si="7">INT((B42-1-L42)/H42+1)</f>
         <v>1</v>
       </c>
       <c r="J42" s="390">
@@ -6386,21 +6385,128 @@
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="L42" s="392">
+      <c r="L42" s="392"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="389">
+        <f>SUMIF(C9:C41,C43,B9:B41)</f>
+        <v>9</v>
+      </c>
+      <c r="C43" s="392" t="s">
+        <v>595</v>
+      </c>
+      <c r="G43" s="394" t="s">
+        <v>593</v>
+      </c>
+      <c r="H43" s="392">
+        <v>50</v>
+      </c>
+      <c r="I43" s="392">
+        <v>1</v>
+      </c>
+      <c r="J43" s="390">
+        <v>2.5</v>
+      </c>
+      <c r="K43" s="390">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="L43" s="392"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="389">
+        <f>SUMIF(C10:C42,C44,B10:B42)</f>
+        <v>6</v>
+      </c>
+      <c r="C44" s="392" t="s">
+        <v>648</v>
+      </c>
+      <c r="G44" s="394" t="s">
+        <v>651</v>
+      </c>
+      <c r="H44" s="392">
+        <v>50</v>
+      </c>
+      <c r="I44" s="392">
+        <f t="shared" ref="I44:I46" si="7">INT((B44-1-L44)/H44+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="390">
+        <v>2.5</v>
+      </c>
+      <c r="K44" s="390">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="L44" s="392">
         <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="389">
+        <f>SUMIF(C11:C43,C45,B11:B43)</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="392" t="s">
+        <v>654</v>
+      </c>
+      <c r="G45" s="394" t="s">
+        <v>653</v>
+      </c>
+      <c r="H45" s="392">
+        <v>1</v>
+      </c>
+      <c r="I45" s="392">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J45" s="393">
+        <v>16</v>
+      </c>
+      <c r="K45" s="390">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B46" s="389">
+        <f>SUMIF(C12:C44,C46,B12:B44)</f>
+        <v>1</v>
+      </c>
+      <c r="C46" s="392" t="s">
+        <v>656</v>
+      </c>
+      <c r="G46" s="394" t="s">
+        <v>655</v>
+      </c>
+      <c r="H46" s="392">
+        <v>1</v>
+      </c>
+      <c r="I46" s="392">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J46" s="393">
+        <v>40</v>
+      </c>
+      <c r="K46" s="390">
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G35" r:id="rId1" xr:uid="{FE10B036-0D34-4504-8CFC-EA8B9F0DA67C}"/>
-    <hyperlink ref="G36" r:id="rId2" xr:uid="{C0B6CCD9-B1F9-4358-A341-26DC5EC581DE}"/>
-    <hyperlink ref="G37" r:id="rId3" xr:uid="{EEABC8F8-F35A-4385-A7D1-6E733534D50D}"/>
-    <hyperlink ref="G38" r:id="rId4" xr:uid="{5536515F-43B0-4E8F-A55E-94437EDEA95D}"/>
-    <hyperlink ref="G41" r:id="rId5" xr:uid="{D9F2C8A8-1B09-4196-94AE-10752DEC988E}"/>
-    <hyperlink ref="G42" r:id="rId6" xr:uid="{5E1808DE-E5DE-4C5F-87AC-D0EE66B7C913}"/>
+    <hyperlink ref="G37" r:id="rId1" xr:uid="{FE10B036-0D34-4504-8CFC-EA8B9F0DA67C}"/>
+    <hyperlink ref="G38" r:id="rId2" xr:uid="{C0B6CCD9-B1F9-4358-A341-26DC5EC581DE}"/>
+    <hyperlink ref="G39" r:id="rId3" xr:uid="{EEABC8F8-F35A-4385-A7D1-6E733534D50D}"/>
+    <hyperlink ref="G40" r:id="rId4" xr:uid="{5536515F-43B0-4E8F-A55E-94437EDEA95D}"/>
+    <hyperlink ref="G43" r:id="rId5" xr:uid="{D9F2C8A8-1B09-4196-94AE-10752DEC988E}"/>
+    <hyperlink ref="G44" r:id="rId6" xr:uid="{5E1808DE-E5DE-4C5F-87AC-D0EE66B7C913}"/>
+    <hyperlink ref="G45" r:id="rId7" xr:uid="{55D68D47-EF2A-47F5-9109-2EC3F7DE4090}"/>
+    <hyperlink ref="G46" r:id="rId8" xr:uid="{66F41CE0-9CD1-46CD-A10F-C8EBE2EA16C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{04656479-5FE2-4DB5-9E36-A180C669FE7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A9579121-EC50-4573-818B-7449482847FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="659">
   <si>
     <t>#</t>
   </si>
@@ -4415,13 +4415,581 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4442,574 +5010,6 @@
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0"